--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -50,28 +50,28 @@
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330675125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028348922729</t>
+    <t xml:space="preserve">13.2330665588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
     <t xml:space="preserve">13.1437149047852</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402900695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777433395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241306304932</t>
+    <t xml:space="preserve">13.3402881622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777414321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241325378418</t>
   </si>
   <si>
     <t xml:space="preserve">13.3939008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3134822845459</t>
+    <t xml:space="preserve">13.3134832382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.000750541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650096893311</t>
+    <t xml:space="preserve">12.8667230606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0007514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650106430054</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986671447754</t>
+    <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467668533325</t>
+    <t xml:space="preserve">12.4467678070068</t>
   </si>
   <si>
     <t xml:space="preserve">12.4110269546509</t>
@@ -110,34 +110,34 @@
     <t xml:space="preserve">11.1690311431885</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226419448853</t>
+    <t xml:space="preserve">11.2226428985596</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7051429748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663501739502</t>
+    <t xml:space="preserve">11.7051448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663492202759</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752841949463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519041061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412548065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965799331665</t>
+    <t xml:space="preserve">12.1519050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965808868408</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769975662231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3484792709351</t>
+    <t xml:space="preserve">12.3484783172607</t>
   </si>
   <si>
     <t xml:space="preserve">12.0625524520874</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">12.4020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0893573760986</t>
+    <t xml:space="preserve">12.0893583297729</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306093215942</t>
@@ -155,25 +155,25 @@
     <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.956075668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811681747437</t>
+    <t xml:space="preserve">12.9560737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811672210693</t>
   </si>
   <si>
     <t xml:space="preserve">13.4564476013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4117708206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832534790039</t>
+    <t xml:space="preserve">13.4475145339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581590652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.411771774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832525253296</t>
   </si>
   <si>
     <t xml:space="preserve">13.0364923477173</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">13.1794557571411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1883907318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921894073486</t>
+    <t xml:space="preserve">13.1883897781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492231369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921884536743</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688074111938</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104303359985</t>
+    <t xml:space="preserve">14.0104312896729</t>
   </si>
   <si>
     <t xml:space="preserve">13.7691793441772</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5011234283447</t>
+    <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
     <t xml:space="preserve">13.617280960083</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">13.3849658966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2866792678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237577438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6522760391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.294867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4199619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7148246765137</t>
+    <t xml:space="preserve">13.286678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203329086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6522769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2948694229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.419960975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.714822769165</t>
   </si>
   <si>
     <t xml:space="preserve">12.8399171829224</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9113998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433420181274</t>
+    <t xml:space="preserve">12.9113988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433410644531</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543622970581</t>
@@ -254,37 +254,37 @@
     <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539884567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4646377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880178451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612129211426</t>
+    <t xml:space="preserve">12.5539894104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.464638710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182485580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863054275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612119674683</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804224014282</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1072301864624</t>
+    <t xml:space="preserve">12.1072292327881</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914426803589</t>
+    <t xml:space="preserve">12.8577871322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914417266846</t>
   </si>
   <si>
     <t xml:space="preserve">12.4557018280029</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0096864700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1615839004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0901031494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0454263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169080734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743175506592</t>
+    <t xml:space="preserve">13.0096874237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.161584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0901021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743165969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.3224191665649</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">13.5994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708936691284</t>
+    <t xml:space="preserve">13.5547351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708927154541</t>
   </si>
   <si>
     <t xml:space="preserve">13.9032077789307</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283012390137</t>
+    <t xml:space="preserve">14.0283002853394</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559520721436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716125488281</t>
+    <t xml:space="preserve">13.8716144561768</t>
   </si>
   <si>
     <t xml:space="preserve">14.1757736206055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9269142150879</t>
+    <t xml:space="preserve">13.9269132614136</t>
   </si>
   <si>
     <t xml:space="preserve">13.945348739624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637832641602</t>
+    <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
     <t xml:space="preserve">13.8992624282837</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255262374878</t>
+    <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
     <t xml:space="preserve">13.8531789779663</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6411867141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0006504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0836029052734</t>
+    <t xml:space="preserve">13.6411876678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0006494522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0836019515991</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020383834839</t>
+    <t xml:space="preserve">14.1020374298096</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863779067993</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">14.3508977890015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4154167175293</t>
+    <t xml:space="preserve">14.3232450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126417160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4154176712036</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628881454468</t>
@@ -407,46 +407,46 @@
     <t xml:space="preserve">14.4707174301147</t>
   </si>
   <si>
-    <t xml:space="preserve">14.682710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8394012451172</t>
+    <t xml:space="preserve">14.6827096939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380132675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
     <t xml:space="preserve">14.9315700531006</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9868717193604</t>
+    <t xml:space="preserve">14.986870765686</t>
   </si>
   <si>
     <t xml:space="preserve">14.7103614807129</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274061203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181917190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670492172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
+    <t xml:space="preserve">14.6274070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181898117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684362411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606060028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
@@ -455,55 +455,55 @@
     <t xml:space="preserve">15.152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343450546265</t>
+    <t xml:space="preserve">15.1343441009521</t>
   </si>
   <si>
     <t xml:space="preserve">15.0698261260986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9039192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.023738861084</t>
+    <t xml:space="preserve">14.9039182662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0237398147583</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301820755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960889816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776544570923</t>
+    <t xml:space="preserve">14.9960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776554107666</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541637420654</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150163650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297836303711</t>
+    <t xml:space="preserve">15.383204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297779083252</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560455322266</t>
+    <t xml:space="preserve">16.1850852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560474395752</t>
   </si>
   <si>
     <t xml:space="preserve">16.3049049377441</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6045074462891</t>
+    <t xml:space="preserve">17.5307712554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
     <t xml:space="preserve">17.3556442260742</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874599456787</t>
+    <t xml:space="preserve">17.6874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">17.4109477996826</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058925628662</t>
+    <t xml:space="preserve">17.6598052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058906555176</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492038726807</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">17.9731864929199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639663696289</t>
+    <t xml:space="preserve">17.9639682769775</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229400634766</t>
+    <t xml:space="preserve">17.6229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676364898682</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">17.2173900604248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3279933929443</t>
+    <t xml:space="preserve">17.3279914855957</t>
   </si>
   <si>
     <t xml:space="preserve">17.0975666046143</t>
@@ -581,97 +581,97 @@
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201641082764</t>
+    <t xml:space="preserve">17.4201622009277</t>
   </si>
   <si>
     <t xml:space="preserve">17.1897373199463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3740787506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832950592041</t>
+    <t xml:space="preserve">17.3740825653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832988739014</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7427577972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0100536346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1575222015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879508972168</t>
+    <t xml:space="preserve">17.7427597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0100555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.157527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879528045654</t>
   </si>
   <si>
     <t xml:space="preserve">18.3418655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2036094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2635669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3557395935059</t>
+    <t xml:space="preserve">18.3510799407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713981628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2635688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
     <t xml:space="preserve">19.0331401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.724422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797183990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1023139953613</t>
+    <t xml:space="preserve">19.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1023178100586</t>
   </si>
   <si>
     <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9917144775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230335235596</t>
+    <t xml:space="preserve">19.9917125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6783351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953826904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230354309082</t>
   </si>
   <si>
     <t xml:space="preserve">19.3741722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3280849456787</t>
+    <t xml:space="preserve">19.328088760376</t>
   </si>
   <si>
     <t xml:space="preserve">19.5124263763428</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">18.9870567321777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409713745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543506622314</t>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543487548828</t>
   </si>
   <si>
     <t xml:space="preserve">19.8903255462646</t>
@@ -698,31 +698,31 @@
     <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8120250701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2913150787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.752161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3926963806152</t>
+    <t xml:space="preserve">20.8120269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2913131713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678215026855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4756526947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.024019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807079315186</t>
+    <t xml:space="preserve">21.4756507873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0240173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807060241699</t>
   </si>
   <si>
     <t xml:space="preserve">21.0608882904053</t>
@@ -734,46 +734,46 @@
     <t xml:space="preserve">20.8304615020752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.106969833374</t>
+    <t xml:space="preserve">21.1069717407227</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208419799805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.844331741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8535499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5816955566406</t>
+    <t xml:space="preserve">21.8443336486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
     <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2176685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3098411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209373474121</t>
+    <t xml:space="preserve">23.2176704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3098392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209354400635</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5910034179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407569885254</t>
+    <t xml:space="preserve">24.591007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.240758895874</t>
   </si>
   <si>
     <t xml:space="preserve">24.4619655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3882312774658</t>
+    <t xml:space="preserve">24.3882293701172</t>
   </si>
   <si>
     <t xml:space="preserve">24.3329257965088</t>
@@ -782,61 +782,61 @@
     <t xml:space="preserve">24.0287666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.503396987915</t>
+    <t xml:space="preserve">23.5033950805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0425453186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084522247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9503746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595928192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4895210266113</t>
+    <t xml:space="preserve">23.0425472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084503173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9503765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595909118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4895248413086</t>
   </si>
   <si>
     <t xml:space="preserve">22.673864364624</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2268886566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7015151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9641551971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853637695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632591247559</t>
+    <t xml:space="preserve">23.2268829345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8582057952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7015171051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9641571044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065723419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1853618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3190517425537</t>
+    <t xml:space="preserve">23.3190536499023</t>
   </si>
   <si>
     <t xml:space="preserve">22.8121204376221</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1070652008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347179412842</t>
+    <t xml:space="preserve">23.0241107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.107063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347141265869</t>
   </si>
   <si>
     <t xml:space="preserve">22.7383842468262</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6185646057129</t>
+    <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
     <t xml:space="preserve">22.5724773406982</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.627779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6369934082031</t>
+    <t xml:space="preserve">22.6277770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6369972229004</t>
   </si>
   <si>
     <t xml:space="preserve">22.0747585296631</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171756744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669254302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674240112305</t>
+    <t xml:space="preserve">22.5171737670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674221038818</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
@@ -908,31 +908,31 @@
     <t xml:space="preserve">23.1623668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5218315124512</t>
+    <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
     <t xml:space="preserve">24.0401401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7856979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7092323303223</t>
+    <t xml:space="preserve">23.7856960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217811584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023910522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866653442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678188323975</t>
+    <t xml:space="preserve">25.3217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023891448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866691589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678207397461</t>
   </si>
   <si>
     <t xml:space="preserve">26.2547359466553</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">26.5845680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4620590209961</t>
+    <t xml:space="preserve">26.4620571136475</t>
   </si>
   <si>
     <t xml:space="preserve">26.5562973022461</t>
@@ -953,19 +953,19 @@
     <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772449493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280246734619</t>
+    <t xml:space="preserve">26.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772430419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280265808105</t>
   </si>
   <si>
     <t xml:space="preserve">26.2453117370605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2264633178711</t>
+    <t xml:space="preserve">26.2264652252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.6327629089355</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8212375640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8872051239014</t>
+    <t xml:space="preserve">25.8212413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8872032165527</t>
   </si>
   <si>
     <t xml:space="preserve">25.3500499725342</t>
@@ -986,46 +986,43 @@
     <t xml:space="preserve">25.9814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898441314697</t>
+    <t xml:space="preserve">25.1898422241211</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">25.51025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442863464355</t>
+    <t xml:space="preserve">25.5102519989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442882537842</t>
   </si>
   <si>
     <t xml:space="preserve">23.7008819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841365814209</t>
+    <t xml:space="preserve">23.4841346740723</t>
   </si>
   <si>
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7480030059814</t>
+    <t xml:space="preserve">23.7479991912842</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5218296051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2862358093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731510162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9940948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2296905517578</t>
+    <t xml:space="preserve">23.2862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731472015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9940967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2296924591064</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035209655762</t>
@@ -1034,10 +1031,10 @@
     <t xml:space="preserve">22.8150424957275</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0883331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6254920959473</t>
+    <t xml:space="preserve">23.0883350372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6254901885986</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181671142578</t>
@@ -1046,25 +1043,25 @@
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438045501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6537628173828</t>
+    <t xml:space="preserve">24.3040046691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438026428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
     <t xml:space="preserve">23.4935569763184</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804721832275</t>
+    <t xml:space="preserve">23.3804740905762</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919975280762</t>
+    <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
@@ -1082,112 +1079,112 @@
     <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7846183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9259777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6903820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1615734100342</t>
+    <t xml:space="preserve">24.7846202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9259796142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6903839111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1615715026855</t>
   </si>
   <si>
     <t xml:space="preserve">26.4337863922119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1981906890869</t>
+    <t xml:space="preserve">26.1981925964355</t>
   </si>
   <si>
     <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7269992828369</t>
+    <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
     <t xml:space="preserve">25.8683586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0097141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1039524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6798839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730987548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490226745605</t>
+    <t xml:space="preserve">26.0097160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1039543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490264892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788547515869</t>
+    <t xml:space="preserve">24.8788566589355</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5385246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0568351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2924289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1144504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510715484619</t>
+    <t xml:space="preserve">24.8317413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5385265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0568332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2924308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1144542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
     <t xml:space="preserve">26.5751457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9992141723633</t>
+    <t xml:space="preserve">26.9992160797119</t>
   </si>
   <si>
     <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3656673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6955013275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300735473633</t>
+    <t xml:space="preserve">28.3656711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.695499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">27.3290481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0934505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673351287842</t>
+    <t xml:space="preserve">27.0934543609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673370361328</t>
   </si>
   <si>
     <t xml:space="preserve">26.9520969390869</t>
@@ -1202,7 +1199,7 @@
     <t xml:space="preserve">26.8107395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049758911133</t>
+    <t xml:space="preserve">26.9049777984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002395629883</t>
@@ -1211,7 +1208,7 @@
     <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944778442383</t>
+    <t xml:space="preserve">27.8944797515869</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
@@ -1223,7 +1220,7 @@
     <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232864379883</t>
+    <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
     <t xml:space="preserve">27.7059993743896</t>
@@ -1232,16 +1229,16 @@
     <t xml:space="preserve">27.4704055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599075317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.402286529541</t>
+    <t xml:space="preserve">28.4599056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022884368896</t>
   </si>
   <si>
     <t xml:space="preserve">29.213809967041</t>
   </si>
   <si>
-    <t xml:space="preserve">28.554141998291</t>
+    <t xml:space="preserve">28.5541439056396</t>
   </si>
   <si>
     <t xml:space="preserve">29.449405670166</t>
@@ -1253,22 +1250,22 @@
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7426204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6588821411133</t>
+    <t xml:space="preserve">28.7426223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6588840484619</t>
   </si>
   <si>
     <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531204223633</t>
+    <t xml:space="preserve">27.7531223297119</t>
   </si>
   <si>
     <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3761672973633</t>
+    <t xml:space="preserve">27.3761692047119</t>
   </si>
   <si>
     <t xml:space="preserve">26.6222629547119</t>
@@ -1277,16 +1274,19 @@
     <t xml:space="preserve">28.2714309692383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5175266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626056671143</t>
+    <t xml:space="preserve">27.5175247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626037597656</t>
   </si>
   <si>
     <t xml:space="preserve">26.6663379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0514125823975</t>
+    <t xml:space="preserve">27.0514106750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107376098633</t>
   </si>
   <si>
     <t xml:space="preserve">26.3775310516357</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4629821777344</t>
+    <t xml:space="preserve">25.7036533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.462984085083</t>
   </si>
   <si>
     <t xml:space="preserve">25.0297737121582</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376167297363</t>
+    <t xml:space="preserve">23.5376148223877</t>
   </si>
   <si>
     <t xml:space="preserve">23.5857486724854</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.526798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3342628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9600028991699</t>
+    <t xml:space="preserve">22.5267944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3342609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9600067138672</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226894378662</t>
+    <t xml:space="preserve">23.9226875305176</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
@@ -1358,25 +1358,25 @@
     <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0189571380615</t>
+    <t xml:space="preserve">24.0189590454102</t>
   </si>
   <si>
     <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603813171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4678440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5641117095947</t>
+    <t xml:space="preserve">22.6230659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417217254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.467845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.564115524292</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674674987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379932403564</t>
+    <t xml:space="preserve">21.9491863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674655914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379913330078</t>
   </si>
   <si>
     <t xml:space="preserve">22.4305286407471</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">22.0454540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973220825195</t>
+    <t xml:space="preserve">21.9973201751709</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">21.7085151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3450775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2969436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0670909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633605957031</t>
+    <t xml:space="preserve">23.3450794219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2969455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0670928955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077602386475</t>
+    <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
     <t xml:space="preserve">24.548433303833</t>
@@ -1439,34 +1439,34 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2704467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1741790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2223129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1260414123535</t>
+    <t xml:space="preserve">24.7891044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2704448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1741752624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2223110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1260452270508</t>
   </si>
   <si>
     <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5111179351807</t>
+    <t xml:space="preserve">25.511116027832</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3293972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219326019287</t>
+    <t xml:space="preserve">26.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219345092773</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
@@ -1481,40 +1481,40 @@
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402137756348</t>
+    <t xml:space="preserve">27.3402156829834</t>
   </si>
   <si>
     <t xml:space="preserve">27.8696918487549</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0622272491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1103630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9178237915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.677152633667</t>
+    <t xml:space="preserve">28.0622291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1103649139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9178256988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
     <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2439460754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1958141326904</t>
+    <t xml:space="preserve">27.2439479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
     <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.618200302124</t>
+    <t xml:space="preserve">26.7144718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6555194854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816398620605</t>
+    <t xml:space="preserve">25.5592479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.655517578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4148445129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">27.629020690918</t>
+    <t xml:space="preserve">27.6290225982666</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1584949493408</t>
+    <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
     <t xml:space="preserve">28.3028984069824</t>
@@ -1568,19 +1568,19 @@
     <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3618488311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5543899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6133403778076</t>
+    <t xml:space="preserve">29.3618507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5543880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.613338470459</t>
   </si>
   <si>
     <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9984130859375</t>
+    <t xml:space="preserve">30.9984149932861</t>
   </si>
   <si>
     <t xml:space="preserve">31.0465469360352</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943061828613</t>
+    <t xml:space="preserve">32.3943023681641</t>
   </si>
   <si>
     <t xml:space="preserve">33.1644477844238</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.415943145752</t>
+    <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
     <t xml:space="preserve">34.0308685302734</t>
@@ -1610,85 +1610,85 @@
     <t xml:space="preserve">34.3196754455566</t>
   </si>
   <si>
-    <t xml:space="preserve">34.656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5976638793945</t>
+    <t xml:space="preserve">34.6566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5976600646973</t>
   </si>
   <si>
     <t xml:space="preserve">33.8864631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7901916503906</t>
+    <t xml:space="preserve">33.7901954650879</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0200462341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6349792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.153636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0573654174805</t>
+    <t xml:space="preserve">33.0200500488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6349754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1536331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0573616027832</t>
   </si>
   <si>
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2872180938721</t>
+    <t xml:space="preserve">31.7685604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2872200012207</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6722946166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1054992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5278873443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5868377685547</t>
+    <t xml:space="preserve">31.6722927093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648242950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.586841583252</t>
   </si>
   <si>
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.442440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528762817383</t>
+    <t xml:space="preserve">32.4424362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
     <t xml:space="preserve">35.2342224121094</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5819778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.400260925293</t>
+    <t xml:space="preserve">36.5819816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4002532958984</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927963256836</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9279251098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0746383666992</t>
+    <t xml:space="preserve">38.5073394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.927921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.074634552002</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
@@ -1715,46 +1715,46 @@
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301162719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6834030151367</t>
+    <t xml:space="preserve">38.8301124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6833992004395</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.710391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1994361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9060134887695</t>
+    <t xml:space="preserve">39.7103958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1994400024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9060096740723</t>
   </si>
   <si>
     <t xml:space="preserve">39.6614875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3191604614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9768218994141</t>
+    <t xml:space="preserve">39.3191566467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9768295288086</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5636825561523</t>
+    <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
     <t xml:space="preserve">39.1235389709473</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.4169654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2702522277832</t>
+    <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
     <t xml:space="preserve">40.2483444213867</t>
@@ -1775,43 +1775,43 @@
     <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1505355834961</t>
+    <t xml:space="preserve">40.1505317687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.7862930297852</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067085266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0358963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4760398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5957527160645</t>
+    <t xml:space="preserve">42.1067123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0358924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4760322570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5957565307617</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6176643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840274810791</t>
+    <t xml:space="preserve">41.6176681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8402786254883</t>
   </si>
   <si>
     <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4541244506836</t>
+    <t xml:space="preserve">44.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.774543762207</t>
+    <t xml:space="preserve">45.7745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,31 +1820,31 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.160701751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8672714233398</t>
+    <t xml:space="preserve">44.6008377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1606979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8672676086426</t>
   </si>
   <si>
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4102973937988</t>
+    <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
     <t xml:space="preserve">46.2635841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6059226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7088050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9803237915039</t>
+    <t xml:space="preserve">46.6059188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7088088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9803199768066</t>
   </si>
   <si>
     <t xml:space="preserve">49.686897277832</t>
@@ -1868,55 +1868,55 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8926773071289</t>
+    <t xml:space="preserve">50.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408866882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1321144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8926734924316</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102027893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0123977661133</t>
+    <t xml:space="preserve">53.1102066040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0124015808105</t>
   </si>
   <si>
     <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4912796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540336608887</t>
+    <t xml:space="preserve">49.4912757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934745788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540260314941</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
   </si>
   <si>
-    <t xml:space="preserve">52.034309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9584083557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5452651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.6970596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.2620048522949</t>
+    <t xml:space="preserve">52.0343132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9584121704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5452690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6970634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
     <t xml:space="preserve">54.4795303344727</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.970157623291</t>
+    <t xml:space="preserve">45.9701614379883</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3848915100098</t>
+    <t xml:space="preserve">37.4607887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
+    <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878761291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.7878799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870826721191</t>
+    <t xml:space="preserve">36.2870788574219</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1985,28 +1985,28 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9009284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0476417541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.949836730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1016311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3242416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8840980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7256355285645</t>
+    <t xml:space="preserve">35.8469467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9009323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9498329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1016273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3242378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8841018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
     <t xml:space="preserve">46.9971542358398</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4861946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6548194885254</t>
+    <t xml:space="preserve">47.486198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1876907348633</t>
+    <t xml:space="preserve">45.187686920166</t>
   </si>
   <si>
     <t xml:space="preserve">44.1117897033691</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249366760254</t>
+    <t xml:space="preserve">42.7913703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190620422363</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5620918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7577133178711</t>
+    <t xml:space="preserve">48.5620956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7577095031738</t>
   </si>
   <si>
     <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0022354125977</t>
+    <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
     <t xml:space="preserve">49.5890884399414</t>
@@ -2081,100 +2081,100 @@
     <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9145889282227</t>
+    <t xml:space="preserve">52.9145851135254</t>
   </si>
   <si>
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.164192199707</t>
+    <t xml:space="preserve">54.2839126586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1641960144043</t>
   </si>
   <si>
     <t xml:space="preserve">54.6751518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3378982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9247512817383</t>
+    <t xml:space="preserve">56.3379020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9247550964355</t>
   </si>
   <si>
     <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488502502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444717407227</t>
+    <t xml:space="preserve">55.5554275512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0006484985352</t>
+    <t xml:space="preserve">58.0006446838379</t>
   </si>
   <si>
     <t xml:space="preserve">58.1962661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">58.3918838500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.511604309082</t>
+    <t xml:space="preserve">58.3918876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5116004943848</t>
   </si>
   <si>
     <t xml:space="preserve">57.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5875053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.9568252563477</t>
+    <t xml:space="preserve">58.5875015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.9568290710449</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094131469727</t>
+    <t xml:space="preserve">58.9787406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524429321289</t>
+    <t xml:space="preserve">60.1524391174316</t>
   </si>
   <si>
     <t xml:space="preserve">62.6954727172852</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8472747802734</t>
+    <t xml:space="preserve">64.8472671508789</t>
   </si>
   <si>
     <t xml:space="preserve">63.6735610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7494583129883</t>
+    <t xml:space="preserve">64.7494506835938</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428848266602</t>
+    <t xml:space="preserve">65.0428924560547</t>
   </si>
   <si>
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034515380859</t>
+    <t xml:space="preserve">66.8034439086914</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">67.9771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3464736938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5960845947266</t>
+    <t xml:space="preserve">69.3464813232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
     <t xml:space="preserve">70.7158050537109</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">72.8675918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3785552978516</t>
+    <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
@@ -2216,22 +2216,22 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741653442383</t>
+    <t xml:space="preserve">73.6500778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741577148438</t>
   </si>
   <si>
     <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5201873779297</t>
+    <t xml:space="preserve">70.5201797485352</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245620727539</t>
+    <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048492431641</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.420783996582</t>
+    <t xml:space="preserve">79.4207916259766</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">76.4865188598633</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6164016723633</t>
+    <t xml:space="preserve">79.6164093017578</t>
   </si>
   <si>
     <t xml:space="preserve">80.0076446533203</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813507080078</t>
+    <t xml:space="preserve">81.1813430786133</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2276,55 +2276,55 @@
     <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7243728637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.2134170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353286743164</t>
+    <t xml:space="preserve">83.7243804931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.2134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353363037109</t>
   </si>
   <si>
     <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265716552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1915054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6046600341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1156158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7361297607422</t>
+    <t xml:space="preserve">83.6265640258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1915130615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6046524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.115608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7361221313477</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827560424805</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791595458984</t>
+    <t xml:space="preserve">78.4427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791442871094</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">84.3112258911133</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1594390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3988723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2032623291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.5608291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2454986572266</t>
+    <t xml:space="preserve">82.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3988800048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.203254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.5608367919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016677856445</t>
+    <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7126235961914</t>
+    <t xml:space="preserve">88.7126312255859</t>
   </si>
   <si>
     <t xml:space="preserve">92.9184112548828</t>
@@ -2372,10 +2372,10 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0044708251953</t>
+    <t xml:space="preserve">95.1680068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
     <t xml:space="preserve">99.3737945556641</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">103.48176574707</t>
+    <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
     <t xml:space="preserve">100.156265258789</t>
@@ -2402,19 +2402,19 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088531494141</t>
+    <t xml:space="preserve">97.8088607788086</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.417610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3417129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373382568359</t>
+    <t xml:space="preserve">97.4176177978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3417205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
@@ -2435,10 +2435,10 @@
     <t xml:space="preserve">95.4614410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">95.7548599243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.9723892211914</t>
+    <t xml:space="preserve">95.7548675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677391052246</t>
+    <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
@@ -2468,31 +2468,31 @@
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.675796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.980979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.567832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.328384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.937156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893333435059</t>
+    <t xml:space="preserve">112.088935852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.675804138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.980972290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.567825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.328392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.937149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893325805664</t>
   </si>
   <si>
     <t xml:space="preserve">110.132766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">111.110847473145</t>
+    <t xml:space="preserve">111.110855102539</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
@@ -2501,28 +2501,28 @@
     <t xml:space="preserve">101.721206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">101.916816711426</t>
+    <t xml:space="preserve">101.91682434082</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
   </si>
   <si>
-    <t xml:space="preserve">105.829177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.372207641602</t>
+    <t xml:space="preserve">105.829170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.372215270996</t>
   </si>
   <si>
     <t xml:space="preserve">109.350303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.915245056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.176582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286148071289</t>
+    <t xml:space="preserve">110.915237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.17658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286140441895</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
@@ -2534,16 +2534,16 @@
     <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">107.785354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.264236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.220405578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.763442993164</t>
+    <t xml:space="preserve">107.785346984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.264228820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.220413208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.76343536377</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2552,13 +2552,13 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.480171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.545913696289</t>
+    <t xml:space="preserve">116.196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.480178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.545921325684</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">112.284568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">112.871421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.849502563477</t>
+    <t xml:space="preserve">112.87141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.849510192871</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2582,25 +2582,25 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.218826293945</t>
+    <t xml:space="preserve">115.805686950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761856079102</t>
+    <t xml:space="preserve">118.153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761863708496</t>
   </si>
   <si>
     <t xml:space="preserve">119.326797485352</t>
   </si>
   <si>
-    <t xml:space="preserve">118.739952087402</t>
+    <t xml:space="preserve">118.739944458008</t>
   </si>
   <si>
     <t xml:space="preserve">118.348709106445</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2627,22 +2627,22 @@
     <t xml:space="preserve">134.389358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.08576965332</t>
+    <t xml:space="preserve">130.085784912109</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.976211547852</t>
+    <t xml:space="preserve">131.846328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.976226806641</t>
   </si>
   <si>
     <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">136.736770629883</t>
+    <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
     <t xml:space="preserve">135.563079833984</t>
@@ -2654,19 +2654,19 @@
     <t xml:space="preserve">137.91047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">139.671035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.453536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.301727294922</t>
+    <t xml:space="preserve">139.671051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.453521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.301712036133</t>
   </si>
   <si>
     <t xml:space="preserve">134.78059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">137.714859008789</t>
+    <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
     <t xml:space="preserve">139.279800415039</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">140.062271118164</t>
+    <t xml:space="preserve">140.062255859375</t>
   </si>
   <si>
     <t xml:space="preserve">141.627227783203</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
-    <t xml:space="preserve">141.040374755859</t>
+    <t xml:space="preserve">141.04035949707</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.908905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.104522705078</t>
+    <t xml:space="preserve">148.082580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.908889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473831176758</t>
+    <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2744,13 +2744,13 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.841567993164</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">162.558288574219</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2777,40 +2777,40 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.33918762207</t>
+    <t xml:space="preserve">167.448760986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.339202880859</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099746704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.818084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.752365112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.013717651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.318878173828</t>
+    <t xml:space="preserve">174.099761962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.818099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.752349853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.013702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.318862915039</t>
   </si>
   <si>
     <t xml:space="preserve">165.688186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">175.469085693359</t>
+    <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
     <t xml:space="preserve">170.774261474609</t>
   </si>
   <si>
-    <t xml:space="preserve">165.515869140625</t>
+    <t xml:space="preserve">165.515884399414</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576217651367</t>
+    <t xml:space="preserve">150.576202392578</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362503051758</t>
+    <t xml:space="preserve">151.362518310547</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635757446289</t>
+    <t xml:space="preserve">158.635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.336441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037094116211</t>
+    <t xml:space="preserve">164.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037109375</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695327758789</t>
+    <t xml:space="preserve">169.250793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387054443359</t>
+    <t xml:space="preserve">181.438446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387069702148</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216552734375</t>
+    <t xml:space="preserve">171.216537475586</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524063110352</t>
+    <t xml:space="preserve">176.524078369141</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737777709961</t>
+    <t xml:space="preserve">175.737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430236816406</t>
+    <t xml:space="preserve">170.430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.200180053711</t>
+    <t xml:space="preserve">155.687149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.2001953125</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866607666016</t>
+    <t xml:space="preserve">156.866592407227</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601501464844</t>
+    <t xml:space="preserve">160.601516723633</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636535644531</t>
+    <t xml:space="preserve">135.636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884490966797</t>
+    <t xml:space="preserve">137.798843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884475708008</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491333007812</t>
+    <t xml:space="preserve">131.705032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550903320312</t>
+    <t xml:space="preserve">140.550888061523</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.36328125</t>
+    <t xml:space="preserve">127.576972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.926910400391</t>
+    <t xml:space="preserve">141.92692565918</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448135375977</t>
+    <t xml:space="preserve">146.448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251556396484</t>
+    <t xml:space="preserve">146.251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320083618164</t>
+    <t xml:space="preserve">143.008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393051147461</t>
+    <t xml:space="preserve">145.465255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393035888672</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611228942871</t>
+    <t xml:space="preserve">125.611221313477</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244140625</t>
+    <t xml:space="preserve">112.244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944816589355</t>
+    <t xml:space="preserve">117.944808959961</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.69686126709</t>
+    <t xml:space="preserve">120.696853637695</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760887145996</t>
+    <t xml:space="preserve">122.760894775391</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.15404510498</t>
+    <t xml:space="preserve">123.154037475586</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.419120788574</t>
+    <t xml:space="preserve">119.41911315918</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.08553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820449829102</t>
+    <t xml:space="preserve">127.380401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820465087891</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.06022644043</t>
+    <t xml:space="preserve">117.060218811035</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521881103516</t>
+    <t xml:space="preserve">113.521873474121</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778022766113</t>
+    <t xml:space="preserve">121.778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500274658203</t>
+    <t xml:space="preserve">120.500282287598</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684196472168</t>
+    <t xml:space="preserve">115.684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397529602051</t>
+    <t xml:space="preserve">120.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.44889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397521972656</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.641006469727</t>
+    <t xml:space="preserve">133.572494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.640991210938</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901596069336</t>
+    <t xml:space="preserve">131.901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.29923248291</t>
+    <t xml:space="preserve">129.149566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136917114258</t>
+    <t xml:space="preserve">124.136909484863</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743759155273</t>
+    <t xml:space="preserve">121.581443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743766784668</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141380310059</t>
+    <t xml:space="preserve">118.436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -17328,7 +17328,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17380,7 +17380,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17406,7 +17406,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17432,7 +17432,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17458,7 +17458,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17484,7 +17484,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17510,7 +17510,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17536,7 +17536,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17562,7 +17562,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17614,7 +17614,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17640,7 +17640,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17666,7 +17666,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17692,7 +17692,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17718,7 +17718,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17744,7 +17744,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17770,7 +17770,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17796,7 +17796,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17822,7 +17822,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17848,7 +17848,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17874,7 +17874,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17900,7 +17900,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17926,7 +17926,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17952,7 +17952,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17978,7 +17978,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18004,7 +18004,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18030,7 +18030,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18056,7 +18056,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18082,7 +18082,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18108,7 +18108,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18134,7 +18134,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18212,7 +18212,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18290,7 +18290,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18316,7 +18316,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18342,7 +18342,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18368,7 +18368,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18394,7 +18394,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18472,7 +18472,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18498,7 +18498,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18576,7 +18576,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18602,7 +18602,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18628,7 +18628,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18654,7 +18654,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18680,7 +18680,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18706,7 +18706,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18732,7 +18732,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18758,7 +18758,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18784,7 +18784,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18810,7 +18810,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18836,7 +18836,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18862,7 +18862,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18914,7 +18914,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18940,7 +18940,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18966,7 +18966,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18992,7 +18992,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19018,7 +19018,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19044,7 +19044,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19122,7 +19122,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19148,7 +19148,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19174,7 +19174,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19226,7 +19226,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19252,7 +19252,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19278,7 +19278,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19304,7 +19304,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19330,7 +19330,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19382,7 +19382,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19408,7 +19408,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19434,7 +19434,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19486,7 +19486,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19512,7 +19512,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19538,7 +19538,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19590,7 +19590,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19642,7 +19642,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19668,7 +19668,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19694,7 +19694,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19720,7 +19720,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19746,7 +19746,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19772,7 +19772,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19798,7 +19798,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19824,7 +19824,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19850,7 +19850,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19876,7 +19876,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19902,7 +19902,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19928,7 +19928,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19980,7 +19980,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20032,7 +20032,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20084,7 +20084,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20110,7 +20110,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20136,7 +20136,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20162,7 +20162,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20188,7 +20188,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20214,7 +20214,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20240,7 +20240,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20292,7 +20292,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20318,7 +20318,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20344,7 +20344,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20370,7 +20370,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20396,7 +20396,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20422,7 +20422,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20448,7 +20448,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20474,7 +20474,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20500,7 +20500,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20526,7 +20526,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20552,7 +20552,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20578,7 +20578,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20630,7 +20630,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20656,7 +20656,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20708,7 +20708,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20734,7 +20734,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20786,7 +20786,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20812,7 +20812,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20838,7 +20838,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20916,7 +20916,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20942,7 +20942,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20968,7 +20968,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20994,7 +20994,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21020,7 +21020,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21046,7 +21046,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21072,7 +21072,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21098,7 +21098,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21124,7 +21124,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21150,7 +21150,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21176,7 +21176,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21202,7 +21202,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21280,7 +21280,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21306,7 +21306,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21332,7 +21332,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21358,7 +21358,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21384,7 +21384,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21410,7 +21410,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21436,7 +21436,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21462,7 +21462,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21540,7 +21540,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21566,7 +21566,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21592,7 +21592,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21618,7 +21618,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21644,7 +21644,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21670,7 +21670,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21696,7 +21696,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21722,7 +21722,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21748,7 +21748,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21774,7 +21774,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21800,7 +21800,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21826,7 +21826,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21852,7 +21852,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21878,7 +21878,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21904,7 +21904,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21930,7 +21930,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21956,7 +21956,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21982,7 +21982,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22008,7 +22008,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22034,7 +22034,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22060,7 +22060,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22086,7 +22086,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22112,7 +22112,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22138,7 +22138,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22164,7 +22164,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22190,7 +22190,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22216,7 +22216,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22242,7 +22242,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22294,7 +22294,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22320,7 +22320,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22346,7 +22346,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22372,7 +22372,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22398,7 +22398,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22424,7 +22424,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22450,7 +22450,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22502,7 +22502,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22528,7 +22528,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22554,7 +22554,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22606,7 +22606,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22632,7 +22632,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22658,7 +22658,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22684,7 +22684,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22710,7 +22710,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22736,7 +22736,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22762,7 +22762,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22788,7 +22788,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22814,7 +22814,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22840,7 +22840,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22866,7 +22866,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22892,7 +22892,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25518,7 +25518,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26350,7 +26350,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1450">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495969772339</t>
+    <t xml:space="preserve">13.8495979309082</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -59,112 +59,112 @@
     <t xml:space="preserve">13.1437149047852</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402881622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777414321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241325378418</t>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777423858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
     <t xml:space="preserve">13.3939008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3134832382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347789764404</t>
+    <t xml:space="preserve">13.3134822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347799301147</t>
   </si>
   <si>
     <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667230606079</t>
+    <t xml:space="preserve">12.8667221069336</t>
   </si>
   <si>
     <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0007514953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650106430054</t>
+    <t xml:space="preserve">13.000750541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986661911011</t>
+    <t xml:space="preserve">12.5986671447754</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110269546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226428985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7051448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663492202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3752841949463</t>
+    <t xml:space="preserve">12.4467668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157903671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7051429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663511276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3752851486206</t>
   </si>
   <si>
     <t xml:space="preserve">12.1519050598145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2412576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965808868408</t>
+    <t xml:space="preserve">12.2412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769975662231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3484783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625524520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893583297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811672210693</t>
+    <t xml:space="preserve">12.3484792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625514984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020910263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893564224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9560747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811681747437</t>
   </si>
   <si>
     <t xml:space="preserve">13.4564476013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4475145339966</t>
+    <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581590652466</t>
@@ -173,31 +173,31 @@
     <t xml:space="preserve">13.411771774292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4832525253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0364923477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1794557571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1883897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492231369019</t>
+    <t xml:space="preserve">13.4832515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0364904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1794548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1883907318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
     <t xml:space="preserve">13.4921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688074111938</t>
+    <t xml:space="preserve">13.2688064575195</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104312896729</t>
+    <t xml:space="preserve">14.0104322433472</t>
   </si>
   <si>
     <t xml:space="preserve">13.7691793441772</t>
@@ -212,40 +212,40 @@
     <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849658966064</t>
+    <t xml:space="preserve">13.3849649429321</t>
   </si>
   <si>
     <t xml:space="preserve">13.286678314209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9203329086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6522769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2948694229126</t>
+    <t xml:space="preserve">12.9203338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237577438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6522760391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2948684692383</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.714822769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8399171829224</t>
+    <t xml:space="preserve">12.7148218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.839916229248</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9113988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433410644531</t>
+    <t xml:space="preserve">12.91139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433420181274</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543622970581</t>
@@ -257,52 +257,52 @@
     <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.464638710022</t>
+    <t xml:space="preserve">12.4646368026733</t>
   </si>
   <si>
     <t xml:space="preserve">12.5182485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880187988281</t>
+    <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
     <t xml:space="preserve">12.7863054275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6612119674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5271835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577871322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914417266846</t>
+    <t xml:space="preserve">12.6612129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072301864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5271854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914426803589</t>
   </si>
   <si>
     <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0632972717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0096874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.161584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0901021957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0454254150391</t>
+    <t xml:space="preserve">13.0632982254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0096864700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1615839004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0901041030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.1526498794556</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743165969849</t>
+    <t xml:space="preserve">12.8131132125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743175506592</t>
   </si>
   <si>
     <t xml:space="preserve">13.3224191665649</t>
@@ -323,31 +323,31 @@
     <t xml:space="preserve">13.5994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283002853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716144561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269132614136</t>
+    <t xml:space="preserve">13.5547342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.903208732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.028302192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716125488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757755279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
     <t xml:space="preserve">13.945348739624</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8992624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176979064941</t>
+    <t xml:space="preserve">13.899263381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176988601685</t>
   </si>
   <si>
     <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8531789779663</t>
+    <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411876678467</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">14.0836019515991</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9729995727539</t>
+    <t xml:space="preserve">13.9729986190796</t>
   </si>
   <si>
     <t xml:space="preserve">14.1020374298096</t>
@@ -398,34 +398,34 @@
     <t xml:space="preserve">14.2126417160034</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4154176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5628881454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4707174301147</t>
+    <t xml:space="preserve">14.4154167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5628890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
     <t xml:space="preserve">14.6827096939087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7380132675171</t>
+    <t xml:space="preserve">14.7380113601685</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.986870765686</t>
+    <t xml:space="preserve">14.9315690994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
   </si>
   <si>
     <t xml:space="preserve">14.7103614807129</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274070739746</t>
+    <t xml:space="preserve">14.6274061203003</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181898117065</t>
@@ -434,28 +434,28 @@
     <t xml:space="preserve">14.8670501708984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9684362411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606060028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421724319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500017166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145235061646</t>
+    <t xml:space="preserve">14.9684371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606069564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592199325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145225524902</t>
   </si>
   <si>
     <t xml:space="preserve">15.152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343441009521</t>
+    <t xml:space="preserve">15.1343450546265</t>
   </si>
   <si>
     <t xml:space="preserve">15.0698261260986</t>
@@ -464,40 +464,40 @@
     <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237398147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301830291748</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9776554107666</t>
+    <t xml:space="preserve">14.9776544570923</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541637420654</t>
   </si>
   <si>
-    <t xml:space="preserve">15.383204460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150144577026</t>
+    <t xml:space="preserve">15.3832025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.549111366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.715015411377</t>
   </si>
   <si>
     <t xml:space="preserve">15.8993558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2772521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219524383545</t>
+    <t xml:space="preserve">16.2772541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219543457031</t>
   </si>
   <si>
     <t xml:space="preserve">16.1850852966309</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4662494659424</t>
+    <t xml:space="preserve">17.2450408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466251373291</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307712554932</t>
@@ -524,43 +524,43 @@
     <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556442260742</t>
+    <t xml:space="preserve">17.3556423187256</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874580383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4109477996826</t>
+    <t xml:space="preserve">17.6874599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
     <t xml:space="preserve">17.6598052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058906555176</t>
+    <t xml:space="preserve">17.8625793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058887481689</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492038726807</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9731864929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639682769775</t>
+    <t xml:space="preserve">17.9731845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639663696289</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5676364898682</t>
+    <t xml:space="preserve">17.6229400634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5676383972168</t>
   </si>
   <si>
     <t xml:space="preserve">17.2266063690186</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">17.2173900604248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3279914855957</t>
+    <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
     <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0607013702393</t>
+    <t xml:space="preserve">17.0606994628906</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
@@ -587,19 +587,19 @@
     <t xml:space="preserve">17.1897373199463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3740825653076</t>
+    <t xml:space="preserve">17.3740787506104</t>
   </si>
   <si>
     <t xml:space="preserve">17.1436538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3832988739014</t>
+    <t xml:space="preserve">17.3832950592041</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7427597045898</t>
+    <t xml:space="preserve">17.7427577972412</t>
   </si>
   <si>
     <t xml:space="preserve">18.0100555419922</t>
@@ -614,19 +614,19 @@
     <t xml:space="preserve">18.3879528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3418655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510799407959</t>
+    <t xml:space="preserve">18.3418636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510837554932</t>
   </si>
   <si>
     <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6644592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713981628418</t>
+    <t xml:space="preserve">18.664457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635688781738</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244167327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889366149902</t>
+    <t xml:space="preserve">19.0331420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244186401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889385223389</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797203063965</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9917125701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6783351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953826904297</t>
+    <t xml:space="preserve">19.9917144775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953807830811</t>
   </si>
   <si>
     <t xml:space="preserve">19.5585136413574</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">19.6230354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3741722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.328088760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124263763428</t>
+    <t xml:space="preserve">19.3741703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124282836914</t>
   </si>
   <si>
     <t xml:space="preserve">18.9870567321777</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">18.5999412536621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409732818604</t>
+    <t xml:space="preserve">18.9409713745117</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8903255462646</t>
+    <t xml:space="preserve">19.890323638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.8165893554688</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2913131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7521629333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373966217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3926982879639</t>
+    <t xml:space="preserve">21.2913150787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.752161026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373985290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926963806152</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678215026855</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">21.0608882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6369018554688</t>
+    <t xml:space="preserve">20.6369037628174</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304615020752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1069717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1208419799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8443336486816</t>
+    <t xml:space="preserve">21.106969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1208438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.844331741333</t>
   </si>
   <si>
     <t xml:space="preserve">21.8535480499268</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1254978179932</t>
+    <t xml:space="preserve">23.1254959106445</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098392486572</t>
+    <t xml:space="preserve">23.3098411560059</t>
   </si>
   <si>
     <t xml:space="preserve">24.1209354400635</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">24.6094379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">24.591007232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.240758895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619655609131</t>
+    <t xml:space="preserve">24.5910053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">24.3882293701172</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">24.3329257965088</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0287666320801</t>
+    <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
     <t xml:space="preserve">23.5033950805664</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0425472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084503173828</t>
+    <t xml:space="preserve">23.0425434112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
     <t xml:space="preserve">22.9503765106201</t>
@@ -800,19 +800,19 @@
     <t xml:space="preserve">22.9595909118652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4895248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.673864364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268829345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8582057952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7015171051025</t>
+    <t xml:space="preserve">22.48952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6738662719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268848419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8582038879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
     <t xml:space="preserve">21.9641571044922</t>
@@ -821,64 +821,64 @@
     <t xml:space="preserve">22.4065723419189</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604831695557</t>
+    <t xml:space="preserve">22.3604850769043</t>
   </si>
   <si>
     <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250049591064</t>
+    <t xml:space="preserve">22.4250030517578</t>
   </si>
   <si>
     <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7936859130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3190536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121204376221</t>
+    <t xml:space="preserve">22.7936878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.319055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121185302734</t>
   </si>
   <si>
     <t xml:space="preserve">22.6830806732178</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8489894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241107940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383842468262</t>
+    <t xml:space="preserve">22.8489875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7383823394775</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6185626983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5724773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6277770996094</t>
+    <t xml:space="preserve">22.6185607910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6923007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.627779006958</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369972229004</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0747585296631</t>
+    <t xml:space="preserve">22.0747566223145</t>
   </si>
   <si>
     <t xml:space="preserve">21.798246383667</t>
@@ -887,145 +887,148 @@
     <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171737670898</t>
+    <t xml:space="preserve">22.5171756744385</t>
   </si>
   <si>
     <t xml:space="preserve">22.1669273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7291660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674221038818</t>
+    <t xml:space="preserve">22.7291679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674201965332</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1162815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1623668670654</t>
+    <t xml:space="preserve">23.116283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1623649597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0401401519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7856979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092304229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2558116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023891448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866691589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547340393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2358856201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.584566116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562973022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6693820953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8872032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500499725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1898441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4065895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5102519989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7008838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4841346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.634916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7480010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0401401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7856960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7092304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2558097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3217792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023891448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866691589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2358875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5845680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620571136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6693820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8872032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3500499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1898422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4065914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5102519989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7008819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4841346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7479991912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029830932617</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.2862339019775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1731472015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9940967559814</t>
+    <t xml:space="preserve">23.1731491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9940948486328</t>
   </si>
   <si>
     <t xml:space="preserve">23.2296924591064</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0035209655762</t>
+    <t xml:space="preserve">23.0035190582275</t>
   </si>
   <si>
     <t xml:space="preserve">22.8150424957275</t>
@@ -1037,7 +1040,7 @@
     <t xml:space="preserve">23.6254901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4181671142578</t>
+    <t xml:space="preserve">23.4181690216064</t>
   </si>
   <si>
     <t xml:space="preserve">23.9176292419434</t>
@@ -1055,10 +1058,10 @@
     <t xml:space="preserve">23.4935569763184</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2391147613525</t>
+    <t xml:space="preserve">23.3804721832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2391166687012</t>
   </si>
   <si>
     <t xml:space="preserve">23.1919956207275</t>
@@ -1067,7 +1070,7 @@
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663097381592</t>
+    <t xml:space="preserve">24.2663078308105</t>
   </si>
   <si>
     <t xml:space="preserve">24.5113315582275</t>
@@ -1079,7 +1082,7 @@
     <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7846202850342</t>
+    <t xml:space="preserve">24.7846183776855</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259796142578</t>
@@ -1115,16 +1118,16 @@
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720752716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432628631592</t>
+    <t xml:space="preserve">24.9730987548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432647705078</t>
   </si>
   <si>
     <t xml:space="preserve">24.8788566589355</t>
@@ -1133,7 +1136,7 @@
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317413330078</t>
+    <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3029327392578</t>
@@ -1142,7 +1145,7 @@
     <t xml:space="preserve">25.2086925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385265350342</t>
+    <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.0568332672119</t>
@@ -1154,19 +1157,19 @@
     <t xml:space="preserve">25.1144542694092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1510734558105</t>
+    <t xml:space="preserve">26.1510715484619</t>
   </si>
   <si>
     <t xml:space="preserve">26.5751457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9992160797119</t>
+    <t xml:space="preserve">26.9992179870605</t>
   </si>
   <si>
     <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3656711578369</t>
+    <t xml:space="preserve">28.3656692504883</t>
   </si>
   <si>
     <t xml:space="preserve">28.695499420166</t>
@@ -1187,7 +1190,7 @@
     <t xml:space="preserve">25.0673370361328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9520969390869</t>
+    <t xml:space="preserve">26.9520988464355</t>
   </si>
   <si>
     <t xml:space="preserve">27.1876926422119</t>
@@ -1196,7 +1199,7 @@
     <t xml:space="preserve">27.0463352203369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8107395172119</t>
+    <t xml:space="preserve">26.8107376098633</t>
   </si>
   <si>
     <t xml:space="preserve">26.9049777984619</t>
@@ -1214,13 +1217,13 @@
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0829524993896</t>
+    <t xml:space="preserve">28.082950592041</t>
   </si>
   <si>
     <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232883453369</t>
+    <t xml:space="preserve">27.4232864379883</t>
   </si>
   <si>
     <t xml:space="preserve">27.7059993743896</t>
@@ -1229,7 +1232,7 @@
     <t xml:space="preserve">27.4704055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599056243896</t>
+    <t xml:space="preserve">28.4599075317383</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
@@ -1247,7 +1250,7 @@
     <t xml:space="preserve">28.7897396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">29.355167388916</t>
+    <t xml:space="preserve">29.3551654815674</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426223754883</t>
@@ -1256,16 +1259,16 @@
     <t xml:space="preserve">27.6588840484619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5646438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531223297119</t>
+    <t xml:space="preserve">27.5646457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531204223633</t>
   </si>
   <si>
     <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3761692047119</t>
+    <t xml:space="preserve">27.3761672973633</t>
   </si>
   <si>
     <t xml:space="preserve">26.6222629547119</t>
@@ -1286,9 +1289,6 @@
     <t xml:space="preserve">27.0514106750488</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8107376098633</t>
-  </si>
-  <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
@@ -4359,6 +4359,9 @@
   </si>
   <si>
     <t xml:space="preserve">108.599998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
   </si>
 </sst>
 </file>
@@ -17328,7 +17331,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17380,7 +17383,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17406,7 +17409,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17432,7 +17435,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17458,7 +17461,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17484,7 +17487,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17510,7 +17513,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17536,7 +17539,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17562,7 +17565,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17588,7 +17591,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17614,7 +17617,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17640,7 +17643,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17666,7 +17669,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17692,7 +17695,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17718,7 +17721,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17744,7 +17747,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17770,7 +17773,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17796,7 +17799,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17822,7 +17825,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17848,7 +17851,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17874,7 +17877,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17900,7 +17903,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17926,7 +17929,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17952,7 +17955,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17978,7 +17981,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18004,7 +18007,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18030,7 +18033,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18056,7 +18059,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18082,7 +18085,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18108,7 +18111,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18134,7 +18137,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18212,7 +18215,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18290,7 +18293,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18316,7 +18319,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18342,7 +18345,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18368,7 +18371,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18394,7 +18397,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18472,7 +18475,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18498,7 +18501,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18576,7 +18579,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18602,7 +18605,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18628,7 +18631,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18654,7 +18657,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18680,7 +18683,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18706,7 +18709,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18732,7 +18735,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18758,7 +18761,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18784,7 +18787,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18810,7 +18813,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18836,7 +18839,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18862,7 +18865,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18914,7 +18917,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18940,7 +18943,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18966,7 +18969,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18992,7 +18995,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19018,7 +19021,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19044,7 +19047,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19122,7 +19125,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19148,7 +19151,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19174,7 +19177,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19226,7 +19229,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19252,7 +19255,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19278,7 +19281,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19304,7 +19307,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19330,7 +19333,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19382,7 +19385,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19408,7 +19411,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19434,7 +19437,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19486,7 +19489,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19512,7 +19515,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19538,7 +19541,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19590,7 +19593,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19642,7 +19645,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19668,7 +19671,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19694,7 +19697,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19720,7 +19723,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19746,7 +19749,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19772,7 +19775,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19798,7 +19801,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19824,7 +19827,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19850,7 +19853,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19876,7 +19879,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19902,7 +19905,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19928,7 +19931,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19980,7 +19983,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20032,7 +20035,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20084,7 +20087,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20110,7 +20113,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20136,7 +20139,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20162,7 +20165,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20188,7 +20191,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20214,7 +20217,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20240,7 +20243,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20292,7 +20295,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20318,7 +20321,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20344,7 +20347,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20370,7 +20373,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20396,7 +20399,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20422,7 +20425,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20448,7 +20451,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20474,7 +20477,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20500,7 +20503,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20526,7 +20529,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20552,7 +20555,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20578,7 +20581,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20630,7 +20633,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20656,7 +20659,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20708,7 +20711,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20734,7 +20737,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20786,7 +20789,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20812,7 +20815,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20838,7 +20841,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20916,7 +20919,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20942,7 +20945,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20968,7 +20971,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20994,7 +20997,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21020,7 +21023,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21046,7 +21049,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21072,7 +21075,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21098,7 +21101,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21124,7 +21127,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21150,7 +21153,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21176,7 +21179,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21202,7 +21205,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21280,7 +21283,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21306,7 +21309,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21332,7 +21335,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21358,7 +21361,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21384,7 +21387,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21410,7 +21413,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21436,7 +21439,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21462,7 +21465,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21540,7 +21543,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21566,7 +21569,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21592,7 +21595,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21618,7 +21621,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21644,7 +21647,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21670,7 +21673,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21696,7 +21699,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21722,7 +21725,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21748,7 +21751,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21774,7 +21777,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21800,7 +21803,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21826,7 +21829,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21852,7 +21855,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21878,7 +21881,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21904,7 +21907,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21930,7 +21933,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21956,7 +21959,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21982,7 +21985,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22008,7 +22011,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22034,7 +22037,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22060,7 +22063,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22086,7 +22089,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22112,7 +22115,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22138,7 +22141,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22164,7 +22167,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22190,7 +22193,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22216,7 +22219,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22242,7 +22245,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22294,7 +22297,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22320,7 +22323,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22346,7 +22349,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22372,7 +22375,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22398,7 +22401,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22424,7 +22427,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22450,7 +22453,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22502,7 +22505,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22528,7 +22531,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22554,7 +22557,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22606,7 +22609,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22632,7 +22635,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22658,7 +22661,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22684,7 +22687,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22710,7 +22713,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22736,7 +22739,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22762,7 +22765,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22788,7 +22791,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22814,7 +22817,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22840,7 +22843,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22866,7 +22869,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22892,7 +22895,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25518,7 +25521,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26350,7 +26353,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -60444,7 +60447,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6493981481</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>13647</v>
@@ -60465,6 +60468,32 @@
         <v>1448</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.649375</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>10301</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>107.699996948242</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>108.699996948242</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1453">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495960235596</t>
+    <t xml:space="preserve">13.8495979309082</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330675125122</t>
+    <t xml:space="preserve">13.2330665588379</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402891159058</t>
+    <t xml:space="preserve">13.1437129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402900695801</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777423858643</t>
@@ -68,73 +68,73 @@
     <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3939008712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134822845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347799301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5093145370483</t>
+    <t xml:space="preserve">13.3939018249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347789764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
     <t xml:space="preserve">12.8667221069336</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0007495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650096893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.884593963623</t>
+    <t xml:space="preserve">13.0722322463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0007514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650106430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
     <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3127374649048</t>
+    <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467678070068</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4110260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157903671265</t>
+    <t xml:space="preserve">12.4110250473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226428985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
     <t xml:space="preserve">11.7051429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663492202759</t>
+    <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752841949463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519060134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965808868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769975662231</t>
+    <t xml:space="preserve">12.1519050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769985198975</t>
   </si>
   <si>
     <t xml:space="preserve">12.3484792709351</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">12.0625514984131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306093215942</t>
+    <t xml:space="preserve">12.4020910263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893583297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306083679199</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773704528809</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">13.4564476013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4475126266479</t>
+    <t xml:space="preserve">13.4475107192993</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.411771774292</t>
+    <t xml:space="preserve">13.4117708206177</t>
   </si>
   <si>
     <t xml:space="preserve">13.4832534790039</t>
@@ -179,76 +179,76 @@
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794557571411</t>
+    <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3492240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688074111938</t>
+    <t xml:space="preserve">13.3492231369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688083648682</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104303359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602434158325</t>
+    <t xml:space="preserve">14.0104312896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691793441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
     <t xml:space="preserve">13.5011234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849658966064</t>
+    <t xml:space="preserve">13.6172800064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849649429321</t>
   </si>
   <si>
     <t xml:space="preserve">13.2866773605347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9203329086304</t>
+    <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6522769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.294867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4199600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7148218154907</t>
+    <t xml:space="preserve">12.6522760391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2948684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4199619293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.714822769165</t>
   </si>
   <si>
     <t xml:space="preserve">12.839916229248</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8041763305664</t>
+    <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543622970581</t>
+    <t xml:space="preserve">12.6433401107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543613433838</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058887481689</t>
@@ -257,40 +257,40 @@
     <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4646377563477</t>
+    <t xml:space="preserve">12.4646368026733</t>
   </si>
   <si>
     <t xml:space="preserve">12.5182495117188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880178451538</t>
+    <t xml:space="preserve">12.6880168914795</t>
   </si>
   <si>
     <t xml:space="preserve">12.7863063812256</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6612119674683</t>
+    <t xml:space="preserve">12.6612129211426</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804233551025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1072273254395</t>
+    <t xml:space="preserve">12.1072282791138</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271854400635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577880859375</t>
+    <t xml:space="preserve">12.8577871322632</t>
   </si>
   <si>
     <t xml:space="preserve">12.4914426803589</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4557027816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632972717285</t>
+    <t xml:space="preserve">12.4557018280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632982254028</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096864700317</t>
@@ -302,10 +302,10 @@
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526498794556</t>
+    <t xml:space="preserve">13.045428276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526508331299</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">12.8131113052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4743185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224182128906</t>
+    <t xml:space="preserve">13.4743175506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224191665649</t>
   </si>
   <si>
     <t xml:space="preserve">13.5994110107422</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708927154541</t>
+    <t xml:space="preserve">13.6708936691284</t>
   </si>
   <si>
     <t xml:space="preserve">13.903208732605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.992561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.028302192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716135025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757745742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269142150879</t>
+    <t xml:space="preserve">13.9925603866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716125488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757736206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269132614136</t>
   </si>
   <si>
     <t xml:space="preserve">13.945348739624</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255271911621</t>
+    <t xml:space="preserve">13.8255262374878</t>
   </si>
   <si>
     <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6411876678467</t>
+    <t xml:space="preserve">13.6411867141724</t>
   </si>
   <si>
     <t xml:space="preserve">13.8808298110962</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836029052734</t>
+    <t xml:space="preserve">14.0836038589478</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">14.1020374298096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2863779067993</t>
+    <t xml:space="preserve">14.2863788604736</t>
   </si>
   <si>
     <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232450485229</t>
+    <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
     <t xml:space="preserve">14.2126426696777</t>
@@ -401,31 +401,31 @@
     <t xml:space="preserve">14.415415763855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628890991211</t>
+    <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
     <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">14.682710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380113601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8394002914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9315700531006</t>
+    <t xml:space="preserve">14.6827096939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393993377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9315710067749</t>
   </si>
   <si>
     <t xml:space="preserve">14.9868717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274070739746</t>
+    <t xml:space="preserve">14.7103614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274080276489</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181907653809</t>
@@ -443,103 +443,103 @@
     <t xml:space="preserve">15.0421733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9592189788818</t>
+    <t xml:space="preserve">14.9592208862305</t>
   </si>
   <si>
     <t xml:space="preserve">14.9500017166138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0145225524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.152777671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0698270797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960889816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.977653503418</t>
+    <t xml:space="preserve">15.0145235061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1527795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.06982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039173126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776554107666</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541646957397</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549111366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150163650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297817230225</t>
+    <t xml:space="preserve">15.383204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993577957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297798156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850852966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3049049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1160011291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2450389862061</t>
+    <t xml:space="preserve">16.1850814819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3049068450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.116003036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2450408935547</t>
   </si>
   <si>
     <t xml:space="preserve">17.466251373291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307693481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6045074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556442260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2819080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6874599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.410945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6598052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625812530518</t>
+    <t xml:space="preserve">17.5307674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556461334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.281909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4109439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6598091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
     <t xml:space="preserve">17.7058906555176</t>
@@ -551,31 +551,31 @@
     <t xml:space="preserve">17.9731845855713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639663696289</t>
+    <t xml:space="preserve">17.9639682769775</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229419708252</t>
+    <t xml:space="preserve">17.6229381561279</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676364898682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2266082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2173900604248</t>
+    <t xml:space="preserve">17.2266063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2173919677734</t>
   </si>
   <si>
     <t xml:space="preserve">17.3279914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0607013702393</t>
+    <t xml:space="preserve">17.0975685119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0606994628906</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
@@ -584,31 +584,31 @@
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3740787506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832931518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768527984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7427597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0100517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1575241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063816070557</t>
+    <t xml:space="preserve">17.1897392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.374080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436557769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768508911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7427616119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0100555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1575260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063835144043</t>
   </si>
   <si>
     <t xml:space="preserve">18.3879508972168</t>
@@ -629,19 +629,19 @@
     <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2635669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3557395935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0331401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244205474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889366149902</t>
+    <t xml:space="preserve">19.2635688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3557376861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0331439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889385223389</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797203063965</t>
@@ -653,46 +653,46 @@
     <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9917144775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6783313751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870586395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409713745117</t>
+    <t xml:space="preserve">19.9917125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6783351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3741722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543506622314</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8903255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165874481201</t>
+    <t xml:space="preserve">19.890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.4617805480957</t>
@@ -701,94 +701,94 @@
     <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2913150787354</t>
+    <t xml:space="preserve">21.2913131713867</t>
   </si>
   <si>
     <t xml:space="preserve">21.7521629333496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373966217041</t>
+    <t xml:space="preserve">21.3373947143555</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4756507873535</t>
+    <t xml:space="preserve">21.5678215026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4756526947021</t>
   </si>
   <si>
     <t xml:space="preserve">21.024019241333</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1807060241699</t>
+    <t xml:space="preserve">21.1807079315186</t>
   </si>
   <si>
     <t xml:space="preserve">21.0608863830566</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6369037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304615020752</t>
+    <t xml:space="preserve">20.6369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304634094238</t>
   </si>
   <si>
     <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.844331741333</t>
+    <t xml:space="preserve">22.1208419799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
     <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5816955566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254978179932</t>
+    <t xml:space="preserve">22.581693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254997253418</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209373474121</t>
+    <t xml:space="preserve">23.3098392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209335327148</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5910015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619655609131</t>
+    <t xml:space="preserve">24.5910053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">24.3882293701172</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3329257965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.503396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9780254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425453186035</t>
+    <t xml:space="preserve">24.3329277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.97802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425472259521</t>
   </si>
   <si>
     <t xml:space="preserve">23.2084503173828</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4895210266113</t>
+    <t xml:space="preserve">22.9595928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
     <t xml:space="preserve">22.673864364624</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2268886566162</t>
+    <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582038879395</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641551971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
+    <t xml:space="preserve">21.9641532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1853618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632610321045</t>
+    <t xml:space="preserve">22.1853637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632591247559</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">22.8121185302734</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6830825805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8489894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
+    <t xml:space="preserve">22.6830806732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8489875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.024112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070652008057</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347160339355</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">22.7383842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7199478149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6185646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5724773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.627779006958</t>
+    <t xml:space="preserve">22.71994972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6185626983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6923007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6277809143066</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369953155518</t>
@@ -881,49 +881,49 @@
     <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7982482910156</t>
+    <t xml:space="preserve">21.798246383667</t>
   </si>
   <si>
     <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171775817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950729370117</t>
+    <t xml:space="preserve">22.5171756744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669254302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950748443604</t>
   </si>
   <si>
     <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5218315124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0401401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7856979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7092323303223</t>
+    <t xml:space="preserve">23.1623630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7856960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217811584473</t>
+    <t xml:space="preserve">25.3217792510986</t>
   </si>
   <si>
     <t xml:space="preserve">25.8023910522461</t>
@@ -944,31 +944,31 @@
     <t xml:space="preserve">26.5845680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4620609283447</t>
+    <t xml:space="preserve">26.4620590209961</t>
   </si>
   <si>
     <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6693820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772468566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453098297119</t>
+    <t xml:space="preserve">26.6693801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453117370605</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6327648162842</t>
+    <t xml:space="preserve">25.6327629089355</t>
   </si>
   <si>
     <t xml:space="preserve">25.9625968933105</t>
@@ -977,58 +977,58 @@
     <t xml:space="preserve">25.8212394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8872051239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3500480651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814453125</t>
+    <t xml:space="preserve">25.88720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500461578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">25.1898441314697</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4065914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.51025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442863464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7008819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4841365814209</t>
+    <t xml:space="preserve">25.4065933227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5102519989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7008838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4841346740723</t>
   </si>
   <si>
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7480030059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5218296051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2862339019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731510162354</t>
+    <t xml:space="preserve">23.7480010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218276977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2862319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731491088867</t>
   </si>
   <si>
     <t xml:space="preserve">22.9940948486328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2296905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0035190582275</t>
+    <t xml:space="preserve">23.2296924591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
     <t xml:space="preserve">22.8150424957275</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6254901885986</t>
+    <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181671142578</t>
@@ -1052,25 +1052,25 @@
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4935569763184</t>
+    <t xml:space="preserve">23.6537647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
     <t xml:space="preserve">23.3804721832275</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2391166687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1919975280762</t>
+    <t xml:space="preserve">23.2391147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663078308105</t>
+    <t xml:space="preserve">24.2663116455078</t>
   </si>
   <si>
     <t xml:space="preserve">24.5113315582275</t>
@@ -1088,49 +1088,49 @@
     <t xml:space="preserve">24.9259777069092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6903820037842</t>
+    <t xml:space="preserve">24.6903839111328</t>
   </si>
   <si>
     <t xml:space="preserve">25.1615734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981906890869</t>
+    <t xml:space="preserve">26.4337844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981945037842</t>
   </si>
   <si>
     <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7269992828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8683567047119</t>
+    <t xml:space="preserve">25.7270011901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8683605194092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1039524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730987548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490226745605</t>
+    <t xml:space="preserve">26.1039543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6798801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490264892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788547515869</t>
+    <t xml:space="preserve">24.8788585662842</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
@@ -1145,43 +1145,43 @@
     <t xml:space="preserve">25.2086906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385227203369</t>
+    <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2924308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510715484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5751457214355</t>
+    <t xml:space="preserve">26.2924289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1144542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510734558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5751476287842</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992160797119</t>
   </si>
   <si>
-    <t xml:space="preserve">28.177188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.695499420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3290481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0934524536133</t>
+    <t xml:space="preserve">28.1771907806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6955013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3290500640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0934562683105</t>
   </si>
   <si>
     <t xml:space="preserve">25.5856437683105</t>
@@ -1190,67 +1190,67 @@
     <t xml:space="preserve">25.0673351287842</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9520969390869</t>
+    <t xml:space="preserve">26.9520988464355</t>
   </si>
   <si>
     <t xml:space="preserve">27.1876926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463352203369</t>
+    <t xml:space="preserve">27.0463371276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002395629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8578567504883</t>
+    <t xml:space="preserve">26.9049758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
     <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9887161254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.082950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7059993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704055786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599075317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.213809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.554141998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.449405670166</t>
+    <t xml:space="preserve">27.9887142181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0829524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7060012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2138118743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4494075775146</t>
   </si>
   <si>
     <t xml:space="preserve">28.789737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3551654815674</t>
+    <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426204681396</t>
@@ -1262,22 +1262,22 @@
     <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531204223633</t>
+    <t xml:space="preserve">27.7531223297119</t>
   </si>
   <si>
     <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3761653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222629547119</t>
+    <t xml:space="preserve">27.3761692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222648620605</t>
   </si>
   <si>
     <t xml:space="preserve">28.2714309692383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5175247192383</t>
+    <t xml:space="preserve">27.5175266265869</t>
   </si>
   <si>
     <t xml:space="preserve">26.7626056671143</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961887359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.462984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0297718048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9335041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">25.7036533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961868286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0297737121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9335079193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2488079071045</t>
+    <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
     <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0081367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9118671417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.671199798584</t>
+    <t xml:space="preserve">23.0081386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9118690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6711978912354</t>
   </si>
   <si>
     <t xml:space="preserve">22.5267963409424</t>
@@ -1343,31 +1343,31 @@
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600048065186</t>
+    <t xml:space="preserve">22.9600067138672</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226894378662</t>
+    <t xml:space="preserve">23.9226875305176</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932094573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0189571380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0562744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6230640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417255401611</t>
+    <t xml:space="preserve">23.3932113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0189590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0562725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6230659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417236328125</t>
   </si>
   <si>
     <t xml:space="preserve">21.6603832244873</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674674987793</t>
+    <t xml:space="preserve">21.9491844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674655914307</t>
   </si>
   <si>
     <t xml:space="preserve">22.2379913330078</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0454559326172</t>
+    <t xml:space="preserve">22.0454540252686</t>
   </si>
   <si>
     <t xml:space="preserve">21.9973201751709</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">21.7085151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3450775146484</t>
+    <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
     <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0670909881592</t>
+    <t xml:space="preserve">24.0670928955078</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633586883545</t>
@@ -1430,34 +1430,34 @@
     <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5484313964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8372364044189</t>
+    <t xml:space="preserve">24.5484352111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8372383117676</t>
   </si>
   <si>
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2704467773438</t>
+    <t xml:space="preserve">24.7891044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
     <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2223129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1260414123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185806274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.511116027832</t>
+    <t xml:space="preserve">25.2223110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1260433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5111141204834</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
@@ -1466,34 +1466,34 @@
     <t xml:space="preserve">26.3293991088867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5219326019287</t>
+    <t xml:space="preserve">26.5219345092773</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808849334717</t>
+    <t xml:space="preserve">27.5327529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808868408203</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402156829834</t>
+    <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
     <t xml:space="preserve">27.8696918487549</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0622272491455</t>
+    <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178237915039</t>
+    <t xml:space="preserve">27.9178276062012</t>
   </si>
   <si>
     <t xml:space="preserve">27.6771545410156</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1958122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5700664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7144737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182022094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1849937438965</t>
+    <t xml:space="preserve">27.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.570068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7144718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.618200302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1849956512451</t>
   </si>
   <si>
     <t xml:space="preserve">25.9924583435059</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551429748535</t>
+    <t xml:space="preserve">26.9551410675049</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.484619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.629020690918</t>
+    <t xml:space="preserve">27.4846153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6290225982666</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3028984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7361087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0249118804932</t>
+    <t xml:space="preserve">28.3029003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7361068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
     <t xml:space="preserve">29.3618507385254</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">29.5543880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">30.613338470459</t>
+    <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
     <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9984149932861</t>
+    <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
     <t xml:space="preserve">31.0465469360352</t>
@@ -1589,31 +1589,31 @@
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1644477844238</t>
+    <t xml:space="preserve">32.3943061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
     <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2234077453613</t>
+    <t xml:space="preserve">34.2234001159668</t>
   </si>
   <si>
     <t xml:space="preserve">34.415943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827308654785</t>
+    <t xml:space="preserve">34.0308647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3196716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827346801758</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
@@ -1631,22 +1631,22 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.153636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0573654174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5760231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204303741455</t>
+    <t xml:space="preserve">32.6349792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1536331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0573616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204246520996</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353538513184</t>
@@ -1658,37 +1658,37 @@
     <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.672290802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1054992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5278911590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648223876953</t>
+    <t xml:space="preserve">31.6722965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648281097412</t>
   </si>
   <si>
     <t xml:space="preserve">32.5868377685547</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7312469482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4424362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528762817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2342224121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5819778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4002571105957</t>
+    <t xml:space="preserve">32.7312431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.442440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2342185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5819816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4002532958984</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927963256836</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9279251098633</t>
+    <t xml:space="preserve">38.5073394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.927921295166</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1736,25 +1736,25 @@
     <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1994361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9060134887695</t>
+    <t xml:space="preserve">40.1994400024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9060096740723</t>
   </si>
   <si>
     <t xml:space="preserve">39.6614875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3191604614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9768257141113</t>
+    <t xml:space="preserve">39.3191566467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9768295288086</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5636825561523</t>
+    <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
     <t xml:space="preserve">39.1235389709473</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.4169654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2702522277832</t>
+    <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
     <t xml:space="preserve">40.2483444213867</t>
@@ -1772,40 +1772,40 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1505355834961</t>
+    <t xml:space="preserve">40.0527267456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1505317687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.7862930297852</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067085266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0358963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5957527160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176643371582</t>
+    <t xml:space="preserve">42.1067123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0358924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4760322570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5957565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176681518555</t>
   </si>
   <si>
     <t xml:space="preserve">42.8402786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">44.013988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4541244506836</t>
+    <t xml:space="preserve">44.0139846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">45.2365951538086</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8672714233398</t>
+    <t xml:space="preserve">43.8672676086426</t>
   </si>
   <si>
     <t xml:space="preserve">45.921257019043</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">46.2635841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6059226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7088050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9803237915039</t>
+    <t xml:space="preserve">46.6059188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7088088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9803199768066</t>
   </si>
   <si>
     <t xml:space="preserve">49.686897277832</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8605995178223</t>
+    <t xml:space="preserve">50.8606033325195</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627983093262</t>
+    <t xml:space="preserve">50.7627944946289</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8926773071289</t>
+    <t xml:space="preserve">52.1321144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8926734924316</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0123977661133</t>
+    <t xml:space="preserve">53.0124015808105</t>
   </si>
   <si>
     <t xml:space="preserve">52.816780090332</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">49.3934745788574</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1540298461914</t>
+    <t xml:space="preserve">51.1540260314941</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
   </si>
   <si>
-    <t xml:space="preserve">52.034309387207</t>
+    <t xml:space="preserve">52.0343132019043</t>
   </si>
   <si>
     <t xml:space="preserve">50.9584121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5452651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.6970596313477</t>
+    <t xml:space="preserve">51.5452690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.970157623291</t>
+    <t xml:space="preserve">47.3883895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9701614379883</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8317012786865</t>
+    <t xml:space="preserve">29.8316993713379</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878761291504</t>
+    <t xml:space="preserve">31.7878799438477</t>
   </si>
   <si>
     <t xml:space="preserve">31.0543098449707</t>
@@ -1988,25 +1988,25 @@
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0476417541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.949836730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1016311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3242416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8840980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7256355285645</t>
+    <t xml:space="preserve">37.9009323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9498329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1016273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3242378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8841018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
     <t xml:space="preserve">46.9971542358398</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4861946105957</t>
+    <t xml:space="preserve">47.486198425293</t>
   </si>
   <si>
     <t xml:space="preserve">46.6548233032227</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
+    <t xml:space="preserve">42.7913703918457</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
@@ -2057,49 +2057,49 @@
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570068359375</t>
+    <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
     <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7577133178711</t>
+    <t xml:space="preserve">48.7577095031738</t>
   </si>
   <si>
     <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0022354125977</t>
+    <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211585998535</t>
+    <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
     <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9145889282227</t>
+    <t xml:space="preserve">52.9145851135254</t>
   </si>
   <si>
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.164192199707</t>
+    <t xml:space="preserve">54.2839126586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1641960144043</t>
   </si>
   <si>
     <t xml:space="preserve">54.6751518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3378982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9247512817383</t>
+    <t xml:space="preserve">56.3379020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9247550964355</t>
   </si>
   <si>
     <t xml:space="preserve">56.729133605957</t>
@@ -2108,31 +2108,31 @@
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488540649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444717407227</t>
+    <t xml:space="preserve">55.8488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0006484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1962699890137</t>
+    <t xml:space="preserve">58.0006446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1962661743164</t>
   </si>
   <si>
     <t xml:space="preserve">58.3918876647949</t>
   </si>
   <si>
-    <t xml:space="preserve">57.511604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2181816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.5875053405762</t>
+    <t xml:space="preserve">57.5116004943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2181777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.5875015258789</t>
   </si>
   <si>
     <t xml:space="preserve">59.9568290710449</t>
@@ -2150,13 +2150,13 @@
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954689025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8472747802734</t>
+    <t xml:space="preserve">60.1524391174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954727172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8472671508789</t>
   </si>
   <si>
     <t xml:space="preserve">63.6735610961914</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428848266602</t>
+    <t xml:space="preserve">65.0428924560547</t>
   </si>
   <si>
     <t xml:space="preserve">65.7275466918945</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034515380859</t>
+    <t xml:space="preserve">66.8034439086914</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">67.9771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3464736938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5960845947266</t>
+    <t xml:space="preserve">69.3464813232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
     <t xml:space="preserve">70.7158050537109</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">72.8675918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3785552978516</t>
+    <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500701904297</t>
+    <t xml:space="preserve">73.6500778198242</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0092163085938</t>
+    <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">76.4865188598633</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6164016723633</t>
+    <t xml:space="preserve">79.6164093017578</t>
   </si>
   <si>
     <t xml:space="preserve">80.0076446533203</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">83.7243804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9419174194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">84.2134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9419097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">83.6265640258789</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6046600341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1156158447266</t>
+    <t xml:space="preserve">85.1915130615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6046524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.115608215332</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361221313477</t>
@@ -2315,16 +2315,16 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791519165039</t>
+    <t xml:space="preserve">78.4427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791442871094</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">84.3112258911133</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1594390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3988723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2032623291016</t>
+    <t xml:space="preserve">82.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3988800048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.203254699707</t>
   </si>
   <si>
     <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2454986572266</t>
+    <t xml:space="preserve">87.245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7126235961914</t>
+    <t xml:space="preserve">88.7126312255859</t>
   </si>
   <si>
     <t xml:space="preserve">92.9184112548828</t>
@@ -2372,10 +2372,10 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680145263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0044708251953</t>
+    <t xml:space="preserve">95.1680068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
     <t xml:space="preserve">99.3737945556641</t>
@@ -2402,13 +2402,13 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088531494141</t>
+    <t xml:space="preserve">97.8088607788086</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.417610168457</t>
+    <t xml:space="preserve">97.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">96.3417205810547</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
@@ -2432,25 +2432,25 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614334106445</t>
+    <t xml:space="preserve">95.4614410400391</t>
   </si>
   <si>
     <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">94.9723892211914</t>
+    <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767868041992</t>
+    <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.765022277832</t>
+    <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
     <t xml:space="preserve">103.677383422852</t>
@@ -2465,22 +2465,22 @@
     <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">109.74153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.088943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.675796508789</t>
+    <t xml:space="preserve">109.741523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.088935852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.675804138184</t>
   </si>
   <si>
     <t xml:space="preserve">107.980972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">108.567832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.328384399414</t>
+    <t xml:space="preserve">108.567825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
     <t xml:space="preserve">109.937149047852</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">111.893325805664</t>
   </si>
   <si>
-    <t xml:space="preserve">110.132774353027</t>
+    <t xml:space="preserve">110.132766723633</t>
   </si>
   <si>
     <t xml:space="preserve">111.110855102539</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721199035645</t>
+    <t xml:space="preserve">101.721206665039</t>
   </si>
   <si>
     <t xml:space="preserve">101.91682434082</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">105.633560180664</t>
   </si>
   <si>
-    <t xml:space="preserve">105.829177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.372207641602</t>
+    <t xml:space="preserve">105.829170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.372215270996</t>
   </si>
   <si>
     <t xml:space="preserve">109.350303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.915245056152</t>
+    <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
     <t xml:space="preserve">108.17658996582</t>
@@ -2531,19 +2531,19 @@
     <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">105.242317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.785354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.264236450195</t>
+    <t xml:space="preserve">105.242324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.785346984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.264228820801</t>
   </si>
   <si>
     <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">108.763442993164</t>
+    <t xml:space="preserve">108.76343536377</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545913696289</t>
+    <t xml:space="preserve">109.545921325684</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">112.284568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">112.871421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.849502563477</t>
+    <t xml:space="preserve">112.87141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.849510192871</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">117.761863708496</t>
   </si>
   <si>
-    <t xml:space="preserve">119.326805114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.739952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.34871673584</t>
+    <t xml:space="preserve">119.326797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.739944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">134.389358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.08576965332</t>
+    <t xml:space="preserve">130.085784912109</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">131.846328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.976211547852</t>
+    <t xml:space="preserve">134.976226806641</t>
   </si>
   <si>
     <t xml:space="preserve">137.128005981445</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563064575195</t>
+    <t xml:space="preserve">135.563079833984</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2654,19 +2654,19 @@
     <t xml:space="preserve">137.91047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">139.671035766602</t>
+    <t xml:space="preserve">139.671051025391</t>
   </si>
   <si>
     <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">138.301727294922</t>
+    <t xml:space="preserve">138.301712036133</t>
   </si>
   <si>
     <t xml:space="preserve">134.78059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">137.714859008789</t>
+    <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
     <t xml:space="preserve">139.279800415039</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">140.062271118164</t>
+    <t xml:space="preserve">140.062255859375</t>
   </si>
   <si>
     <t xml:space="preserve">141.627227783203</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691375732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300140380859</t>
+    <t xml:space="preserve">147.691360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300155639648</t>
   </si>
   <si>
     <t xml:space="preserve">145.343978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">146.908905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">146.908889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711700439453</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711685180664</t>
   </si>
   <si>
     <t xml:space="preserve">158.841583251953</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558303833008</t>
+    <t xml:space="preserve">162.558288574219</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2789,28 +2789,28 @@
     <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">168.818084716797</t>
+    <t xml:space="preserve">168.818099975586</t>
   </si>
   <si>
     <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
-    <t xml:space="preserve">169.013717651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.318878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.688171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.469085693359</t>
+    <t xml:space="preserve">169.013702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.318862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
     <t xml:space="preserve">170.774261474609</t>
   </si>
   <si>
-    <t xml:space="preserve">165.515869140625</t>
+    <t xml:space="preserve">165.515884399414</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576217651367</t>
+    <t xml:space="preserve">150.576202392578</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362503051758</t>
+    <t xml:space="preserve">151.362518310547</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635757446289</t>
+    <t xml:space="preserve">158.635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.336441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037094116211</t>
+    <t xml:space="preserve">164.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037109375</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695327758789</t>
+    <t xml:space="preserve">169.250793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387054443359</t>
+    <t xml:space="preserve">181.438446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387069702148</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216552734375</t>
+    <t xml:space="preserve">171.216537475586</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524063110352</t>
+    <t xml:space="preserve">176.524078369141</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737777709961</t>
+    <t xml:space="preserve">175.737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430236816406</t>
+    <t xml:space="preserve">170.430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.200180053711</t>
+    <t xml:space="preserve">155.687149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.2001953125</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866607666016</t>
+    <t xml:space="preserve">156.866592407227</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601501464844</t>
+    <t xml:space="preserve">160.601516723633</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636535644531</t>
+    <t xml:space="preserve">135.636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884490966797</t>
+    <t xml:space="preserve">137.798843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884475708008</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491333007812</t>
+    <t xml:space="preserve">131.705032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550903320312</t>
+    <t xml:space="preserve">140.550888061523</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.36328125</t>
+    <t xml:space="preserve">127.576972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.926910400391</t>
+    <t xml:space="preserve">141.92692565918</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448135375977</t>
+    <t xml:space="preserve">146.448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251556396484</t>
+    <t xml:space="preserve">146.251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320083618164</t>
+    <t xml:space="preserve">143.008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393051147461</t>
+    <t xml:space="preserve">145.465255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393035888672</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611228942871</t>
+    <t xml:space="preserve">125.611221313477</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244140625</t>
+    <t xml:space="preserve">112.244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944816589355</t>
+    <t xml:space="preserve">117.944808959961</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.69686126709</t>
+    <t xml:space="preserve">120.696853637695</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760887145996</t>
+    <t xml:space="preserve">122.760894775391</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.15404510498</t>
+    <t xml:space="preserve">123.154037475586</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.419120788574</t>
+    <t xml:space="preserve">119.41911315918</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.08553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820449829102</t>
+    <t xml:space="preserve">127.380401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820465087891</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.06022644043</t>
+    <t xml:space="preserve">117.060218811035</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521881103516</t>
+    <t xml:space="preserve">113.521873474121</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778022766113</t>
+    <t xml:space="preserve">121.778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500274658203</t>
+    <t xml:space="preserve">120.500282287598</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684196472168</t>
+    <t xml:space="preserve">115.684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397529602051</t>
+    <t xml:space="preserve">120.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.44889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397521972656</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.641006469727</t>
+    <t xml:space="preserve">133.572494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.640991210938</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901596069336</t>
+    <t xml:space="preserve">131.901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.29923248291</t>
+    <t xml:space="preserve">129.149566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136917114258</t>
+    <t xml:space="preserve">124.136909484863</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743759155273</t>
+    <t xml:space="preserve">121.581443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743766784668</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141380310059</t>
+    <t xml:space="preserve">118.436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -4368,6 +4368,9 @@
   </si>
   <si>
     <t xml:space="preserve">108.800003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.099998474121</t>
   </si>
 </sst>
 </file>
@@ -60635,7 +60638,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6495601852</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>12168</v>
@@ -60656,6 +60659,32 @@
         <v>1439</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.649375</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>10401</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>106.400001525879</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>104.699996948242</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>105.900001525879</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>106.099998474121</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -44,94 +44,94 @@
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317270278931</t>
+    <t xml:space="preserve">13.8317260742188</t>
   </si>
   <si>
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1437149047852</t>
+    <t xml:space="preserve">13.2330675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
     <t xml:space="preserve">13.3402891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2777423858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3938999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134822845459</t>
+    <t xml:space="preserve">13.2777433395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3939008712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134813308716</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
   </si>
   <si>
-    <t xml:space="preserve">12.509313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667211532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722332000732</t>
+    <t xml:space="preserve">12.5093145370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722322463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650106430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8845930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986652374268</t>
+    <t xml:space="preserve">12.9650096893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8845949172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690292358398</t>
+    <t xml:space="preserve">12.4467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110269546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690301895142</t>
   </si>
   <si>
     <t xml:space="preserve">11.2226419448853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6157913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7051439285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663501739502</t>
+    <t xml:space="preserve">11.6157903671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7051429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663511276245</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752851486206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965799331665</t>
+    <t xml:space="preserve">12.1519060134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965808868408</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769975662231</t>
@@ -140,25 +140,25 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625534057617</t>
+    <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
     <t xml:space="preserve">12.4020900726318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0893583297729</t>
+    <t xml:space="preserve">12.0893564224243</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306093215942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7773694992065</t>
+    <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
     <t xml:space="preserve">12.9560737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.081169128418</t>
+    <t xml:space="preserve">13.0811672210693</t>
   </si>
   <si>
     <t xml:space="preserve">13.456446647644</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3581600189209</t>
+    <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
     <t xml:space="preserve">13.4117708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4832515716553</t>
+    <t xml:space="preserve">13.4832544326782</t>
   </si>
   <si>
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794548034668</t>
+    <t xml:space="preserve">13.1794557571411</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">13.2688083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7513093948364</t>
+    <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
     <t xml:space="preserve">14.0104312896729</t>
@@ -212,16 +212,16 @@
     <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2866773605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237586975098</t>
+    <t xml:space="preserve">13.3849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.920334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237577438354</t>
   </si>
   <si>
     <t xml:space="preserve">12.6522769927979</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">12.294867515564</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4199600219727</t>
+    <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
     <t xml:space="preserve">12.7148237228394</t>
@@ -245,40 +245,40 @@
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433420181274</t>
+    <t xml:space="preserve">12.6433429718018</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543613433838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7058897018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.553991317749</t>
+    <t xml:space="preserve">12.7058877944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539903640747</t>
   </si>
   <si>
     <t xml:space="preserve">12.464635848999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5182485580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880178451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863054275513</t>
+    <t xml:space="preserve">12.5182495117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863063812256</t>
   </si>
   <si>
     <t xml:space="preserve">12.6612119674683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0804233551025</t>
+    <t xml:space="preserve">12.0804224014282</t>
   </si>
   <si>
     <t xml:space="preserve">12.1072282791138</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5271854400635</t>
+    <t xml:space="preserve">12.5271835327148</t>
   </si>
   <si>
     <t xml:space="preserve">12.8577880859375</t>
@@ -290,22 +290,22 @@
     <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0632982254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0096855163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1615839004517</t>
+    <t xml:space="preserve">13.0632972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0096874237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.161584854126</t>
   </si>
   <si>
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526489257812</t>
+    <t xml:space="preserve">13.0454263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169099807739</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">12.8131103515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4743175506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224191665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994119644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547361373901</t>
+    <t xml:space="preserve">13.4743194580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224172592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
     <t xml:space="preserve">13.6708927154541</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283002853394</t>
+    <t xml:space="preserve">14.028302192688</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559520721436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716135025024</t>
+    <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">14.1757736206055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9269142150879</t>
+    <t xml:space="preserve">13.9269132614136</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637832641602</t>
+    <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
     <t xml:space="preserve">13.8992643356323</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255281448364</t>
+    <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
     <t xml:space="preserve">13.8531770706177</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">13.8808288574219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0006494522095</t>
+    <t xml:space="preserve">14.0006504058838</t>
   </si>
   <si>
     <t xml:space="preserve">14.0836038589478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9729976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1020383834839</t>
+    <t xml:space="preserve">13.9729995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1020374298096</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863788604736</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232450485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126407623291</t>
+    <t xml:space="preserve">14.3232460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126426696777</t>
   </si>
   <si>
     <t xml:space="preserve">14.4154167175293</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">14.682710647583</t>
+    <t xml:space="preserve">14.6827116012573</t>
   </si>
   <si>
     <t xml:space="preserve">14.7380113601685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8394002914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9315690994263</t>
+    <t xml:space="preserve">14.8393993377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9315710067749</t>
   </si>
   <si>
     <t xml:space="preserve">14.9868717193604</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274080276489</t>
+    <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181898117065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8670501708984</t>
+    <t xml:space="preserve">14.8670492172241</t>
   </si>
   <si>
     <t xml:space="preserve">14.9684381484985</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0606088638306</t>
+    <t xml:space="preserve">15.0606079101562</t>
   </si>
   <si>
     <t xml:space="preserve">15.0421733856201</t>
@@ -446,25 +446,25 @@
     <t xml:space="preserve">14.9592199325562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9500026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145235061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1527786254883</t>
+    <t xml:space="preserve">14.9500017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1527795791626</t>
   </si>
   <si>
     <t xml:space="preserve">15.1343431472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.06982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.023738861084</t>
+    <t xml:space="preserve">15.0698251724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039182662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0237379074097</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301820755005</t>
@@ -476,25 +476,25 @@
     <t xml:space="preserve">14.9776544570923</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2541627883911</t>
+    <t xml:space="preserve">15.2541637420654</t>
   </si>
   <si>
     <t xml:space="preserve">15.383204460144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5491094589233</t>
+    <t xml:space="preserve">15.5491104125977</t>
   </si>
   <si>
     <t xml:space="preserve">15.7150163650513</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8993558883667</t>
+    <t xml:space="preserve">15.899356842041</t>
   </si>
   <si>
     <t xml:space="preserve">16.2772541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297798156738</t>
+    <t xml:space="preserve">16.1297817230225</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219524383545</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450389862061</t>
+    <t xml:space="preserve">17.2450370788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.466251373291</t>
@@ -521,28 +521,28 @@
     <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6045055389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556461334229</t>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556442260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.410945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6598052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058906555176</t>
+    <t xml:space="preserve">17.6874599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4109477996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6598072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058925628662</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492038726807</t>
@@ -551,10 +551,10 @@
     <t xml:space="preserve">17.9731845855713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9547500610352</t>
+    <t xml:space="preserve">17.9639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
     <t xml:space="preserve">17.6229400634766</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">17.5676345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2266063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2173881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3279972076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0975704193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0606994628906</t>
+    <t xml:space="preserve">17.2266082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2173900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3279914855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3740787506104</t>
+    <t xml:space="preserve">17.1897392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3740768432617</t>
   </si>
   <si>
     <t xml:space="preserve">17.1436557769775</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">17.3832969665527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768527984619</t>
+    <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
@@ -605,28 +605,28 @@
     <t xml:space="preserve">18.0100536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1575241088867</t>
+    <t xml:space="preserve">18.1575260162354</t>
   </si>
   <si>
     <t xml:space="preserve">18.4063854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3879508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418655395508</t>
+    <t xml:space="preserve">18.3879489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418636322021</t>
   </si>
   <si>
     <t xml:space="preserve">18.3510818481445</t>
   </si>
   <si>
-    <t xml:space="preserve">18.20361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713943481445</t>
+    <t xml:space="preserve">18.2036094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644630432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331401824951</t>
+    <t xml:space="preserve">19.0331420898438</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244186401367</t>
@@ -644,82 +644,82 @@
     <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7797183990479</t>
+    <t xml:space="preserve">19.7797203063965</t>
   </si>
   <si>
     <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0838813781738</t>
+    <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585117340088</t>
+    <t xml:space="preserve">19.6783351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585136413574</t>
   </si>
   <si>
     <t xml:space="preserve">19.6230316162109</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3741703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
+    <t xml:space="preserve">19.3741722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
     <t xml:space="preserve">19.5124244689941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9870567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409713745117</t>
+    <t xml:space="preserve">18.9870586395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409694671631</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543506622314</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8903274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617805480957</t>
+    <t xml:space="preserve">19.890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165874481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617824554443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2913131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7521648406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373947143555</t>
+    <t xml:space="preserve">21.2913112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373966217041</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4756507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0240154266357</t>
+    <t xml:space="preserve">21.5678234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4756526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.024019241333</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807060241699</t>
@@ -728,31 +728,31 @@
     <t xml:space="preserve">21.060884475708</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6369037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1069717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1208419799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8443298339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8535499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.581693649292</t>
+    <t xml:space="preserve">20.6369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304615020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.106969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1208438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.844331741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8535461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5816955566406</t>
   </si>
   <si>
     <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2176647186279</t>
+    <t xml:space="preserve">23.2176704406738</t>
   </si>
   <si>
     <t xml:space="preserve">23.3098392486572</t>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">24.6094379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5910053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407550811768</t>
+    <t xml:space="preserve">24.5910034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.240758895874</t>
   </si>
   <si>
     <t xml:space="preserve">24.4619674682617</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">24.3882293701172</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3329277038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287666320801</t>
+    <t xml:space="preserve">24.3329296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
     <t xml:space="preserve">23.503396987915</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">23.0425453186035</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2084522247314</t>
+    <t xml:space="preserve">23.2084503173828</t>
   </si>
   <si>
     <t xml:space="preserve">22.9503746032715</t>
@@ -800,37 +800,37 @@
     <t xml:space="preserve">22.9595928192139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4895248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6738662719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7015151977539</t>
+    <t xml:space="preserve">22.48952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6738624572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8582019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7015132904053</t>
   </si>
   <si>
     <t xml:space="preserve">21.9641551971436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4065704345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604869842529</t>
+    <t xml:space="preserve">22.4065685272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604850769043</t>
   </si>
   <si>
     <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250049591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632629394531</t>
+    <t xml:space="preserve">22.4250030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936878204346</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">23.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8121185302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830806732178</t>
+    <t xml:space="preserve">22.8121204376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830825805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.8489875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
+    <t xml:space="preserve">23.0241107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070652008057</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347160339355</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.627779006958</t>
+    <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369934082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0747566223145</t>
+    <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.7982482910156</t>
@@ -887,37 +887,37 @@
     <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171737670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950729370117</t>
+    <t xml:space="preserve">22.5171756744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950748443604</t>
   </si>
   <si>
     <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5218315124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0401382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7856960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.709228515625</t>
+    <t xml:space="preserve">23.1623668670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0401401519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7856979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">26.3678207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2547340393066</t>
+    <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5845699310303</t>
+    <t xml:space="preserve">26.5845680236816</t>
   </si>
   <si>
     <t xml:space="preserve">26.4620571136475</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6693820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809074401855</t>
+    <t xml:space="preserve">26.6693840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809055328369</t>
   </si>
   <si>
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327648162842</t>
+    <t xml:space="preserve">26.5280246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453098297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264614105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327629089355</t>
   </si>
   <si>
     <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8212394714355</t>
+    <t xml:space="preserve">25.8212375640869</t>
   </si>
   <si>
     <t xml:space="preserve">25.8872051239014</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">25.3500480651855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9814453125</t>
+    <t xml:space="preserve">25.9814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">25.1898441314697</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4065895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5102519989014</t>
+    <t xml:space="preserve">25.4065914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.51025390625</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442863464355</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">23.4841346740723</t>
   </si>
   <si>
-    <t xml:space="preserve">23.634916305542</t>
+    <t xml:space="preserve">23.6349143981934</t>
   </si>
   <si>
     <t xml:space="preserve">23.7480010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5029830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5218296051025</t>
+    <t xml:space="preserve">23.5029850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218276977539</t>
   </si>
   <si>
     <t xml:space="preserve">23.2862339019775</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4181671142578</t>
+    <t xml:space="preserve">23.4181652069092</t>
   </si>
   <si>
     <t xml:space="preserve">23.9176292419434</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537647247314</t>
+    <t xml:space="preserve">23.6537628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
@@ -1061,88 +1061,88 @@
     <t xml:space="preserve">23.3804721832275</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2391166687012</t>
+    <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
     <t xml:space="preserve">23.1919975280762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8422412872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2663116455078</t>
+    <t xml:space="preserve">23.8422393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2663097381592</t>
   </si>
   <si>
     <t xml:space="preserve">24.5113315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5019073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5961456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846164703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9259777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6903820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1615753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4337844848633</t>
+    <t xml:space="preserve">24.5019035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5961437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9259796142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6903839111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1615734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4337863922119</t>
   </si>
   <si>
     <t xml:space="preserve">26.1981906890869</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7741222381592</t>
+    <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
     <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8683605194092</t>
+    <t xml:space="preserve">25.8683586120605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1039524078369</t>
+    <t xml:space="preserve">26.1039543151855</t>
   </si>
   <si>
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730987548828</t>
+    <t xml:space="preserve">24.9730949401855</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8788585662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7375011444092</t>
+    <t xml:space="preserve">24.5490264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8788566589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7374992370605</t>
   </si>
   <si>
     <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3029327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086925506592</t>
+    <t xml:space="preserve">25.3029308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.5385246276855</t>
@@ -1151,31 +1151,31 @@
     <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2924289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1144542694092</t>
+    <t xml:space="preserve">26.2924270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1144504547119</t>
   </si>
   <si>
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1771926879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656673431396</t>
+    <t xml:space="preserve">26.5751438140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992122650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1771907806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656692504883</t>
   </si>
   <si>
     <t xml:space="preserve">28.6955013275146</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1300735473633</t>
+    <t xml:space="preserve">28.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">27.3290481567383</t>
@@ -1190,19 +1190,19 @@
     <t xml:space="preserve">25.0673351287842</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9520988464355</t>
+    <t xml:space="preserve">26.9520950317383</t>
   </si>
   <si>
     <t xml:space="preserve">27.1876926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463352203369</t>
+    <t xml:space="preserve">27.0463371276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049758911133</t>
+    <t xml:space="preserve">26.9049777984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002395629883</t>
@@ -1220,28 +1220,28 @@
     <t xml:space="preserve">28.0829524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1405735015869</t>
+    <t xml:space="preserve">27.1405715942383</t>
   </si>
   <si>
     <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7060012817383</t>
+    <t xml:space="preserve">27.7059993743896</t>
   </si>
   <si>
     <t xml:space="preserve">27.4704055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599094390869</t>
+    <t xml:space="preserve">28.4599075317383</t>
   </si>
   <si>
     <t xml:space="preserve">29.402286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2138118743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5541439056396</t>
+    <t xml:space="preserve">29.213809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.554141998291</t>
   </si>
   <si>
     <t xml:space="preserve">29.449405670166</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.742618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6588840484619</t>
+    <t xml:space="preserve">28.7426204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
     <t xml:space="preserve">27.5646438598633</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">27.7531223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2819328308105</t>
+    <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
     <t xml:space="preserve">27.3761672973633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6222667694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714309692383</t>
+    <t xml:space="preserve">26.6222610473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714290618896</t>
   </si>
   <si>
     <t xml:space="preserve">27.5175266265869</t>
@@ -1283,52 +1283,52 @@
     <t xml:space="preserve">26.7626056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6663360595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107395172119</t>
+    <t xml:space="preserve">26.6663379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0514106750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107376098633</t>
   </si>
   <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812614440918</t>
+    <t xml:space="preserve">26.2812633514404</t>
   </si>
   <si>
     <t xml:space="preserve">25.7036552429199</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8961906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0297737121582</t>
+    <t xml:space="preserve">25.8961887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0297718048096</t>
   </si>
   <si>
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5857486724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2488098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1044063568115</t>
+    <t xml:space="preserve">23.5376148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.585750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2488079071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1044082641602</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1340,25 +1340,25 @@
     <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.526798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3342628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9600028991699</t>
+    <t xml:space="preserve">22.5267963409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3342609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9600048065186</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226894378662</t>
+    <t xml:space="preserve">23.9226875305176</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932132720947</t>
+    <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189571380615</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230640411377</t>
+    <t xml:space="preserve">22.6230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">22.1417236328125</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">21.6603832244873</t>
   </si>
   <si>
-    <t xml:space="preserve">21.467845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5641117095947</t>
+    <t xml:space="preserve">21.4678440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5641136169434</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1394,16 +1394,16 @@
     <t xml:space="preserve">22.7674674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2379932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305267333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0454540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9973239898682</t>
+    <t xml:space="preserve">22.2379913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305286407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0454559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9973201751709</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2969436645508</t>
+    <t xml:space="preserve">23.2969455718994</t>
   </si>
   <si>
     <t xml:space="preserve">24.0670909881592</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077621459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.548433303833</t>
+    <t xml:space="preserve">24.3077602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5484313964844</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1442,106 +1442,106 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891044616699</t>
+    <t xml:space="preserve">24.7891025543213</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2223110198975</t>
+    <t xml:space="preserve">25.1741771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2223129272461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1260433197021</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3185787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5111179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4738006591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3293972015381</t>
+    <t xml:space="preserve">25.3185806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.511116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4737987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3293991088867</t>
   </si>
   <si>
     <t xml:space="preserve">26.5219345092773</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8588733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5327529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808868408203</t>
+    <t xml:space="preserve">26.8588714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.580883026123</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8696937561035</t>
+    <t xml:space="preserve">27.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8696918487549</t>
   </si>
   <si>
     <t xml:space="preserve">28.0622272491455</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1103630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9178256988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.677152633667</t>
+    <t xml:space="preserve">28.1103649139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9178237915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
     <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2439460754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1958141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5700702667236</t>
+    <t xml:space="preserve">27.2439479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1958103179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
     <t xml:space="preserve">26.7144718170166</t>
   </si>
   <si>
-    <t xml:space="preserve">26.618200302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1849975585938</t>
+    <t xml:space="preserve">26.6182022094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1849956512451</t>
   </si>
   <si>
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6555194854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816398620605</t>
+    <t xml:space="preserve">25.5592498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.655517578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4148464202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551410675049</t>
+    <t xml:space="preserve">26.9551429748535</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4846153259277</t>
+    <t xml:space="preserve">27.484619140625</t>
   </si>
   <si>
     <t xml:space="preserve">27.6290225982666</t>
@@ -1562,40 +1562,40 @@
     <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3028984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7361068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0249118804932</t>
+    <t xml:space="preserve">28.3028964996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7361087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5543899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6133403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.420804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0465469360352</t>
+    <t xml:space="preserve">29.5543880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.613338470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4208030700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984149932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0465488433838</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1644515991211</t>
+    <t xml:space="preserve">32.3943023681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1644477844238</t>
   </si>
   <si>
     <t xml:space="preserve">33.2125854492188</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5976600646973</t>
+    <t xml:space="preserve">33.5976638793945</t>
   </si>
   <si>
     <t xml:space="preserve">33.8864631652832</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1536331176758</t>
+    <t xml:space="preserve">32.6349754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.153636932373</t>
   </si>
   <si>
     <t xml:space="preserve">32.0573654174805</t>
@@ -1649,28 +1649,28 @@
     <t xml:space="preserve">31.7685585021973</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7204284667969</t>
+    <t xml:space="preserve">31.7204265594482</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872180938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9610996246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722946166992</t>
+    <t xml:space="preserve">31.2872200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9610977172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6722927093506</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5278873443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648281097412</t>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648262023926</t>
   </si>
   <si>
     <t xml:space="preserve">32.586841583252</t>
@@ -1679,22 +1679,22 @@
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.442440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528762817383</t>
+    <t xml:space="preserve">32.4424362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
     <t xml:space="preserve">35.2342224121094</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5819816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927925109863</t>
+    <t xml:space="preserve">36.5819778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4002532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927963256836</t>
   </si>
   <si>
     <t xml:space="preserve">37.9778671264648</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0746383666992</t>
+    <t xml:space="preserve">39.074634552002</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
@@ -1724,19 +1724,19 @@
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301162719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6834030151367</t>
+    <t xml:space="preserve">38.8301124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6833992004395</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.710391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125869750977</t>
+    <t xml:space="preserve">39.7103958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">39.3191604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9768218994141</t>
+    <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527267456055</t>
+    <t xml:space="preserve">40.0527229309082</t>
   </si>
   <si>
     <t xml:space="preserve">40.1505355834961</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">43.0358963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760398864746</t>
+    <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
     <t xml:space="preserve">42.5957527160645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154769897461</t>
+    <t xml:space="preserve">41.7154808044434</t>
   </si>
   <si>
     <t xml:space="preserve">41.6176643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.840274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139846801758</t>
+    <t xml:space="preserve">42.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.013988494873</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.774543762207</t>
+    <t xml:space="preserve">45.7745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.160701751709</t>
+    <t xml:space="preserve">44.6008377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672714233398</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4102973937988</t>
+    <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
     <t xml:space="preserve">46.2635841369629</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8606033325195</t>
+    <t xml:space="preserve">50.8605995178223</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627944946289</t>
+    <t xml:space="preserve">50.7627983093262</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408828735352</t>
+    <t xml:space="preserve">50.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321182250977</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102027893066</t>
+    <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4912796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540336608887</t>
+    <t xml:space="preserve">49.4912757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934745788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540298461914</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9584083557129</t>
+    <t xml:space="preserve">50.9584121704102</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452651977539</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2620048522949</t>
+    <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
     <t xml:space="preserve">54.4795303344727</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7526321411133</t>
+    <t xml:space="preserve">47.3883934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.752628326416</t>
   </si>
   <si>
     <t xml:space="preserve">45.970157623291</t>
@@ -1949,19 +1949,19 @@
     <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3848915100098</t>
+    <t xml:space="preserve">37.4607887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8316993713379</t>
+    <t xml:space="preserve">32.1791114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8317012786865</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">31.7878761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870826721191</t>
+    <t xml:space="preserve">36.2870788574219</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469429016113</t>
+    <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
     <t xml:space="preserve">37.9009284973145</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">47.4861946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6548194885254</t>
+    <t xml:space="preserve">46.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1876907348633</t>
+    <t xml:space="preserve">45.187686920166</t>
   </si>
   <si>
     <t xml:space="preserve">44.1117897033691</t>
@@ -2051,19 +2051,19 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249366760254</t>
+    <t xml:space="preserve">42.791374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570106506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5620918273926</t>
+    <t xml:space="preserve">46.5570068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211624145508</t>
+    <t xml:space="preserve">52.6211585998535</t>
   </si>
   <si>
     <t xml:space="preserve">52.3277359008789</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488502502441</t>
+    <t xml:space="preserve">55.5554275512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488540649414</t>
   </si>
   <si>
     <t xml:space="preserve">56.0444717407227</t>
@@ -2123,31 +2123,31 @@
     <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1962661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.3918838500977</t>
+    <t xml:space="preserve">58.1962699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.3918876647949</t>
   </si>
   <si>
     <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2181777954102</t>
+    <t xml:space="preserve">57.2181816101074</t>
   </si>
   <si>
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568252563477</t>
+    <t xml:space="preserve">59.9568290710449</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094131469727</t>
+    <t xml:space="preserve">58.9787406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">60.1524429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6954727172852</t>
+    <t xml:space="preserve">62.6954689025879</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472747802734</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">63.6735610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7494583129883</t>
+    <t xml:space="preserve">64.7494506835938</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2219,22 +2219,22 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741653442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5201873779297</t>
+    <t xml:space="preserve">73.6500701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5201797485352</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245620727539</t>
+    <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048492431641</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.420783996582</t>
+    <t xml:space="preserve">79.4207916259766</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813507080078</t>
+    <t xml:space="preserve">81.1813430786133</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7243728637695</t>
+    <t xml:space="preserve">83.7243804931641</t>
   </si>
   <si>
     <t xml:space="preserve">84.2134170532227</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">82.9419097900391</t>
+    <t xml:space="preserve">82.9419174194336</t>
   </si>
   <si>
     <t xml:space="preserve">82.2572402954102</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265716552734</t>
+    <t xml:space="preserve">83.6265640258789</t>
   </si>
   <si>
     <t xml:space="preserve">85.1915054321289</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">78.7361297607422</t>
+    <t xml:space="preserve">78.7361221313477</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827560424805</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">78.4426956176758</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2791595458984</t>
+    <t xml:space="preserve">81.2791519165039</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">80.2032623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608291625977</t>
+    <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
     <t xml:space="preserve">87.2454986572266</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016677856445</t>
+    <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
+    <t xml:space="preserve">95.1680145263672</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044708251953</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">103.48176574707</t>
+    <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
     <t xml:space="preserve">100.156265258789</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">97.417610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">96.3417129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373382568359</t>
+    <t xml:space="preserve">96.3417205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2435,10 +2435,10 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548599243164</t>
+    <t xml:space="preserve">95.4614334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723892211914</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767791748047</t>
+    <t xml:space="preserve">94.7767868041992</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.7650299072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.677391052246</t>
+    <t xml:space="preserve">99.765022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">109.741523742676</t>
+    <t xml:space="preserve">109.74153137207</t>
   </si>
   <si>
     <t xml:space="preserve">112.088943481445</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">112.675796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980979919434</t>
+    <t xml:space="preserve">107.980972290039</t>
   </si>
   <si>
     <t xml:space="preserve">108.567832946777</t>
@@ -2486,25 +2486,25 @@
     <t xml:space="preserve">110.328384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.132766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.110847473145</t>
+    <t xml:space="preserve">109.937149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.132774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.110855102539</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.916816711426</t>
+    <t xml:space="preserve">101.721199035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.91682434082</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">110.915245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">108.176582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286148071289</t>
+    <t xml:space="preserve">108.17658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286140441895</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">105.242324829102</t>
+    <t xml:space="preserve">105.242317199707</t>
   </si>
   <si>
     <t xml:space="preserve">107.785354614258</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220405578613</t>
+    <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
     <t xml:space="preserve">108.763442993164</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.480171203613</t>
+    <t xml:space="preserve">116.196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
     <t xml:space="preserve">109.545913696289</t>
@@ -2585,28 +2585,28 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.218826293945</t>
+    <t xml:space="preserve">115.805686950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761856079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.326797485352</t>
+    <t xml:space="preserve">118.153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.326805114746</t>
   </si>
   <si>
     <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">118.348709106445</t>
+    <t xml:space="preserve">118.34871673584</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846343994141</t>
+    <t xml:space="preserve">131.846328735352</t>
   </si>
   <si>
     <t xml:space="preserve">134.976211547852</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">136.736770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.563079833984</t>
+    <t xml:space="preserve">136.736785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.563064575195</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453536987305</t>
+    <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
     <t xml:space="preserve">138.301727294922</t>
@@ -2699,34 +2699,34 @@
     <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
-    <t xml:space="preserve">141.040374755859</t>
+    <t xml:space="preserve">141.04035949707</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343963623047</t>
+    <t xml:space="preserve">147.691375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300140380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343978881836</t>
   </si>
   <si>
     <t xml:space="preserve">146.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104522705078</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473831176758</t>
+    <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">155.711700439453</t>
   </si>
   <si>
-    <t xml:space="preserve">158.841567993164</t>
+    <t xml:space="preserve">158.841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">162.558303833008</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2780,22 +2780,22 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.33918762207</t>
+    <t xml:space="preserve">167.448760986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.339202880859</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099746704102</t>
+    <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">168.818084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752365112305</t>
+    <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
     <t xml:space="preserve">169.013717651367</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688186645508</t>
+    <t xml:space="preserve">165.688171386719</t>
   </si>
   <si>
     <t xml:space="preserve">175.469085693359</t>
@@ -60803,7 +60803,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.649375</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>43710</v>
@@ -60815,7 +60815,7 @@
         <v>116.800003051758</v>
       </c>
       <c r="E2158" t="n">
-        <v>114.599998474121</v>
+        <v>117</v>
       </c>
       <c r="F2158" t="n">
         <v>119.599998474121</v>
@@ -60824,6 +60824,32 @@
         <v>1455</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6493402778</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>27654</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>119.699996948242</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>115.599998474121</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>116.199996948242</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317251205444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5458011627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1437129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402900695801</t>
+    <t xml:space="preserve">13.8317260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5458002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1437139511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402891159058</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777414321899</t>
@@ -68,43 +68,43 @@
     <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3938999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347789764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5093126296997</t>
+    <t xml:space="preserve">13.3939008712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347780227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
     <t xml:space="preserve">12.8667230606079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0722332000732</t>
+    <t xml:space="preserve">13.0722322463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.000750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650096893311</t>
+    <t xml:space="preserve">12.9650106430054</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986652374268</t>
+    <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110260009766</t>
+    <t xml:space="preserve">12.4467668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110250473022</t>
   </si>
   <si>
     <t xml:space="preserve">11.1690301895142</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">11.2226419448853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6157922744751</t>
+    <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
     <t xml:space="preserve">11.7051439285278</t>
@@ -125,31 +125,31 @@
     <t xml:space="preserve">12.3752841949463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519060134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769966125488</t>
+    <t xml:space="preserve">12.1519041061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965789794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769985198975</t>
   </si>
   <si>
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625514984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020910263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306083679199</t>
+    <t xml:space="preserve">12.0625524520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893583297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306102752686</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773704528809</t>
@@ -161,37 +161,37 @@
     <t xml:space="preserve">13.0811681747437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4564476013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4117698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0364904403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1794557571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1883897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492240905762</t>
+    <t xml:space="preserve">13.456446647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475126266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4117708206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0364923477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1794548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1883907318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492250442505</t>
   </si>
   <si>
     <t xml:space="preserve">13.4921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688093185425</t>
+    <t xml:space="preserve">13.2688074111938</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">13.7691802978516</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7602453231812</t>
+    <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
     <t xml:space="preserve">13.5011234283447</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">13.3849649429321</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2866792678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.920334815979</t>
+    <t xml:space="preserve">13.2866773605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203329086304</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237577438354</t>
@@ -227,16 +227,16 @@
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.294867515564</t>
+    <t xml:space="preserve">12.2948694229126</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.714822769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.839916229248</t>
+    <t xml:space="preserve">12.7148237228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8399171829224</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433410644531</t>
+    <t xml:space="preserve">12.6433420181274</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543622970581</t>
@@ -254,37 +254,37 @@
     <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4646377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182495117188</t>
+    <t xml:space="preserve">12.5539903640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4646368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182485580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804233551025</t>
+    <t xml:space="preserve">12.7863054275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612138748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804224014282</t>
   </si>
   <si>
     <t xml:space="preserve">12.1072282791138</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5271844863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577861785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914426803589</t>
+    <t xml:space="preserve">12.5271835327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577871322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914417266846</t>
   </si>
   <si>
     <t xml:space="preserve">12.4557018280029</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0096874237061</t>
+    <t xml:space="preserve">13.0096883773804</t>
   </si>
   <si>
     <t xml:space="preserve">13.161584854126</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743175506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224191665649</t>
+    <t xml:space="preserve">12.8131122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224201202393</t>
   </si>
   <si>
     <t xml:space="preserve">13.5994110107422</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032077789307</t>
+    <t xml:space="preserve">13.6708927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.903208732605</t>
   </si>
   <si>
     <t xml:space="preserve">13.9925603866577</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">14.028302192688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0559520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716115951538</t>
+    <t xml:space="preserve">14.0559530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716135025024</t>
   </si>
   <si>
     <t xml:space="preserve">14.1757736206055</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.945348739624</t>
+    <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
     <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8992643356323</t>
+    <t xml:space="preserve">13.899263381958</t>
   </si>
   <si>
     <t xml:space="preserve">13.9176979064941</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.853178024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6411867141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808298110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0006504058838</t>
+    <t xml:space="preserve">13.8531789779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6411876678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808288574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
     <t xml:space="preserve">14.0836029052734</t>
@@ -389,133 +389,133 @@
     <t xml:space="preserve">14.2863779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508968353271</t>
+    <t xml:space="preserve">14.3508977890015</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2126417160034</t>
+    <t xml:space="preserve">14.2126426696777</t>
   </si>
   <si>
     <t xml:space="preserve">14.4154167175293</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628890991211</t>
+    <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
     <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6827096939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380113601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8394002914429</t>
+    <t xml:space="preserve">14.682710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
     <t xml:space="preserve">14.9315700531006</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9868717193604</t>
+    <t xml:space="preserve">14.986870765686</t>
   </si>
   <si>
     <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181917190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670482635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684381484985</t>
+    <t xml:space="preserve">14.6274080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181898117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684362411499</t>
   </si>
   <si>
     <t xml:space="preserve">15.0606069564819</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421743392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145244598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.152777671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.06982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039182662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541637420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549111366272</t>
+    <t xml:space="preserve">15.0421724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592199325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145235061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1527795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0698261260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960889816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541627883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491094589233</t>
   </si>
   <si>
     <t xml:space="preserve">15.715015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8993577957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297798156738</t>
+    <t xml:space="preserve">15.8993558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297779083252</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850852966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3049049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.116003036499</t>
+    <t xml:space="preserve">16.1850833892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3049068450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
     <t xml:space="preserve">17.2450408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4662475585938</t>
+    <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307693481445</t>
@@ -527,13 +527,13 @@
     <t xml:space="preserve">17.3556442260742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2819080352783</t>
+    <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
     <t xml:space="preserve">17.6874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4109439849854</t>
+    <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
     <t xml:space="preserve">17.6598052978516</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">17.7058925628662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5492057800293</t>
+    <t xml:space="preserve">17.549201965332</t>
   </si>
   <si>
     <t xml:space="preserve">17.9731864929199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9547519683838</t>
+    <t xml:space="preserve">17.9639663696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9547538757324</t>
   </si>
   <si>
     <t xml:space="preserve">17.6229400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5676326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266082763672</t>
+    <t xml:space="preserve">17.5676364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173900604248</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0606994628906</t>
+    <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
@@ -584,76 +584,76 @@
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3740787506104</t>
+    <t xml:space="preserve">17.1897373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.374080657959</t>
   </si>
   <si>
     <t xml:space="preserve">17.1436519622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3832950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768547058105</t>
+    <t xml:space="preserve">17.3832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100536346436</t>
+    <t xml:space="preserve">18.0100555419922</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510799407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.20361328125</t>
+    <t xml:space="preserve">18.4063854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2635688781738</t>
+    <t xml:space="preserve">19.1714000701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2635669708252</t>
   </si>
   <si>
     <t xml:space="preserve">19.3557357788086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331420898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889347076416</t>
+    <t xml:space="preserve">19.0331401824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797203063965</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1023139953613</t>
+    <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
     <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9917125701904</t>
+    <t xml:space="preserve">19.9917144775391</t>
   </si>
   <si>
     <t xml:space="preserve">19.6783351898193</t>
@@ -668,37 +668,37 @@
     <t xml:space="preserve">19.6230335235596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870586395264</t>
+    <t xml:space="preserve">19.3741722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870567321777</t>
   </si>
   <si>
     <t xml:space="preserve">18.5999431610107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409713745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543487548828</t>
+    <t xml:space="preserve">18.9409732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543506622314</t>
   </si>
   <si>
     <t xml:space="preserve">19.890323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8165874481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120288848877</t>
+    <t xml:space="preserve">19.8165893554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913131713867</t>
@@ -713,37 +713,37 @@
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678234100342</t>
+    <t xml:space="preserve">21.5678195953369</t>
   </si>
   <si>
     <t xml:space="preserve">21.4756507873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.024019241333</t>
+    <t xml:space="preserve">21.0240154266357</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0608882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369037628174</t>
+    <t xml:space="preserve">21.0608863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">21.106969833374</t>
+    <t xml:space="preserve">21.1069717407227</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8443355560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8535499572754</t>
+    <t xml:space="preserve">21.8443336486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
     <t xml:space="preserve">22.581693649292</t>
@@ -752,40 +752,40 @@
     <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2176704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3098373413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910034179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407550811768</t>
+    <t xml:space="preserve">23.2176685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3098392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.591007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
   </si>
   <si>
     <t xml:space="preserve">24.4619655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3882312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329257965088</t>
+    <t xml:space="preserve">24.3882293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329277038574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.503396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.97802734375</t>
+    <t xml:space="preserve">23.5033950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
     <t xml:space="preserve">23.0425453186035</t>
@@ -794,43 +794,43 @@
     <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9503726959229</t>
+    <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
     <t xml:space="preserve">22.9595928192139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.48952293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6738662719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268848419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8582038879395</t>
+    <t xml:space="preserve">22.4895248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.673864364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8582057952881</t>
   </si>
   <si>
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641551971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853618621826</t>
+    <t xml:space="preserve">21.9641532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065723419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">22.4250049591064</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5632610321045</t>
+    <t xml:space="preserve">22.5632591247559</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
@@ -839,37 +839,37 @@
     <t xml:space="preserve">23.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8121204376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830806732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.848991394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1070652008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347179412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383823394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7199478149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6185626983643</t>
+    <t xml:space="preserve">22.8121223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830787658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8489894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.107063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7383842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7199516296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6185646057129</t>
   </si>
   <si>
     <t xml:space="preserve">22.5724773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6922988891602</t>
+    <t xml:space="preserve">22.6923007965088</t>
   </si>
   <si>
     <t xml:space="preserve">22.6277770996094</t>
@@ -881,25 +881,25 @@
     <t xml:space="preserve">22.0747604370117</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7982482910156</t>
+    <t xml:space="preserve">21.798246383667</t>
   </si>
   <si>
     <t xml:space="preserve">22.0378913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171775817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950710296631</t>
+    <t xml:space="preserve">22.5171737670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
     <t xml:space="preserve">23.1162815093994</t>
@@ -917,28 +917,28 @@
     <t xml:space="preserve">23.7856960296631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.709228515625</t>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.32177734375</t>
+    <t xml:space="preserve">25.3217792510986</t>
   </si>
   <si>
     <t xml:space="preserve">25.8023891448975</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678226470947</t>
+    <t xml:space="preserve">26.3866691589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678207397461</t>
   </si>
   <si>
     <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2358894348145</t>
+    <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
     <t xml:space="preserve">26.5845680236816</t>
@@ -947,31 +947,31 @@
     <t xml:space="preserve">26.4620571136475</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5562992095947</t>
+    <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
     <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772449493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453098297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327667236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625988006592</t>
+    <t xml:space="preserve">26.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772430419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327629089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212413787842</t>
@@ -983,22 +983,22 @@
     <t xml:space="preserve">25.3500499725342</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9814434051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1898460388184</t>
+    <t xml:space="preserve">25.9814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1898422241211</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">25.51025390625</t>
+    <t xml:space="preserve">25.5102519989014</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7008838653564</t>
+    <t xml:space="preserve">23.7008819580078</t>
   </si>
   <si>
     <t xml:space="preserve">23.4841346740723</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7480010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029811859131</t>
+    <t xml:space="preserve">23.7479991912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
     <t xml:space="preserve">23.2862339019775</t>
@@ -1019,31 +1019,31 @@
     <t xml:space="preserve">23.1731472015381</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9940948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2296905517578</t>
+    <t xml:space="preserve">22.9940967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2296924591064</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150444030762</t>
+    <t xml:space="preserve">22.8150424957275</t>
   </si>
   <si>
     <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6254920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4181690216064</t>
+    <t xml:space="preserve">23.6254901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040084838867</t>
+    <t xml:space="preserve">24.3040046691895</t>
   </si>
   <si>
     <t xml:space="preserve">24.1438026428223</t>
@@ -1052,46 +1052,46 @@
     <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.493558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3804721832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2391166687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1919975280762</t>
+    <t xml:space="preserve">23.4935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3804740905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2391147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113296508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5019073486328</t>
+    <t xml:space="preserve">24.2663097381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113315582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
     <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7846183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9259757995605</t>
+    <t xml:space="preserve">24.7846202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9259796142578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6903839111328</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1615734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4337844848633</t>
+    <t xml:space="preserve">25.1615715026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4337863922119</t>
   </si>
   <si>
     <t xml:space="preserve">26.1981925964355</t>
@@ -1106,58 +1106,58 @@
     <t xml:space="preserve">25.8683586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0097179412842</t>
+    <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6798839569092</t>
+    <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
     <t xml:space="preserve">24.9730968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1720733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490245819092</t>
+    <t xml:space="preserve">24.1720752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490264892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788585662842</t>
+    <t xml:space="preserve">24.8788566589355</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029289245605</t>
+    <t xml:space="preserve">24.8317413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029327392578</t>
   </si>
   <si>
     <t xml:space="preserve">25.2086925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0568351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2924327850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5751438140869</t>
+    <t xml:space="preserve">25.5385265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0568332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2924308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1144542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510734558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5751457214355</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992160797119</t>
@@ -1166,31 +1166,31 @@
     <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3656673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6955032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3290500640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673351287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1876907348633</t>
+    <t xml:space="preserve">28.3656711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.695499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3290481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0934543609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673370361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1876926422119</t>
   </si>
   <si>
     <t xml:space="preserve">27.0463352203369</t>
@@ -1199,49 +1199,49 @@
     <t xml:space="preserve">26.8107395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049758911133</t>
+    <t xml:space="preserve">26.9049777984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002395629883</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8578567504883</t>
+    <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
     <t xml:space="preserve">27.8944797515869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9887180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0829544067383</t>
+    <t xml:space="preserve">27.9887161254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0829524993896</t>
   </si>
   <si>
     <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7060031890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599075317383</t>
+    <t xml:space="preserve">27.4232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7059993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599056243896</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2138118743896</t>
+    <t xml:space="preserve">29.213809967041</t>
   </si>
   <si>
     <t xml:space="preserve">28.5541439056396</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4494075775146</t>
+    <t xml:space="preserve">29.449405670166</t>
   </si>
   <si>
     <t xml:space="preserve">28.7897396087646</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.742618560791</t>
+    <t xml:space="preserve">28.7426223754883</t>
   </si>
   <si>
     <t xml:space="preserve">27.6588840484619</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531204223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2819328308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761672973633</t>
+    <t xml:space="preserve">27.7531223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761692047119</t>
   </si>
   <si>
     <t xml:space="preserve">26.6222629547119</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">28.2714309692383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5175266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626056671143</t>
+    <t xml:space="preserve">27.5175247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626037597656</t>
   </si>
   <si>
     <t xml:space="preserve">26.6663379669189</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4629821777344</t>
+    <t xml:space="preserve">25.7036533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.462984085083</t>
   </si>
   <si>
     <t xml:space="preserve">25.0297737121582</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2488098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1044044494629</t>
+    <t xml:space="preserve">23.2488079071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1334,28 +1334,28 @@
     <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6712017059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5267963409424</t>
+    <t xml:space="preserve">22.671199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5267944335938</t>
   </si>
   <si>
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600048065186</t>
+    <t xml:space="preserve">22.9600067138672</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226894378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7301502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3932132720947</t>
+    <t xml:space="preserve">23.9226875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.730152130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189590454102</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417255401611</t>
+    <t xml:space="preserve">22.6230659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417217254639</t>
   </si>
   <si>
     <t xml:space="preserve">21.6603832244873</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">21.467845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5641117095947</t>
+    <t xml:space="preserve">21.564115524292</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674674987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379932403564</t>
+    <t xml:space="preserve">21.9491863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674655914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379913330078</t>
   </si>
   <si>
     <t xml:space="preserve">22.4305286407471</t>
@@ -1400,82 +1400,82 @@
     <t xml:space="preserve">22.0454540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973220825195</t>
+    <t xml:space="preserve">21.9973201751709</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.708517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3450775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2969436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0670890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2596263885498</t>
+    <t xml:space="preserve">21.7085151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3450794219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2969455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0670928955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2596282958984</t>
   </si>
   <si>
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077602386475</t>
+    <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
     <t xml:space="preserve">24.548433303833</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8372364044189</t>
+    <t xml:space="preserve">24.8372383117676</t>
   </si>
   <si>
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891025543213</t>
+    <t xml:space="preserve">24.7891044616699</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741790771484</t>
+    <t xml:space="preserve">25.1741752624512</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1260433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5111179351807</t>
+    <t xml:space="preserve">25.1260452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.511116027832</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3293972015381</t>
+    <t xml:space="preserve">26.3293991088867</t>
   </si>
   <si>
     <t xml:space="preserve">26.5219345092773</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8588752746582</t>
+    <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
     <t xml:space="preserve">27.5327529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5808868408203</t>
+    <t xml:space="preserve">27.5808849334717</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">27.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8696937561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0622272491455</t>
+    <t xml:space="preserve">27.8696918487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103649139404</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178276062012</t>
+    <t xml:space="preserve">27.9178256988525</t>
   </si>
   <si>
     <t xml:space="preserve">27.6771545410156</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2439460754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1958141326904</t>
+    <t xml:space="preserve">27.2439479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
     <t xml:space="preserve">26.570068359375</t>
@@ -1520,16 +1520,16 @@
     <t xml:space="preserve">26.1849956512451</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9924564361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5592498779297</t>
+    <t xml:space="preserve">25.9924583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5592479705811</t>
   </si>
   <si>
     <t xml:space="preserve">25.655517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148464202881</t>
+    <t xml:space="preserve">25.4148445129395</t>
   </si>
   <si>
     <t xml:space="preserve">24.9816417694092</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">27.629020690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7734222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1584949493408</t>
+    <t xml:space="preserve">27.6290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7734241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
     <t xml:space="preserve">28.3028984069824</t>
@@ -1574,46 +1574,46 @@
     <t xml:space="preserve">29.5543880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6133403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.420804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984130859375</t>
+    <t xml:space="preserve">30.613338470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4208030700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984149932861</t>
   </si>
   <si>
     <t xml:space="preserve">31.0465469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2017669677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3943061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1644515991211</t>
+    <t xml:space="preserve">32.2017707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3943023681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1644477844238</t>
   </si>
   <si>
     <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2234001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.415943145752</t>
+    <t xml:space="preserve">34.2234039306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
     <t xml:space="preserve">34.0308685302734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3196678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827308654785</t>
+    <t xml:space="preserve">34.3196754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827346801758</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">33.8864631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7901916503906</t>
+    <t xml:space="preserve">33.7901954650879</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
@@ -1631,28 +1631,28 @@
     <t xml:space="preserve">33.0200500488281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349792480469</t>
+    <t xml:space="preserve">32.6349754333496</t>
   </si>
   <si>
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573654174805</t>
+    <t xml:space="preserve">32.0573616027832</t>
   </si>
   <si>
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2872180938721</t>
+    <t xml:space="preserve">31.7685604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2872200012207</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610977172852</t>
@@ -1661,46 +1661,46 @@
     <t xml:space="preserve">31.6722927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1054992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5278854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648281097412</t>
+    <t xml:space="preserve">32.1054954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648242950439</t>
   </si>
   <si>
     <t xml:space="preserve">32.586841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7312393188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.442440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528762817383</t>
+    <t xml:space="preserve">32.7312431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4424362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
     <t xml:space="preserve">35.2342224121094</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5819778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.400260925293</t>
+    <t xml:space="preserve">36.5819816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4002532958984</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927963256836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9778709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5073432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9279251098633</t>
+    <t xml:space="preserve">37.9778671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5073394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.927921295166</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301162719727</t>
+    <t xml:space="preserve">38.8301124572754</t>
   </si>
   <si>
     <t xml:space="preserve">38.6833992004395</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.710391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125869750977</t>
+    <t xml:space="preserve">39.7103958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994400024414</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">39.6614875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3191604614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9768257141113</t>
+    <t xml:space="preserve">39.3191566467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9768295288086</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483406066895</t>
+    <t xml:space="preserve">40.2483444213867</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1505355834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7862892150879</t>
+    <t xml:space="preserve">40.1505317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7862930297852</t>
   </si>
   <si>
     <t xml:space="preserve">42.1067123413086</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">43.0358924865723</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760360717773</t>
+    <t xml:space="preserve">43.4760322570801</t>
   </si>
   <si>
     <t xml:space="preserve">42.5957565307617</t>
@@ -1796,16 +1796,16 @@
     <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6176643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840274810791</t>
+    <t xml:space="preserve">41.6176681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8402786254883</t>
   </si>
   <si>
     <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4541244506836</t>
+    <t xml:space="preserve">44.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">45.2365951538086</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.160701751709</t>
+    <t xml:space="preserve">44.6008377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1841,19 +1841,19 @@
     <t xml:space="preserve">46.6059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7088050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9803237915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6868934631348</t>
+    <t xml:space="preserve">48.7088088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9803199768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.686897277832</t>
   </si>
   <si>
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781288146973</t>
+    <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408828735352</t>
+    <t xml:space="preserve">50.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321144104004</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8926773071289</t>
+    <t xml:space="preserve">53.8926734924316</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
@@ -1886,34 +1886,34 @@
     <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0123977661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8167762756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4912796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934669494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5233535766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.034309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9584083557129</t>
+    <t xml:space="preserve">53.0124015808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.816780090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4912757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934745788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540260314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5233573913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0343132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9584121704102</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970596313477</t>
+    <t xml:space="preserve">53.6970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4153861999512</t>
+    <t xml:space="preserve">48.4153823852539</t>
   </si>
   <si>
     <t xml:space="preserve">48.0241432189941</t>
@@ -1937,25 +1937,25 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.970157623291</t>
+    <t xml:space="preserve">45.9701614379883</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6935615539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3848915100098</t>
+    <t xml:space="preserve">42.6935653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4607887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
+    <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878761291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.7878799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870826721191</t>
+    <t xml:space="preserve">36.2870788574219</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009284973145</t>
+    <t xml:space="preserve">37.9009323120117</t>
   </si>
   <si>
     <t xml:space="preserve">38.0476455688477</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242416381836</t>
+    <t xml:space="preserve">41.3242378234863</t>
   </si>
   <si>
     <t xml:space="preserve">40.8841018676758</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9971504211426</t>
+    <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
     <t xml:space="preserve">46.4592056274414</t>
@@ -2018,55 +2018,55 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4861946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6548194885254</t>
+    <t xml:space="preserve">47.486198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3124885559082</t>
+    <t xml:space="preserve">46.3124923706055</t>
   </si>
   <si>
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1876907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1117935180664</t>
+    <t xml:space="preserve">45.187686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1117897033691</t>
   </si>
   <si>
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249366760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0190658569336</t>
+    <t xml:space="preserve">42.7913703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5620918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7577133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7847099304199</t>
+    <t xml:space="preserve">48.5620956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7577095031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9145889282227</t>
+    <t xml:space="preserve">52.9145851135254</t>
   </si>
   <si>
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839164733887</t>
+    <t xml:space="preserve">54.2839126586914</t>
   </si>
   <si>
     <t xml:space="preserve">55.1641960144043</t>
@@ -2099,70 +2099,70 @@
     <t xml:space="preserve">56.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9247512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7291374206543</t>
+    <t xml:space="preserve">56.9247550964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488540649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444717407227</t>
+    <t xml:space="preserve">55.8488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0006484985352</t>
+    <t xml:space="preserve">58.0006446838379</t>
   </si>
   <si>
     <t xml:space="preserve">58.1962661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">58.3918838500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.511604309082</t>
+    <t xml:space="preserve">58.3918876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5116004943848</t>
   </si>
   <si>
     <t xml:space="preserve">57.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5875053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.9568252563477</t>
+    <t xml:space="preserve">58.5875015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.9568290710449</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094131469727</t>
+    <t xml:space="preserve">58.9787406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954689025879</t>
+    <t xml:space="preserve">60.1524391174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954727172852</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472671508789</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6735649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494659423828</t>
+    <t xml:space="preserve">63.6735610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494506835938</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">65.0428924560547</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">65.7275466918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034515380859</t>
+    <t xml:space="preserve">66.8034439086914</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
@@ -2207,22 +2207,22 @@
     <t xml:space="preserve">72.8675918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3785552978516</t>
+    <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">73.3566436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741653442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092315673828</t>
+    <t xml:space="preserve">73.3566360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245620727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2048416137695</t>
+    <t xml:space="preserve">70.3245697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2048492431641</t>
   </si>
   <si>
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.420783996582</t>
+    <t xml:space="preserve">79.4207916259766</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">75.508430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4865264892578</t>
+    <t xml:space="preserve">76.4865188598633</t>
   </si>
   <si>
     <t xml:space="preserve">79.6164093017578</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813507080078</t>
+    <t xml:space="preserve">81.1813430786133</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2273,28 +2273,28 @@
     <t xml:space="preserve">83.8221817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.3331451416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7243728637695</t>
+    <t xml:space="preserve">83.333137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7243804931641</t>
   </si>
   <si>
     <t xml:space="preserve">84.2134246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">83.2353286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9419021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">83.2353363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9419097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265716552734</t>
+    <t xml:space="preserve">83.6265640258789</t>
   </si>
   <si>
     <t xml:space="preserve">85.1915130615234</t>
@@ -2306,28 +2306,28 @@
     <t xml:space="preserve">84.6046524047852</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1156158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7361297607422</t>
+    <t xml:space="preserve">84.115608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7361221313477</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791595458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5725784301758</t>
+    <t xml:space="preserve">78.4427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791442871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5725860595703</t>
   </si>
   <si>
     <t xml:space="preserve">84.3112258911133</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2454986572266</t>
+    <t xml:space="preserve">87.245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016677856445</t>
+    <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7126235961914</t>
+    <t xml:space="preserve">88.7126312255859</t>
   </si>
   <si>
     <t xml:space="preserve">92.9184112548828</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
+    <t xml:space="preserve">95.1680068969727</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3737869262695</t>
+    <t xml:space="preserve">99.3737945556641</t>
   </si>
   <si>
     <t xml:space="preserve">102.699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">103.873001098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.48176574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.156257629395</t>
+    <t xml:space="preserve">103.872993469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.481773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.156265258789</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
@@ -2402,19 +2402,19 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088455200195</t>
+    <t xml:space="preserve">97.8088607788086</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.417610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3417129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373382568359</t>
+    <t xml:space="preserve">97.4176177978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3417205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.146110534668</t>
+    <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
     <t xml:space="preserve">95.4614410400391</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">94.9723892211914</t>
+    <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">96.4395217895508</t>
+    <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
     <t xml:space="preserve">99.7650299072266</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">107.198501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">106.807266235352</t>
+    <t xml:space="preserve">106.807258605957</t>
   </si>
   <si>
     <t xml:space="preserve">108.959060668945</t>
@@ -2468,25 +2468,25 @@
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088943481445</t>
+    <t xml:space="preserve">112.088935852051</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.567832946777</t>
+    <t xml:space="preserve">107.980972290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.567825317383</t>
   </si>
   <si>
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893333435059</t>
+    <t xml:space="preserve">109.937149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893325805664</t>
   </si>
   <si>
     <t xml:space="preserve">110.132766723633</t>
@@ -2501,16 +2501,16 @@
     <t xml:space="preserve">101.721206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">101.916816711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.63355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.829177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.372207641602</t>
+    <t xml:space="preserve">101.91682434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.633560180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.829170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.372215270996</t>
   </si>
   <si>
     <t xml:space="preserve">109.350303649902</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">104.655471801758</t>
   </si>
   <si>
-    <t xml:space="preserve">105.437950134277</t>
+    <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
     <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">107.785354614258</t>
+    <t xml:space="preserve">107.785346984863</t>
   </si>
   <si>
     <t xml:space="preserve">104.264228820801</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">108.763442993164</t>
+    <t xml:space="preserve">108.76343536377</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2552,28 +2552,28 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196922302246</t>
+    <t xml:space="preserve">116.196914672852</t>
   </si>
   <si>
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.458274841309</t>
+    <t xml:space="preserve">109.545921325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
     <t xml:space="preserve">115.414443969727</t>
   </si>
   <si>
-    <t xml:space="preserve">112.284561157227</t>
+    <t xml:space="preserve">112.284568786621</t>
   </si>
   <si>
     <t xml:space="preserve">112.87141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">113.849502563477</t>
+    <t xml:space="preserve">113.849510192871</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2585,34 +2585,34 @@
     <t xml:space="preserve">115.805686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">115.218826293945</t>
+    <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761856079102</t>
+    <t xml:space="preserve">118.153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761863708496</t>
   </si>
   <si>
     <t xml:space="preserve">119.326797485352</t>
   </si>
   <si>
-    <t xml:space="preserve">118.739952087402</t>
+    <t xml:space="preserve">118.739944458008</t>
   </si>
   <si>
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.13117980957</t>
+    <t xml:space="preserve">119.131187438965</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">134.976226806641</t>
   </si>
   <si>
-    <t xml:space="preserve">137.128021240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.736770629883</t>
+    <t xml:space="preserve">137.128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
     <t xml:space="preserve">135.563079833984</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">137.91047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">139.671035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.453536987305</t>
+    <t xml:space="preserve">139.671051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
     <t xml:space="preserve">138.301712036133</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">140.062271118164</t>
+    <t xml:space="preserve">140.062255859375</t>
   </si>
   <si>
     <t xml:space="preserve">141.627227783203</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.47541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.822845458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.409683227539</t>
+    <t xml:space="preserve">139.475433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.822830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343963623047</t>
+    <t xml:space="preserve">148.082580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343978881836</t>
   </si>
   <si>
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473831176758</t>
+    <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2732,25 +2732,25 @@
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038757324219</t>
+    <t xml:space="preserve">150.038772583008</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.342376708984</t>
+    <t xml:space="preserve">154.342361450195</t>
   </si>
   <si>
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.841567993164</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">162.558288574219</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">163.145156860352</t>
+    <t xml:space="preserve">163.145172119141</t>
   </si>
   <si>
     <t xml:space="preserve">164.905731201172</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.33918762207</t>
+    <t xml:space="preserve">167.448760986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.339202880859</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099746704102</t>
+    <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">168.818099975586</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752365112305</t>
+    <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">164.318862915039</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688201904297</t>
+    <t xml:space="preserve">165.688186645508</t>
   </si>
   <si>
     <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
-    <t xml:space="preserve">170.77424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.515869140625</t>
+    <t xml:space="preserve">170.774261474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.515884399414</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576217651367</t>
+    <t xml:space="preserve">150.576202392578</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362503051758</t>
+    <t xml:space="preserve">151.362518310547</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635757446289</t>
+    <t xml:space="preserve">158.635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.336441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037094116211</t>
+    <t xml:space="preserve">164.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037109375</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695327758789</t>
+    <t xml:space="preserve">169.250793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387054443359</t>
+    <t xml:space="preserve">181.438446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387069702148</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216552734375</t>
+    <t xml:space="preserve">171.216537475586</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524063110352</t>
+    <t xml:space="preserve">176.524078369141</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737777709961</t>
+    <t xml:space="preserve">175.737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430236816406</t>
+    <t xml:space="preserve">170.430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.200180053711</t>
+    <t xml:space="preserve">155.687149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.2001953125</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866607666016</t>
+    <t xml:space="preserve">156.866592407227</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601501464844</t>
+    <t xml:space="preserve">160.601516723633</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636535644531</t>
+    <t xml:space="preserve">135.636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884490966797</t>
+    <t xml:space="preserve">137.798843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884475708008</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491333007812</t>
+    <t xml:space="preserve">131.705032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550903320312</t>
+    <t xml:space="preserve">140.550888061523</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.36328125</t>
+    <t xml:space="preserve">127.576972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.926910400391</t>
+    <t xml:space="preserve">141.92692565918</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448135375977</t>
+    <t xml:space="preserve">146.448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251556396484</t>
+    <t xml:space="preserve">146.251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320083618164</t>
+    <t xml:space="preserve">143.008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393051147461</t>
+    <t xml:space="preserve">145.465255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393035888672</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611228942871</t>
+    <t xml:space="preserve">125.611221313477</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244140625</t>
+    <t xml:space="preserve">112.244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944816589355</t>
+    <t xml:space="preserve">117.944808959961</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.69686126709</t>
+    <t xml:space="preserve">120.696853637695</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760887145996</t>
+    <t xml:space="preserve">122.760894775391</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.15404510498</t>
+    <t xml:space="preserve">123.154037475586</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.419120788574</t>
+    <t xml:space="preserve">119.41911315918</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.08553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820449829102</t>
+    <t xml:space="preserve">127.380401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820465087891</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.06022644043</t>
+    <t xml:space="preserve">117.060218811035</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521881103516</t>
+    <t xml:space="preserve">113.521873474121</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778022766113</t>
+    <t xml:space="preserve">121.778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500274658203</t>
+    <t xml:space="preserve">120.500282287598</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684196472168</t>
+    <t xml:space="preserve">115.684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397529602051</t>
+    <t xml:space="preserve">120.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.44889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397521972656</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.641006469727</t>
+    <t xml:space="preserve">133.572494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.640991210938</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901596069336</t>
+    <t xml:space="preserve">131.901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.29923248291</t>
+    <t xml:space="preserve">129.149566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136917114258</t>
+    <t xml:space="preserve">124.136909484863</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743759155273</t>
+    <t xml:space="preserve">121.581443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743766784668</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141380310059</t>
+    <t xml:space="preserve">118.436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -60936,7 +60936,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6496412037</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>12913</v>
@@ -60957,6 +60957,32 @@
         <v>1456</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6493518519</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>117.800003051758</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>116</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>117.199996948242</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1458">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">13.5458002090454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330675125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028367996216</t>
+    <t xml:space="preserve">13.2330656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402891159058</t>
+    <t xml:space="preserve">13.3402900695801</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777414321899</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">13.3134832382202</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1347780227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.509313583374</t>
+    <t xml:space="preserve">13.1347789764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5093126296997</t>
   </si>
   <si>
     <t xml:space="preserve">12.8667230606079</t>
@@ -86,28 +86,28 @@
     <t xml:space="preserve">13.0722322463989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.000750541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650106430054</t>
+    <t xml:space="preserve">13.0007514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650115966797</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986661911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3127393722534</t>
+    <t xml:space="preserve">12.5986671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467668533325</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4110250473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690301895142</t>
+    <t xml:space="preserve">12.4110260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690282821655</t>
   </si>
   <si>
     <t xml:space="preserve">11.2226419448853</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7051439285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663501739502</t>
+    <t xml:space="preserve">11.7051429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663492202759</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752841949463</t>
@@ -128,28 +128,28 @@
     <t xml:space="preserve">12.1519041061401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484792709351</t>
+    <t xml:space="preserve">12.2412557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965808868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769975662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484783172607</t>
   </si>
   <si>
     <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893583297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306102752686</t>
+    <t xml:space="preserve">12.4020910263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306093215942</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773704528809</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">12.9560737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0811681747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456446647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475126266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581600189209</t>
+    <t xml:space="preserve">13.0811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564476013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
     <t xml:space="preserve">13.4117708206177</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4832515716553</t>
+    <t xml:space="preserve">13.4832534790039</t>
   </si>
   <si>
     <t xml:space="preserve">13.0364923477173</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1883907318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492250442505</t>
+    <t xml:space="preserve">13.1883897781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
     <t xml:space="preserve">13.4921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688074111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513103485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0104312896729</t>
+    <t xml:space="preserve">13.2688083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513084411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0104322433472</t>
   </si>
   <si>
     <t xml:space="preserve">13.7691802978516</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5011234283447</t>
+    <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
     <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849649429321</t>
+    <t xml:space="preserve">13.3849639892578</t>
   </si>
   <si>
     <t xml:space="preserve">13.2866773605347</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">12.9203329086304</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7237577438354</t>
+    <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
     <t xml:space="preserve">12.6522769927979</t>
@@ -230,31 +230,31 @@
     <t xml:space="preserve">12.2948694229126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.419960975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7148237228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8399171829224</t>
+    <t xml:space="preserve">12.4199600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7148218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.839916229248</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.91139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433420181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543622970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7058887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539903640747</t>
+    <t xml:space="preserve">12.9113988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433401107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543613433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7058877944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
     <t xml:space="preserve">12.4646368026733</t>
@@ -263,37 +263,37 @@
     <t xml:space="preserve">12.5182485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880178451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863054275513</t>
+    <t xml:space="preserve">12.6880187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863063812256</t>
   </si>
   <si>
     <t xml:space="preserve">12.6612138748169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0804224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072282791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5271835327148</t>
+    <t xml:space="preserve">12.0804243087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5271844863892</t>
   </si>
   <si>
     <t xml:space="preserve">12.8577871322632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4914417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632972717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0096883773804</t>
+    <t xml:space="preserve">12.4914426803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632982254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0096864700317</t>
   </si>
   <si>
     <t xml:space="preserve">13.161584854126</t>
@@ -302,46 +302,46 @@
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.045428276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526498794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224201202393</t>
+    <t xml:space="preserve">13.0454263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169080734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743175506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224172592163</t>
   </si>
   <si>
     <t xml:space="preserve">13.5994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547342300415</t>
+    <t xml:space="preserve">13.5547351837158</t>
   </si>
   <si>
     <t xml:space="preserve">13.6708927154541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.903208732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.028302192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559530258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716135025024</t>
+    <t xml:space="preserve">13.9032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9925594329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716115951538</t>
   </si>
   <si>
     <t xml:space="preserve">14.1757736206055</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637823104858</t>
+    <t xml:space="preserve">13.9637832641602</t>
   </si>
   <si>
     <t xml:space="preserve">13.899263381958</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255271911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8531789779663</t>
+    <t xml:space="preserve">13.8255262374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411876678467</t>
@@ -383,19 +383,19 @@
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020374298096</t>
+    <t xml:space="preserve">14.1020383834839</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508977890015</t>
+    <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2126426696777</t>
+    <t xml:space="preserve">14.2126417160034</t>
   </si>
   <si>
     <t xml:space="preserve">14.4154167175293</t>
@@ -404,70 +404,70 @@
     <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707183837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.682710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380123138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8393993377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9315700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.986870765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274080276489</t>
+    <t xml:space="preserve">14.4707174301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6827096939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380113601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393983840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9315710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274061203003</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181898117065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8670501708984</t>
+    <t xml:space="preserve">14.8670492172241</t>
   </si>
   <si>
     <t xml:space="preserve">14.9684362411499</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0606069564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421724319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592199325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500017166138</t>
+    <t xml:space="preserve">15.0606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421743392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500026702881</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1527795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0698261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.023738861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301811218262</t>
+    <t xml:space="preserve">15.1527767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.06982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039173126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0237379074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301820755005</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960889816284</t>
@@ -476,25 +476,25 @@
     <t xml:space="preserve">14.9776554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2541627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832025527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.715015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993558883667</t>
+    <t xml:space="preserve">15.2541656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832063674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.549111366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993549346924</t>
   </si>
   <si>
     <t xml:space="preserve">16.2772541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297779083252</t>
+    <t xml:space="preserve">16.1297798156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219524383545</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">16.1850833892822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0560474395752</t>
+    <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
     <t xml:space="preserve">16.3049068450928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1160011291504</t>
+    <t xml:space="preserve">17.1160049438477</t>
   </si>
   <si>
     <t xml:space="preserve">17.2450408935547</t>
@@ -518,52 +518,52 @@
     <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307693481445</t>
+    <t xml:space="preserve">17.5307712554932</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556442260742</t>
+    <t xml:space="preserve">17.3556461334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874580383301</t>
+    <t xml:space="preserve">17.6874599456787</t>
   </si>
   <si>
     <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.549201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731864929199</t>
+    <t xml:space="preserve">17.6598091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5492038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731884002686</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9547538757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5676364898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266063690186</t>
+    <t xml:space="preserve">17.9547519683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5676345825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266082763672</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173900604248</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975666046143</t>
+    <t xml:space="preserve">17.0975704193115</t>
   </si>
   <si>
     <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2358245849609</t>
+    <t xml:space="preserve">17.2358226776123</t>
   </si>
   <si>
     <t xml:space="preserve">17.4201641082764</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">17.1436519622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768508911133</t>
+    <t xml:space="preserve">17.3832988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">18.4063854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3879528045654</t>
+    <t xml:space="preserve">18.3879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">18.3418636322021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3510818481445</t>
+    <t xml:space="preserve">18.3510837554932</t>
   </si>
   <si>
     <t xml:space="preserve">18.2036113739014</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1714000701904</t>
+    <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3557357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0331401824951</t>
+    <t xml:space="preserve">19.3557376861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0331439971924</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244167327881</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7797203063965</t>
+    <t xml:space="preserve">19.7797222137451</t>
   </si>
   <si>
     <t xml:space="preserve">20.10231590271</t>
@@ -653,19 +653,19 @@
     <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9917144775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6783351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230335235596</t>
+    <t xml:space="preserve">19.9917125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230316162109</t>
   </si>
   <si>
     <t xml:space="preserve">19.3741722106934</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">18.5999431610107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409732818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543506622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.890323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617786407471</t>
+    <t xml:space="preserve">18.9409713745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165874481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617824554443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2913131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7521648406982</t>
+    <t xml:space="preserve">21.2913112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.752161026001</t>
   </si>
   <si>
     <t xml:space="preserve">21.3373966217041</t>
@@ -713,34 +713,34 @@
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678195953369</t>
+    <t xml:space="preserve">21.5678215026855</t>
   </si>
   <si>
     <t xml:space="preserve">21.4756507873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0240154266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807060241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0608863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369018554688</t>
+    <t xml:space="preserve">21.0240173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0608882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.636905670166</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1069717407227</t>
+    <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8443336486816</t>
+    <t xml:space="preserve">21.8443355560303</t>
   </si>
   <si>
     <t xml:space="preserve">21.8535480499268</t>
@@ -749,55 +749,55 @@
     <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1254978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2176685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3098392486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.591007232666</t>
+    <t xml:space="preserve">23.1254997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2176704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3098411560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
     <t xml:space="preserve">24.2407569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4619655609131</t>
+    <t xml:space="preserve">24.4619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">24.3882293701172</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3329277038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5033950805664</t>
+    <t xml:space="preserve">24.3329296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.503396987915</t>
   </si>
   <si>
     <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0425453186035</t>
+    <t xml:space="preserve">23.0425434112549</t>
   </si>
   <si>
     <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9503746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595928192139</t>
+    <t xml:space="preserve">22.9503765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595909118652</t>
   </si>
   <si>
     <t xml:space="preserve">22.4895248413086</t>
@@ -809,52 +809,52 @@
     <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8582057952881</t>
+    <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065723419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853637695312</t>
+    <t xml:space="preserve">21.9641551971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065704345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604869842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.185359954834</t>
   </si>
   <si>
     <t xml:space="preserve">22.4250049591064</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5632591247559</t>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.319055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830787658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8489894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347141265869</t>
+    <t xml:space="preserve">23.3190536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121185302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830825805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.848991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347160339355</t>
   </si>
   <si>
     <t xml:space="preserve">22.7383842468262</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">22.6185646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6923007965088</t>
+    <t xml:space="preserve">22.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
     <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6369972229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0747604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.798246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0378913879395</t>
+    <t xml:space="preserve">22.6369953155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0747585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7982482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
     <t xml:space="preserve">22.5171737670898</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">22.8674221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8950729370117</t>
+    <t xml:space="preserve">22.8950710296631</t>
   </si>
   <si>
     <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623649597168</t>
+    <t xml:space="preserve">23.1623668670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">25.3217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8023891448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866691589355</t>
+    <t xml:space="preserve">25.8023910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866672515869</t>
   </si>
   <si>
     <t xml:space="preserve">26.3678207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2547359466553</t>
+    <t xml:space="preserve">26.2547340393066</t>
   </si>
   <si>
     <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5845680236816</t>
+    <t xml:space="preserve">26.584566116333</t>
   </si>
   <si>
     <t xml:space="preserve">26.4620571136475</t>
@@ -950,49 +950,49 @@
     <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6693820953369</t>
+    <t xml:space="preserve">26.6693801879883</t>
   </si>
   <si>
     <t xml:space="preserve">26.4809074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3772430419922</t>
+    <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
     <t xml:space="preserve">26.5280265808105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2453117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212413787842</t>
+    <t xml:space="preserve">26.2453136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212375640869</t>
   </si>
   <si>
     <t xml:space="preserve">25.8872032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500499725342</t>
+    <t xml:space="preserve">25.3500480651855</t>
   </si>
   <si>
     <t xml:space="preserve">25.9814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898422241211</t>
+    <t xml:space="preserve">25.1898441314697</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5102519989014</t>
+    <t xml:space="preserve">25.51025390625</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442882537842</t>
@@ -1001,31 +1001,34 @@
     <t xml:space="preserve">23.7008819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841346740723</t>
+    <t xml:space="preserve">23.4841365814209</t>
   </si>
   <si>
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7479991912842</t>
+    <t xml:space="preserve">23.7480030059814</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2862339019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731472015381</t>
+    <t xml:space="preserve">23.5218276977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2862319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731491088867</t>
   </si>
   <si>
     <t xml:space="preserve">22.9940967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2296924591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0035209655762</t>
+    <t xml:space="preserve">23.2296943664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0035190582275</t>
   </si>
   <si>
     <t xml:space="preserve">22.8150424957275</t>
@@ -1034,7 +1037,7 @@
     <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6254901885986</t>
+    <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181671142578</t>
@@ -1043,7 +1046,7 @@
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040046691895</t>
+    <t xml:space="preserve">24.3040065765381</t>
   </si>
   <si>
     <t xml:space="preserve">24.1438026428223</t>
@@ -1052,7 +1055,7 @@
     <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4935569763184</t>
+    <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
     <t xml:space="preserve">23.3804740905762</t>
@@ -1061,13 +1064,13 @@
     <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8422393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2663097381592</t>
+    <t xml:space="preserve">23.1919975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8422374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2663116455078</t>
   </si>
   <si>
     <t xml:space="preserve">24.5113315582275</t>
@@ -1076,37 +1079,37 @@
     <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5961437225342</t>
+    <t xml:space="preserve">24.5961456298828</t>
   </si>
   <si>
     <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9259796142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6903839111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1615715026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741203308105</t>
+    <t xml:space="preserve">24.9259777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6903820037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1615734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4337844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741222381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8683586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0097160339355</t>
+    <t xml:space="preserve">25.8683605194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0097179412842</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
@@ -1115,19 +1118,19 @@
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720752716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432628631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8788566589355</t>
+    <t xml:space="preserve">24.9730949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8788604736328</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
@@ -1136,25 +1139,25 @@
     <t xml:space="preserve">24.8317413330078</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3029327392578</t>
+    <t xml:space="preserve">25.3029308319092</t>
   </si>
   <si>
     <t xml:space="preserve">25.2086925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0568332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2924308776855</t>
+    <t xml:space="preserve">25.5385246276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0568351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
     <t xml:space="preserve">25.1144542694092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1510734558105</t>
+    <t xml:space="preserve">26.1510715484619</t>
   </si>
   <si>
     <t xml:space="preserve">26.5751457214355</t>
@@ -1163,16 +1166,16 @@
     <t xml:space="preserve">26.9992160797119</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1771907806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656711578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.695499420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300754547119</t>
+    <t xml:space="preserve">28.1771926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6955013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300735473633</t>
   </si>
   <si>
     <t xml:space="preserve">27.3290481567383</t>
@@ -1181,10 +1184,10 @@
     <t xml:space="preserve">27.0934543609619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5856456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673370361328</t>
+    <t xml:space="preserve">25.5856437683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673351287842</t>
   </si>
   <si>
     <t xml:space="preserve">26.9520969390869</t>
@@ -1196,13 +1199,13 @@
     <t xml:space="preserve">27.0463352203369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8107395172119</t>
+    <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
     <t xml:space="preserve">26.9049777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8002395629883</t>
+    <t xml:space="preserve">27.8002376556396</t>
   </si>
   <si>
     <t xml:space="preserve">26.8578586578369</t>
@@ -1214,43 +1217,43 @@
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0829524993896</t>
+    <t xml:space="preserve">28.0829544067383</t>
   </si>
   <si>
     <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7059993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704055786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599056243896</t>
+    <t xml:space="preserve">27.4232902526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7060031890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599075317383</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.213809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5541439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.449405670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7897396087646</t>
+    <t xml:space="preserve">29.2138118743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4494094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7897415161133</t>
   </si>
   <si>
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7426223754883</t>
+    <t xml:space="preserve">28.742618560791</t>
   </si>
   <si>
     <t xml:space="preserve">27.6588840484619</t>
@@ -1265,13 +1268,13 @@
     <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3761692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714309692383</t>
+    <t xml:space="preserve">27.3761672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714290618896</t>
   </si>
   <si>
     <t xml:space="preserve">27.5175247192383</t>
@@ -1280,25 +1283,22 @@
     <t xml:space="preserve">26.7626037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6663379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107376098633</t>
+    <t xml:space="preserve">26.6663360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0514125823975</t>
   </si>
   <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7036533355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961887359619</t>
+    <t xml:space="preserve">26.2812633514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7036552429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.462984085083</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521656036377</t>
+    <t xml:space="preserve">24.4521636962891</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2488079071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1044063568115</t>
+    <t xml:space="preserve">23.2488098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1044082641602</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1334,28 +1334,28 @@
     <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.671199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5267944335938</t>
+    <t xml:space="preserve">22.6711978912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5267963409424</t>
   </si>
   <si>
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600067138672</t>
+    <t xml:space="preserve">22.9600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226875305176</t>
+    <t xml:space="preserve">23.9226894378662</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932113647461</t>
+    <t xml:space="preserve">23.3932132720947</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189590454102</t>
@@ -1364,64 +1364,64 @@
     <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417217254639</t>
+    <t xml:space="preserve">22.6230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417236328125</t>
   </si>
   <si>
     <t xml:space="preserve">21.6603832244873</t>
   </si>
   <si>
-    <t xml:space="preserve">21.467845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.564115524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3234424591064</t>
+    <t xml:space="preserve">21.4678440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5641117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3234405517578</t>
   </si>
   <si>
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674655914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305286407471</t>
+    <t xml:space="preserve">21.9491882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674674987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305267333984</t>
   </si>
   <si>
     <t xml:space="preserve">22.0454540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973201751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8047847747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7085151672363</t>
+    <t xml:space="preserve">21.9973220825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8047828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.708517074585</t>
   </si>
   <si>
     <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2969455718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0670928955078</t>
+    <t xml:space="preserve">23.2969436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0670890808105</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2596282958984</t>
+    <t xml:space="preserve">24.2596302032471</t>
   </si>
   <si>
     <t xml:space="preserve">24.2114944458008</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741752624512</t>
+    <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223110198975</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.511116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4737987518311</t>
+    <t xml:space="preserve">25.5111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4738006591797</t>
   </si>
   <si>
     <t xml:space="preserve">26.3293991088867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5219345092773</t>
+    <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5327529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808849334717</t>
+    <t xml:space="preserve">27.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808868408203</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1103649139404</t>
+    <t xml:space="preserve">28.1103610992432</t>
   </si>
   <si>
     <t xml:space="preserve">27.9178256988525</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2920818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2439479827881</t>
+    <t xml:space="preserve">27.2920799255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2439441680908</t>
   </si>
   <si>
     <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">26.570068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7144718170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182022094727</t>
+    <t xml:space="preserve">26.5700702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.714469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6182041168213</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">25.5592479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">25.655517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4148445129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816417694092</t>
+    <t xml:space="preserve">25.6555194854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551429748535</t>
+    <t xml:space="preserve">26.9551391601562</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4846172332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6290225982666</t>
+    <t xml:space="preserve">27.484619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.629020690918</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
@@ -1565,34 +1565,34 @@
     <t xml:space="preserve">28.7361068725586</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0249099731445</t>
+    <t xml:space="preserve">29.0249118804932</t>
   </si>
   <si>
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5543880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.613338470459</t>
+    <t xml:space="preserve">29.554386138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
     <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9984149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0465469360352</t>
+    <t xml:space="preserve">30.9984130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0465488433838</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1644477844238</t>
+    <t xml:space="preserve">32.3943061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
     <t xml:space="preserve">33.2125854492188</t>
@@ -1604,22 +1604,22 @@
     <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6566123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827346801758</t>
+    <t xml:space="preserve">34.0308647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3196716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.656608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8864631652832</t>
+    <t xml:space="preserve">33.8864669799805</t>
   </si>
   <si>
     <t xml:space="preserve">33.7901954650879</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">33.3088531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0200500488281</t>
+    <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
     <t xml:space="preserve">32.6349754333496</t>
@@ -1637,37 +1637,37 @@
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573616027832</t>
+    <t xml:space="preserve">32.0573654174805</t>
   </si>
   <si>
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353519439697</t>
+    <t xml:space="preserve">31.7685585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204284667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353538513184</t>
   </si>
   <si>
     <t xml:space="preserve">31.2872200012207</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9610977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1054954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.527889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648242950439</t>
+    <t xml:space="preserve">31.9610958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6722946166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1054992675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5278873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">32.586841583252</t>
@@ -1676,28 +1676,28 @@
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4424362182617</t>
+    <t xml:space="preserve">32.442440032959</t>
   </si>
   <si>
     <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2342224121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5819816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4002532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927963256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9778671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5073394775391</t>
+    <t xml:space="preserve">35.2342185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5819778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4002571105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9778709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5073471069336</t>
   </si>
   <si>
     <t xml:space="preserve">38.927921295166</t>
@@ -1712,16 +1712,16 @@
     <t xml:space="preserve">38.6344985961914</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0257339477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2213516235352</t>
+    <t xml:space="preserve">39.0257301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2213478088379</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301124572754</t>
+    <t xml:space="preserve">38.8301162719727</t>
   </si>
   <si>
     <t xml:space="preserve">38.6833992004395</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7103958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1994400024414</t>
+    <t xml:space="preserve">39.710391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125869750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1994361877441</t>
   </si>
   <si>
     <t xml:space="preserve">39.9060096740723</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">39.6614875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3191566467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9768295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7593002319336</t>
+    <t xml:space="preserve">39.3191604614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9768257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7592964172363</t>
   </si>
   <si>
     <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1235389709473</t>
+    <t xml:space="preserve">39.1235427856445</t>
   </si>
   <si>
     <t xml:space="preserve">39.4169654846191</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483444213867</t>
+    <t xml:space="preserve">40.2483406066895</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1778,34 +1778,34 @@
     <t xml:space="preserve">40.1505317687988</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7862930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1067123413086</t>
+    <t xml:space="preserve">40.7862892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1067085266113</t>
   </si>
   <si>
     <t xml:space="preserve">43.0358924865723</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760322570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5957565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8402786254883</t>
+    <t xml:space="preserve">43.4760360717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5957527160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840274810791</t>
   </si>
   <si>
     <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4541206359863</t>
+    <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
     <t xml:space="preserve">45.2365951538086</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">44.6008377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1606979370117</t>
+    <t xml:space="preserve">44.160701751709</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2635841369629</t>
+    <t xml:space="preserve">46.2635879516602</t>
   </si>
   <si>
     <t xml:space="preserve">46.6059188842773</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">48.7088088989258</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9803199768066</t>
+    <t xml:space="preserve">49.9803237915039</t>
   </si>
   <si>
     <t xml:space="preserve">49.686897277832</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781326293945</t>
+    <t xml:space="preserve">50.0781288146973</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.664981842041</t>
+    <t xml:space="preserve">50.6649856567383</t>
   </si>
   <si>
     <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1321144104004</t>
+    <t xml:space="preserve">52.1321182250977</t>
   </si>
   <si>
     <t xml:space="preserve">53.8926734924316</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0124015808105</t>
+    <t xml:space="preserve">53.0123977661133</t>
   </si>
   <si>
     <t xml:space="preserve">52.816780090332</t>
@@ -1895,31 +1895,31 @@
     <t xml:space="preserve">49.4912757873535</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3934745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540260314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5233573913574</t>
+    <t xml:space="preserve">49.3934707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5233535766602</t>
   </si>
   <si>
     <t xml:space="preserve">52.0343132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9584121704102</t>
+    <t xml:space="preserve">50.9584083557129</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970634460449</t>
+    <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
-    <t xml:space="preserve">54.4795303344727</t>
+    <t xml:space="preserve">54.4795341491699</t>
   </si>
   <si>
     <t xml:space="preserve">53.599250793457</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9701614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5519332885742</t>
+    <t xml:space="preserve">45.970157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.551929473877</t>
   </si>
   <si>
     <t xml:space="preserve">42.6935653686523</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791114807129</t>
+    <t xml:space="preserve">32.1791152954102</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543098449707</t>
+    <t xml:space="preserve">31.787878036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543117523193</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0914688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3089942932129</t>
+    <t xml:space="preserve">36.2870826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0914649963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3089981079102</t>
   </si>
   <si>
     <t xml:space="preserve">35.8469467163086</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8841018676758</t>
+    <t xml:space="preserve">41.3242416381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8840980529785</t>
   </si>
   <si>
     <t xml:space="preserve">45.7256393432617</t>
@@ -2015,10 +2015,10 @@
     <t xml:space="preserve">46.4592056274414</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0679702758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3613967895508</t>
+    <t xml:space="preserve">46.0679664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2027,34 +2027,34 @@
     <t xml:space="preserve">47.486198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6548233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8723526000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3124923706055</t>
+    <t xml:space="preserve">46.6548194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3124885559082</t>
   </si>
   <si>
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.187686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1117897033691</t>
+    <t xml:space="preserve">45.1876907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1117935180664</t>
   </si>
   <si>
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913703918457</t>
+    <t xml:space="preserve">42.791374206543</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0190620422363</t>
+    <t xml:space="preserve">46.0190658569336</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7577095031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7847061157227</t>
+    <t xml:space="preserve">48.7577133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7847099304199</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5890884399414</t>
+    <t xml:space="preserve">49.5890846252441</t>
   </si>
   <si>
     <t xml:space="preserve">52.6211624145508</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9145851135254</t>
+    <t xml:space="preserve">52.9145889282227</t>
   </si>
   <si>
     <t xml:space="preserve">52.4255409240723</t>
@@ -2111,28 +2111,28 @@
     <t xml:space="preserve">55.8488578796387</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0444679260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6313285827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0006446838379</t>
+    <t xml:space="preserve">56.0444717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6313247680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
     <t xml:space="preserve">58.1962661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">58.3918876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5116004943848</t>
+    <t xml:space="preserve">58.3918838500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
     <t xml:space="preserve">57.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5875015258789</t>
+    <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
     <t xml:space="preserve">59.9568290710449</t>
@@ -2141,52 +2141,52 @@
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787406921387</t>
+    <t xml:space="preserve">58.9787368774414</t>
   </si>
   <si>
     <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
-    <t xml:space="preserve">59.2721633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.1524391174316</t>
+    <t xml:space="preserve">59.2721672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.1524429321289</t>
   </si>
   <si>
     <t xml:space="preserve">62.6954727172852</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8472671508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6735610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494506835938</t>
+    <t xml:space="preserve">64.8472747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6735649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494659423828</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428924560547</t>
+    <t xml:space="preserve">65.0428848266602</t>
   </si>
   <si>
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209808349609</t>
+    <t xml:space="preserve">66.0209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1727676391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8034439086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.466194152832</t>
+    <t xml:space="preserve">68.1727752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8034515380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4661865234375</t>
   </si>
   <si>
     <t xml:space="preserve">68.6618118286133</t>
@@ -2204,22 +2204,22 @@
     <t xml:space="preserve">70.7158050537109</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8675918579102</t>
+    <t xml:space="preserve">72.8675994873047</t>
   </si>
   <si>
     <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">72.1829376220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3566360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741577148438</t>
+    <t xml:space="preserve">72.1829299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741653442383</t>
   </si>
   <si>
     <t xml:space="preserve">71.0092239379883</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2048492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2470779418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.4207916259766</t>
+    <t xml:space="preserve">71.2048416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2470855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.420783996582</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">75.508430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4865188598633</t>
+    <t xml:space="preserve">76.4865264892578</t>
   </si>
   <si>
     <t xml:space="preserve">79.6164093017578</t>
@@ -2261,82 +2261,82 @@
     <t xml:space="preserve">80.0076446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">79.5186004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.1813430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.5506744384766</t>
+    <t xml:space="preserve">79.5185928344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.1813507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.550666809082</t>
   </si>
   <si>
     <t xml:space="preserve">83.8221817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.333137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7243804931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.2134246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353363037109</t>
+    <t xml:space="preserve">83.3331451416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7243728637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
     <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2572479248047</t>
+    <t xml:space="preserve">82.2572402954102</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1915130615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6046524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.115608215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7361221313477</t>
+    <t xml:space="preserve">83.6265716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1915054321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6046600341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1156158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7361297607422</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827407836914</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4427032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791442871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5725860595703</t>
+    <t xml:space="preserve">78.4426956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791595458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5725784301758</t>
   </si>
   <si>
     <t xml:space="preserve">84.3112258911133</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3988800048828</t>
+    <t xml:space="preserve">82.1594390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3988723754883</t>
   </si>
   <si>
     <t xml:space="preserve">80.203254699707</t>
@@ -2351,19 +2351,19 @@
     <t xml:space="preserve">84.8980865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">87.8323516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1038665771484</t>
+    <t xml:space="preserve">87.8323593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1038589477539</t>
   </si>
   <si>
     <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">90.2775726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7126312255859</t>
+    <t xml:space="preserve">90.2775802612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
     <t xml:space="preserve">92.9184112548828</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680068969727</t>
+    <t xml:space="preserve">95.1680221557617</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
@@ -2390,19 +2390,19 @@
     <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">100.156265258789</t>
+    <t xml:space="preserve">100.156257629395</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
   </si>
   <si>
-    <t xml:space="preserve">102.112442016602</t>
+    <t xml:space="preserve">102.112449645996</t>
   </si>
   <si>
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088607788086</t>
+    <t xml:space="preserve">97.8088455200195</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
@@ -2417,19 +2417,19 @@
     <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1781768798828</t>
+    <t xml:space="preserve">99.1781692504883</t>
   </si>
   <si>
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439193725586</t>
+    <t xml:space="preserve">96.2439117431641</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.1461029052734</t>
+    <t xml:space="preserve">96.146110534668</t>
   </si>
   <si>
     <t xml:space="preserve">95.4614410400391</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">95.3636322021484</t>
+    <t xml:space="preserve">95.3636245727539</t>
   </si>
   <si>
     <t xml:space="preserve">94.7767791748047</t>
@@ -2453,28 +2453,28 @@
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677383422852</t>
+    <t xml:space="preserve">103.677375793457</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">106.807258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.959060668945</t>
+    <t xml:space="preserve">106.807266235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.95906829834</t>
   </si>
   <si>
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088935852051</t>
+    <t xml:space="preserve">112.088943481445</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980972290039</t>
+    <t xml:space="preserve">107.980979919434</t>
   </si>
   <si>
     <t xml:space="preserve">108.567825317383</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937149047852</t>
+    <t xml:space="preserve">109.937156677246</t>
   </si>
   <si>
     <t xml:space="preserve">111.893325805664</t>
@@ -2501,16 +2501,16 @@
     <t xml:space="preserve">101.721206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">101.91682434082</t>
+    <t xml:space="preserve">101.916816711426</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
   </si>
   <si>
-    <t xml:space="preserve">105.829170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.372215270996</t>
+    <t xml:space="preserve">105.829177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.372207641602</t>
   </si>
   <si>
     <t xml:space="preserve">109.350303649902</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">108.17658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286140441895</t>
+    <t xml:space="preserve">108.176597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
   </si>
   <si>
-    <t xml:space="preserve">105.437942504883</t>
+    <t xml:space="preserve">105.437950134277</t>
   </si>
   <si>
     <t xml:space="preserve">105.242324829102</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">107.785346984863</t>
   </si>
   <si>
-    <t xml:space="preserve">104.264228820801</t>
+    <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
     <t xml:space="preserve">106.220413208008</t>
@@ -2549,28 +2549,28 @@
     <t xml:space="preserve">111.502090454102</t>
   </si>
   <si>
-    <t xml:space="preserve">113.262657165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.196914672852</t>
+    <t xml:space="preserve">113.262649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.196922302246</t>
   </si>
   <si>
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545921325684</t>
+    <t xml:space="preserve">109.545906066895</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
-    <t xml:space="preserve">115.414443969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.284568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.87141418457</t>
+    <t xml:space="preserve">115.414436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.284561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.871421813965</t>
   </si>
   <si>
     <t xml:space="preserve">113.849510192871</t>
@@ -2588,25 +2588,25 @@
     <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
-    <t xml:space="preserve">117.56623840332</t>
+    <t xml:space="preserve">117.566246032715</t>
   </si>
   <si>
     <t xml:space="preserve">118.153091430664</t>
   </si>
   <si>
-    <t xml:space="preserve">117.761863708496</t>
+    <t xml:space="preserve">117.761856079102</t>
   </si>
   <si>
     <t xml:space="preserve">119.326797485352</t>
   </si>
   <si>
-    <t xml:space="preserve">118.739944458008</t>
+    <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.131187438965</t>
+    <t xml:space="preserve">119.13117980957</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">126.369033813477</t>
   </si>
   <si>
-    <t xml:space="preserve">134.389358520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.085784912109</t>
+    <t xml:space="preserve">134.389373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.08576965332</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.976226806641</t>
+    <t xml:space="preserve">131.846343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.976211547852</t>
   </si>
   <si>
     <t xml:space="preserve">137.128005981445</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563079833984</t>
+    <t xml:space="preserve">135.563064575195</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">137.91047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">139.671051025391</t>
+    <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
     <t xml:space="preserve">140.453521728516</t>
@@ -2675,25 +2675,25 @@
     <t xml:space="preserve">140.844741821289</t>
   </si>
   <si>
-    <t xml:space="preserve">141.235977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.062255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.627227783203</t>
+    <t xml:space="preserve">141.235992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.062271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.627212524414</t>
   </si>
   <si>
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.475433349609</t>
+    <t xml:space="preserve">139.47541809082</t>
   </si>
   <si>
     <t xml:space="preserve">141.822830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">142.409698486328</t>
+    <t xml:space="preserve">142.409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082580566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343978881836</t>
+    <t xml:space="preserve">147.691375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.30012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343963623047</t>
   </si>
   <si>
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.1044921875</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
-    <t xml:space="preserve">151.212493896484</t>
+    <t xml:space="preserve">151.212478637695</t>
   </si>
   <si>
     <t xml:space="preserve">148.86506652832</t>
@@ -2738,49 +2738,49 @@
     <t xml:space="preserve">152.581817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.342361450195</t>
+    <t xml:space="preserve">154.342376708984</t>
   </si>
   <si>
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885406494141</t>
+    <t xml:space="preserve">156.885391235352</t>
   </si>
   <si>
     <t xml:space="preserve">155.711685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">158.841583251953</t>
+    <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
   </si>
   <si>
-    <t xml:space="preserve">161.38459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.558288574219</t>
+    <t xml:space="preserve">161.384613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">163.145172119141</t>
+    <t xml:space="preserve">163.145156860352</t>
   </si>
   <si>
     <t xml:space="preserve">164.905731201172</t>
   </si>
   <si>
-    <t xml:space="preserve">165.101348876953</t>
+    <t xml:space="preserve">165.101333618164</t>
   </si>
   <si>
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448760986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.339202880859</t>
+    <t xml:space="preserve">167.448745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.33918762207</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">168.818099975586</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752349853516</t>
+    <t xml:space="preserve">171.752365112305</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
   </si>
   <si>
-    <t xml:space="preserve">164.318862915039</t>
+    <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
     <t xml:space="preserve">165.688186645508</t>
@@ -4383,6 +4383,9 @@
   </si>
   <si>
     <t xml:space="preserve">116.699996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.699996948242</t>
   </si>
 </sst>
 </file>
@@ -17352,7 +17355,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17404,7 +17407,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17430,7 +17433,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17456,7 +17459,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17482,7 +17485,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17508,7 +17511,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17534,7 +17537,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17560,7 +17563,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17586,7 +17589,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17612,7 +17615,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17638,7 +17641,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17664,7 +17667,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17690,7 +17693,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17716,7 +17719,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17742,7 +17745,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17768,7 +17771,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17794,7 +17797,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17820,7 +17823,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17846,7 +17849,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17872,7 +17875,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17898,7 +17901,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17924,7 +17927,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17950,7 +17953,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17976,7 +17979,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18002,7 +18005,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18028,7 +18031,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18054,7 +18057,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18080,7 +18083,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18106,7 +18109,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18132,7 +18135,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18158,7 +18161,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18236,7 +18239,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18314,7 +18317,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18340,7 +18343,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18366,7 +18369,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18392,7 +18395,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18418,7 +18421,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18496,7 +18499,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18522,7 +18525,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18600,7 +18603,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18626,7 +18629,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18652,7 +18655,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18678,7 +18681,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18704,7 +18707,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18730,7 +18733,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18756,7 +18759,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18782,7 +18785,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18808,7 +18811,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18834,7 +18837,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18860,7 +18863,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18886,7 +18889,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18938,7 +18941,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18964,7 +18967,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18990,7 +18993,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19016,7 +19019,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19042,7 +19045,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19068,7 +19071,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19146,7 +19149,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19172,7 +19175,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19198,7 +19201,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19250,7 +19253,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19276,7 +19279,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19302,7 +19305,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19328,7 +19331,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19354,7 +19357,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19406,7 +19409,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19432,7 +19435,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19458,7 +19461,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19510,7 +19513,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19536,7 +19539,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19562,7 +19565,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19614,7 +19617,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19666,7 +19669,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19692,7 +19695,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19718,7 +19721,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19744,7 +19747,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19770,7 +19773,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19796,7 +19799,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19822,7 +19825,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19848,7 +19851,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19874,7 +19877,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19900,7 +19903,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19926,7 +19929,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19952,7 +19955,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20004,7 +20007,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20056,7 +20059,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20108,7 +20111,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20134,7 +20137,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20160,7 +20163,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20186,7 +20189,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20212,7 +20215,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20238,7 +20241,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20264,7 +20267,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20316,7 +20319,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20342,7 +20345,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20368,7 +20371,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20394,7 +20397,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20420,7 +20423,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20446,7 +20449,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20472,7 +20475,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20498,7 +20501,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20524,7 +20527,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20550,7 +20553,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20576,7 +20579,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20602,7 +20605,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20654,7 +20657,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20680,7 +20683,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20732,7 +20735,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20758,7 +20761,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20810,7 +20813,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20836,7 +20839,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20862,7 +20865,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20940,7 +20943,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20966,7 +20969,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20992,7 +20995,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21018,7 +21021,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21044,7 +21047,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21070,7 +21073,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21096,7 +21099,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21122,7 +21125,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21148,7 +21151,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21174,7 +21177,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21200,7 +21203,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21226,7 +21229,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21304,7 +21307,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21330,7 +21333,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21356,7 +21359,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21382,7 +21385,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21408,7 +21411,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21434,7 +21437,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21460,7 +21463,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21486,7 +21489,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21564,7 +21567,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21590,7 +21593,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21616,7 +21619,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21642,7 +21645,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21668,7 +21671,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21694,7 +21697,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21720,7 +21723,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21746,7 +21749,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21772,7 +21775,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21798,7 +21801,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21824,7 +21827,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21850,7 +21853,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21876,7 +21879,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21902,7 +21905,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21928,7 +21931,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21954,7 +21957,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21980,7 +21983,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22006,7 +22009,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22032,7 +22035,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22058,7 +22061,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22084,7 +22087,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22110,7 +22113,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22136,7 +22139,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22162,7 +22165,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22188,7 +22191,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22214,7 +22217,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22240,7 +22243,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22266,7 +22269,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22318,7 +22321,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22344,7 +22347,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22370,7 +22373,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22396,7 +22399,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22422,7 +22425,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22448,7 +22451,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22474,7 +22477,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22526,7 +22529,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22552,7 +22555,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22578,7 +22581,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22630,7 +22633,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22656,7 +22659,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22682,7 +22685,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22708,7 +22711,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22734,7 +22737,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22760,7 +22763,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22786,7 +22789,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22812,7 +22815,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22838,7 +22841,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22864,7 +22867,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22890,7 +22893,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22916,7 +22919,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25542,7 +25545,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26374,7 +26377,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -60962,7 +60965,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6493518519</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>10640</v>
@@ -60983,6 +60986,32 @@
         <v>1372</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.65125</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>29942</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>120.400001525879</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>117.900001525879</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>119.699996948242</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1459">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,25 +44,25 @@
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5458002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330656051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028358459473</t>
+    <t xml:space="preserve">13.8317270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457983016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330665588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028348922729</t>
   </si>
   <si>
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402900695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777414321899</t>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777423858643</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241315841675</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">13.3939008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3134832382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347789764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5093126296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667230606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722322463989</t>
+    <t xml:space="preserve">13.3134822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347780227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.509313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">13.0007514953613</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3127384185791</t>
+    <t xml:space="preserve">12.5986661911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467668533325</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">12.4110260009766</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1690282821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226419448853</t>
+    <t xml:space="preserve">11.1690301895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226428985596</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">12.3663492202759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752841949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1519041061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965808868408</t>
+    <t xml:space="preserve">12.3752851486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1519050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769975662231</t>
@@ -143,28 +143,28 @@
     <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4020910263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893573760986</t>
+    <t xml:space="preserve">12.4020919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893583297729</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306093215942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7773704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9560737609863</t>
+    <t xml:space="preserve">12.7773694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9560747146606</t>
   </si>
   <si>
     <t xml:space="preserve">13.0811672210693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4564476013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475116729736</t>
+    <t xml:space="preserve">13.4564485549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475126266479</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581590652466</t>
@@ -176,49 +176,49 @@
     <t xml:space="preserve">13.4832534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0364923477173</t>
+    <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
     <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1883897781372</t>
+    <t xml:space="preserve">13.1883916854858</t>
   </si>
   <si>
     <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4921884536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688083648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513084411621</t>
+    <t xml:space="preserve">13.4921894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688093185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513113021851</t>
   </si>
   <si>
     <t xml:space="preserve">14.0104322433472</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602443695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5011224746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849639892578</t>
+    <t xml:space="preserve">13.7691793441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602434158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5011234283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6172790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849649429321</t>
   </si>
   <si>
     <t xml:space="preserve">13.2866773605347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9203329086304</t>
+    <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237586975098</t>
@@ -227,88 +227,88 @@
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2948694229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4199600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.839916229248</t>
+    <t xml:space="preserve">12.2948684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.419960975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7148237228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8399171829224</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9113988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433401107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543613433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7058877944946</t>
+    <t xml:space="preserve">12.9113969802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433410644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543603897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7058897018433</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4646368026733</t>
+    <t xml:space="preserve">12.4646377563477</t>
   </si>
   <si>
     <t xml:space="preserve">12.5182485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880187988281</t>
+    <t xml:space="preserve">12.6880159378052</t>
   </si>
   <si>
     <t xml:space="preserve">12.7863063812256</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6612138748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804243087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5271844863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577871322632</t>
+    <t xml:space="preserve">12.6612119674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072282791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5271854400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577890396118</t>
   </si>
   <si>
     <t xml:space="preserve">12.4914426803589</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4557027816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632982254028</t>
+    <t xml:space="preserve">12.4557008743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632991790771</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096864700317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.161584854126</t>
+    <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169080734253</t>
+    <t xml:space="preserve">13.045428276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
     <t xml:space="preserve">12.8131113052368</t>
@@ -317,52 +317,52 @@
     <t xml:space="preserve">13.4743175506592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3224172592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994110107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547351837158</t>
+    <t xml:space="preserve">13.3224191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994119644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
     <t xml:space="preserve">13.6708927154541</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925594329834</t>
+    <t xml:space="preserve">13.903208732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
     <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0559511184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716115951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757736206055</t>
+    <t xml:space="preserve">14.0559520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716125488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757745742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9637832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.899263381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176979064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8255262374878</t>
+    <t xml:space="preserve">13.945348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9637813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8992643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176988601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8255281448364</t>
   </si>
   <si>
     <t xml:space="preserve">13.853178024292</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">13.6411876678467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808288574219</t>
+    <t xml:space="preserve">13.8808307647705</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006494522095</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">14.0836029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9729995727539</t>
+    <t xml:space="preserve">13.9729986190796</t>
   </si>
   <si>
     <t xml:space="preserve">14.1020383834839</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126417160034</t>
+    <t xml:space="preserve">14.3232450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126407623291</t>
   </si>
   <si>
     <t xml:space="preserve">14.4154167175293</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628881454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4707174301147</t>
+    <t xml:space="preserve">14.5628890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4707193374634</t>
   </si>
   <si>
     <t xml:space="preserve">14.6827096939087</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">14.7380113601685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8393983840942</t>
+    <t xml:space="preserve">14.8394002914429</t>
   </si>
   <si>
     <t xml:space="preserve">14.9315710067749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9868717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274061203003</t>
+    <t xml:space="preserve">14.986870765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274080276489</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181898117065</t>
@@ -434,61 +434,61 @@
     <t xml:space="preserve">14.8670492172241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9684362411499</t>
+    <t xml:space="preserve">14.9684371948242</t>
   </si>
   <si>
     <t xml:space="preserve">15.0606079101562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421743392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
+    <t xml:space="preserve">15.0421733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1527767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.06982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960889816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776554107666</t>
+    <t xml:space="preserve">15.152777671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0698251724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0237398147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.977653503418</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832063674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549111366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150144577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993549346924</t>
+    <t xml:space="preserve">15.3832035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150135040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993577957153</t>
   </si>
   <si>
     <t xml:space="preserve">16.2772541046143</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">16.1297798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2219524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1850833892822</t>
+    <t xml:space="preserve">16.2219505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1850852966309</t>
   </si>
   <si>
     <t xml:space="preserve">16.0560455322266</t>
@@ -509,61 +509,61 @@
     <t xml:space="preserve">16.3049068450928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1160049438477</t>
+    <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
     <t xml:space="preserve">17.2450408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4662494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5307712554932</t>
+    <t xml:space="preserve">17.466251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307674407959</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556461334229</t>
+    <t xml:space="preserve">17.3556442260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.410945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6598091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5492038726807</t>
+    <t xml:space="preserve">17.6874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4109477996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6598072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.549201965332</t>
   </si>
   <si>
     <t xml:space="preserve">17.9731884002686</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639663696289</t>
+    <t xml:space="preserve">17.9639682769775</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229381561279</t>
+    <t xml:space="preserve">17.6229400634766</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2266082763672</t>
+    <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173900604248</t>
@@ -572,19 +572,19 @@
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975704193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0607013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2358226776123</t>
+    <t xml:space="preserve">17.0975685119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897373199463</t>
+    <t xml:space="preserve">17.1897392272949</t>
   </si>
   <si>
     <t xml:space="preserve">17.374080657959</t>
@@ -596,31 +596,31 @@
     <t xml:space="preserve">17.3832988739014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768547058105</t>
+    <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100555419922</t>
+    <t xml:space="preserve">18.0100574493408</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4063854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2036113739014</t>
+    <t xml:space="preserve">18.4063873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.20361328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644611358643</t>
@@ -629,43 +629,43 @@
     <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2635669708252</t>
+    <t xml:space="preserve">19.2635688781738</t>
   </si>
   <si>
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331439971924</t>
+    <t xml:space="preserve">19.0331401824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244167327881</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7889366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.10231590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0838832855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9917125701904</t>
+    <t xml:space="preserve">19.7889347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1023139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0838813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9917144775391</t>
   </si>
   <si>
     <t xml:space="preserve">19.6783332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5953807830811</t>
+    <t xml:space="preserve">19.5953788757324</t>
   </si>
   <si>
     <t xml:space="preserve">19.5585117340088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6230316162109</t>
+    <t xml:space="preserve">19.6230335235596</t>
   </si>
   <si>
     <t xml:space="preserve">19.3741722106934</t>
@@ -674,40 +674,40 @@
     <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5124282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409713745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8903274536133</t>
+    <t xml:space="preserve">19.5124263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870586395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903255462646</t>
   </si>
   <si>
     <t xml:space="preserve">19.8165874481201</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4617824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2913112640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.752161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373966217041</t>
+    <t xml:space="preserve">20.4617805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2913131713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373947143555</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
@@ -719,70 +719,70 @@
     <t xml:space="preserve">21.4756507873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0240173339844</t>
+    <t xml:space="preserve">21.0240154266357</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807079315186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0608882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.636905670166</t>
+    <t xml:space="preserve">21.0608863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">21.106969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8443355560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8535480499268</t>
+    <t xml:space="preserve">21.1069717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1208419799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8443336486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8535499572754</t>
   </si>
   <si>
     <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1254997253418</t>
+    <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619674682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.503396987915</t>
+    <t xml:space="preserve">23.3098392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5910034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407550811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329257965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033950805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.9780254364014</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">23.0425434112549</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2084522247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9503765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4895248413086</t>
+    <t xml:space="preserve">23.2084541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9503746032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
     <t xml:space="preserve">22.673864364624</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2268867492676</t>
+    <t xml:space="preserve">23.2268848419189</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7015151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9641551971436</t>
+    <t xml:space="preserve">22.7015132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9641532897949</t>
   </si>
   <si>
     <t xml:space="preserve">22.4065704345703</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">22.185359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250049591064</t>
+    <t xml:space="preserve">22.4250068664551</t>
   </si>
   <si>
     <t xml:space="preserve">22.5632610321045</t>
@@ -836,46 +836,46 @@
     <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3190536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121185302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830825805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.848991394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241107940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1070652008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347160339355</t>
+    <t xml:space="preserve">23.3190574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830806732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8489894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.107063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347141265869</t>
   </si>
   <si>
     <t xml:space="preserve">22.7383842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7199516296387</t>
+    <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
     <t xml:space="preserve">22.6185646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922988891602</t>
+    <t xml:space="preserve">22.5724754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922969818115</t>
   </si>
   <si>
     <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6369953155518</t>
+    <t xml:space="preserve">22.6369972229004</t>
   </si>
   <si>
     <t xml:space="preserve">22.0747585296631</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">22.5171737670898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1669273376465</t>
+    <t xml:space="preserve">22.1669292449951</t>
   </si>
   <si>
     <t xml:space="preserve">22.7291660308838</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">22.8674221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8950710296631</t>
+    <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
     <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623668670654</t>
+    <t xml:space="preserve">23.1623649597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">23.7856960296631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7092304229736</t>
+    <t xml:space="preserve">24.709228515625</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547340393066</t>
+    <t xml:space="preserve">26.3866691589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">26.2358875274658</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6693801879883</t>
+    <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
     <t xml:space="preserve">26.4809074401855</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">26.5280265808105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2453136444092</t>
+    <t xml:space="preserve">26.2453117370605</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625949859619</t>
+    <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212375640869</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">25.4065914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">25.51025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442882537842</t>
+    <t xml:space="preserve">25.5102519989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442863464355</t>
   </si>
   <si>
     <t xml:space="preserve">23.7008819580078</t>
@@ -1007,16 +1007,13 @@
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7480030059814</t>
+    <t xml:space="preserve">23.7480010986328</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5218276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2862319946289</t>
+    <t xml:space="preserve">23.2862339019775</t>
   </si>
   <si>
     <t xml:space="preserve">23.1731491088867</t>
@@ -1025,7 +1022,7 @@
     <t xml:space="preserve">22.9940967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2296943664551</t>
+    <t xml:space="preserve">23.2296924591064</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035190582275</t>
@@ -1043,7 +1040,7 @@
     <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9176292419434</t>
+    <t xml:space="preserve">23.917631149292</t>
   </si>
   <si>
     <t xml:space="preserve">24.3040065765381</t>
@@ -1052,13 +1049,13 @@
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537647247314</t>
+    <t xml:space="preserve">23.6537666320801</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804740905762</t>
+    <t xml:space="preserve">23.3804721832275</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391147613525</t>
@@ -1067,13 +1064,13 @@
     <t xml:space="preserve">23.1919975280762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8422374725342</t>
+    <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
     <t xml:space="preserve">24.2663116455078</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5113315582275</t>
+    <t xml:space="preserve">24.5113296508789</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
@@ -1085,7 +1082,7 @@
     <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9259777069092</t>
+    <t xml:space="preserve">24.9259757995605</t>
   </si>
   <si>
     <t xml:space="preserve">24.6903820037842</t>
@@ -1097,10 +1094,10 @@
     <t xml:space="preserve">26.4337844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1981906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741222381592</t>
+    <t xml:space="preserve">26.1981925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
     <t xml:space="preserve">25.7270011901855</t>
@@ -1118,7 +1115,7 @@
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730949401855</t>
+    <t xml:space="preserve">24.9730968475342</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720714569092</t>
@@ -1130,7 +1127,7 @@
     <t xml:space="preserve">24.6432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788604736328</t>
+    <t xml:space="preserve">24.8788585662842</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
@@ -1148,16 +1145,16 @@
     <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0568351745605</t>
+    <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
     <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1144542694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510715484619</t>
+    <t xml:space="preserve">25.1144523620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
     <t xml:space="preserve">26.5751457214355</t>
@@ -1178,7 +1175,7 @@
     <t xml:space="preserve">28.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3290481567383</t>
+    <t xml:space="preserve">27.3290500640869</t>
   </si>
   <si>
     <t xml:space="preserve">27.0934543609619</t>
@@ -1187,13 +1184,13 @@
     <t xml:space="preserve">25.5856437683105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0673351287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1876926422119</t>
+    <t xml:space="preserve">25.0673332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1876907348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.0463352203369</t>
@@ -1202,10 +1199,10 @@
     <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002376556396</t>
+    <t xml:space="preserve">26.9049758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002395629883</t>
   </si>
   <si>
     <t xml:space="preserve">26.8578586578369</t>
@@ -1223,7 +1220,7 @@
     <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232902526855</t>
+    <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
     <t xml:space="preserve">27.7060031890869</t>
@@ -1232,7 +1229,7 @@
     <t xml:space="preserve">27.4704074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599075317383</t>
+    <t xml:space="preserve">28.4599094390869</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
@@ -1241,10 +1238,10 @@
     <t xml:space="preserve">29.2138118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4494094848633</t>
+    <t xml:space="preserve">28.5541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4494075775146</t>
   </si>
   <si>
     <t xml:space="preserve">28.7897415161133</t>
@@ -1262,25 +1259,25 @@
     <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2819309234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761672973633</t>
+    <t xml:space="preserve">27.7531204223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2819328308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761653900146</t>
   </si>
   <si>
     <t xml:space="preserve">26.6222648620605</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2714290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5175247192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626037597656</t>
+    <t xml:space="preserve">28.2714309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5175266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626056671143</t>
   </si>
   <si>
     <t xml:space="preserve">26.6663360595703</t>
@@ -1289,6 +1286,9 @@
     <t xml:space="preserve">27.0514125823975</t>
   </si>
   <si>
+    <t xml:space="preserve">26.8107395172119</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">25.8961906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.462984085083</t>
+    <t xml:space="preserve">25.4629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">25.0297737121582</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">24.4521617889404</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044082641602</t>
+    <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6711978912354</t>
+    <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
     <t xml:space="preserve">22.5267963409424</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">23.9226894378662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.730152130127</t>
+    <t xml:space="preserve">23.7301502227783</t>
   </si>
   <si>
     <t xml:space="preserve">23.3932132720947</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">21.6603832244873</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4678440093994</t>
+    <t xml:space="preserve">21.467845916748</t>
   </si>
   <si>
     <t xml:space="preserve">21.5641117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3234405517578</t>
+    <t xml:space="preserve">21.3234424591064</t>
   </si>
   <si>
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491882324219</t>
+    <t xml:space="preserve">21.9491863250732</t>
   </si>
   <si>
     <t xml:space="preserve">22.7674674987793</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">22.4305267333984</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0454540252686</t>
+    <t xml:space="preserve">22.0454559326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.9973220825195</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8047828674316</t>
+    <t xml:space="preserve">21.8047847747803</t>
   </si>
   <si>
     <t xml:space="preserve">21.708517074585</t>
@@ -1412,22 +1412,22 @@
     <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2969436645508</t>
+    <t xml:space="preserve">23.2969417572021</t>
   </si>
   <si>
     <t xml:space="preserve">24.0670890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2596302032471</t>
+    <t xml:space="preserve">24.1633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2596282958984</t>
   </si>
   <si>
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077621459961</t>
+    <t xml:space="preserve">24.3077602386475</t>
   </si>
   <si>
     <t xml:space="preserve">24.548433303833</t>
@@ -1451,28 +1451,28 @@
     <t xml:space="preserve">25.2223110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1260452270508</t>
+    <t xml:space="preserve">25.1260433197021</t>
   </si>
   <si>
     <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5111141204834</t>
+    <t xml:space="preserve">25.511116027832</t>
   </si>
   <si>
     <t xml:space="preserve">26.4738006591797</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3293991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219326019287</t>
+    <t xml:space="preserve">26.3293972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219345092773</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.532751083374</t>
+    <t xml:space="preserve">27.5327529907227</t>
   </si>
   <si>
     <t xml:space="preserve">27.5808868408203</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">27.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8696918487549</t>
+    <t xml:space="preserve">27.8696937561035</t>
   </si>
   <si>
     <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1103610992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9178256988525</t>
+    <t xml:space="preserve">28.1103630065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9178276062012</t>
   </si>
   <si>
     <t xml:space="preserve">27.6771545410156</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">27.2920799255371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2439441680908</t>
+    <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
     <t xml:space="preserve">27.1958122253418</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">26.5700702667236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.714469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182041168213</t>
+    <t xml:space="preserve">26.7144718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9924583435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5592479705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6555194854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4148483276367</t>
+    <t xml:space="preserve">25.9924564361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5592498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.655517578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4148464202881</t>
   </si>
   <si>
     <t xml:space="preserve">24.9816398620605</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551391601562</t>
+    <t xml:space="preserve">26.9551410675049</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.484619140625</t>
+    <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
     <t xml:space="preserve">27.629020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7734241485596</t>
+    <t xml:space="preserve">27.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">28.1584968566895</t>
@@ -1571,19 +1571,19 @@
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.554386138916</t>
+    <t xml:space="preserve">29.5543880462646</t>
   </si>
   <si>
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208030700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0465488433838</t>
+    <t xml:space="preserve">30.420804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984149932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0465469360352</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2125854492188</t>
+    <t xml:space="preserve">33.212589263916</t>
   </si>
   <si>
     <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4159393310547</t>
+    <t xml:space="preserve">34.415943145752</t>
   </si>
   <si>
     <t xml:space="preserve">34.0308647155762</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349754333496</t>
+    <t xml:space="preserve">32.6349792480469</t>
   </si>
   <si>
     <t xml:space="preserve">32.1536331176758</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">31.3353538513184</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872200012207</t>
+    <t xml:space="preserve">31.2872180938721</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610958099365</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.442440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528800964355</t>
+    <t xml:space="preserve">32.4424362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528762817383</t>
   </si>
   <si>
     <t xml:space="preserve">35.2342185974121</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">37.9778709411621</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.927921295166</t>
+    <t xml:space="preserve">38.5073432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">38.6344985961914</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0257301330566</t>
+    <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
     <t xml:space="preserve">39.2213478088379</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1994361877441</t>
+    <t xml:space="preserve">40.1994400024414</t>
   </si>
   <si>
     <t xml:space="preserve">39.9060096740723</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7592964172363</t>
+    <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
     <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1235427856445</t>
+    <t xml:space="preserve">39.1235389709473</t>
   </si>
   <si>
     <t xml:space="preserve">39.4169654846191</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1505317687988</t>
+    <t xml:space="preserve">40.1505355834961</t>
   </si>
   <si>
     <t xml:space="preserve">40.7862892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067085266113</t>
+    <t xml:space="preserve">42.1067123413086</t>
   </si>
   <si>
     <t xml:space="preserve">43.0358924865723</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5957527160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154808044434</t>
+    <t xml:space="preserve">42.5957565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
     <t xml:space="preserve">41.6176643371582</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008377075195</t>
+    <t xml:space="preserve">44.6008338928223</t>
   </si>
   <si>
     <t xml:space="preserve">44.160701751709</t>
@@ -1835,19 +1835,19 @@
     <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2635879516602</t>
+    <t xml:space="preserve">46.2635841369629</t>
   </si>
   <si>
     <t xml:space="preserve">46.6059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7088088989258</t>
+    <t xml:space="preserve">48.7088050842285</t>
   </si>
   <si>
     <t xml:space="preserve">49.9803237915039</t>
   </si>
   <si>
-    <t xml:space="preserve">49.686897277832</t>
+    <t xml:space="preserve">49.6868934631348</t>
   </si>
   <si>
     <t xml:space="preserve">50.2737503051758</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">50.6649856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7408866882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8926734924316</t>
+    <t xml:space="preserve">51.7408828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1321144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8926773071289</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">53.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">52.816780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4912757873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934707641602</t>
+    <t xml:space="preserve">52.8167762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4912796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934669494629</t>
   </si>
   <si>
     <t xml:space="preserve">51.1540298461914</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">52.5233535766602</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0343132019043</t>
+    <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
     <t xml:space="preserve">50.9584083557129</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
-    <t xml:space="preserve">54.4795341491699</t>
+    <t xml:space="preserve">54.4795303344727</t>
   </si>
   <si>
     <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4153823852539</t>
+    <t xml:space="preserve">48.4153861999512</t>
   </si>
   <si>
     <t xml:space="preserve">48.0241432189941</t>
@@ -1940,16 +1940,16 @@
     <t xml:space="preserve">45.970157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">44.551929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6935653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4607887268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.384895324707</t>
+    <t xml:space="preserve">44.5519332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6935615539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3848915100098</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.787878036499</t>
+    <t xml:space="preserve">31.7878761291504</t>
   </si>
   <si>
     <t xml:space="preserve">31.0543117523193</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0914649963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3089981079102</t>
+    <t xml:space="preserve">36.0914688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009323120117</t>
+    <t xml:space="preserve">37.9009284973145</t>
   </si>
   <si>
     <t xml:space="preserve">38.0476455688477</t>
@@ -2003,19 +2003,19 @@
     <t xml:space="preserve">41.3242416381836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8840980529785</t>
+    <t xml:space="preserve">40.8841018676758</t>
   </si>
   <si>
     <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9971542358398</t>
+    <t xml:space="preserve">46.9971504211426</t>
   </si>
   <si>
     <t xml:space="preserve">46.4592056274414</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0679664611816</t>
+    <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
     <t xml:space="preserve">46.361400604248</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.486198425293</t>
+    <t xml:space="preserve">47.4861946105957</t>
   </si>
   <si>
     <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8723564147949</t>
+    <t xml:space="preserve">45.8723526000977</t>
   </si>
   <si>
     <t xml:space="preserve">46.3124885559082</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">42.791374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5249404907227</t>
+    <t xml:space="preserve">43.5249366760254</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190658569336</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5620956420898</t>
+    <t xml:space="preserve">48.5620918273926</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5890846252441</t>
+    <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
     <t xml:space="preserve">52.6211624145508</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839126586914</t>
+    <t xml:space="preserve">54.2839164733887</t>
   </si>
   <si>
     <t xml:space="preserve">55.1641960144043</t>
@@ -2099,22 +2099,22 @@
     <t xml:space="preserve">56.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9247550964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.729133605957</t>
+    <t xml:space="preserve">56.9247512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7291374206543</t>
   </si>
   <si>
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488578796387</t>
+    <t xml:space="preserve">55.8488540649414</t>
   </si>
   <si>
     <t xml:space="preserve">56.0444717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6313247680664</t>
+    <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
     <t xml:space="preserve">58.0006484985352</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568290710449</t>
+    <t xml:space="preserve">59.9568252563477</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">58.9787368774414</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6094169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.2721672058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.1524429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954727172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8472747802734</t>
+    <t xml:space="preserve">57.6094131469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.2721633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.1524467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954689025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8472671508789</t>
   </si>
   <si>
     <t xml:space="preserve">63.6735649108887</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428848266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7275466918945</t>
+    <t xml:space="preserve">65.0428924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7275390625</t>
   </si>
   <si>
     <t xml:space="preserve">66.0209732055664</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">67.3902969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1727752685547</t>
+    <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
     <t xml:space="preserve">66.8034515380859</t>
   </si>
   <si>
-    <t xml:space="preserve">68.4661865234375</t>
+    <t xml:space="preserve">68.466194152832</t>
   </si>
   <si>
     <t xml:space="preserve">68.6618118286133</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">70.7158050537109</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8675994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.378547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.1829299926758</t>
+    <t xml:space="preserve">72.8675918579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3785552978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.1829376220703</t>
   </si>
   <si>
     <t xml:space="preserve">73.3566436767578</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">72.5741653442383</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0092239379883</t>
+    <t xml:space="preserve">71.0092315673828</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2231,13 +2231,13 @@
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245697021484</t>
+    <t xml:space="preserve">70.3245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048416137695</t>
   </si>
   <si>
-    <t xml:space="preserve">78.2470855712891</t>
+    <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
     <t xml:space="preserve">79.420783996582</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">80.0076446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">79.5185928344727</t>
+    <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
     <t xml:space="preserve">81.1813507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">82.550666809082</t>
+    <t xml:space="preserve">82.5506744384766</t>
   </si>
   <si>
     <t xml:space="preserve">83.8221817016602</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134170532227</t>
+    <t xml:space="preserve">84.2134246826172</t>
   </si>
   <si>
     <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">82.9419097900391</t>
+    <t xml:space="preserve">82.9419021606445</t>
   </si>
   <si>
     <t xml:space="preserve">82.2572402954102</t>
@@ -2297,13 +2297,13 @@
     <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6046600341797</t>
+    <t xml:space="preserve">85.1915130615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6046524047852</t>
   </si>
   <si>
     <t xml:space="preserve">84.1156158447266</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">84.3112258911133</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1594390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3988723754883</t>
+    <t xml:space="preserve">82.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3988800048828</t>
   </si>
   <si>
     <t xml:space="preserve">80.203254699707</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">87.245491027832</t>
+    <t xml:space="preserve">87.2454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">87.8323593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1038589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2016754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.2775802612305</t>
+    <t xml:space="preserve">87.8323516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1038665771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2016677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
     <t xml:space="preserve">88.7126235961914</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3737945556641</t>
+    <t xml:space="preserve">99.3737869262695</t>
   </si>
   <si>
     <t xml:space="preserve">102.699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">103.872993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.481773376465</t>
+    <t xml:space="preserve">103.873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.48176574707</t>
   </si>
   <si>
     <t xml:space="preserve">100.156257629395</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">100.743118286133</t>
   </si>
   <si>
-    <t xml:space="preserve">102.112449645996</t>
+    <t xml:space="preserve">102.112442016602</t>
   </si>
   <si>
     <t xml:space="preserve">98.3957061767578</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.4176177978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3417205810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373306274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.1781692504883</t>
+    <t xml:space="preserve">97.417610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3417129516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373382568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.1781768798828</t>
   </si>
   <si>
     <t xml:space="preserve">96.6351470947266</t>
@@ -2438,22 +2438,22 @@
     <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">94.9723968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3636245727539</t>
+    <t xml:space="preserve">94.9723892211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
     <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">96.4395294189453</t>
+    <t xml:space="preserve">96.4395217895508</t>
   </si>
   <si>
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677375793457</t>
+    <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">106.807266235352</t>
   </si>
   <si>
-    <t xml:space="preserve">108.95906829834</t>
+    <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
     <t xml:space="preserve">109.741523742676</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">107.980979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">108.567825317383</t>
+    <t xml:space="preserve">108.567832946777</t>
   </si>
   <si>
     <t xml:space="preserve">110.328392028809</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">109.937156677246</t>
   </si>
   <si>
-    <t xml:space="preserve">111.893325805664</t>
+    <t xml:space="preserve">111.893333435059</t>
   </si>
   <si>
     <t xml:space="preserve">110.132766723633</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">101.916816711426</t>
   </si>
   <si>
-    <t xml:space="preserve">105.633560180664</t>
+    <t xml:space="preserve">105.63355255127</t>
   </si>
   <si>
     <t xml:space="preserve">105.829177856445</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">108.176597595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286148071289</t>
+    <t xml:space="preserve">108.17658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286140441895</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
@@ -2534,22 +2534,22 @@
     <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">107.785346984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.264236450195</t>
+    <t xml:space="preserve">107.785354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.264228820801</t>
   </si>
   <si>
     <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">108.76343536377</t>
+    <t xml:space="preserve">108.763442993164</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
   </si>
   <si>
-    <t xml:space="preserve">113.262649536133</t>
+    <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
     <t xml:space="preserve">116.196922302246</t>
@@ -2558,22 +2558,22 @@
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545906066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.458267211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.414436340332</t>
+    <t xml:space="preserve">109.545913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.458274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.414443969727</t>
   </si>
   <si>
     <t xml:space="preserve">112.284561157227</t>
   </si>
   <si>
-    <t xml:space="preserve">112.871421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.849510192871</t>
+    <t xml:space="preserve">112.87141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.849502563477</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">115.805686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">115.21883392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.566246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.153091430664</t>
+    <t xml:space="preserve">115.218826293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.56623840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.153099060059</t>
   </si>
   <si>
     <t xml:space="preserve">117.761856079102</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847915649414</t>
+    <t xml:space="preserve">122.847923278809</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2624,28 +2624,28 @@
     <t xml:space="preserve">126.369033813477</t>
   </si>
   <si>
-    <t xml:space="preserve">134.389373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.08576965332</t>
+    <t xml:space="preserve">134.389358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.085784912109</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.976211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.128005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.736785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.563064575195</t>
+    <t xml:space="preserve">131.846328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.976226806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.128021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.736770629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.563079833984</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453521728516</t>
+    <t xml:space="preserve">140.453536987305</t>
   </si>
   <si>
     <t xml:space="preserve">138.301712036133</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">140.844741821289</t>
   </si>
   <si>
-    <t xml:space="preserve">141.235992431641</t>
+    <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
     <t xml:space="preserve">140.062271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">141.627212524414</t>
+    <t xml:space="preserve">141.627227783203</t>
   </si>
   <si>
     <t xml:space="preserve">142.996536254883</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">139.47541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.822830200195</t>
+    <t xml:space="preserve">141.822845458984</t>
   </si>
   <si>
     <t xml:space="preserve">142.409683227539</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691375732422</t>
+    <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
     <t xml:space="preserve">148.082611083984</t>
@@ -2723,16 +2723,16 @@
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473846435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.212478637695</t>
+    <t xml:space="preserve">148.473831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.212493896484</t>
   </si>
   <si>
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038772583008</t>
+    <t xml:space="preserve">150.038757324219</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">156.885391235352</t>
   </si>
   <si>
-    <t xml:space="preserve">155.711685180664</t>
+    <t xml:space="preserve">155.711700439453</t>
   </si>
   <si>
     <t xml:space="preserve">158.841567993164</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">154.537994384766</t>
   </si>
   <si>
-    <t xml:space="preserve">161.384613037109</t>
+    <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
     <t xml:space="preserve">162.558319091797</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">164.905731201172</t>
   </si>
   <si>
-    <t xml:space="preserve">165.101333618164</t>
+    <t xml:space="preserve">165.101348876953</t>
   </si>
   <si>
     <t xml:space="preserve">167.057525634766</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099761962891</t>
+    <t xml:space="preserve">174.099746704102</t>
   </si>
   <si>
     <t xml:space="preserve">168.818099975586</t>
@@ -2798,19 +2798,19 @@
     <t xml:space="preserve">169.013702392578</t>
   </si>
   <si>
-    <t xml:space="preserve">164.318878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.688186645508</t>
+    <t xml:space="preserve">164.318862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.688201904297</t>
   </si>
   <si>
     <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
-    <t xml:space="preserve">170.774261474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.515884399414</t>
+    <t xml:space="preserve">170.77424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.515869140625</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576202392578</t>
+    <t xml:space="preserve">150.576217651367</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362518310547</t>
+    <t xml:space="preserve">151.362503051758</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635772705078</t>
+    <t xml:space="preserve">158.635757446289</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.33642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037109375</t>
+    <t xml:space="preserve">164.336441040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037094116211</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.250793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695343017578</t>
+    <t xml:space="preserve">169.25080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695327758789</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472702026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387069702148</t>
+    <t xml:space="preserve">181.438430786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472686767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387054443359</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216537475586</t>
+    <t xml:space="preserve">171.216552734375</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524078369141</t>
+    <t xml:space="preserve">176.524063110352</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737762451172</t>
+    <t xml:space="preserve">175.737777709961</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430252075195</t>
+    <t xml:space="preserve">170.430236816406</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.2001953125</t>
+    <t xml:space="preserve">155.687133789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.200180053711</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866592407227</t>
+    <t xml:space="preserve">156.866607666016</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601516723633</t>
+    <t xml:space="preserve">160.601501464844</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636520385742</t>
+    <t xml:space="preserve">135.636535644531</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798843383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884475708008</t>
+    <t xml:space="preserve">137.798858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884490966797</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491348266602</t>
+    <t xml:space="preserve">131.705047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491333007812</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550888061523</t>
+    <t xml:space="preserve">140.550903320312</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.363265991211</t>
+    <t xml:space="preserve">127.576965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.36328125</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.92692565918</t>
+    <t xml:space="preserve">141.926910400391</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448150634766</t>
+    <t xml:space="preserve">146.448135375977</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251571655273</t>
+    <t xml:space="preserve">146.251556396484</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008087158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320068359375</t>
+    <t xml:space="preserve">143.008071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516647338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320083618164</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465255737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769088745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393035888672</t>
+    <t xml:space="preserve">145.465270996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393051147461</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611221313477</t>
+    <t xml:space="preserve">125.611228942871</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244148254395</t>
+    <t xml:space="preserve">112.244140625</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944808959961</t>
+    <t xml:space="preserve">117.944816589355</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.696853637695</t>
+    <t xml:space="preserve">120.69686126709</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760894775391</t>
+    <t xml:space="preserve">122.760887145996</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.154037475586</t>
+    <t xml:space="preserve">123.15404510498</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.41911315918</t>
+    <t xml:space="preserve">119.419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380401611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004371643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235198974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790672302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.085525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820465087891</t>
+    <t xml:space="preserve">127.380409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.08553314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820449829102</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.060218811035</t>
+    <t xml:space="preserve">117.06022644043</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521873474121</t>
+    <t xml:space="preserve">113.521881103516</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778015136719</t>
+    <t xml:space="preserve">121.778022766113</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500282287598</t>
+    <t xml:space="preserve">120.500274658203</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684204101562</t>
+    <t xml:space="preserve">115.684196472168</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367744445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.44889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397521972656</t>
+    <t xml:space="preserve">120.893432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367736816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.448905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397529602051</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.640991210938</t>
+    <t xml:space="preserve">133.572479248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.641006469727</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901611328125</t>
+    <t xml:space="preserve">131.901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.299240112305</t>
+    <t xml:space="preserve">129.149551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.29923248291</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136909484863</t>
+    <t xml:space="preserve">124.136917114258</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859184265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743766784668</t>
+    <t xml:space="preserve">121.581436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859176635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743759155273</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829399108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141387939453</t>
+    <t xml:space="preserve">118.436248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141380310059</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -4386,6 +4386,9 @@
   </si>
   <si>
     <t xml:space="preserve">119.699996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.699996948242</t>
   </si>
 </sst>
 </file>
@@ -17355,7 +17358,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17407,7 +17410,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17433,7 +17436,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17459,7 +17462,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17485,7 +17488,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17511,7 +17514,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17537,7 +17540,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17563,7 +17566,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17589,7 +17592,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17615,7 +17618,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17641,7 +17644,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17667,7 +17670,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17693,7 +17696,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17719,7 +17722,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17745,7 +17748,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17771,7 +17774,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17797,7 +17800,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17823,7 +17826,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17849,7 +17852,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17875,7 +17878,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17901,7 +17904,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17927,7 +17930,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17953,7 +17956,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17979,7 +17982,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18005,7 +18008,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18031,7 +18034,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18057,7 +18060,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18083,7 +18086,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18109,7 +18112,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18135,7 +18138,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18161,7 +18164,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18239,7 +18242,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18317,7 +18320,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18343,7 +18346,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18369,7 +18372,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18395,7 +18398,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18421,7 +18424,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18499,7 +18502,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18525,7 +18528,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18603,7 +18606,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18629,7 +18632,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18655,7 +18658,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18681,7 +18684,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18707,7 +18710,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18733,7 +18736,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18759,7 +18762,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18785,7 +18788,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18811,7 +18814,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18837,7 +18840,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18863,7 +18866,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18889,7 +18892,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18941,7 +18944,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18967,7 +18970,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18993,7 +18996,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19019,7 +19022,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19045,7 +19048,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19071,7 +19074,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19149,7 +19152,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19175,7 +19178,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19201,7 +19204,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19253,7 +19256,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19279,7 +19282,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19305,7 +19308,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19331,7 +19334,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19357,7 +19360,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19409,7 +19412,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19435,7 +19438,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19461,7 +19464,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19513,7 +19516,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19539,7 +19542,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19565,7 +19568,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19617,7 +19620,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19669,7 +19672,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19695,7 +19698,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19721,7 +19724,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19747,7 +19750,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19773,7 +19776,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19799,7 +19802,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19825,7 +19828,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19851,7 +19854,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19877,7 +19880,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19903,7 +19906,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19929,7 +19932,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19955,7 +19958,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20007,7 +20010,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20059,7 +20062,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20111,7 +20114,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20137,7 +20140,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20163,7 +20166,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20189,7 +20192,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20215,7 +20218,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20241,7 +20244,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20267,7 +20270,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20319,7 +20322,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20345,7 +20348,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20371,7 +20374,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20397,7 +20400,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20423,7 +20426,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20449,7 +20452,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20475,7 +20478,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20501,7 +20504,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20527,7 +20530,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20553,7 +20556,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20579,7 +20582,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20605,7 +20608,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20657,7 +20660,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20683,7 +20686,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20735,7 +20738,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20761,7 +20764,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20813,7 +20816,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20839,7 +20842,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20865,7 +20868,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20943,7 +20946,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20969,7 +20972,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20995,7 +20998,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21021,7 +21024,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21047,7 +21050,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21073,7 +21076,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21099,7 +21102,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21125,7 +21128,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21151,7 +21154,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21177,7 +21180,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21203,7 +21206,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21229,7 +21232,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21307,7 +21310,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21333,7 +21336,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21359,7 +21362,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21385,7 +21388,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21411,7 +21414,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21437,7 +21440,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21463,7 +21466,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21489,7 +21492,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21567,7 +21570,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21593,7 +21596,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21619,7 +21622,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21645,7 +21648,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21671,7 +21674,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21697,7 +21700,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21723,7 +21726,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21749,7 +21752,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21775,7 +21778,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21801,7 +21804,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21827,7 +21830,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21853,7 +21856,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21879,7 +21882,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21905,7 +21908,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21931,7 +21934,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21957,7 +21960,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21983,7 +21986,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22009,7 +22012,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22035,7 +22038,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22061,7 +22064,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22087,7 +22090,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22113,7 +22116,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22139,7 +22142,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22165,7 +22168,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22191,7 +22194,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22217,7 +22220,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22243,7 +22246,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22269,7 +22272,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22321,7 +22324,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22347,7 +22350,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22373,7 +22376,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22399,7 +22402,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22425,7 +22428,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22451,7 +22454,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22477,7 +22480,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22529,7 +22532,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22555,7 +22558,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22581,7 +22584,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22633,7 +22636,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22659,7 +22662,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22685,7 +22688,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22711,7 +22714,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22737,7 +22740,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22763,7 +22766,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22789,7 +22792,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22815,7 +22818,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22841,7 +22844,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22867,7 +22870,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22893,7 +22896,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22919,7 +22922,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25545,7 +25548,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26377,7 +26380,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -60991,7 +60994,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.65125</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>29942</v>
@@ -61012,6 +61015,32 @@
         <v>1457</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6496180556</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>12998</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>120.900001525879</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>117.699996948242</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>120.099998474121</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>117.699996948242</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1460">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495969772339</t>
+    <t xml:space="preserve">13.8495960235596</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317270278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457983016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330665588379</t>
+    <t xml:space="preserve">13.8317260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330656051636</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028348922729</t>
@@ -59,37 +59,37 @@
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402891159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777423858643</t>
+    <t xml:space="preserve">13.3402881622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777433395386</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3939008712769</t>
+    <t xml:space="preserve">13.3938999176025</t>
   </si>
   <si>
     <t xml:space="preserve">13.3134822845459</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1347780227661</t>
+    <t xml:space="preserve">13.1347799301147</t>
   </si>
   <si>
     <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722332000732</t>
+    <t xml:space="preserve">12.8667211532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722322463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650115966797</t>
+    <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">11.1690301895142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226428985596</t>
+    <t xml:space="preserve">11.2226409912109</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">12.3663492202759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752851486206</t>
+    <t xml:space="preserve">12.3752841949463</t>
   </si>
   <si>
     <t xml:space="preserve">12.1519050598145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965799331665</t>
+    <t xml:space="preserve">12.2412557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965808868408</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769975662231</t>
@@ -140,61 +140,61 @@
     <t xml:space="preserve">12.3484783172607</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625524520874</t>
+    <t xml:space="preserve">12.0625534057617</t>
   </si>
   <si>
     <t xml:space="preserve">12.4020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0893583297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306093215942</t>
+    <t xml:space="preserve">12.0893564224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306083679199</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773694992065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9560747146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564485549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475126266479</t>
+    <t xml:space="preserve">12.9560737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811681747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564476013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4117708206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832534790039</t>
+    <t xml:space="preserve">13.411771774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832525253296</t>
   </si>
   <si>
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1883916854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688093185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513113021851</t>
+    <t xml:space="preserve">13.1794557571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1883897781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492250442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688074111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
     <t xml:space="preserve">14.0104322433472</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">13.6172790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2866773605347</t>
+    <t xml:space="preserve">13.3849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286678314209</t>
   </si>
   <si>
     <t xml:space="preserve">12.9203338623047</t>
@@ -224,16 +224,16 @@
     <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6522769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2948684692383</t>
+    <t xml:space="preserve">12.6522760391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2948694229126</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7148237228394</t>
+    <t xml:space="preserve">12.714822769165</t>
   </si>
   <si>
     <t xml:space="preserve">12.8399171829224</t>
@@ -245,43 +245,43 @@
     <t xml:space="preserve">12.9113969802856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433410644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543603897095</t>
+    <t xml:space="preserve">12.6433420181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543613433838</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058897018433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4646377563477</t>
+    <t xml:space="preserve">12.5539903640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4646368026733</t>
   </si>
   <si>
     <t xml:space="preserve">12.5182485580444</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880159378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612119674683</t>
+    <t xml:space="preserve">12.6880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612129211426</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804233551025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1072282791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5271854400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577890396118</t>
+    <t xml:space="preserve">12.1072292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5271835327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577871322632</t>
   </si>
   <si>
     <t xml:space="preserve">12.4914426803589</t>
@@ -290,28 +290,28 @@
     <t xml:space="preserve">12.4557008743286</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0632991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0096864700317</t>
+    <t xml:space="preserve">13.0632972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0096855163574</t>
   </si>
   <si>
     <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0901031494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.045428276062</t>
+    <t xml:space="preserve">13.0901041030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1169090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131113052368</t>
+    <t xml:space="preserve">13.1169080734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131103515625</t>
   </si>
   <si>
     <t xml:space="preserve">13.4743175506592</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">13.5994119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708927154541</t>
+    <t xml:space="preserve">13.5547332763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708936691284</t>
   </si>
   <si>
     <t xml:space="preserve">13.903208732605</t>
@@ -335,34 +335,34 @@
     <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716125488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757745742798</t>
+    <t xml:space="preserve">14.028302192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716115951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757736206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.945348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9637813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8992643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176988601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8255281448364</t>
+    <t xml:space="preserve">13.9453477859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9637823104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8992624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
     <t xml:space="preserve">13.853178024292</t>
@@ -377,34 +377,34 @@
     <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836029052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9729986190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1020383834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2863779067993</t>
+    <t xml:space="preserve">14.0836038589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9729995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1020374298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286376953125</t>
   </si>
   <si>
     <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232450485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4154167175293</t>
+    <t xml:space="preserve">14.3232460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126417160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.415415763855</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707193374634</t>
+    <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
     <t xml:space="preserve">14.6827096939087</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">14.7380113601685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8394002914429</t>
+    <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
     <t xml:space="preserve">14.9315710067749</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">14.986870765686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274080276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181898117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670492172241</t>
+    <t xml:space="preserve">14.7103595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670482635498</t>
   </si>
   <si>
     <t xml:space="preserve">14.9684371948242</t>
@@ -446,25 +446,25 @@
     <t xml:space="preserve">14.9592189788818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9500017166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145235061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.152777671814</t>
+    <t xml:space="preserve">14.9500026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1527786254883</t>
   </si>
   <si>
     <t xml:space="preserve">15.1343441009521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0698251724243</t>
+    <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
     <t xml:space="preserve">14.9039192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237398147583</t>
+    <t xml:space="preserve">15.0237379074097</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301830291748</t>
@@ -473,31 +473,31 @@
     <t xml:space="preserve">14.9960880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.977653503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832035064697</t>
+    <t xml:space="preserve">14.9776544570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541637420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832025527954</t>
   </si>
   <si>
     <t xml:space="preserve">15.5491104125977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7150135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993577957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219505310059</t>
+    <t xml:space="preserve">15.7150163650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297817230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219543457031</t>
   </si>
   <si>
     <t xml:space="preserve">16.1850852966309</t>
@@ -506,49 +506,49 @@
     <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3049068450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1160011291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2450408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5307674407959</t>
+    <t xml:space="preserve">16.3049030303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.116003036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2450370788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4662475585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556442260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.281909942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6874580383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4109477996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6598072052002</t>
+    <t xml:space="preserve">17.3556461334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2819080352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6874599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.410945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6598052978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7058887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.549201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731884002686</t>
+    <t xml:space="preserve">17.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5492038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731845855713</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639682769775</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">17.5676345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2266063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2173900604248</t>
+    <t xml:space="preserve">17.2266101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2173919677734</t>
   </si>
   <si>
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975685119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0606994628906</t>
+    <t xml:space="preserve">17.0975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201641082764</t>
+    <t xml:space="preserve">17.4201622009277</t>
   </si>
   <si>
     <t xml:space="preserve">17.1897392272949</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">17.374080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1436519622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832988739014</t>
+    <t xml:space="preserve">17.1436538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832969665527</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768508911133</t>
@@ -602,31 +602,31 @@
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100574493408</t>
+    <t xml:space="preserve">18.0100555419922</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575260162354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4063873291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879528045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510818481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.20361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644611358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713962554932</t>
+    <t xml:space="preserve">18.4063854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418655395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644630432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713981628418</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635688781738</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331401824951</t>
+    <t xml:space="preserve">19.0331420898438</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244167327881</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7889347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1023139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0838813781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9917144775391</t>
+    <t xml:space="preserve">19.7889385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797183990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1023178100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0838832855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
     <t xml:space="preserve">19.6783332824707</t>
@@ -671,34 +671,34 @@
     <t xml:space="preserve">19.3741722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3280868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124263763428</t>
+    <t xml:space="preserve">19.3280849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124244689941</t>
   </si>
   <si>
     <t xml:space="preserve">18.9870586395264</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5999412536621</t>
+    <t xml:space="preserve">18.5999431610107</t>
   </si>
   <si>
     <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2543487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8903255462646</t>
+    <t xml:space="preserve">19.2543506622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903274536133</t>
   </si>
   <si>
     <t xml:space="preserve">19.8165874481201</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4617805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120288848877</t>
+    <t xml:space="preserve">20.4617786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913131713867</t>
@@ -707,43 +707,43 @@
     <t xml:space="preserve">21.7521629333496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373947143555</t>
+    <t xml:space="preserve">21.3373966217041</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4756507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0240154266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0608863830566</t>
+    <t xml:space="preserve">21.5678234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4756526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.024019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807060241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0608882904053</t>
   </si>
   <si>
     <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8304595947266</t>
+    <t xml:space="preserve">20.8304615020752</t>
   </si>
   <si>
     <t xml:space="preserve">21.1069717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1208419799805</t>
+    <t xml:space="preserve">22.1208438873291</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8535499572754</t>
+    <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
     <t xml:space="preserve">22.581693649292</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2176704406738</t>
+    <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
     <t xml:space="preserve">23.3098392486572</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1209354400635</t>
+    <t xml:space="preserve">24.1209373474121</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094398498535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5910034179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619655609131</t>
+    <t xml:space="preserve">24.5910015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">24.3882312774658</t>
@@ -779,31 +779,31 @@
     <t xml:space="preserve">24.3329257965088</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0287647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5033950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9780254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425434112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084541320801</t>
+    <t xml:space="preserve">24.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.503396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.97802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425453186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
     <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595928192139</t>
+    <t xml:space="preserve">22.9595909118652</t>
   </si>
   <si>
     <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.673864364624</t>
+    <t xml:space="preserve">22.6738662719727</t>
   </si>
   <si>
     <t xml:space="preserve">23.2268848419189</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7015132904053</t>
+    <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
     <t xml:space="preserve">21.9641532897949</t>
@@ -824,25 +824,25 @@
     <t xml:space="preserve">22.3604869842529</t>
   </si>
   <si>
-    <t xml:space="preserve">22.185359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4250068664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632610321045</t>
+    <t xml:space="preserve">22.1853618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632629394531</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3190574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830806732178</t>
+    <t xml:space="preserve">23.319055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121204376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830825805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.8489894866943</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">23.0241088867188</t>
   </si>
   <si>
-    <t xml:space="preserve">23.107063293457</t>
+    <t xml:space="preserve">23.1070652008057</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7383842468262</t>
+    <t xml:space="preserve">22.7383823394775</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
@@ -866,28 +866,28 @@
     <t xml:space="preserve">22.6185646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922969818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6277770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6369972229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0747585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7982482910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0378894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5171737670898</t>
+    <t xml:space="preserve">22.5724773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.627779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6369953155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0747566223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.798246383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0378913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5171756744385</t>
   </si>
   <si>
     <t xml:space="preserve">22.1669292449951</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">22.7291660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8674221038818</t>
+    <t xml:space="preserve">22.8674201965332</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">23.7856960296631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.709228515625</t>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217792510986</t>
+    <t xml:space="preserve">25.32177734375</t>
   </si>
   <si>
     <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866691589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678226470947</t>
+    <t xml:space="preserve">26.3866672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678207397461</t>
   </si>
   <si>
     <t xml:space="preserve">26.2547359466553</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.584566116333</t>
+    <t xml:space="preserve">26.5845680236816</t>
   </si>
   <si>
     <t xml:space="preserve">26.4620571136475</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6693820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809074401855</t>
+    <t xml:space="preserve">26.6693801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809055328369</t>
   </si>
   <si>
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
+    <t xml:space="preserve">26.5280227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453098297119</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625968933105</t>
+    <t xml:space="preserve">25.9625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212375640869</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8872032165527</t>
+    <t xml:space="preserve">25.88720703125</t>
   </si>
   <si>
     <t xml:space="preserve">25.3500480651855</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">25.9814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4065914154053</t>
+    <t xml:space="preserve">25.1898422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
     <t xml:space="preserve">25.5102519989014</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">25.4442863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7008819580078</t>
+    <t xml:space="preserve">23.7008800506592</t>
   </si>
   <si>
     <t xml:space="preserve">23.4841365814209</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7480010986328</t>
+    <t xml:space="preserve">23.7479991912842</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">22.9940967559814</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2296924591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0035190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8150424957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0883350372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6254920959473</t>
+    <t xml:space="preserve">23.2296905517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0035209655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8150444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0883331298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6254940032959</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.917631149292</t>
+    <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
     <t xml:space="preserve">24.3040065765381</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537666320801</t>
+    <t xml:space="preserve">23.6537628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804721832275</t>
+    <t xml:space="preserve">23.3804702758789</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919975280762</t>
+    <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
@@ -1073,16 +1073,16 @@
     <t xml:space="preserve">24.5113296508789</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5019054412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5961456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9259757995605</t>
+    <t xml:space="preserve">24.5019073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5961437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9259777069092</t>
   </si>
   <si>
     <t xml:space="preserve">24.6903820037842</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">26.4337844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1981925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741203308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7270011901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8683605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0097179412842</t>
+    <t xml:space="preserve">26.1981906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741184234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7269992828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8683586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0097141265869</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730968475342</t>
+    <t xml:space="preserve">24.9730987548828</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720714569092</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">24.5490245819092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6432647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8788585662842</t>
+    <t xml:space="preserve">24.6432628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8788566589355</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317413330078</t>
+    <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3029308319092</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751457214355</t>
+    <t xml:space="preserve">26.5751438140869</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992160797119</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1771926879883</t>
+    <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
     <t xml:space="preserve">28.3656673431396</t>
@@ -1178,16 +1178,16 @@
     <t xml:space="preserve">27.3290500640869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0934543609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520988464355</t>
+    <t xml:space="preserve">27.0934524536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673351287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520969390869</t>
   </si>
   <si>
     <t xml:space="preserve">27.1876907348633</t>
@@ -1208,43 +1208,43 @@
     <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944797515869</t>
+    <t xml:space="preserve">27.8944759368896</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0829544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7060031890869</t>
+    <t xml:space="preserve">28.082950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7060012817383</t>
   </si>
   <si>
     <t xml:space="preserve">27.4704074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4022884368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2138118743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5541439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4494075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7897415161133</t>
+    <t xml:space="preserve">28.4599075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.402286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2138080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.554141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.449405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.789737701416</t>
   </si>
   <si>
     <t xml:space="preserve">29.355167388916</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">28.742618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6588840484619</t>
+    <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
     <t xml:space="preserve">27.5646438598633</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">27.2819328308105</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3761653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714309692383</t>
+    <t xml:space="preserve">27.3761672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714290618896</t>
   </si>
   <si>
     <t xml:space="preserve">27.5175266265869</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">26.7626056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6663360595703</t>
+    <t xml:space="preserve">26.6663379669189</t>
   </si>
   <si>
     <t xml:space="preserve">27.0514125823975</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812633514404</t>
+    <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
     <t xml:space="preserve">25.7036552429199</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521617889404</t>
+    <t xml:space="preserve">24.4521636962891</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5857486724854</t>
+    <t xml:space="preserve">23.5376167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.585750579834</t>
   </si>
   <si>
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044063568115</t>
+    <t xml:space="preserve">23.1044082641602</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5267963409424</t>
+    <t xml:space="preserve">22.526798248291</t>
   </si>
   <si>
     <t xml:space="preserve">22.3342609405518</t>
@@ -1355,25 +1355,25 @@
     <t xml:space="preserve">23.7301502227783</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0189590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0562744140625</t>
+    <t xml:space="preserve">23.3932113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0189571380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0562725067139</t>
   </si>
   <si>
     <t xml:space="preserve">22.6230640411377</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1417236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.467845916748</t>
+    <t xml:space="preserve">22.1417255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
     <t xml:space="preserve">21.5641117095947</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">22.7674674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2379932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305267333984</t>
+    <t xml:space="preserve">22.2379913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
     <t xml:space="preserve">22.0454559326172</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">21.8047847747803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.708517074585</t>
+    <t xml:space="preserve">21.7085151672363</t>
   </si>
   <si>
     <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2969417572021</t>
+    <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
     <t xml:space="preserve">24.0670890808105</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">24.2596282958984</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2114944458008</t>
+    <t xml:space="preserve">24.2114925384521</t>
   </si>
   <si>
     <t xml:space="preserve">24.3077602386475</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891044616699</t>
+    <t xml:space="preserve">24.7891025543213</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
@@ -1451,37 +1451,37 @@
     <t xml:space="preserve">25.2223110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1260433197021</t>
+    <t xml:space="preserve">25.1260414123535</t>
   </si>
   <si>
     <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.511116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4738006591797</t>
+    <t xml:space="preserve">25.5111179351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4737987518311</t>
   </si>
   <si>
     <t xml:space="preserve">26.3293972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5219345092773</t>
+    <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5327529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808868408203</t>
+    <t xml:space="preserve">27.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808849334717</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402156829834</t>
+    <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
     <t xml:space="preserve">27.8696937561035</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178276062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6771545410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2920799255371</t>
+    <t xml:space="preserve">27.9178256988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.677152633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439460754395</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5700702667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7144718170166</t>
+    <t xml:space="preserve">26.570068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7144737243652</t>
   </si>
   <si>
     <t xml:space="preserve">26.6182022094727</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">26.1849956512451</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9924564361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5592498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.655517578125</t>
+    <t xml:space="preserve">25.9924583435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5592517852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
     <t xml:space="preserve">25.4148464202881</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9816398620605</t>
+    <t xml:space="preserve">24.9816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
@@ -1571,16 +1571,16 @@
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5543880462646</t>
+    <t xml:space="preserve">29.5543899536133</t>
   </si>
   <si>
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.420804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984149932861</t>
+    <t xml:space="preserve">30.4208030700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
     <t xml:space="preserve">31.0465469360352</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.212589263916</t>
+    <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
     <t xml:space="preserve">34.2234039306641</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">34.415943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308647155762</t>
+    <t xml:space="preserve">34.0308685302734</t>
   </si>
   <si>
     <t xml:space="preserve">34.3196716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.656608581543</t>
+    <t xml:space="preserve">34.6566123962402</t>
   </si>
   <si>
     <t xml:space="preserve">33.9827308654785</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">33.5976600646973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8864669799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7901954650879</t>
+    <t xml:space="preserve">33.8864631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7901916503906</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">32.6349792480469</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1536331176758</t>
+    <t xml:space="preserve">32.153636932373</t>
   </si>
   <si>
     <t xml:space="preserve">32.0573654174805</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685585021973</t>
+    <t xml:space="preserve">31.7685546875</t>
   </si>
   <si>
     <t xml:space="preserve">31.7204284667969</t>
@@ -1655,22 +1655,22 @@
     <t xml:space="preserve">31.2872180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9610958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722946166992</t>
+    <t xml:space="preserve">31.9611015319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6722927093506</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5278873443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648319244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.586841583252</t>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648262023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5868377685547</t>
   </si>
   <si>
     <t xml:space="preserve">32.7312431335449</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">37.5927925109863</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9778709411621</t>
+    <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
     <t xml:space="preserve">38.5073432922363</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">39.074634552002</t>
+    <t xml:space="preserve">39.0746383666992</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">38.8301162719727</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6833992004395</t>
+    <t xml:space="preserve">38.6834030151367</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1994400024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9060096740723</t>
+    <t xml:space="preserve">40.1994361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9060134887695</t>
   </si>
   <si>
     <t xml:space="preserve">39.6614875793457</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">39.3191604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9768257141113</t>
+    <t xml:space="preserve">38.9768218994141</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5636787414551</t>
+    <t xml:space="preserve">39.5636825561523</t>
   </si>
   <si>
     <t xml:space="preserve">39.1235389709473</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">39.4169654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2702560424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2483406066895</t>
+    <t xml:space="preserve">39.2702522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2483444213867</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1778,19 +1778,19 @@
     <t xml:space="preserve">40.1505355834961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7862892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1067123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0358924865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5957565307617</t>
+    <t xml:space="preserve">40.7862930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1067085266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0358963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5957527160645</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154769897461</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7745399475098</t>
+    <t xml:space="preserve">45.774543762207</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1826,19 +1826,19 @@
     <t xml:space="preserve">44.160701751709</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8672676086426</t>
+    <t xml:space="preserve">43.8672714233398</t>
   </si>
   <si>
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4103012084961</t>
+    <t xml:space="preserve">46.4102973937988</t>
   </si>
   <si>
     <t xml:space="preserve">46.2635841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6059188842773</t>
+    <t xml:space="preserve">46.6059226989746</t>
   </si>
   <si>
     <t xml:space="preserve">48.7088050842285</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">49.9803237915039</t>
   </si>
   <si>
-    <t xml:space="preserve">49.6868934631348</t>
+    <t xml:space="preserve">49.686897277832</t>
   </si>
   <si>
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781288146973</t>
+    <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">51.7408828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1321144104004</t>
+    <t xml:space="preserve">52.1321182250977</t>
   </si>
   <si>
     <t xml:space="preserve">53.8926773071289</t>
@@ -1883,25 +1883,25 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102066040039</t>
+    <t xml:space="preserve">53.1102027893066</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8167762756348</t>
+    <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
     <t xml:space="preserve">49.4912796020508</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3934669494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5233535766602</t>
+    <t xml:space="preserve">49.3934707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5233573913574</t>
   </si>
   <si>
     <t xml:space="preserve">52.034309387207</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">50.9584083557129</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5452690124512</t>
+    <t xml:space="preserve">51.5452651977539</t>
   </si>
   <si>
     <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2620010375977</t>
+    <t xml:space="preserve">55.2620048522949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4795303344727</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4153861999512</t>
+    <t xml:space="preserve">48.4153823852539</t>
   </si>
   <si>
     <t xml:space="preserve">48.0241432189941</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">44.5519332885742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6935615539551</t>
+    <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
     <t xml:space="preserve">37.4607925415039</t>
@@ -1985,31 +1985,31 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469467163086</t>
+    <t xml:space="preserve">35.8469429016113</t>
   </si>
   <si>
     <t xml:space="preserve">37.9009284973145</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0476455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9498329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1016273498535</t>
+    <t xml:space="preserve">38.0476417541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.949836730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1016311645508</t>
   </si>
   <si>
     <t xml:space="preserve">41.3242416381836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8841018676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7256393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9971504211426</t>
+    <t xml:space="preserve">40.8840980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7256355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
     <t xml:space="preserve">46.4592056274414</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">45.8723526000977</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3124885559082</t>
+    <t xml:space="preserve">46.3124923706055</t>
   </si>
   <si>
     <t xml:space="preserve">46.1657791137695</t>
@@ -2042,19 +2042,19 @@
     <t xml:space="preserve">45.1876907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1117935180664</t>
+    <t xml:space="preserve">44.1117897033691</t>
   </si>
   <si>
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
+    <t xml:space="preserve">42.7913780212402</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0190658569336</t>
+    <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">48.7577133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0022315979004</t>
+    <t xml:space="preserve">49.7847061157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0022354125977</t>
   </si>
   <si>
     <t xml:space="preserve">49.5890884399414</t>
@@ -2090,25 +2090,25 @@
     <t xml:space="preserve">54.2839164733887</t>
   </si>
   <si>
-    <t xml:space="preserve">55.1641960144043</t>
+    <t xml:space="preserve">55.164192199707</t>
   </si>
   <si>
     <t xml:space="preserve">54.6751518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3379020690918</t>
+    <t xml:space="preserve">56.3378982543945</t>
   </si>
   <si>
     <t xml:space="preserve">56.9247512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">56.7291374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5554275512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488540649414</t>
+    <t xml:space="preserve">56.729133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488502502441</t>
   </si>
   <si>
     <t xml:space="preserve">56.0444717407227</t>
@@ -2150,28 +2150,28 @@
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954689025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8472671508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6735649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494659423828</t>
+    <t xml:space="preserve">60.1524429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954727172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8472747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6735610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494583129883</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7275390625</t>
+    <t xml:space="preserve">65.0428848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
     <t xml:space="preserve">66.0209732055664</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">67.9771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3464813232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.596076965332</t>
+    <t xml:space="preserve">69.3464736938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5960845947266</t>
   </si>
   <si>
     <t xml:space="preserve">70.7158050537109</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">72.1829376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">73.3566436767578</t>
+    <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
     <t xml:space="preserve">73.6500625610352</t>
@@ -2222,10 +2222,10 @@
     <t xml:space="preserve">72.5741653442383</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0092315673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5201797485352</t>
+    <t xml:space="preserve">71.0092239379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">70.3245620727539</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2048416137695</t>
+    <t xml:space="preserve">71.2048492431641</t>
   </si>
   <si>
     <t xml:space="preserve">78.2470779418945</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">75.508430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4865264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6164093017578</t>
+    <t xml:space="preserve">76.4865188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6164016723633</t>
   </si>
   <si>
     <t xml:space="preserve">80.0076446533203</t>
@@ -2273,19 +2273,19 @@
     <t xml:space="preserve">83.8221817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.3331451416016</t>
+    <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
     <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134246826172</t>
+    <t xml:space="preserve">84.2134170532227</t>
   </si>
   <si>
     <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">82.9419021606445</t>
+    <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
     <t xml:space="preserve">82.2572402954102</t>
@@ -2297,13 +2297,13 @@
     <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915130615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6046524047852</t>
+    <t xml:space="preserve">85.1915054321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6046600341797</t>
   </si>
   <si>
     <t xml:space="preserve">84.1156158447266</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827560424805</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
@@ -2327,22 +2327,22 @@
     <t xml:space="preserve">81.2791595458984</t>
   </si>
   <si>
-    <t xml:space="preserve">81.5725784301758</t>
+    <t xml:space="preserve">81.5725860595703</t>
   </si>
   <si>
     <t xml:space="preserve">84.3112258911133</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3988800048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.203254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.5608367919922</t>
+    <t xml:space="preserve">82.1594390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3988723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2032623291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.5608291625977</t>
   </si>
   <si>
     <t xml:space="preserve">87.2454986572266</t>
@@ -2375,22 +2375,22 @@
     <t xml:space="preserve">95.1680221557617</t>
   </si>
   <si>
-    <t xml:space="preserve">98.0044631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.3737869262695</t>
+    <t xml:space="preserve">98.0044708251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.3737945556641</t>
   </si>
   <si>
     <t xml:space="preserve">102.699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">103.873001098633</t>
+    <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
     <t xml:space="preserve">103.48176574707</t>
   </si>
   <si>
-    <t xml:space="preserve">100.156257629395</t>
+    <t xml:space="preserve">100.156265258789</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088455200195</t>
+    <t xml:space="preserve">97.8088531494141</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.146110534668</t>
+    <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
     <t xml:space="preserve">95.4614410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">95.7548675537109</t>
+    <t xml:space="preserve">95.7548599243164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723892211914</t>
@@ -2447,19 +2447,19 @@
     <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">96.4395217895508</t>
+    <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677383422852</t>
+    <t xml:space="preserve">103.677391052246</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">106.807266235352</t>
+    <t xml:space="preserve">106.807258605957</t>
   </si>
   <si>
     <t xml:space="preserve">108.959060668945</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">112.088943481445</t>
   </si>
   <si>
-    <t xml:space="preserve">112.675804138184</t>
+    <t xml:space="preserve">112.675796508789</t>
   </si>
   <si>
     <t xml:space="preserve">107.980979919434</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">108.567832946777</t>
   </si>
   <si>
-    <t xml:space="preserve">110.328392028809</t>
+    <t xml:space="preserve">110.328384399414</t>
   </si>
   <si>
     <t xml:space="preserve">109.937156677246</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">110.132766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">111.110855102539</t>
+    <t xml:space="preserve">111.110847473145</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">101.916816711426</t>
   </si>
   <si>
-    <t xml:space="preserve">105.63355255127</t>
+    <t xml:space="preserve">105.633560180664</t>
   </si>
   <si>
     <t xml:space="preserve">105.829177856445</t>
@@ -2516,19 +2516,19 @@
     <t xml:space="preserve">109.350303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.915237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.17658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286140441895</t>
+    <t xml:space="preserve">110.915245056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.176582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
   </si>
   <si>
-    <t xml:space="preserve">105.437950134277</t>
+    <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
     <t xml:space="preserve">105.242324829102</t>
@@ -2537,10 +2537,10 @@
     <t xml:space="preserve">107.785354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">104.264228820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.220413208008</t>
+    <t xml:space="preserve">104.264236450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.220405578613</t>
   </si>
   <si>
     <t xml:space="preserve">108.763442993164</t>
@@ -2555,22 +2555,22 @@
     <t xml:space="preserve">116.196922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">112.480178833008</t>
+    <t xml:space="preserve">112.480171203613</t>
   </si>
   <si>
     <t xml:space="preserve">109.545913696289</t>
   </si>
   <si>
-    <t xml:space="preserve">113.458274841309</t>
+    <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
     <t xml:space="preserve">115.414443969727</t>
   </si>
   <si>
-    <t xml:space="preserve">112.284561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.87141418457</t>
+    <t xml:space="preserve">112.284568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.871421813965</t>
   </si>
   <si>
     <t xml:space="preserve">113.849502563477</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805686950684</t>
+    <t xml:space="preserve">115.805679321289</t>
   </si>
   <si>
     <t xml:space="preserve">115.218826293945</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.13117980957</t>
+    <t xml:space="preserve">119.131187438965</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
@@ -2627,19 +2627,19 @@
     <t xml:space="preserve">134.389358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.085784912109</t>
+    <t xml:space="preserve">130.08576965332</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.976226806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.128021240234</t>
+    <t xml:space="preserve">131.846343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.976211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
     <t xml:space="preserve">136.736770629883</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">140.453536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">138.301712036133</t>
+    <t xml:space="preserve">138.301727294922</t>
   </si>
   <si>
     <t xml:space="preserve">134.78059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">137.714874267578</t>
+    <t xml:space="preserve">137.714859008789</t>
   </si>
   <si>
     <t xml:space="preserve">139.279800415039</t>
@@ -2687,16 +2687,16 @@
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.47541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.822845458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.409683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.04035949707</t>
+    <t xml:space="preserve">139.475433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.822830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.409698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.040374755859</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
@@ -2714,10 +2714,10 @@
     <t xml:space="preserve">145.343963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">146.908889770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">146.908905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038757324219</t>
+    <t xml:space="preserve">150.038772583008</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.342376708984</t>
+    <t xml:space="preserve">154.342361450195</t>
   </si>
   <si>
     <t xml:space="preserve">153.755508422852</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">162.167083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">163.145156860352</t>
+    <t xml:space="preserve">163.145172119141</t>
   </si>
   <si>
     <t xml:space="preserve">164.905731201172</t>
@@ -2789,25 +2789,25 @@
     <t xml:space="preserve">174.099746704102</t>
   </si>
   <si>
-    <t xml:space="preserve">168.818099975586</t>
+    <t xml:space="preserve">168.818084716797</t>
   </si>
   <si>
     <t xml:space="preserve">171.752365112305</t>
   </si>
   <si>
-    <t xml:space="preserve">169.013702392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.318862915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.688201904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.46907043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.77424621582</t>
+    <t xml:space="preserve">169.013717651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.318878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.469085693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.774261474609</t>
   </si>
   <si>
     <t xml:space="preserve">165.515869140625</t>
@@ -4389,6 +4389,9 @@
   </si>
   <si>
     <t xml:space="preserve">117.699996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.400001525879</t>
   </si>
 </sst>
 </file>
@@ -61020,7 +61023,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6496180556</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>12998</v>
@@ -61041,6 +61044,32 @@
         <v>1458</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6495717593</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>16725</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>120.099998474121</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>117.699996948242</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>119.400001525879</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495960235596</t>
+    <t xml:space="preserve">13.8495979309082</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">13.8317260742188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5457992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330656051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028348922729</t>
+    <t xml:space="preserve">13.5458002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028367996216</t>
   </si>
   <si>
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402881622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777433395386</t>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777423858643</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3938999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134822845459</t>
+    <t xml:space="preserve">13.3939008712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347799301147</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">12.8667211532593</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0722322463989</t>
+    <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">13.0007514953613</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8845930099487</t>
+    <t xml:space="preserve">12.884593963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.5986661911011</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690301895142</t>
+    <t xml:space="preserve">12.4467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110269546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690311431885</t>
   </si>
   <si>
     <t xml:space="preserve">11.2226409912109</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6157913208008</t>
+    <t xml:space="preserve">11.6157903671265</t>
   </si>
   <si>
     <t xml:space="preserve">11.7051429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663492202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3752841949463</t>
+    <t xml:space="preserve">12.3663501739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3752851486206</t>
   </si>
   <si>
     <t xml:space="preserve">12.1519050598145</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">12.2412557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965808868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769975662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484783172607</t>
+    <t xml:space="preserve">12.1965799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769966125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
     <t xml:space="preserve">12.0625534057617</t>
@@ -146,22 +146,22 @@
     <t xml:space="preserve">12.4020919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0893564224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306083679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773694992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811681747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564476013184</t>
+    <t xml:space="preserve">12.0893583297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773704528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.956075668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.081169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456446647644</t>
   </si>
   <si>
     <t xml:space="preserve">13.4475116729736</t>
@@ -173,67 +173,67 @@
     <t xml:space="preserve">13.411771774292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4832525253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.036491394043</t>
+    <t xml:space="preserve">13.4832544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0364923477173</t>
   </si>
   <si>
     <t xml:space="preserve">13.1794557571411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1883897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492250442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921884536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688074111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513103485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0104322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691793441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5011234283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6172790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849658966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.286678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203338623047</t>
+    <t xml:space="preserve">13.1883907318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492231369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688064575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513084411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0104303359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691802978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602443695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5011224746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6172800064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849649429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2866773605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203329086304</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6522760391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2948694229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.419960975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.714822769165</t>
+    <t xml:space="preserve">12.6522769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2948684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4199619293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7148237228394</t>
   </si>
   <si>
     <t xml:space="preserve">12.8399171829224</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9113969802856</t>
+    <t xml:space="preserve">12.9113988876343</t>
   </si>
   <si>
     <t xml:space="preserve">12.6433420181274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0543613433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7058897018433</t>
+    <t xml:space="preserve">13.0543622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539903640747</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863073348999</t>
+    <t xml:space="preserve">12.7863063812256</t>
   </si>
   <si>
     <t xml:space="preserve">12.6612129211426</t>
@@ -278,16 +278,16 @@
     <t xml:space="preserve">12.1072292327881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5271835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577871322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914426803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557008743286</t>
+    <t xml:space="preserve">12.5271844863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0632972717285</t>
@@ -299,37 +299,37 @@
     <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0901041030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0454273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526498794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169080734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743175506592</t>
+    <t xml:space="preserve">13.0901021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743185043335</t>
   </si>
   <si>
     <t xml:space="preserve">13.3224191665649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5994119644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547332763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708936691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.903208732605</t>
+    <t xml:space="preserve">13.5994100570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708917617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032096862793</t>
   </si>
   <si>
     <t xml:space="preserve">13.9925603866577</t>
@@ -338,31 +338,31 @@
     <t xml:space="preserve">14.028302192688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0559511184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716115951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269142150879</t>
+    <t xml:space="preserve">14.0559520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716125488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757726669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269132614136</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8992624282837</t>
+    <t xml:space="preserve">13.9637832641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.899263381958</t>
   </si>
   <si>
     <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255271911621</t>
+    <t xml:space="preserve">13.8255262374878</t>
   </si>
   <si>
     <t xml:space="preserve">13.853178024292</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">13.6411876678467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808307647705</t>
+    <t xml:space="preserve">13.8808288574219</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006494522095</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">14.1020374298096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.286376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3508968353271</t>
+    <t xml:space="preserve">14.2863788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3508958816528</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2126417160034</t>
+    <t xml:space="preserve">14.2126436233521</t>
   </si>
   <si>
     <t xml:space="preserve">14.415415763855</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6827096939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380113601685</t>
+    <t xml:space="preserve">14.682710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380123138428</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
@@ -419,22 +419,22 @@
     <t xml:space="preserve">14.9315710067749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.986870765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670482635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684371948242</t>
+    <t xml:space="preserve">14.9868726730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181917190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670492172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684381484985</t>
   </si>
   <si>
     <t xml:space="preserve">15.0606079101562</t>
@@ -443,88 +443,88 @@
     <t xml:space="preserve">15.0421733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9592189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145244598389</t>
+    <t xml:space="preserve">14.9592199325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
     <t xml:space="preserve">15.1527786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343441009521</t>
+    <t xml:space="preserve">15.1343421936035</t>
   </si>
   <si>
     <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9039192199707</t>
+    <t xml:space="preserve">14.9039173126221</t>
   </si>
   <si>
     <t xml:space="preserve">15.0237379074097</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8301830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541637420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832025527954</t>
+    <t xml:space="preserve">14.8301820755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960889816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.977653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832035064697</t>
   </si>
   <si>
     <t xml:space="preserve">15.5491104125977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7150163650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297817230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219543457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1850852966309</t>
+    <t xml:space="preserve">15.7150135040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993587493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297836303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1850833892822</t>
   </si>
   <si>
     <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3049030303955</t>
+    <t xml:space="preserve">16.3049068450928</t>
   </si>
   <si>
     <t xml:space="preserve">17.116003036499</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450370788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4662475585938</t>
+    <t xml:space="preserve">17.2450408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6045055389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556461334229</t>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556480407715</t>
   </si>
   <si>
     <t xml:space="preserve">17.2819080352783</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">17.6874599456787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.410945892334</t>
+    <t xml:space="preserve">17.4109439849854</t>
   </si>
   <si>
     <t xml:space="preserve">17.6598052978516</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7058906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5492038726807</t>
+    <t xml:space="preserve">17.7058925628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.549201965332</t>
   </si>
   <si>
     <t xml:space="preserve">17.9731845855713</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">17.6229400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5676345825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266101837158</t>
+    <t xml:space="preserve">17.5676364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266082763672</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173919677734</t>
@@ -572,61 +572,61 @@
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975666046143</t>
+    <t xml:space="preserve">17.0975685119629</t>
   </si>
   <si>
     <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2358245849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4201622009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1897392272949</t>
+    <t xml:space="preserve">17.2358226776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4201641082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1897373199463</t>
   </si>
   <si>
     <t xml:space="preserve">17.374080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1436538696289</t>
+    <t xml:space="preserve">17.1436557769775</t>
   </si>
   <si>
     <t xml:space="preserve">17.3832969665527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768508911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7427597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0100555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1575260162354</t>
+    <t xml:space="preserve">17.5768527984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7427616119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0100536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.157527923584</t>
   </si>
   <si>
     <t xml:space="preserve">18.4063854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3879508972168</t>
+    <t xml:space="preserve">18.3879489898682</t>
   </si>
   <si>
     <t xml:space="preserve">18.3418655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2036094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644630432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713981628418</t>
+    <t xml:space="preserve">18.3510856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635688781738</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">19.0331420898438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7244167327881</t>
+    <t xml:space="preserve">19.7244205474854</t>
   </si>
   <si>
     <t xml:space="preserve">19.7889385223389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7797183990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1023178100586</t>
+    <t xml:space="preserve">19.7797203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
     <t xml:space="preserve">20.0838832855225</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">19.6783332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5953788757324</t>
+    <t xml:space="preserve">19.5953807830811</t>
   </si>
   <si>
     <t xml:space="preserve">19.5585117340088</t>
@@ -668,34 +668,34 @@
     <t xml:space="preserve">19.6230335235596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3741722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
+    <t xml:space="preserve">19.374174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
     <t xml:space="preserve">19.5124244689941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9870586395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
+    <t xml:space="preserve">18.9870567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
   </si>
   <si>
     <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2543506622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8903274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165874481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617786407471</t>
+    <t xml:space="preserve">19.2543525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165893554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617824554443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
@@ -707,22 +707,22 @@
     <t xml:space="preserve">21.7521629333496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373966217041</t>
+    <t xml:space="preserve">21.3373947143555</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678234100342</t>
+    <t xml:space="preserve">21.5678215026855</t>
   </si>
   <si>
     <t xml:space="preserve">21.4756526947021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.024019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807060241699</t>
+    <t xml:space="preserve">21.0240173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807079315186</t>
   </si>
   <si>
     <t xml:space="preserve">21.0608882904053</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8304615020752</t>
+    <t xml:space="preserve">20.8304634094238</t>
   </si>
   <si>
     <t xml:space="preserve">21.1069717407227</t>
@@ -743,82 +743,82 @@
     <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8535480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.581693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2176685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3098392486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209373474121</t>
+    <t xml:space="preserve">21.8535499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5816955566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2176666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3098411560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209354400635</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094398498535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5910015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407569885254</t>
+    <t xml:space="preserve">24.5910034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.240758895874</t>
   </si>
   <si>
     <t xml:space="preserve">24.4619674682617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3882312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329257965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.503396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.97802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425453186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084522247314</t>
+    <t xml:space="preserve">24.3882293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9780254364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084503173828</t>
   </si>
   <si>
     <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.48952293396</t>
+    <t xml:space="preserve">22.9595928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">22.6738662719727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2268848419189</t>
+    <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7015151977539</t>
+    <t xml:space="preserve">22.7015171051025</t>
   </si>
   <si>
     <t xml:space="preserve">21.9641532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4065704345703</t>
+    <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604869842529</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250049591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632629394531</t>
+    <t xml:space="preserve">22.4250030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.319055557251</t>
+    <t xml:space="preserve">23.3190536499023</t>
   </si>
   <si>
     <t xml:space="preserve">22.8121204376221</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241088867188</t>
+    <t xml:space="preserve">23.0241107940674</t>
   </si>
   <si>
     <t xml:space="preserve">23.1070652008057</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">23.1347141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7383823394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.71994972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6185646057129</t>
+    <t xml:space="preserve">22.7383842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7199478149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
     <t xml:space="preserve">22.5724773406982</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">21.798246383667</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0378913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5171756744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674201965332</t>
+    <t xml:space="preserve">22.0378894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5171775817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669254302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674221038818</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
@@ -905,121 +905,124 @@
     <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623649597168</t>
+    <t xml:space="preserve">23.1623668670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7856979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092323303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2558097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3217811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2358875274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5845680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562973022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6693801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809055328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8872089385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500461578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1898441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4065914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5102558135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7008819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4841365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.634916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7479991912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029811859131</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0401401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7856960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7092304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2558097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.32177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023910522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2358875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5845680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620571136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6693801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772449493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280227661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453098297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625949859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212375640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.88720703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3500480651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1898422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4065895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5102519989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442863464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7008800506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7479991912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2862339019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9940967559814</t>
+    <t xml:space="preserve">23.2862319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9940948486328</t>
   </si>
   <si>
     <t xml:space="preserve">23.2296905517578</t>
@@ -1028,13 +1031,13 @@
     <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150444030762</t>
+    <t xml:space="preserve">22.8150424957275</t>
   </si>
   <si>
     <t xml:space="preserve">23.0883331298828</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6254940032959</t>
+    <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181671142578</t>
@@ -1049,43 +1052,43 @@
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537628173828</t>
+    <t xml:space="preserve">23.6537609100342</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804702758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2391147613525</t>
+    <t xml:space="preserve">23.3804721832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2391166687012</t>
   </si>
   <si>
     <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8422393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2663116455078</t>
+    <t xml:space="preserve">23.8422355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2663097381592</t>
   </si>
   <si>
     <t xml:space="preserve">24.5113296508789</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5019073486328</t>
+    <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
     <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7846183776855</t>
+    <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259777069092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6903820037842</t>
+    <t xml:space="preserve">24.6903839111328</t>
   </si>
   <si>
     <t xml:space="preserve">25.1615734100342</t>
@@ -1094,40 +1097,40 @@
     <t xml:space="preserve">26.4337844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1981906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741184234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7269992828369</t>
+    <t xml:space="preserve">26.1981925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741203308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
     <t xml:space="preserve">25.8683586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0097141265869</t>
+    <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730987548828</t>
+    <t xml:space="preserve">25.6798801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730949401855</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490245819092</t>
+    <t xml:space="preserve">24.5490226745605</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788566589355</t>
+    <t xml:space="preserve">24.8788585662842</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
@@ -1136,40 +1139,40 @@
     <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3029308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5385246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0568332672119</t>
+    <t xml:space="preserve">25.3029289245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086906433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5385265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0568313598633</t>
   </si>
   <si>
     <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1144523620605</t>
+    <t xml:space="preserve">25.1144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751438140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992160797119</t>
+    <t xml:space="preserve">26.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992141723633</t>
   </si>
   <si>
     <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3656673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6955013275146</t>
+    <t xml:space="preserve">28.3656692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.695499420166</t>
   </si>
   <si>
     <t xml:space="preserve">28.1300735473633</t>
@@ -1187,19 +1190,19 @@
     <t xml:space="preserve">25.0673351287842</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9520969390869</t>
+    <t xml:space="preserve">26.9520988464355</t>
   </si>
   <si>
     <t xml:space="preserve">27.1876907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9049758911133</t>
+    <t xml:space="preserve">27.0463371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9049739837646</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002395629883</t>
@@ -1208,25 +1211,25 @@
     <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9887161254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.082950592041</t>
+    <t xml:space="preserve">27.8944778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9887142181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0829524993896</t>
   </si>
   <si>
     <t xml:space="preserve">27.1405715942383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232864379883</t>
+    <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
     <t xml:space="preserve">27.7060012817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4704074859619</t>
+    <t xml:space="preserve">27.4704036712646</t>
   </si>
   <si>
     <t xml:space="preserve">28.4599075317383</t>
@@ -1235,37 +1238,37 @@
     <t xml:space="preserve">29.402286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2138080596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.554141998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.449405670166</t>
+    <t xml:space="preserve">29.2138118743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4494075775146</t>
   </si>
   <si>
     <t xml:space="preserve">28.789737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">29.355167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.742618560791</t>
+    <t xml:space="preserve">29.3551692962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7426204681396</t>
   </si>
   <si>
     <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5646438598633</t>
+    <t xml:space="preserve">27.5646419525146</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531204223633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2819328308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761672973633</t>
+    <t xml:space="preserve">27.2819290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761653900146</t>
   </si>
   <si>
     <t xml:space="preserve">26.6222629547119</t>
@@ -1274,49 +1277,46 @@
     <t xml:space="preserve">28.2714290618896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5175266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626056671143</t>
+    <t xml:space="preserve">27.5175247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626075744629</t>
   </si>
   <si>
     <t xml:space="preserve">26.6663379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107395172119</t>
+    <t xml:space="preserve">27.0514106750488</t>
   </si>
   <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812614440918</t>
+    <t xml:space="preserve">26.2812633514404</t>
   </si>
   <si>
     <t xml:space="preserve">25.7036552429199</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8961906433105</t>
+    <t xml:space="preserve">25.8961868286133</t>
   </si>
   <si>
     <t xml:space="preserve">25.4629821777344</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0297737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9335060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">25.0297718048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9335079193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376167297363</t>
+    <t xml:space="preserve">23.5376148223877</t>
   </si>
   <si>
     <t xml:space="preserve">23.585750579834</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.671199798584</t>
+    <t xml:space="preserve">22.6711978912354</t>
   </si>
   <si>
     <t xml:space="preserve">22.526798248291</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600028991699</t>
+    <t xml:space="preserve">22.9600048065186</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226894378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7301502227783</t>
+    <t xml:space="preserve">23.9226875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
     <t xml:space="preserve">23.3932113647461</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">23.0562725067139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230640411377</t>
+    <t xml:space="preserve">22.6230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">22.1417255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6603813171387</t>
+    <t xml:space="preserve">21.6603832244873</t>
   </si>
   <si>
     <t xml:space="preserve">21.4678440093994</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491863250732</t>
+    <t xml:space="preserve">21.9491844177246</t>
   </si>
   <si>
     <t xml:space="preserve">22.7674674987793</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">22.0454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973220825195</t>
+    <t xml:space="preserve">21.9973201751709</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0670890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633605957031</t>
+    <t xml:space="preserve">24.0670909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2114925384521</t>
+    <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
     <t xml:space="preserve">24.3077602386475</t>
@@ -1445,34 +1445,34 @@
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741771697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2223110198975</t>
+    <t xml:space="preserve">25.1741790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2223129272461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1260414123535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3185787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5111179351807</t>
+    <t xml:space="preserve">25.3185806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5111141204834</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3293972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219326019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8588733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.532751083374</t>
+    <t xml:space="preserve">26.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219345092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8588714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5327529907227</t>
   </si>
   <si>
     <t xml:space="preserve">27.5808849334717</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8696937561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0622291564941</t>
+    <t xml:space="preserve">27.8696918487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0622272491455</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">27.9178256988525</t>
   </si>
   <si>
-    <t xml:space="preserve">27.677152633667</t>
+    <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
     <t xml:space="preserve">27.2920818328857</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182022094727</t>
+    <t xml:space="preserve">26.7144718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.618200302124</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148464202881</t>
+    <t xml:space="preserve">25.4148483276367</t>
   </si>
   <si>
     <t xml:space="preserve">24.9816417694092</t>
@@ -1550,10 +1550,10 @@
     <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">27.629020690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7734222412109</t>
+    <t xml:space="preserve">27.6290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7734241485596</t>
   </si>
   <si>
     <t xml:space="preserve">28.1584968566895</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">28.3028984069824</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7361068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0249118804932</t>
+    <t xml:space="preserve">28.7361087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5543899536133</t>
+    <t xml:space="preserve">29.5543880462646</t>
   </si>
   <si>
     <t xml:space="preserve">30.6133403778076</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465469360352</t>
+    <t xml:space="preserve">31.0465488433838</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
@@ -1598,25 +1598,25 @@
     <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2234039306641</t>
+    <t xml:space="preserve">34.2234001159668</t>
   </si>
   <si>
     <t xml:space="preserve">34.415943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308685302734</t>
+    <t xml:space="preserve">34.0308647155762</t>
   </si>
   <si>
     <t xml:space="preserve">34.3196716308594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6566123962402</t>
+    <t xml:space="preserve">34.656608581543</t>
   </si>
   <si>
     <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5976600646973</t>
+    <t xml:space="preserve">33.5976638793945</t>
   </si>
   <si>
     <t xml:space="preserve">33.8864631652832</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">33.3088531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0200462341309</t>
+    <t xml:space="preserve">33.0200424194336</t>
   </si>
   <si>
     <t xml:space="preserve">32.6349792480469</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">32.0573654174805</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5760231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204284667969</t>
+    <t xml:space="preserve">31.5760192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204265594482</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353538513184</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">31.2872180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9611015319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722927093506</t>
+    <t xml:space="preserve">31.9610977172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6722965240479</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">31.527889251709</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8648262023926</t>
+    <t xml:space="preserve">31.8648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">32.5868377685547</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4424362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528762817383</t>
+    <t xml:space="preserve">32.442440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
     <t xml:space="preserve">35.2342185974121</t>
@@ -1688,10 +1688,10 @@
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4002571105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927925109863</t>
+    <t xml:space="preserve">37.4002532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927963256836</t>
   </si>
   <si>
     <t xml:space="preserve">37.9778671264648</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0746383666992</t>
+    <t xml:space="preserve">39.074634552002</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301162719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6834030151367</t>
+    <t xml:space="preserve">38.8301124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6833992004395</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.710391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125869750977</t>
+    <t xml:space="preserve">39.7103958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">39.3191604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9768218994141</t>
+    <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527267456055</t>
+    <t xml:space="preserve">40.0527229309082</t>
   </si>
   <si>
     <t xml:space="preserve">40.1505355834961</t>
@@ -1787,22 +1787,22 @@
     <t xml:space="preserve">43.0358963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760398864746</t>
+    <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
     <t xml:space="preserve">42.5957527160645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154769897461</t>
+    <t xml:space="preserve">41.7154808044434</t>
   </si>
   <si>
     <t xml:space="preserve">41.6176643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.840274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139846801758</t>
+    <t xml:space="preserve">42.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.013988494873</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.774543762207</t>
+    <t xml:space="preserve">45.7745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.160701751709</t>
+    <t xml:space="preserve">44.6008377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672714233398</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4102973937988</t>
+    <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
     <t xml:space="preserve">46.2635841369629</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8606033325195</t>
+    <t xml:space="preserve">50.8605995178223</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627944946289</t>
+    <t xml:space="preserve">50.7627983093262</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408828735352</t>
+    <t xml:space="preserve">50.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321182250977</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102027893066</t>
+    <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4912796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540336608887</t>
+    <t xml:space="preserve">49.4912757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934745788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540298461914</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9584083557129</t>
+    <t xml:space="preserve">50.9584121704102</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452651977539</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2620048522949</t>
+    <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
     <t xml:space="preserve">54.4795303344727</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7526321411133</t>
+    <t xml:space="preserve">47.3883934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.752628326416</t>
   </si>
   <si>
     <t xml:space="preserve">45.970157623291</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3848915100098</t>
+    <t xml:space="preserve">37.4607887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8316993713379</t>
+    <t xml:space="preserve">32.1791114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8317012786865</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">31.7878761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870826721191</t>
+    <t xml:space="preserve">36.2870788574219</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469429016113</t>
+    <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
     <t xml:space="preserve">37.9009284973145</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">47.4861946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6548194885254</t>
+    <t xml:space="preserve">46.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1876907348633</t>
+    <t xml:space="preserve">45.187686920166</t>
   </si>
   <si>
     <t xml:space="preserve">44.1117897033691</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249366760254</t>
+    <t xml:space="preserve">42.791374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570106506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5620918273926</t>
+    <t xml:space="preserve">46.5570068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211624145508</t>
+    <t xml:space="preserve">52.6211585998535</t>
   </si>
   <si>
     <t xml:space="preserve">52.3277359008789</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488502502441</t>
+    <t xml:space="preserve">55.5554275512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488540649414</t>
   </si>
   <si>
     <t xml:space="preserve">56.0444717407227</t>
@@ -2120,31 +2120,31 @@
     <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1962661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.3918838500977</t>
+    <t xml:space="preserve">58.1962699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.3918876647949</t>
   </si>
   <si>
     <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2181777954102</t>
+    <t xml:space="preserve">57.2181816101074</t>
   </si>
   <si>
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568252563477</t>
+    <t xml:space="preserve">59.9568290710449</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094131469727</t>
+    <t xml:space="preserve">58.9787406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">60.1524429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6954727172852</t>
+    <t xml:space="preserve">62.6954689025879</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472747802734</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">63.6735610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7494583129883</t>
+    <t xml:space="preserve">64.7494506835938</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2216,22 +2216,22 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741653442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5201873779297</t>
+    <t xml:space="preserve">73.6500701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5201797485352</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245620727539</t>
+    <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048492431641</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.420783996582</t>
+    <t xml:space="preserve">79.4207916259766</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813507080078</t>
+    <t xml:space="preserve">81.1813430786133</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7243728637695</t>
+    <t xml:space="preserve">83.7243804931641</t>
   </si>
   <si>
     <t xml:space="preserve">84.2134170532227</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">82.9419097900391</t>
+    <t xml:space="preserve">82.9419174194336</t>
   </si>
   <si>
     <t xml:space="preserve">82.2572402954102</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265716552734</t>
+    <t xml:space="preserve">83.6265640258789</t>
   </si>
   <si>
     <t xml:space="preserve">85.1915054321289</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">78.7361297607422</t>
+    <t xml:space="preserve">78.7361221313477</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827560424805</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">78.4426956176758</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2791595458984</t>
+    <t xml:space="preserve">81.2791519165039</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">80.2032623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608291625977</t>
+    <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
     <t xml:space="preserve">87.2454986572266</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016677856445</t>
+    <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
+    <t xml:space="preserve">95.1680145263672</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044708251953</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">103.48176574707</t>
+    <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
     <t xml:space="preserve">100.156265258789</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">97.417610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">96.3417129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373382568359</t>
+    <t xml:space="preserve">96.3417205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548599243164</t>
+    <t xml:space="preserve">95.4614334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723892211914</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767791748047</t>
+    <t xml:space="preserve">94.7767868041992</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.7650299072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.677391052246</t>
+    <t xml:space="preserve">99.765022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">109.741523742676</t>
+    <t xml:space="preserve">109.74153137207</t>
   </si>
   <si>
     <t xml:space="preserve">112.088943481445</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">112.675796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980979919434</t>
+    <t xml:space="preserve">107.980972290039</t>
   </si>
   <si>
     <t xml:space="preserve">108.567832946777</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">110.328384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.132766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.110847473145</t>
+    <t xml:space="preserve">109.937149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.132774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.110855102539</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.916816711426</t>
+    <t xml:space="preserve">101.721199035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.91682434082</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">110.915245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">108.176582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286148071289</t>
+    <t xml:space="preserve">108.17658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286140441895</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">105.242324829102</t>
+    <t xml:space="preserve">105.242317199707</t>
   </si>
   <si>
     <t xml:space="preserve">107.785354614258</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220405578613</t>
+    <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
     <t xml:space="preserve">108.763442993164</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.480171203613</t>
+    <t xml:space="preserve">116.196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
     <t xml:space="preserve">109.545913696289</t>
@@ -2582,28 +2582,28 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.218826293945</t>
+    <t xml:space="preserve">115.805686950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761856079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.326797485352</t>
+    <t xml:space="preserve">118.153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.326805114746</t>
   </si>
   <si>
     <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">118.348709106445</t>
+    <t xml:space="preserve">118.34871673584</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846343994141</t>
+    <t xml:space="preserve">131.846328735352</t>
   </si>
   <si>
     <t xml:space="preserve">134.976211547852</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">136.736770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.563079833984</t>
+    <t xml:space="preserve">136.736785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.563064575195</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453536987305</t>
+    <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
     <t xml:space="preserve">138.301727294922</t>
@@ -2696,34 +2696,34 @@
     <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
-    <t xml:space="preserve">141.040374755859</t>
+    <t xml:space="preserve">141.04035949707</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343963623047</t>
+    <t xml:space="preserve">147.691375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300140380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343978881836</t>
   </si>
   <si>
     <t xml:space="preserve">146.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104522705078</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473831176758</t>
+    <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">155.711700439453</t>
   </si>
   <si>
-    <t xml:space="preserve">158.841567993164</t>
+    <t xml:space="preserve">158.841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">162.558303833008</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.33918762207</t>
+    <t xml:space="preserve">167.448760986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.339202880859</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099746704102</t>
+    <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">168.818084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752365112305</t>
+    <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
     <t xml:space="preserve">169.013717651367</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688186645508</t>
+    <t xml:space="preserve">165.688171386719</t>
   </si>
   <si>
     <t xml:space="preserve">175.469085693359</t>
@@ -17361,7 +17361,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17439,7 +17439,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17465,7 +17465,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17491,7 +17491,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17517,7 +17517,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17543,7 +17543,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17569,7 +17569,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17595,7 +17595,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17621,7 +17621,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17647,7 +17647,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17673,7 +17673,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17699,7 +17699,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17725,7 +17725,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17751,7 +17751,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17803,7 +17803,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17829,7 +17829,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17855,7 +17855,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17881,7 +17881,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17907,7 +17907,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17933,7 +17933,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17959,7 +17959,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17985,7 +17985,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18011,7 +18011,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18037,7 +18037,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18063,7 +18063,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18089,7 +18089,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18115,7 +18115,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18141,7 +18141,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18167,7 +18167,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18245,7 +18245,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18323,7 +18323,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18349,7 +18349,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18375,7 +18375,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18401,7 +18401,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18427,7 +18427,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18505,7 +18505,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18531,7 +18531,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18609,7 +18609,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18635,7 +18635,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18661,7 +18661,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18687,7 +18687,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18713,7 +18713,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18739,7 +18739,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18765,7 +18765,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18791,7 +18791,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18817,7 +18817,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18843,7 +18843,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18869,7 +18869,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18947,7 +18947,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18973,7 +18973,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18999,7 +18999,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19025,7 +19025,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19051,7 +19051,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19155,7 +19155,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19259,7 +19259,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19285,7 +19285,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19311,7 +19311,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19337,7 +19337,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19363,7 +19363,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19415,7 +19415,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19441,7 +19441,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19467,7 +19467,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19519,7 +19519,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19545,7 +19545,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19571,7 +19571,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19623,7 +19623,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19675,7 +19675,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19701,7 +19701,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19727,7 +19727,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19753,7 +19753,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19779,7 +19779,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19805,7 +19805,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19831,7 +19831,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19857,7 +19857,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19883,7 +19883,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19909,7 +19909,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19961,7 +19961,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20065,7 +20065,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20117,7 +20117,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20169,7 +20169,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20195,7 +20195,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20221,7 +20221,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20247,7 +20247,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20273,7 +20273,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20325,7 +20325,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20377,7 +20377,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20403,7 +20403,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20429,7 +20429,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20455,7 +20455,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20481,7 +20481,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20507,7 +20507,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20533,7 +20533,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20559,7 +20559,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20585,7 +20585,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20611,7 +20611,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20689,7 +20689,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20741,7 +20741,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20819,7 +20819,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20845,7 +20845,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20871,7 +20871,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20949,7 +20949,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20975,7 +20975,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21001,7 +21001,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21053,7 +21053,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21079,7 +21079,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21313,7 +21313,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21469,7 +21469,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21703,7 +21703,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21729,7 +21729,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21755,7 +21755,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21807,7 +21807,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21859,7 +21859,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21885,7 +21885,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21911,7 +21911,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21989,7 +21989,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22041,7 +22041,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22067,7 +22067,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22093,7 +22093,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22119,7 +22119,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22171,7 +22171,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22197,7 +22197,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22275,7 +22275,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22327,7 +22327,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22353,7 +22353,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22379,7 +22379,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22405,7 +22405,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22431,7 +22431,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22457,7 +22457,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22483,7 +22483,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22561,7 +22561,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22665,7 +22665,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22717,7 +22717,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22743,7 +22743,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22769,7 +22769,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22821,7 +22821,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22873,7 +22873,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22925,7 +22925,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25551,7 +25551,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26383,7 +26383,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -61049,7 +61049,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6495717593</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>16725</v>
@@ -61070,6 +61070,32 @@
         <v>1459</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6493287037</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>6719</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>120.800003051758</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>120.099998474121</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -47,31 +47,31 @@
     <t xml:space="preserve">13.8317260742188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5458002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330675125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028367996216</t>
+    <t xml:space="preserve">13.5457992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402891159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777423858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3939008712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134832382202</t>
+    <t xml:space="preserve">13.3402881622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777433395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3939018249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134822845459</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347799301147</t>
@@ -80,43 +80,43 @@
     <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667211532593</t>
+    <t xml:space="preserve">12.8667221069336</t>
   </si>
   <si>
     <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0007514953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650096893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.884593963623</t>
+    <t xml:space="preserve">13.0007524490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650106430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
     <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3127374649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4467678070068</t>
+    <t xml:space="preserve">12.3127384185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4467668533325</t>
   </si>
   <si>
     <t xml:space="preserve">12.4110269546509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1690311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226409912109</t>
+    <t xml:space="preserve">11.1690301895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226428985596</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157903671265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7051429748535</t>
+    <t xml:space="preserve">11.7051448822021</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">12.1519050598145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2412557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769966125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484792709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625534057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893583297729</t>
+    <t xml:space="preserve">12.2412567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965808868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769975662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625524520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020910263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893564224243</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306093215942</t>
@@ -155,49 +155,49 @@
     <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.956075668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.081169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456446647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475116729736</t>
+    <t xml:space="preserve">12.9560737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564476013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475126266479</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.411771774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832544326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0364923477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1794557571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1883907318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492231369019</t>
+    <t xml:space="preserve">13.4117708206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.036491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1794567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1883916854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
     <t xml:space="preserve">13.4921894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688064575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513084411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0104303359985</t>
+    <t xml:space="preserve">13.2688083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513103485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0104312896729</t>
   </si>
   <si>
     <t xml:space="preserve">13.7691802978516</t>
@@ -206,49 +206,49 @@
     <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5011224746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6172800064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2866773605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203329086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237586975098</t>
+    <t xml:space="preserve">13.5011215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.617280960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237577438354</t>
   </si>
   <si>
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2948684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4199619293213</t>
+    <t xml:space="preserve">12.2948694229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
     <t xml:space="preserve">12.7148237228394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8399171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041753768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9113988876343</t>
+    <t xml:space="preserve">12.839916229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9113998413086</t>
   </si>
   <si>
     <t xml:space="preserve">12.6433420181274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0543622970581</t>
+    <t xml:space="preserve">13.0543613433838</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058887481689</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">12.5539903640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4646368026733</t>
+    <t xml:space="preserve">12.4646377563477</t>
   </si>
   <si>
     <t xml:space="preserve">12.5182485580444</t>
@@ -266,76 +266,76 @@
     <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804233551025</t>
+    <t xml:space="preserve">12.7863054275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612110137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804224014282</t>
   </si>
   <si>
     <t xml:space="preserve">12.1072292327881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5271844863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632972717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0096855163574</t>
+    <t xml:space="preserve">12.5271835327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577871322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914417266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557008743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632963180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0096874237061</t>
   </si>
   <si>
     <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0901021957397</t>
+    <t xml:space="preserve">13.0901041030884</t>
   </si>
   <si>
     <t xml:space="preserve">13.0454263687134</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1526508331299</t>
+    <t xml:space="preserve">13.1526489257812</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131122589111</t>
+    <t xml:space="preserve">12.8131113052368</t>
   </si>
   <si>
     <t xml:space="preserve">13.4743185043335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3224191665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994100570679</t>
+    <t xml:space="preserve">13.3224182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994091033936</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547351837158</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.028302192688</t>
+    <t xml:space="preserve">13.6708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9925594329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559520721436</t>
@@ -344,37 +344,37 @@
     <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1757726669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269132614136</t>
+    <t xml:space="preserve">14.1757745742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269123077393</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.899263381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176979064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8255262374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.853178024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6411876678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0006494522095</t>
+    <t xml:space="preserve">13.9637823104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8992643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176988601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8255271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8531770706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0006504058838</t>
   </si>
   <si>
     <t xml:space="preserve">14.0836038589478</t>
@@ -383,31 +383,31 @@
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020374298096</t>
+    <t xml:space="preserve">14.1020383834839</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863788604736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508958816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126436233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.415415763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5628890991211</t>
+    <t xml:space="preserve">14.3508977890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4154167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
     <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">14.682710647583</t>
+    <t xml:space="preserve">14.6827096939087</t>
   </si>
   <si>
     <t xml:space="preserve">14.7380123138428</t>
@@ -416,28 +416,28 @@
     <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315710067749</t>
+    <t xml:space="preserve">14.9315700531006</t>
   </si>
   <si>
     <t xml:space="preserve">14.9868726730347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274080276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181917190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670492172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684381484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606079101562</t>
+    <t xml:space="preserve">14.7103614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606069564819</t>
   </si>
   <si>
     <t xml:space="preserve">15.0421733856201</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">15.1527786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.06982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039173126221</t>
+    <t xml:space="preserve">15.1343431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0698251724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
     <t xml:space="preserve">15.0237379074097</t>
@@ -470,40 +470,40 @@
     <t xml:space="preserve">14.8301820755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960889816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.977653503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541656494141</t>
+    <t xml:space="preserve">14.9960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541627883911</t>
   </si>
   <si>
     <t xml:space="preserve">15.3832035064697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993587493896</t>
+    <t xml:space="preserve">15.549111366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993558883667</t>
   </si>
   <si>
     <t xml:space="preserve">16.2772541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297836303711</t>
+    <t xml:space="preserve">16.1297817230225</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560455322266</t>
+    <t xml:space="preserve">16.1850852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560474395752</t>
   </si>
   <si>
     <t xml:space="preserve">16.3049068450928</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">17.116003036499</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4662494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5307693481445</t>
+    <t xml:space="preserve">17.2450389862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307674407959</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045036315918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556480407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2819080352783</t>
+    <t xml:space="preserve">17.3556461334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
     <t xml:space="preserve">17.6874599456787</t>
@@ -536,25 +536,25 @@
     <t xml:space="preserve">17.4109439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625793457031</t>
+    <t xml:space="preserve">17.6598072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625774383545</t>
   </si>
   <si>
     <t xml:space="preserve">17.7058925628662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.549201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9547519683838</t>
+    <t xml:space="preserve">17.5492057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731864929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639663696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9547500610352</t>
   </si>
   <si>
     <t xml:space="preserve">17.6229400634766</t>
@@ -563,61 +563,61 @@
     <t xml:space="preserve">17.5676364898682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2266082763672</t>
+    <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173919677734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3279933929443</t>
+    <t xml:space="preserve">17.3279914855957</t>
   </si>
   <si>
     <t xml:space="preserve">17.0975685119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0607013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2358226776123</t>
+    <t xml:space="preserve">17.0606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.374080657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768527984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7427616119385</t>
+    <t xml:space="preserve">17.1897354125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3740787506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768508911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
     <t xml:space="preserve">18.0100536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.157527923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510856628418</t>
+    <t xml:space="preserve">18.1575241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
   </si>
   <si>
     <t xml:space="preserve">18.2036113739014</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2635688781738</t>
+    <t xml:space="preserve">19.2635669708252</t>
   </si>
   <si>
     <t xml:space="preserve">19.3557376861572</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">19.0331420898438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7244205474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797203063965</t>
+    <t xml:space="preserve">19.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797222137451</t>
   </si>
   <si>
     <t xml:space="preserve">20.10231590271</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783332824707</t>
+    <t xml:space="preserve">19.6783351898193</t>
   </si>
   <si>
     <t xml:space="preserve">19.5953807830811</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">19.6230335235596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374174118042</t>
+    <t xml:space="preserve">19.3741703033447</t>
   </si>
   <si>
     <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5124244689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870567321777</t>
+    <t xml:space="preserve">19.5124282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870548248291</t>
   </si>
   <si>
     <t xml:space="preserve">18.5999412536621</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2543525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.890323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617824554443</t>
+    <t xml:space="preserve">19.2543487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903217315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165912628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">21.2913131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7521629333496</t>
+    <t xml:space="preserve">21.752161026001</t>
   </si>
   <si>
     <t xml:space="preserve">21.3373947143555</t>
@@ -713,28 +713,28 @@
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4756526947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0240173339844</t>
+    <t xml:space="preserve">21.5678234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4756507873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.024019241333</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807079315186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0608882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304634094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1069717407227</t>
+    <t xml:space="preserve">21.0608863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304615020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208438873291</t>
@@ -743,88 +743,88 @@
     <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8535499572754</t>
+    <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
     <t xml:space="preserve">22.5816955566406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1254997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2176666259766</t>
+    <t xml:space="preserve">23.1254978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
     <t xml:space="preserve">23.3098411560059</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1209354400635</t>
+    <t xml:space="preserve">24.1209373474121</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094398498535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5910034179688</t>
+    <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
     <t xml:space="preserve">24.240758895874</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4619674682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329277038574</t>
+    <t xml:space="preserve">24.4619655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882274627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329296112061</t>
   </si>
   <si>
     <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5033950805664</t>
+    <t xml:space="preserve">23.5033988952637</t>
   </si>
   <si>
     <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0425472259521</t>
+    <t xml:space="preserve">23.0425453186035</t>
   </si>
   <si>
     <t xml:space="preserve">23.2084503173828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9503746032715</t>
+    <t xml:space="preserve">22.9503765106201</t>
   </si>
   <si>
     <t xml:space="preserve">22.9595928192139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4895210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6738662719727</t>
+    <t xml:space="preserve">22.48952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6738624572754</t>
   </si>
   <si>
     <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8582038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7015171051025</t>
+    <t xml:space="preserve">22.8582019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
     <t xml:space="preserve">21.9641532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4065685272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853618621826</t>
+    <t xml:space="preserve">22.4065704345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">22.4250030517578</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7936859130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3190536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121204376221</t>
+    <t xml:space="preserve">22.7936840057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.319055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121185302734</t>
   </si>
   <si>
     <t xml:space="preserve">22.6830825805664</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241107940674</t>
+    <t xml:space="preserve">23.024112701416</t>
   </si>
   <si>
     <t xml:space="preserve">23.1070652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1347141265869</t>
+    <t xml:space="preserve">23.1347160339355</t>
   </si>
   <si>
     <t xml:space="preserve">22.7383842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7199478149414</t>
+    <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
     <t xml:space="preserve">22.6185626983643</t>
@@ -872,40 +872,40 @@
     <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.627779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6369953155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0747566223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.798246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0378894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5171775817871</t>
+    <t xml:space="preserve">22.6277770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6369972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0747585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7982482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0378875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5171756744385</t>
   </si>
   <si>
     <t xml:space="preserve">22.1669254302979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7291679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674221038818</t>
+    <t xml:space="preserve">22.7291660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674201965332</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1162815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1623668670654</t>
+    <t xml:space="preserve">23.116283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1623649597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218315124512</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">23.7856979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7092323303223</t>
+    <t xml:space="preserve">24.709228515625</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217811584473</t>
+    <t xml:space="preserve">25.3217792510986</t>
   </si>
   <si>
     <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866672515869</t>
+    <t xml:space="preserve">26.3866691589355</t>
   </si>
   <si>
     <t xml:space="preserve">26.3678188323975</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2358875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5845680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620590209961</t>
+    <t xml:space="preserve">26.2358856201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.584566116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620571136475</t>
   </si>
   <si>
     <t xml:space="preserve">26.5562973022461</t>
@@ -953,16 +953,16 @@
     <t xml:space="preserve">26.6693801879883</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772449493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280227661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
+    <t xml:space="preserve">26.4809093475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772430419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453136444092</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625949859619</t>
+    <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8872089385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3500461578369</t>
+    <t xml:space="preserve">25.8872051239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500499725342</t>
   </si>
   <si>
     <t xml:space="preserve">25.9814453125</t>
@@ -989,37 +989,37 @@
     <t xml:space="preserve">25.1898441314697</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4065914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5102558135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442882537842</t>
+    <t xml:space="preserve">25.4065895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5102519989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442901611328</t>
   </si>
   <si>
     <t xml:space="preserve">23.7008819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7479991912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029811859131</t>
+    <t xml:space="preserve">23.4841346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6349143981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7480030059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2862319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731510162354</t>
+    <t xml:space="preserve">23.2862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731491088867</t>
   </si>
   <si>
     <t xml:space="preserve">22.9940948486328</t>
@@ -1028,64 +1028,64 @@
     <t xml:space="preserve">23.2296905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0035209655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8150424957275</t>
+    <t xml:space="preserve">23.0035190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8150444030762</t>
   </si>
   <si>
     <t xml:space="preserve">23.0883331298828</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6254920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4181671142578</t>
+    <t xml:space="preserve">23.6254901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4181690216064</t>
   </si>
   <si>
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040065765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438026428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6537609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.493558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3804721832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2391166687012</t>
+    <t xml:space="preserve">24.3040046691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438045501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6537647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3804740905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
     <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8422355651855</t>
+    <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
     <t xml:space="preserve">24.2663097381592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5113296508789</t>
+    <t xml:space="preserve">24.5113334655762</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5961437225342</t>
+    <t xml:space="preserve">24.5961456298828</t>
   </si>
   <si>
     <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9259777069092</t>
+    <t xml:space="preserve">24.9259796142578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6903839111328</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">25.1615734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337844848633</t>
+    <t xml:space="preserve">26.4337863922119</t>
   </si>
   <si>
     <t xml:space="preserve">26.1981925964355</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7270011901855</t>
+    <t xml:space="preserve">25.7270030975342</t>
   </si>
   <si>
     <t xml:space="preserve">25.8683586120605</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">26.1039543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6798801422119</t>
+    <t xml:space="preserve">25.6798839569092</t>
   </si>
   <si>
     <t xml:space="preserve">24.9730949401855</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">24.1720714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490226745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432628631592</t>
+    <t xml:space="preserve">24.5490264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432647705078</t>
   </si>
   <si>
     <t xml:space="preserve">24.8788585662842</t>
@@ -1136,22 +1136,22 @@
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029289245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5385265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0568313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2924289703369</t>
+    <t xml:space="preserve">24.8317413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5385246276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0568351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2924308776855</t>
   </si>
   <si>
     <t xml:space="preserve">25.1144542694092</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751457214355</t>
+    <t xml:space="preserve">26.5751476287842</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992141723633</t>
@@ -1172,40 +1172,40 @@
     <t xml:space="preserve">28.3656692504883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.695499420166</t>
+    <t xml:space="preserve">28.6955013275146</t>
   </si>
   <si>
     <t xml:space="preserve">28.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3290500640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856418609619</t>
+    <t xml:space="preserve">27.3290481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0934543609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856456756592</t>
   </si>
   <si>
     <t xml:space="preserve">25.0673351287842</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9520988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1876907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0463371276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107395172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9049739837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002395629883</t>
+    <t xml:space="preserve">26.9520969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1876926422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0463352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107376098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9049758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002376556396</t>
   </si>
   <si>
     <t xml:space="preserve">26.8578586578369</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9887142181396</t>
+    <t xml:space="preserve">27.9887180328369</t>
   </si>
   <si>
     <t xml:space="preserve">28.0829524993896</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7060012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704036712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599075317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2138118743896</t>
+    <t xml:space="preserve">27.7059993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.213809967041</t>
   </si>
   <si>
     <t xml:space="preserve">28.5541439056396</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">29.4494075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">28.789737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3551692962646</t>
+    <t xml:space="preserve">28.7897396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426204681396</t>
@@ -1262,28 +1262,28 @@
     <t xml:space="preserve">27.5646419525146</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531204223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2819290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5175247192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6663379669189</t>
+    <t xml:space="preserve">27.7531223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222667694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5175266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6663360595703</t>
   </si>
   <si>
     <t xml:space="preserve">27.0514106750488</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">26.2812633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961868286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0297718048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9335079193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521656036377</t>
+    <t xml:space="preserve">25.7036533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.462984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0297737121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9335041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521636962891</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">23.5376148223877</t>
   </si>
   <si>
-    <t xml:space="preserve">23.585750579834</t>
+    <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
     <t xml:space="preserve">23.2488098144531</t>
@@ -1331,25 +1331,25 @@
     <t xml:space="preserve">23.0081386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9118690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6711978912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.526798248291</t>
+    <t xml:space="preserve">22.9118671417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.671199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5267963409424</t>
   </si>
   <si>
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600048065186</t>
+    <t xml:space="preserve">22.9600067138672</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226875305176</t>
+    <t xml:space="preserve">23.9226894378662</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0189571380615</t>
+    <t xml:space="preserve">24.0189590454102</t>
   </si>
   <si>
     <t xml:space="preserve">23.0562725067139</t>
@@ -1367,28 +1367,28 @@
     <t xml:space="preserve">22.6230659484863</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1417255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603832244873</t>
+    <t xml:space="preserve">22.1417236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603813171387</t>
   </si>
   <si>
     <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5641117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3234424591064</t>
+    <t xml:space="preserve">21.5641136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3234405517578</t>
   </si>
   <si>
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674674987793</t>
+    <t xml:space="preserve">21.9491863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674655914307</t>
   </si>
   <si>
     <t xml:space="preserve">22.2379913330078</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9973201751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8047847747803</t>
+    <t xml:space="preserve">22.0454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9973220825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8047828674316</t>
   </si>
   <si>
     <t xml:space="preserve">21.7085151672363</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.548433303833</t>
+    <t xml:space="preserve">24.3077621459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5484352111816</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1445,19 +1445,19 @@
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2223129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1260414123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185806274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5111141204834</t>
+    <t xml:space="preserve">25.1741771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2223110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1260452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.511116027832</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">26.3293991088867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5219345092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8588714599609</t>
+    <t xml:space="preserve">26.5219326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8588752746582</t>
   </si>
   <si>
     <t xml:space="preserve">27.5327529907227</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8696918487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0622272491455</t>
+    <t xml:space="preserve">27.8696899414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2920818328857</t>
+    <t xml:space="preserve">27.2920799255371</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1958122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.570068359375</t>
+    <t xml:space="preserve">27.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5700702667236</t>
   </si>
   <si>
     <t xml:space="preserve">26.7144718170166</t>
   </si>
   <si>
-    <t xml:space="preserve">26.618200302124</t>
+    <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1523,13 +1523,13 @@
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592517852783</t>
+    <t xml:space="preserve">25.5592479705811</t>
   </si>
   <si>
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148483276367</t>
+    <t xml:space="preserve">25.4148464202881</t>
   </si>
   <si>
     <t xml:space="preserve">24.9816417694092</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4846172332764</t>
+    <t xml:space="preserve">27.484619140625</t>
   </si>
   <si>
     <t xml:space="preserve">27.6290225982666</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3028984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7361087799072</t>
+    <t xml:space="preserve">28.3029003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7361068725586</t>
   </si>
   <si>
     <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3618507385254</t>
+    <t xml:space="preserve">29.361852645874</t>
   </si>
   <si>
     <t xml:space="preserve">29.5543880462646</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208030700684</t>
+    <t xml:space="preserve">30.4208011627197</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465488433838</t>
+    <t xml:space="preserve">31.0465450286865</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
@@ -1595,28 +1595,28 @@
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2125854492188</t>
+    <t xml:space="preserve">33.2125816345215</t>
   </si>
   <si>
     <t xml:space="preserve">34.2234001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.415943145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0308647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3196716308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5976638793945</t>
+    <t xml:space="preserve">34.4159393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0308685302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3196754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5976600646973</t>
   </si>
   <si>
     <t xml:space="preserve">33.8864631652832</t>
@@ -1628,46 +1628,46 @@
     <t xml:space="preserve">33.3088531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0200424194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6349792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.153636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0573654174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5760192871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2872180938721</t>
+    <t xml:space="preserve">33.0200462341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6349754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1536331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0573616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2872200012207</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6722965240479</t>
+    <t xml:space="preserve">31.6722927093506</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.527889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648300170898</t>
+    <t xml:space="preserve">31.5278873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648281097412</t>
   </si>
   <si>
     <t xml:space="preserve">32.5868377685547</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2342185974121</t>
+    <t xml:space="preserve">35.2342224121094</t>
   </si>
   <si>
     <t xml:space="preserve">36.5819778442383</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">37.5927963256836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9778671264648</t>
+    <t xml:space="preserve">37.9778709411621</t>
   </si>
   <si>
     <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9279251098633</t>
+    <t xml:space="preserve">38.9279174804688</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1709,19 +1709,19 @@
     <t xml:space="preserve">38.1943550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6344985961914</t>
+    <t xml:space="preserve">38.6344947814941</t>
   </si>
   <si>
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301124572754</t>
+    <t xml:space="preserve">38.8301162719727</t>
   </si>
   <si>
     <t xml:space="preserve">38.6833992004395</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7103958129883</t>
+    <t xml:space="preserve">39.710391998291</t>
   </si>
   <si>
     <t xml:space="preserve">39.6125831604004</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">40.1994361877441</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9060134887695</t>
+    <t xml:space="preserve">39.9060096740723</t>
   </si>
   <si>
     <t xml:space="preserve">39.6614875793457</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5636825561523</t>
+    <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
     <t xml:space="preserve">39.1235389709473</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.4169654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2702522277832</t>
+    <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
     <t xml:space="preserve">40.2483444213867</t>
@@ -1772,46 +1772,46 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1505355834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7862930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1067085266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0358963012695</t>
+    <t xml:space="preserve">40.0527267456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1505317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7862892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1067123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0358924865723</t>
   </si>
   <si>
     <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5957527160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176643371582</t>
+    <t xml:space="preserve">42.5957565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176681518555</t>
   </si>
   <si>
     <t xml:space="preserve">42.8402786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">44.013988494873</t>
+    <t xml:space="preserve">44.0139808654785</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2365951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7745399475098</t>
+    <t xml:space="preserve">45.2365989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.774543762207</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8672714233398</t>
+    <t xml:space="preserve">43.8672676086426</t>
   </si>
   <si>
     <t xml:space="preserve">45.921257019043</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2635841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6059226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7088050842285</t>
+    <t xml:space="preserve">46.2635879516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6059188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7088088989258</t>
   </si>
   <si>
     <t xml:space="preserve">49.9803237915039</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8605995178223</t>
+    <t xml:space="preserve">50.8606033325195</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627983093262</t>
+    <t xml:space="preserve">50.7627944946289</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">52.1321182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8926773071289</t>
+    <t xml:space="preserve">53.8926734924316</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102066040039</t>
+    <t xml:space="preserve">53.1102027893066</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1901,28 +1901,28 @@
     <t xml:space="preserve">51.1540298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5233573913574</t>
+    <t xml:space="preserve">52.5233535766602</t>
   </si>
   <si>
     <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9584121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5452651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.6970596313477</t>
+    <t xml:space="preserve">50.9584083557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5452690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
-    <t xml:space="preserve">54.4795303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.599250793457</t>
+    <t xml:space="preserve">54.4795341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5992469787598</t>
   </si>
   <si>
     <t xml:space="preserve">48.4153823852539</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.970157623291</t>
+    <t xml:space="preserve">47.3883895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9701614379883</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8317012786865</t>
+    <t xml:space="preserve">29.8316993713379</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878761291504</t>
+    <t xml:space="preserve">31.7878799438477</t>
   </si>
   <si>
     <t xml:space="preserve">31.0543098449707</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870788574219</t>
+    <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1991,31 +1991,31 @@
     <t xml:space="preserve">37.9009284973145</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0476417541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.949836730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1016311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3242416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8840980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7256355285645</t>
+    <t xml:space="preserve">38.0476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9498329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1016273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3242378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8841018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
     <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4592056274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0679702758789</t>
+    <t xml:space="preserve">46.4592094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0679664611816</t>
   </si>
   <si>
     <t xml:space="preserve">46.3613967895508</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4861946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6548233032227</t>
+    <t xml:space="preserve">47.486198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
@@ -2036,19 +2036,19 @@
     <t xml:space="preserve">46.3124923706055</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1657791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.187686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1117897033691</t>
+    <t xml:space="preserve">46.1657752990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1876907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1117935180664</t>
   </si>
   <si>
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
+    <t xml:space="preserve">42.7913703918457</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570068359375</t>
+    <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
     <t xml:space="preserve">48.5620956420898</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0022354125977</t>
+    <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211585998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3277359008789</t>
+    <t xml:space="preserve">52.6211624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3277397155762</t>
   </si>
   <si>
     <t xml:space="preserve">52.9145889282227</t>
@@ -2087,19 +2087,19 @@
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.164192199707</t>
+    <t xml:space="preserve">54.2839126586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1641960144043</t>
   </si>
   <si>
     <t xml:space="preserve">54.6751518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3378982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9247512817383</t>
+    <t xml:space="preserve">56.3379020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9247550964355</t>
   </si>
   <si>
     <t xml:space="preserve">56.729133605957</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488540649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444717407227</t>
+    <t xml:space="preserve">55.8488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1962699890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.3918876647949</t>
+    <t xml:space="preserve">58.1962661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.3918838500977</t>
   </si>
   <si>
     <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2181816101074</t>
+    <t xml:space="preserve">57.2181777954102</t>
   </si>
   <si>
     <t xml:space="preserve">58.5875053405762</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787406921387</t>
+    <t xml:space="preserve">58.9787368774414</t>
   </si>
   <si>
     <t xml:space="preserve">57.6094169616699</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">60.1524429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6954689025879</t>
+    <t xml:space="preserve">62.6954727172852</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472747802734</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">63.6735610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7494506835938</t>
+    <t xml:space="preserve">64.7494583129883</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2183,31 +2183,31 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034515380859</t>
+    <t xml:space="preserve">66.8034439086914</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">68.6618118286133</t>
+    <t xml:space="preserve">68.6618041992188</t>
   </si>
   <si>
     <t xml:space="preserve">67.9771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3464736938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5960845947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7158050537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8675918579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3785552978516</t>
+    <t xml:space="preserve">69.3464813232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.596076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7158126831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8675994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">73.6500701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">72.5741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092163085938</t>
+    <t xml:space="preserve">72.5741653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.4207916259766</t>
+    <t xml:space="preserve">79.420783996582</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">75.508430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4865188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6164016723633</t>
+    <t xml:space="preserve">76.4865264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6164093017578</t>
   </si>
   <si>
     <t xml:space="preserve">80.0076446533203</t>
@@ -2264,88 +2264,88 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.5506744384766</t>
+    <t xml:space="preserve">81.1813507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.550666809082</t>
   </si>
   <si>
     <t xml:space="preserve">83.8221817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.333137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7243804931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.2134170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9419174194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">83.3331451416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7243728637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.2134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9419097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1915054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462844848633</t>
+    <t xml:space="preserve">83.6265716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1915130615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462921142578</t>
   </si>
   <si>
     <t xml:space="preserve">84.6046600341797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1156158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7361221313477</t>
+    <t xml:space="preserve">84.115608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7361297607422</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
+    <t xml:space="preserve">78.4427032470703</t>
   </si>
   <si>
     <t xml:space="preserve">81.2791519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">81.5725860595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3112258911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1594390869141</t>
+    <t xml:space="preserve">81.5725784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3112335205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1594314575195</t>
   </si>
   <si>
     <t xml:space="preserve">80.3988723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2032623291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.5608367919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2454986572266</t>
+    <t xml:space="preserve">80.203254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.5608291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9184112548828</t>
+    <t xml:space="preserve">92.9184188842773</t>
   </si>
   <si>
     <t xml:space="preserve">93.4074554443359</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">95.1680145263672</t>
   </si>
   <si>
-    <t xml:space="preserve">98.0044708251953</t>
+    <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
     <t xml:space="preserve">99.3737945556641</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">100.743118286133</t>
   </si>
   <si>
-    <t xml:space="preserve">102.112442016602</t>
+    <t xml:space="preserve">102.112449645996</t>
   </si>
   <si>
     <t xml:space="preserve">98.3957061767578</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.417610168457</t>
+    <t xml:space="preserve">97.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">96.3417205810547</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
@@ -2435,52 +2435,52 @@
     <t xml:space="preserve">95.4614334106445</t>
   </si>
   <si>
-    <t xml:space="preserve">95.7548675537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.9723892211914</t>
+    <t xml:space="preserve">95.7548599243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767868041992</t>
+    <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.765022277832</t>
+    <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
     <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
-    <t xml:space="preserve">107.198501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.807258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.959060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.74153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.088943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.675796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.980972290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.567832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.328384399414</t>
+    <t xml:space="preserve">107.19849395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.807266235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.95906829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.741523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.088935852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.675804138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.980979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.567825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
     <t xml:space="preserve">109.937149047852</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">111.893325805664</t>
   </si>
   <si>
-    <t xml:space="preserve">110.132774353027</t>
+    <t xml:space="preserve">110.132766723633</t>
   </si>
   <si>
     <t xml:space="preserve">111.110855102539</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.91682434082</t>
+    <t xml:space="preserve">101.721206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.916816711426</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
@@ -2516,34 +2516,34 @@
     <t xml:space="preserve">109.350303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.915245056152</t>
+    <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
     <t xml:space="preserve">108.17658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">103.286140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.655471801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.437942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.242317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.785354614258</t>
+    <t xml:space="preserve">103.286148071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.655479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.437950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.242324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.785346984863</t>
   </si>
   <si>
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.763442993164</t>
+    <t xml:space="preserve">106.220405578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.76343536377</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196914672852</t>
+    <t xml:space="preserve">116.196922302246</t>
   </si>
   <si>
     <t xml:space="preserve">112.480178833008</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">112.871421813965</t>
   </si>
   <si>
-    <t xml:space="preserve">113.849502563477</t>
+    <t xml:space="preserve">113.849510192871</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2582,28 +2582,28 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805686950684</t>
+    <t xml:space="preserve">115.805679321289</t>
   </si>
   <si>
     <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
-    <t xml:space="preserve">117.56623840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.153091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.326805114746</t>
+    <t xml:space="preserve">117.566246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.153099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761856079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.326797485352</t>
   </si>
   <si>
     <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">118.34871673584</t>
+    <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847915649414</t>
+    <t xml:space="preserve">122.847923278809</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846328735352</t>
+    <t xml:space="preserve">131.846343994141</t>
   </si>
   <si>
     <t xml:space="preserve">134.976211547852</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563064575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.367446899414</t>
+    <t xml:space="preserve">135.563079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.367431640625</t>
   </si>
   <si>
     <t xml:space="preserve">137.91047668457</t>
@@ -2660,19 +2660,19 @@
     <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">138.301727294922</t>
+    <t xml:space="preserve">138.301712036133</t>
   </si>
   <si>
     <t xml:space="preserve">134.78059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">137.714859008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.279800415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.844741821289</t>
+    <t xml:space="preserve">137.714874267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.27978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.844757080078</t>
   </si>
   <si>
     <t xml:space="preserve">141.235977172852</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">140.062271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">141.627227783203</t>
+    <t xml:space="preserve">141.627212524414</t>
   </si>
   <si>
     <t xml:space="preserve">142.996536254883</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691375732422</t>
+    <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
     <t xml:space="preserve">148.082595825195</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">147.300140380859</t>
   </si>
   <si>
-    <t xml:space="preserve">145.343978881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.908905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">145.343963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.908889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2732,28 +2732,28 @@
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038772583008</t>
+    <t xml:space="preserve">150.038787841797</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.342361450195</t>
+    <t xml:space="preserve">154.342376708984</t>
   </si>
   <si>
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711700439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.537994384766</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.841567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.537979125977</t>
   </si>
   <si>
     <t xml:space="preserve">161.38459777832</t>
@@ -2765,22 +2765,22 @@
     <t xml:space="preserve">162.167083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">163.145172119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.905731201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.101348876953</t>
+    <t xml:space="preserve">163.145156860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.905746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.101333618164</t>
   </si>
   <si>
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448760986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.339202880859</t>
+    <t xml:space="preserve">167.448745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.33918762207</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
@@ -2795,22 +2795,22 @@
     <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
-    <t xml:space="preserve">169.013717651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.318878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.688171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.469085693359</t>
+    <t xml:space="preserve">169.013702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.318862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
     <t xml:space="preserve">170.774261474609</t>
   </si>
   <si>
-    <t xml:space="preserve">165.515869140625</t>
+    <t xml:space="preserve">165.515884399414</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576217651367</t>
+    <t xml:space="preserve">150.576202392578</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362503051758</t>
+    <t xml:space="preserve">151.362518310547</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635757446289</t>
+    <t xml:space="preserve">158.635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.336441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037094116211</t>
+    <t xml:space="preserve">164.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037109375</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695327758789</t>
+    <t xml:space="preserve">169.250793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387054443359</t>
+    <t xml:space="preserve">181.438446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387069702148</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216552734375</t>
+    <t xml:space="preserve">171.216537475586</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524063110352</t>
+    <t xml:space="preserve">176.524078369141</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737777709961</t>
+    <t xml:space="preserve">175.737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430236816406</t>
+    <t xml:space="preserve">170.430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.200180053711</t>
+    <t xml:space="preserve">155.687149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.2001953125</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866607666016</t>
+    <t xml:space="preserve">156.866592407227</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601501464844</t>
+    <t xml:space="preserve">160.601516723633</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636535644531</t>
+    <t xml:space="preserve">135.636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884490966797</t>
+    <t xml:space="preserve">137.798843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884475708008</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491333007812</t>
+    <t xml:space="preserve">131.705032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550903320312</t>
+    <t xml:space="preserve">140.550888061523</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.36328125</t>
+    <t xml:space="preserve">127.576972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.926910400391</t>
+    <t xml:space="preserve">141.92692565918</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448135375977</t>
+    <t xml:space="preserve">146.448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251556396484</t>
+    <t xml:space="preserve">146.251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320083618164</t>
+    <t xml:space="preserve">143.008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393051147461</t>
+    <t xml:space="preserve">145.465255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393035888672</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611228942871</t>
+    <t xml:space="preserve">125.611221313477</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244140625</t>
+    <t xml:space="preserve">112.244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944816589355</t>
+    <t xml:space="preserve">117.944808959961</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.69686126709</t>
+    <t xml:space="preserve">120.696853637695</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760887145996</t>
+    <t xml:space="preserve">122.760894775391</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.15404510498</t>
+    <t xml:space="preserve">123.154037475586</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.419120788574</t>
+    <t xml:space="preserve">119.41911315918</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.08553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820449829102</t>
+    <t xml:space="preserve">127.380401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820465087891</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.06022644043</t>
+    <t xml:space="preserve">117.060218811035</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521881103516</t>
+    <t xml:space="preserve">113.521873474121</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778022766113</t>
+    <t xml:space="preserve">121.778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500274658203</t>
+    <t xml:space="preserve">120.500282287598</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684196472168</t>
+    <t xml:space="preserve">115.684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397529602051</t>
+    <t xml:space="preserve">120.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.44889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397521972656</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.641006469727</t>
+    <t xml:space="preserve">133.572494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.640991210938</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901596069336</t>
+    <t xml:space="preserve">131.901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.29923248291</t>
+    <t xml:space="preserve">129.149566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136917114258</t>
+    <t xml:space="preserve">124.136909484863</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743759155273</t>
+    <t xml:space="preserve">121.581443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743766784668</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141380310059</t>
+    <t xml:space="preserve">118.436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -61075,7 +61075,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6493287037</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>6719</v>
@@ -61096,6 +61096,32 @@
         <v>1381</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6508217593</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>16353</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>119.199996948242</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>116.099998474121</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>120.099998474121</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495979309082</t>
+    <t xml:space="preserve">13.8495988845825</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330656051636</t>
+    <t xml:space="preserve">13.2330675125122</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402881622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777433395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241306304932</t>
+    <t xml:space="preserve">13.3402900695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777423858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
     <t xml:space="preserve">13.3939018249512</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3134822845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347799301147</t>
+    <t xml:space="preserve">13.3134813308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347789764404</t>
   </si>
   <si>
     <t xml:space="preserve">12.509313583374</t>
@@ -86,22 +86,22 @@
     <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0007524490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650106430054</t>
+    <t xml:space="preserve">13.0007514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986661911011</t>
+    <t xml:space="preserve">12.5986652374268</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467668533325</t>
+    <t xml:space="preserve">12.4467658996582</t>
   </si>
   <si>
     <t xml:space="preserve">12.4110269546509</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">11.1690301895142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226428985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157903671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7051448822021</t>
+    <t xml:space="preserve">11.2226419448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157894134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7051439285278</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752851486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1519050598145</t>
+    <t xml:space="preserve">12.3752841949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1519060134888</t>
   </si>
   <si>
     <t xml:space="preserve">12.2412567138672</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">12.2769975662231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3484783172607</t>
+    <t xml:space="preserve">12.3484802246094</t>
   </si>
   <si>
     <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4020910263062</t>
+    <t xml:space="preserve">12.4020891189575</t>
   </si>
   <si>
     <t xml:space="preserve">12.0893564224243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3306093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773704528809</t>
+    <t xml:space="preserve">12.3306083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773714065552</t>
   </si>
   <si>
     <t xml:space="preserve">12.9560737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0811672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564476013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475126266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581590652466</t>
+    <t xml:space="preserve">13.0811681747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456446647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581600189209</t>
   </si>
   <si>
     <t xml:space="preserve">13.4117708206177</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1883916854858</t>
+    <t xml:space="preserve">13.1794538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
     <t xml:space="preserve">13.3492240905762</t>
@@ -200,19 +200,19 @@
     <t xml:space="preserve">14.0104312896729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602443695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5011215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849658966064</t>
+    <t xml:space="preserve">13.7691793441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602453231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5011224746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6172800064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849639892578</t>
   </si>
   <si>
     <t xml:space="preserve">13.286678314209</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7237577438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6522769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2948694229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.419960975647</t>
+    <t xml:space="preserve">12.7237586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6522760391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2948684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4199619293213</t>
   </si>
   <si>
     <t xml:space="preserve">12.7148237228394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.839916229248</t>
+    <t xml:space="preserve">12.8399171829224</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041763305664</t>
@@ -248,64 +248,64 @@
     <t xml:space="preserve">12.6433420181274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0543613433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7058887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539903640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4646377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182485580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880178451538</t>
+    <t xml:space="preserve">13.0543622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7058897018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.553991317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.464635848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182495117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880168914795</t>
   </si>
   <si>
     <t xml:space="preserve">12.7863054275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6612110137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5271835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577871322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557008743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632963180542</t>
+    <t xml:space="preserve">12.6612119674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072282791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5271844863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577861785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096874237061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1615839004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0901041030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0454263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526489257812</t>
+    <t xml:space="preserve">13.161584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0901021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
@@ -314,31 +314,31 @@
     <t xml:space="preserve">12.8131113052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4743185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994091033936</t>
+    <t xml:space="preserve">13.4743175506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994100570679</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547351837158</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708936691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925594329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559520721436</t>
+    <t xml:space="preserve">13.6708927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.903208732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283002853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559530258179</t>
   </si>
   <si>
     <t xml:space="preserve">13.8716125488281</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637823104858</t>
+    <t xml:space="preserve">13.9637832641602</t>
   </si>
   <si>
     <t xml:space="preserve">13.8992643356323</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">13.9176988601685</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255271911621</t>
+    <t xml:space="preserve">13.8255281448364</t>
   </si>
   <si>
     <t xml:space="preserve">13.8531770706177</t>
   </si>
   <si>
-    <t xml:space="preserve">13.641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808298110962</t>
+    <t xml:space="preserve">13.6411867141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808288574219</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836038589478</t>
+    <t xml:space="preserve">14.0836029052734</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020383834839</t>
+    <t xml:space="preserve">14.1020374298096</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863788604736</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">14.3508977890015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232450485229</t>
+    <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
     <t xml:space="preserve">14.2126426696777</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707183837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6827096939087</t>
+    <t xml:space="preserve">14.4707174301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.682710647583</t>
   </si>
   <si>
     <t xml:space="preserve">14.7380123138428</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">14.9868726730347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7103614807129</t>
+    <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6181907653809</t>
+    <t xml:space="preserve">14.6181898117065</t>
   </si>
   <si>
     <t xml:space="preserve">14.8670501708984</t>
@@ -440,34 +440,34 @@
     <t xml:space="preserve">15.0606069564819</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592199325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500017166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145235061646</t>
+    <t xml:space="preserve">15.0421743392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145225524902</t>
   </si>
   <si>
     <t xml:space="preserve">15.1527786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343431472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0698251724243</t>
+    <t xml:space="preserve">15.1343441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0698261260986</t>
   </si>
   <si>
     <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301830291748</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960880279541</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">15.2541627883911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549111366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150144577026</t>
+    <t xml:space="preserve">15.383204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150173187256</t>
   </si>
   <si>
     <t xml:space="preserve">15.8993558883667</t>
@@ -497,19 +497,19 @@
     <t xml:space="preserve">16.1297817230225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2219505310059</t>
+    <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
     <t xml:space="preserve">16.1850852966309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0560474395752</t>
+    <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
     <t xml:space="preserve">16.3049068450928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.116003036499</t>
+    <t xml:space="preserve">17.1160049438477</t>
   </si>
   <si>
     <t xml:space="preserve">17.2450389862061</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">17.466251373291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6045036315918</t>
+    <t xml:space="preserve">17.5307693481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6045017242432</t>
   </si>
   <si>
     <t xml:space="preserve">17.3556461334229</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874599456787</t>
+    <t xml:space="preserve">17.6874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">17.4109439849854</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">17.6598072052002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8625774383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058925628662</t>
+    <t xml:space="preserve">17.8625793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058906555176</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492057800293</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">17.9639663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9547500610352</t>
+    <t xml:space="preserve">17.9547481536865</t>
   </si>
   <si>
     <t xml:space="preserve">17.6229400634766</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">17.3279914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975685119629</t>
+    <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
     <t xml:space="preserve">17.0606994628906</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201641082764</t>
+    <t xml:space="preserve">17.4201622009277</t>
   </si>
   <si>
     <t xml:space="preserve">17.1897354125977</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">17.3832950592041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768508911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7427597045898</t>
+    <t xml:space="preserve">17.5768527984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7427616119385</t>
   </si>
   <si>
     <t xml:space="preserve">18.0100536346436</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6644611358643</t>
+    <t xml:space="preserve">18.6644630432129</t>
   </si>
   <si>
     <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2635669708252</t>
+    <t xml:space="preserve">19.2635688781738</t>
   </si>
   <si>
     <t xml:space="preserve">19.3557376861572</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">19.0331420898438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7244167327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797222137451</t>
+    <t xml:space="preserve">19.7244186401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797203063965</t>
   </si>
   <si>
     <t xml:space="preserve">20.10231590271</t>
@@ -656,46 +656,46 @@
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3741703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999412536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409732818604</t>
+    <t xml:space="preserve">19.6783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409694671631</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8903217315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165912628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617805480957</t>
+    <t xml:space="preserve">19.890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165893554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617824554443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">21.2913131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.752161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3926982879639</t>
+    <t xml:space="preserve">21.7521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926963806152</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4756507873535</t>
+    <t xml:space="preserve">21.4756488800049</t>
   </si>
   <si>
     <t xml:space="preserve">21.024019241333</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">22.1208438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8443336486816</t>
+    <t xml:space="preserve">21.844331741333</t>
   </si>
   <si>
     <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5816955566406</t>
+    <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
     <t xml:space="preserve">23.1254978179932</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">24.1209373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6094398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.240758895874</t>
+    <t xml:space="preserve">24.6094379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5910034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
   </si>
   <si>
     <t xml:space="preserve">24.4619655609131</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">23.5033988952637</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9780254364014</t>
+    <t xml:space="preserve">22.97802734375</t>
   </si>
   <si>
     <t xml:space="preserve">23.0425453186035</t>
@@ -797,28 +797,28 @@
     <t xml:space="preserve">22.9503765106201</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595928192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.48952293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6738624572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8582019805908</t>
+    <t xml:space="preserve">22.9595947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4895248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.673864364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268848419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
+    <t xml:space="preserve">21.9641551971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065723419189</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604850769043</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">22.1853637695312</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632610321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7936840057373</t>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
     <t xml:space="preserve">23.319055557251</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">22.8121185302734</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6830825805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8489894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.024112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1070652008057</t>
+    <t xml:space="preserve">22.6830806732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8489875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.107063293457</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347160339355</t>
@@ -860,37 +860,37 @@
     <t xml:space="preserve">22.7383842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.71994972229</t>
+    <t xml:space="preserve">22.7199478149414</t>
   </si>
   <si>
     <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922988891602</t>
+    <t xml:space="preserve">22.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6923007965088</t>
   </si>
   <si>
     <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6369972229004</t>
+    <t xml:space="preserve">22.6369953155518</t>
   </si>
   <si>
     <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7982482910156</t>
+    <t xml:space="preserve">21.7982501983643</t>
   </si>
   <si>
     <t xml:space="preserve">22.0378875732422</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171756744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669254302979</t>
+    <t xml:space="preserve">22.5171737670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669273376465</t>
   </si>
   <si>
     <t xml:space="preserve">22.7291660308838</t>
@@ -899,25 +899,25 @@
     <t xml:space="preserve">22.8674201965332</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8950729370117</t>
+    <t xml:space="preserve">22.8950748443604</t>
   </si>
   <si>
     <t xml:space="preserve">23.116283416748</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623649597168</t>
+    <t xml:space="preserve">23.1623668670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218315124512</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0401382446289</t>
+    <t xml:space="preserve">24.0401401519775</t>
   </si>
   <si>
     <t xml:space="preserve">23.7856979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.709228515625</t>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">25.3217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8023910522461</t>
+    <t xml:space="preserve">25.8023929595947</t>
   </si>
   <si>
     <t xml:space="preserve">26.3866691589355</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2358856201172</t>
+    <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
     <t xml:space="preserve">26.584566116333</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4620571136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6693801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809093475342</t>
+    <t xml:space="preserve">26.4620590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562953948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6693820953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809074401855</t>
   </si>
   <si>
     <t xml:space="preserve">26.3772430419922</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280265808105</t>
+    <t xml:space="preserve">26.5280246734619</t>
   </si>
   <si>
     <t xml:space="preserve">26.2453136444092</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212394714355</t>
+    <t xml:space="preserve">25.9625988006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212413787842</t>
   </si>
   <si>
     <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500499725342</t>
+    <t xml:space="preserve">25.3500480651855</t>
   </si>
   <si>
     <t xml:space="preserve">25.9814453125</t>
@@ -992,22 +992,22 @@
     <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5102519989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7008819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4841346740723</t>
+    <t xml:space="preserve">25.51025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7008800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4841327667236</t>
   </si>
   <si>
     <t xml:space="preserve">23.6349143981934</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7480030059814</t>
+    <t xml:space="preserve">23.7480010986328</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2862339019775</t>
+    <t xml:space="preserve">23.2862319946289</t>
   </si>
   <si>
     <t xml:space="preserve">23.1731491088867</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">23.2296905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0035190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8150444030762</t>
+    <t xml:space="preserve">23.0035209655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8150424957275</t>
   </si>
   <si>
     <t xml:space="preserve">23.0883331298828</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">23.6254901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4181690216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9176292419434</t>
+    <t xml:space="preserve">23.4181671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9176273345947</t>
   </si>
   <si>
     <t xml:space="preserve">24.3040046691895</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1438045501709</t>
+    <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
     <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4935569763184</t>
+    <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
     <t xml:space="preserve">23.3804740905762</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8422393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2663097381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113334655762</t>
+    <t xml:space="preserve">23.8422374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2663116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113315582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5961456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846202850342</t>
+    <t xml:space="preserve">24.5961437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846183776855</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259796142578</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">26.4337863922119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1981925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741203308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7270030975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8683586120605</t>
+    <t xml:space="preserve">26.1981945037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7270011901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8683605194092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0097160339355</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">26.1039543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6798839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730949401855</t>
+    <t xml:space="preserve">25.6798801422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730968475342</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490264892578</t>
+    <t xml:space="preserve">24.5490245819092</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432647705078</t>
@@ -1136,19 +1136,19 @@
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029308319092</t>
+    <t xml:space="preserve">24.8317394256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029327392578</t>
   </si>
   <si>
     <t xml:space="preserve">25.2086925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385246276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0568351745605</t>
+    <t xml:space="preserve">25.5385265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
     <t xml:space="preserve">26.2924308776855</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">26.9992141723633</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1771907806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656692504883</t>
+    <t xml:space="preserve">28.1771926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656673431396</t>
   </si>
   <si>
     <t xml:space="preserve">28.6955013275146</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">25.5856456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0673351287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1876926422119</t>
+    <t xml:space="preserve">25.0673370361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1876907348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.0463352203369</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">26.9049758911133</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8002376556396</t>
+    <t xml:space="preserve">27.8002395629883</t>
   </si>
   <si>
     <t xml:space="preserve">26.8578586578369</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9887180328369</t>
+    <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
     <t xml:space="preserve">28.0829524993896</t>
@@ -1223,31 +1223,31 @@
     <t xml:space="preserve">27.1405715942383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232883453369</t>
+    <t xml:space="preserve">27.4232864379883</t>
   </si>
   <si>
     <t xml:space="preserve">27.7059993743896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4704074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599056243896</t>
+    <t xml:space="preserve">27.4704055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599075317383</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.213809967041</t>
+    <t xml:space="preserve">29.2138118743896</t>
   </si>
   <si>
     <t xml:space="preserve">28.5541439056396</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4494075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7897396087646</t>
+    <t xml:space="preserve">29.449405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.789737701416</t>
   </si>
   <si>
     <t xml:space="preserve">29.355167388916</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">28.7426204681396</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6588821411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5646419525146</t>
+    <t xml:space="preserve">27.6588802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531223297119</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812633514404</t>
+    <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
     <t xml:space="preserve">25.7036533355713</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">25.8961887359619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.462984085083</t>
+    <t xml:space="preserve">25.4629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">25.0297737121582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9335041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">24.9335060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">23.5376148223877</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5857486724854</t>
+    <t xml:space="preserve">23.5857467651367</t>
   </si>
   <si>
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044082641602</t>
+    <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9118671417236</t>
+    <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
     <t xml:space="preserve">22.671199798584</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226894378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.730152130127</t>
+    <t xml:space="preserve">23.9226875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7301502227783</t>
   </si>
   <si>
     <t xml:space="preserve">23.3932113647461</t>
@@ -1367,19 +1367,19 @@
     <t xml:space="preserve">22.6230659484863</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1417236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603813171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4678440093994</t>
+    <t xml:space="preserve">22.1417255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.467845916748</t>
   </si>
   <si>
     <t xml:space="preserve">21.5641136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3234405517578</t>
+    <t xml:space="preserve">21.3234424591064</t>
   </si>
   <si>
     <t xml:space="preserve">21.8529186248779</t>
@@ -1394,16 +1394,16 @@
     <t xml:space="preserve">22.2379913330078</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4305286407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0454540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9973220825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8047828674316</t>
+    <t xml:space="preserve">22.4305305480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0454559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9973201751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8047847747803</t>
   </si>
   <si>
     <t xml:space="preserve">21.7085151672363</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">24.0670909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633586883545</t>
+    <t xml:space="preserve">24.1633605957031</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2704448699951</t>
+    <t xml:space="preserve">24.7891044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2704467773438</t>
   </si>
   <si>
     <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2223110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1260452270508</t>
+    <t xml:space="preserve">25.2223129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1260433197021</t>
   </si>
   <si>
     <t xml:space="preserve">25.3185787200928</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8588752746582</t>
+    <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
     <t xml:space="preserve">27.5327529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5808849334717</t>
+    <t xml:space="preserve">27.5808868408203</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
@@ -1493,28 +1493,28 @@
     <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178256988525</t>
+    <t xml:space="preserve">27.9178276062012</t>
   </si>
   <si>
     <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2920799255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2439460754395</t>
+    <t xml:space="preserve">27.2920818328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2439479827881</t>
   </si>
   <si>
     <t xml:space="preserve">27.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5700702667236</t>
+    <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
     <t xml:space="preserve">26.7144718170166</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6182022094727</t>
+    <t xml:space="preserve">26.618200302124</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592479705811</t>
+    <t xml:space="preserve">25.5592498779297</t>
   </si>
   <si>
     <t xml:space="preserve">25.6555194854736</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">26.9551410675049</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9070091247559</t>
+    <t xml:space="preserve">26.9070072174072</t>
   </si>
   <si>
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.484619140625</t>
+    <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
     <t xml:space="preserve">27.6290225982666</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
-    <t xml:space="preserve">29.361852645874</t>
+    <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
     <t xml:space="preserve">29.5543880462646</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208011627197</t>
+    <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465450286865</t>
+    <t xml:space="preserve">31.0465469360352</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2125816345215</t>
+    <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
     <t xml:space="preserve">34.2234001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4159393310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0308685302734</t>
+    <t xml:space="preserve">34.415943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0308647155762</t>
   </si>
   <si>
     <t xml:space="preserve">34.3196754455566</t>
@@ -1625,25 +1625,25 @@
     <t xml:space="preserve">33.7901916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3088531494141</t>
+    <t xml:space="preserve">33.3088569641113</t>
   </si>
   <si>
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349754333496</t>
+    <t xml:space="preserve">32.6349792480469</t>
   </si>
   <si>
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573616027832</t>
+    <t xml:space="preserve">32.0573654174805</t>
   </si>
   <si>
     <t xml:space="preserve">31.576021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685604095459</t>
+    <t xml:space="preserve">31.7685642242432</t>
   </si>
   <si>
     <t xml:space="preserve">31.7204246520996</t>
@@ -1652,19 +1652,19 @@
     <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872200012207</t>
+    <t xml:space="preserve">31.2872180938721</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6722927093506</t>
+    <t xml:space="preserve">31.6722965240479</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5278873443604</t>
+    <t xml:space="preserve">31.527889251709</t>
   </si>
   <si>
     <t xml:space="preserve">31.8648281097412</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2342224121094</t>
+    <t xml:space="preserve">35.2342185974121</t>
   </si>
   <si>
     <t xml:space="preserve">36.5819778442383</t>
@@ -61101,7 +61101,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6508217593</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>16353</v>
@@ -61113,7 +61113,7 @@
         <v>116.099998474121</v>
       </c>
       <c r="E2169" t="n">
-        <v>120.099998474121</v>
+        <v>119.099998474121</v>
       </c>
       <c r="F2169" t="n">
         <v>117.5</v>
@@ -61122,6 +61122,32 @@
         <v>1372</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6494907407</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>15388</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>118.599998474121</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>117.199996948242</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>117.400001525879</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>117.599998474121</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1461">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495988845825</t>
+    <t xml:space="preserve">13.8495960235596</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330675125122</t>
+    <t xml:space="preserve">13.2330665588379</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3402900695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777423858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3939018249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134813308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347789764404</t>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777433395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3938999176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347780227661</t>
   </si>
   <si>
     <t xml:space="preserve">12.509313583374</t>
@@ -86,34 +86,34 @@
     <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0007514953613</t>
+    <t xml:space="preserve">13.000750541687</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8845930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986652374268</t>
+    <t xml:space="preserve">12.884593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110269546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157894134521</t>
+    <t xml:space="preserve">12.4467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226428985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157903671265</t>
   </si>
   <si>
     <t xml:space="preserve">11.7051439285278</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752841949463</t>
+    <t xml:space="preserve">12.3752861022949</t>
   </si>
   <si>
     <t xml:space="preserve">12.1519060134888</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">12.2769975662231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3484802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625524520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020891189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893564224243</t>
+    <t xml:space="preserve">12.3484783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625514984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020910263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893573760986</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306083679199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7773714065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811681747437</t>
+    <t xml:space="preserve">12.7773704528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9560747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811672210693</t>
   </si>
   <si>
     <t xml:space="preserve">13.456446647644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581600189209</t>
+    <t xml:space="preserve">13.4475126266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
     <t xml:space="preserve">13.4117708206177</t>
@@ -182,70 +182,70 @@
     <t xml:space="preserve">13.1794538497925</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1883907318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3492240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688083648682</t>
+    <t xml:space="preserve">13.1883888244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3492231369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921903610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688074111938</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104312896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691793441772</t>
+    <t xml:space="preserve">14.0104303359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691802978516</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602453231812</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5011224746704</t>
+    <t xml:space="preserve">13.5011234283447</t>
   </si>
   <si>
     <t xml:space="preserve">13.6172800064087</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.286678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203338623047</t>
+    <t xml:space="preserve">13.3849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2866773605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203329086304</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6522760391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2948684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4199619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7148237228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8399171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9113998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433420181274</t>
+    <t xml:space="preserve">12.6522769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.294867515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.419960975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.714822769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.839916229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9113969802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433401107788</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543622970581</t>
@@ -254,58 +254,58 @@
     <t xml:space="preserve">12.7058897018433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.553991317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.464635848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880168914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863054275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612119674683</t>
+    <t xml:space="preserve">12.5539894104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4646368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182485580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863063812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612129211426</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804233551025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1072282791138</t>
+    <t xml:space="preserve">12.1072292327881</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271844863892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577861785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557027816772</t>
+    <t xml:space="preserve">12.8577871322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914426803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0096874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.161584854126</t>
+    <t xml:space="preserve">13.0096855163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1615858078003</t>
   </si>
   <si>
     <t xml:space="preserve">13.0901021957397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526498794556</t>
+    <t xml:space="preserve">13.045428276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526517868042</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
@@ -314,28 +314,28 @@
     <t xml:space="preserve">12.8131113052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4743175506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224191665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994100570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.903208732605</t>
+    <t xml:space="preserve">13.4743165969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224201202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994119644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032077789307</t>
   </si>
   <si>
     <t xml:space="preserve">13.992561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283002853394</t>
+    <t xml:space="preserve">14.028302192688</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559530258179</t>
@@ -344,55 +344,55 @@
     <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1757745742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9453477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9637832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8992643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176988601685</t>
+    <t xml:space="preserve">14.1757736206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269142150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.945348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9637823104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.899263381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
     <t xml:space="preserve">13.8255281448364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8531770706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6411867141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808288574219</t>
+    <t xml:space="preserve">13.853178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808298110962</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006504058838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836029052734</t>
+    <t xml:space="preserve">14.0836038589478</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020374298096</t>
+    <t xml:space="preserve">14.1020383834839</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863788604736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508977890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232460021973</t>
+    <t xml:space="preserve">14.3508958816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232469558716</t>
   </si>
   <si>
     <t xml:space="preserve">14.2126426696777</t>
@@ -401,94 +401,94 @@
     <t xml:space="preserve">14.4154167175293</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628881454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4707174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.682710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380123138428</t>
+    <t xml:space="preserve">14.5628890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4707183837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6827096939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380104064941</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9868726730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103605270386</t>
+    <t xml:space="preserve">14.9315690994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103614807129</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6181898117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670501708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606069564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421743392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145225524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1527786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0698261260986</t>
+    <t xml:space="preserve">14.6181907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670492172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684362411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500036239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1527767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0698251724243</t>
   </si>
   <si>
     <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.023738861084</t>
+    <t xml:space="preserve">15.0237379074097</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.383204460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150173187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993558883667</t>
+    <t xml:space="preserve">14.9960889816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.977653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.899356842041</t>
   </si>
   <si>
     <t xml:space="preserve">16.2772541046143</t>
@@ -500,64 +500,64 @@
     <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850852966309</t>
+    <t xml:space="preserve">16.1850833892822</t>
   </si>
   <si>
     <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3049068450928</t>
+    <t xml:space="preserve">16.3049049377441</t>
   </si>
   <si>
     <t xml:space="preserve">17.1160049438477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466251373291</t>
+    <t xml:space="preserve">17.2450408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6045017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556461334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.281909942627</t>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556442260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2819080352783</t>
   </si>
   <si>
     <t xml:space="preserve">17.6874580383301</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4109439849854</t>
+    <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
     <t xml:space="preserve">17.6598072052002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8625793457031</t>
+    <t xml:space="preserve">17.8625812530518</t>
   </si>
   <si>
     <t xml:space="preserve">17.7058906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5492057800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731864929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9547481536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229400634766</t>
+    <t xml:space="preserve">17.5492038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9547519683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676364898682</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2173919677734</t>
+    <t xml:space="preserve">17.2173900604248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3279914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0606994628906</t>
+    <t xml:space="preserve">17.0975685119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">17.4201622009277</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897354125977</t>
+    <t xml:space="preserve">17.1897392272949</t>
   </si>
   <si>
     <t xml:space="preserve">17.3740787506104</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">17.1436538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3832950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768527984619</t>
+    <t xml:space="preserve">17.3832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427616119385</t>
@@ -605,25 +605,25 @@
     <t xml:space="preserve">18.0100536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1575241088867</t>
+    <t xml:space="preserve">18.157527923584</t>
   </si>
   <si>
     <t xml:space="preserve">18.4063835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3879528045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510818481445</t>
+    <t xml:space="preserve">18.3879508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510837554932</t>
   </si>
   <si>
     <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6644630432129</t>
+    <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
     <t xml:space="preserve">19.1713962554932</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">19.7244186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7889366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797203063965</t>
+    <t xml:space="preserve">19.7889385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797183990479</t>
   </si>
   <si>
     <t xml:space="preserve">20.10231590271</t>
@@ -656,31 +656,31 @@
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953788757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
+    <t xml:space="preserve">19.6783351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3741722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.328088760376</t>
   </si>
   <si>
     <t xml:space="preserve">19.5124263763428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9870567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
+    <t xml:space="preserve">18.9870586395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
   </si>
   <si>
     <t xml:space="preserve">18.9409694671631</t>
@@ -689,16 +689,16 @@
     <t xml:space="preserve">19.2543487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.890323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120269775391</t>
+    <t xml:space="preserve">19.8903255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165874481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120250701904</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913131713867</t>
@@ -710,43 +710,43 @@
     <t xml:space="preserve">21.3373966217041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3926963806152</t>
+    <t xml:space="preserve">21.3927001953125</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4756488800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.024019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807079315186</t>
+    <t xml:space="preserve">21.4756526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0240173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807041168213</t>
   </si>
   <si>
     <t xml:space="preserve">21.0608863830566</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6369037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.106969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.844331741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8535480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.581693649292</t>
+    <t xml:space="preserve">20.6369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304634094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1069736480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1208419799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8443336486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8535499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5816917419434</t>
   </si>
   <si>
     <t xml:space="preserve">23.1254978179932</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910034179688</t>
+    <t xml:space="preserve">23.3098392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
     <t xml:space="preserve">24.2407569885254</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">24.4619655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3882274627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329296112061</t>
+    <t xml:space="preserve">24.3882293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329257965088</t>
   </si>
   <si>
     <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5033988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.97802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425453186035</t>
+    <t xml:space="preserve">23.503396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9780292510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425472259521</t>
   </si>
   <si>
     <t xml:space="preserve">23.2084503173828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9503765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4895248413086</t>
+    <t xml:space="preserve">22.9503726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">22.673864364624</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2268848419189</t>
+    <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582038879395</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">21.9641551971436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4065723419189</t>
+    <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604850769043</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">22.4250049591064</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5632591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7936859130859</t>
+    <t xml:space="preserve">22.5632610321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7936840057373</t>
   </si>
   <si>
     <t xml:space="preserve">23.319055557251</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">22.8121185302734</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6830806732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8489875793457</t>
+    <t xml:space="preserve">22.6830825805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.848991394043</t>
   </si>
   <si>
     <t xml:space="preserve">23.0241107940674</t>
   </si>
   <si>
-    <t xml:space="preserve">23.107063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347160339355</t>
+    <t xml:space="preserve">23.1070652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347179412842</t>
   </si>
   <si>
     <t xml:space="preserve">22.7383842468262</t>
@@ -866,55 +866,55 @@
     <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724792480469</t>
+    <t xml:space="preserve">22.5724773406982</t>
   </si>
   <si>
     <t xml:space="preserve">22.6923007965088</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6277770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6369953155518</t>
+    <t xml:space="preserve">22.627779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6369972229004</t>
   </si>
   <si>
     <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7982501983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0378875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5171737670898</t>
+    <t xml:space="preserve">21.7982482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0378894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5171775817871</t>
   </si>
   <si>
     <t xml:space="preserve">22.1669273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7291660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.116283416748</t>
+    <t xml:space="preserve">22.7291679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950710296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
     <t xml:space="preserve">23.1623668670654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5218315124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0401401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7856979370117</t>
+    <t xml:space="preserve">23.5218296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7856960296631</t>
   </si>
   <si>
     <t xml:space="preserve">24.7092304229736</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">25.3217792510986</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8023929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866691589355</t>
+    <t xml:space="preserve">25.8023910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866672515869</t>
   </si>
   <si>
     <t xml:space="preserve">26.3678188323975</t>
@@ -941,43 +941,43 @@
     <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.584566116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620590209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6693820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772430419922</t>
+    <t xml:space="preserve">26.5845680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620571136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562992095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6693840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809055328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
     <t xml:space="preserve">26.5280246734619</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2453136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264633178711</t>
+    <t xml:space="preserve">26.2453117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264652252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625988006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8872051239014</t>
+    <t xml:space="preserve">25.9625968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.88720703125</t>
   </si>
   <si>
     <t xml:space="preserve">25.3500480651855</t>
@@ -986,40 +986,37 @@
     <t xml:space="preserve">25.9814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4065895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.51025390625</t>
+    <t xml:space="preserve">25.1898460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4065914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5102558135986</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7008800506592</t>
+    <t xml:space="preserve">23.7008838653564</t>
   </si>
   <si>
     <t xml:space="preserve">23.4841327667236</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6349143981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7480010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5218296051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2862319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731491088867</t>
+    <t xml:space="preserve">23.634916305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7480030059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731472015381</t>
   </si>
   <si>
     <t xml:space="preserve">22.9940948486328</t>
@@ -1031,25 +1028,25 @@
     <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150424957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0883331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6254901885986</t>
+    <t xml:space="preserve">22.8150444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0883350372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9176273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3040046691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438026428223</t>
+    <t xml:space="preserve">23.9176292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3040084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438007354736</t>
   </si>
   <si>
     <t xml:space="preserve">23.6537647247314</t>
@@ -1064,10 +1061,10 @@
     <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8422374725342</t>
+    <t xml:space="preserve">23.1919975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
     <t xml:space="preserve">24.2663116455078</t>
@@ -1082,22 +1079,22 @@
     <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7846183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9259796142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6903839111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1615734100342</t>
+    <t xml:space="preserve">24.7846202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9259777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6903858184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1615753173828</t>
   </si>
   <si>
     <t xml:space="preserve">26.4337863922119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1981945037842</t>
+    <t xml:space="preserve">26.1981906890869</t>
   </si>
   <si>
     <t xml:space="preserve">25.7741222381592</t>
@@ -1106,25 +1103,25 @@
     <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8683605194092</t>
+    <t xml:space="preserve">25.8683586120605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1039543151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6798801422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490245819092</t>
+    <t xml:space="preserve">26.1039524078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490226745605</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432647705078</t>
@@ -1133,19 +1130,19 @@
     <t xml:space="preserve">24.8788585662842</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7375011444092</t>
+    <t xml:space="preserve">24.7375030517578</t>
   </si>
   <si>
     <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3029327392578</t>
+    <t xml:space="preserve">25.3029289245605</t>
   </si>
   <si>
     <t xml:space="preserve">25.2086925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385265350342</t>
+    <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.0568332672119</t>
@@ -1160,13 +1157,13 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1771926879883</t>
+    <t xml:space="preserve">26.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
     <t xml:space="preserve">28.3656673431396</t>
@@ -1178,28 +1175,28 @@
     <t xml:space="preserve">28.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3290481567383</t>
+    <t xml:space="preserve">27.3290519714355</t>
   </si>
   <si>
     <t xml:space="preserve">27.0934543609619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5856456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673370361328</t>
+    <t xml:space="preserve">25.5856418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673351287842</t>
   </si>
   <si>
     <t xml:space="preserve">26.9520988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1876907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0463352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107376098633</t>
+    <t xml:space="preserve">27.1876926422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0463371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
     <t xml:space="preserve">26.9049758911133</t>
@@ -1211,7 +1208,7 @@
     <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944778442383</t>
+    <t xml:space="preserve">27.8944797515869</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
@@ -1223,10 +1220,10 @@
     <t xml:space="preserve">27.1405715942383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7059993743896</t>
+    <t xml:space="preserve">27.4232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7060031890869</t>
   </si>
   <si>
     <t xml:space="preserve">27.4704055786133</t>
@@ -1238,7 +1235,7 @@
     <t xml:space="preserve">29.4022884368896</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2138118743896</t>
+    <t xml:space="preserve">29.2138137817383</t>
   </si>
   <si>
     <t xml:space="preserve">28.5541439056396</t>
@@ -1250,13 +1247,13 @@
     <t xml:space="preserve">28.789737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">29.355167388916</t>
+    <t xml:space="preserve">29.3551692962646</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426204681396</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6588802337646</t>
+    <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
     <t xml:space="preserve">27.5646438598633</t>
@@ -1268,19 +1265,19 @@
     <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3761672973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222667694092</t>
+    <t xml:space="preserve">27.3761692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222648620605</t>
   </si>
   <si>
     <t xml:space="preserve">28.2714309692383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5175266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626037597656</t>
+    <t xml:space="preserve">27.5175247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626056671143</t>
   </si>
   <si>
     <t xml:space="preserve">26.6663360595703</t>
@@ -1289,13 +1286,16 @@
     <t xml:space="preserve">27.0514106750488</t>
   </si>
   <si>
+    <t xml:space="preserve">26.8107395172119</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
     <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036533355713</t>
+    <t xml:space="preserve">25.7036552429199</t>
   </si>
   <si>
     <t xml:space="preserve">25.8961887359619</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">23.5376148223877</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5857467651367</t>
+    <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
     <t xml:space="preserve">23.2488098144531</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5267963409424</t>
+    <t xml:space="preserve">22.526798248291</t>
   </si>
   <si>
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600067138672</t>
+    <t xml:space="preserve">22.9600048065186</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0189590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0562725067139</t>
+    <t xml:space="preserve">24.0189571380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
     <t xml:space="preserve">22.6230659484863</t>
@@ -1388,31 +1388,31 @@
     <t xml:space="preserve">21.9491863250732</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7674655914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305305480957</t>
+    <t xml:space="preserve">22.7674674987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
     <t xml:space="preserve">22.0454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973201751709</t>
+    <t xml:space="preserve">21.9973220825195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7085151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3450794219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2969436645508</t>
+    <t xml:space="preserve">21.708517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3450775146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2969455718994</t>
   </si>
   <si>
     <t xml:space="preserve">24.0670909881592</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5484352111816</t>
+    <t xml:space="preserve">24.548433303833</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">25.2704467773438</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741771697998</t>
+    <t xml:space="preserve">25.1741790771484</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223129272461</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8696899414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0622291564941</t>
+    <t xml:space="preserve">27.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8696918487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0622272491455</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2920818328857</t>
+    <t xml:space="preserve">27.2920837402344</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439479827881</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">27.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">26.570068359375</t>
+    <t xml:space="preserve">26.5700664520264</t>
   </si>
   <si>
     <t xml:space="preserve">26.7144718170166</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6290225982666</t>
+    <t xml:space="preserve">27.629020690918</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1584968566895</t>
+    <t xml:space="preserve">28.1584949493408</t>
   </si>
   <si>
     <t xml:space="preserve">28.3029003143311</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208030700684</t>
+    <t xml:space="preserve">30.420804977417</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2017707824707</t>
+    <t xml:space="preserve">31.0465488433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2017669677734</t>
   </si>
   <si>
     <t xml:space="preserve">32.3943061828613</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2234001159668</t>
+    <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
     <t xml:space="preserve">34.415943145752</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">34.0308647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6566123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827346801758</t>
+    <t xml:space="preserve">34.3196716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.656608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">32.0573654174805</t>
   </si>
   <si>
-    <t xml:space="preserve">31.576021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685642242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204246520996</t>
+    <t xml:space="preserve">31.5760231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204265594482</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353519439697</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.442440032959</t>
+    <t xml:space="preserve">32.4424438476562</t>
   </si>
   <si>
     <t xml:space="preserve">34.7528800964355</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4002532958984</t>
+    <t xml:space="preserve">37.4002571105957</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927963256836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9778709411621</t>
+    <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
     <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9279174804688</t>
+    <t xml:space="preserve">38.927921295166</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">38.1943550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6344947814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0257339477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2213516235352</t>
+    <t xml:space="preserve">38.6344985961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0257301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2213478088379</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">39.710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6125831604004</t>
+    <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7593002319336</t>
+    <t xml:space="preserve">39.7592964172363</t>
   </si>
   <si>
     <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1235389709473</t>
+    <t xml:space="preserve">39.1235427856445</t>
   </si>
   <si>
     <t xml:space="preserve">39.4169654846191</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483444213867</t>
+    <t xml:space="preserve">40.2483406066895</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">40.7862892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067123413086</t>
+    <t xml:space="preserve">42.1067085266113</t>
   </si>
   <si>
     <t xml:space="preserve">43.0358924865723</t>
@@ -1790,28 +1790,28 @@
     <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5957565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8402786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139808654785</t>
+    <t xml:space="preserve">42.5957527160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2365989685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.774543762207</t>
+    <t xml:space="preserve">45.2365951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">44.6008377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1606979370117</t>
+    <t xml:space="preserve">44.160701751709</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781326293945</t>
+    <t xml:space="preserve">50.0781288146973</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.664981842041</t>
+    <t xml:space="preserve">50.6649856567383</t>
   </si>
   <si>
     <t xml:space="preserve">51.7408866882324</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102027893066</t>
+    <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">49.4912757873535</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3934745788574</t>
+    <t xml:space="preserve">49.3934707641602</t>
   </si>
   <si>
     <t xml:space="preserve">51.1540298461914</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">52.5233535766602</t>
   </si>
   <si>
-    <t xml:space="preserve">52.034309387207</t>
+    <t xml:space="preserve">52.0343132019043</t>
   </si>
   <si>
     <t xml:space="preserve">50.9584083557129</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970634460449</t>
+    <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">54.4795341491699</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5992469787598</t>
+    <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
     <t xml:space="preserve">48.4153823852539</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9701614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5519332885742</t>
+    <t xml:space="preserve">45.970157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.551929473877</t>
   </si>
   <si>
     <t xml:space="preserve">42.6935653686523</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791114807129</t>
+    <t xml:space="preserve">32.1791152954102</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543098449707</t>
+    <t xml:space="preserve">31.787878036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543117523193</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0914688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3089942932129</t>
+    <t xml:space="preserve">36.0914649963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3089981079102</t>
   </si>
   <si>
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009284973145</t>
+    <t xml:space="preserve">37.9009323120117</t>
   </si>
   <si>
     <t xml:space="preserve">38.0476455688477</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8841018676758</t>
+    <t xml:space="preserve">41.3242416381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8840980529785</t>
   </si>
   <si>
     <t xml:space="preserve">45.7256393432617</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4592094421387</t>
+    <t xml:space="preserve">46.4592056274414</t>
   </si>
   <si>
     <t xml:space="preserve">46.0679664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3613967895508</t>
+    <t xml:space="preserve">46.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8723526000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3124923706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1657752990723</t>
+    <t xml:space="preserve">45.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3124885559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
     <t xml:space="preserve">45.1876907348633</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913703918457</t>
+    <t xml:space="preserve">42.791374206543</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0190620422363</t>
+    <t xml:space="preserve">46.0190658569336</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
@@ -2066,19 +2066,19 @@
     <t xml:space="preserve">48.7577133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7847061157227</t>
+    <t xml:space="preserve">49.7847099304199</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5890884399414</t>
+    <t xml:space="preserve">49.5890846252441</t>
   </si>
   <si>
     <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3277397155762</t>
+    <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
     <t xml:space="preserve">52.9145889282227</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">55.8488578796387</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0444679260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6313285827637</t>
+    <t xml:space="preserve">56.0444717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6313247680664</t>
   </si>
   <si>
     <t xml:space="preserve">58.0006484985352</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
-    <t xml:space="preserve">59.2721633911133</t>
+    <t xml:space="preserve">59.2721672058105</t>
   </si>
   <si>
     <t xml:space="preserve">60.1524429321289</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">64.8472747802734</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6735610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494583129883</t>
+    <t xml:space="preserve">63.6735649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494659423828</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209808349609</t>
+    <t xml:space="preserve">66.0209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1727676391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8034439086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.466194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6618041992188</t>
+    <t xml:space="preserve">68.1727752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8034515380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4661865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6618118286133</t>
   </si>
   <si>
     <t xml:space="preserve">67.9771499633789</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7158126831055</t>
+    <t xml:space="preserve">70.7158050537109</t>
   </si>
   <si>
     <t xml:space="preserve">72.8675994873047</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">72.1829376220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3566360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500701904297</t>
+    <t xml:space="preserve">72.1829299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500625610352</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741653442383</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2048492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2470779418945</t>
+    <t xml:space="preserve">71.2048416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2470855712891</t>
   </si>
   <si>
     <t xml:space="preserve">79.420783996582</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">80.0076446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">79.5186004638672</t>
+    <t xml:space="preserve">79.5185928344727</t>
   </si>
   <si>
     <t xml:space="preserve">81.1813507080078</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353363037109</t>
+    <t xml:space="preserve">84.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
     <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2572479248047</t>
+    <t xml:space="preserve">82.2572402954102</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915130615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462921142578</t>
+    <t xml:space="preserve">85.1915054321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462844848633</t>
   </si>
   <si>
     <t xml:space="preserve">84.6046600341797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.115608215332</t>
+    <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361297607422</t>
@@ -2315,25 +2315,25 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827407836914</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4427032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791519165039</t>
+    <t xml:space="preserve">78.4426956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791595458984</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3112335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1594314575195</t>
+    <t xml:space="preserve">84.3112258911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1594390869141</t>
   </si>
   <si>
     <t xml:space="preserve">80.3988723754883</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">80.203254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608291625977</t>
+    <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
     <t xml:space="preserve">87.245491027832</t>
@@ -2351,28 +2351,28 @@
     <t xml:space="preserve">84.8980865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">87.8323516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1038665771484</t>
+    <t xml:space="preserve">87.8323593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1038589477539</t>
   </si>
   <si>
     <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">90.2775726318359</t>
+    <t xml:space="preserve">90.2775802612305</t>
   </si>
   <si>
     <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9184188842773</t>
+    <t xml:space="preserve">92.9184112548828</t>
   </si>
   <si>
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680145263672</t>
+    <t xml:space="preserve">95.1680221557617</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">100.156265258789</t>
+    <t xml:space="preserve">100.156257629395</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088531494141</t>
+    <t xml:space="preserve">97.8088455200195</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
@@ -2417,31 +2417,31 @@
     <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1781768798828</t>
+    <t xml:space="preserve">99.1781692504883</t>
   </si>
   <si>
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439193725586</t>
+    <t xml:space="preserve">96.2439117431641</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.1461029052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4614334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548599243164</t>
+    <t xml:space="preserve">96.146110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4614410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">95.3636322021484</t>
+    <t xml:space="preserve">95.3636245727539</t>
   </si>
   <si>
     <t xml:space="preserve">94.7767791748047</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677383422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.19849395752</t>
+    <t xml:space="preserve">103.677375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.198501586914</t>
   </si>
   <si>
     <t xml:space="preserve">106.807266235352</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088935852051</t>
+    <t xml:space="preserve">112.088943481445</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937149047852</t>
+    <t xml:space="preserve">109.937156677246</t>
   </si>
   <si>
     <t xml:space="preserve">111.893325805664</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">108.17658996582</t>
+    <t xml:space="preserve">108.176597595215</t>
   </si>
   <si>
     <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
-    <t xml:space="preserve">104.655479431152</t>
+    <t xml:space="preserve">104.655471801758</t>
   </si>
   <si>
     <t xml:space="preserve">105.437950134277</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220405578613</t>
+    <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
     <t xml:space="preserve">108.76343536377</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">111.502090454102</t>
   </si>
   <si>
-    <t xml:space="preserve">113.262657165527</t>
+    <t xml:space="preserve">113.262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">116.196922302246</t>
@@ -2558,16 +2558,16 @@
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545913696289</t>
+    <t xml:space="preserve">109.545906066895</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
-    <t xml:space="preserve">115.414443969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.284568786621</t>
+    <t xml:space="preserve">115.414436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.284561157227</t>
   </si>
   <si>
     <t xml:space="preserve">112.871421813965</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805679321289</t>
+    <t xml:space="preserve">115.805686950684</t>
   </si>
   <si>
     <t xml:space="preserve">115.21883392334</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">117.566246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
+    <t xml:space="preserve">118.153091430664</t>
   </si>
   <si>
     <t xml:space="preserve">117.761856079102</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.131187438965</t>
+    <t xml:space="preserve">119.13117980957</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">126.369033813477</t>
   </si>
   <si>
-    <t xml:space="preserve">134.389358520508</t>
+    <t xml:space="preserve">134.389373779297</t>
   </si>
   <si>
     <t xml:space="preserve">130.08576965332</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563079833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.367431640625</t>
+    <t xml:space="preserve">135.563064575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.367446899414</t>
   </si>
   <si>
     <t xml:space="preserve">137.91047668457</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">139.27978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.844757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.235977172852</t>
+    <t xml:space="preserve">139.279800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.844741821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.235992431641</t>
   </si>
   <si>
     <t xml:space="preserve">140.062271118164</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.475433349609</t>
+    <t xml:space="preserve">139.47541809082</t>
   </si>
   <si>
     <t xml:space="preserve">141.822830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">142.409698486328</t>
+    <t xml:space="preserve">142.409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300140380859</t>
+    <t xml:space="preserve">147.691375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.30012512207</t>
   </si>
   <si>
     <t xml:space="preserve">145.343963623047</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.1044921875</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
-    <t xml:space="preserve">151.212493896484</t>
+    <t xml:space="preserve">151.212478637695</t>
   </si>
   <si>
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038787841797</t>
+    <t xml:space="preserve">150.038772583008</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
@@ -2744,22 +2744,22 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711669921875</t>
+    <t xml:space="preserve">156.885391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711685180664</t>
   </si>
   <si>
     <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">154.537979125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.38459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.558303833008</t>
+    <t xml:space="preserve">154.537994384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.384613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">163.145156860352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.905746459961</t>
+    <t xml:space="preserve">164.905731201172</t>
   </si>
   <si>
     <t xml:space="preserve">165.101333618164</t>
@@ -2789,16 +2789,16 @@
     <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">168.818084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.752349853516</t>
+    <t xml:space="preserve">168.818099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.752365112305</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
   </si>
   <si>
-    <t xml:space="preserve">164.318862915039</t>
+    <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
     <t xml:space="preserve">165.688186645508</t>
@@ -4392,6 +4392,9 @@
   </si>
   <si>
     <t xml:space="preserve">119.400001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.800003051758</t>
   </si>
 </sst>
 </file>
@@ -17361,7 +17364,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17413,7 +17416,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17439,7 +17442,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17465,7 +17468,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17491,7 +17494,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17517,7 +17520,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17543,7 +17546,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17569,7 +17572,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17595,7 +17598,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17621,7 +17624,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17647,7 +17650,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17673,7 +17676,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17699,7 +17702,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17725,7 +17728,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17751,7 +17754,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17777,7 +17780,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17803,7 +17806,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17829,7 +17832,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17855,7 +17858,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17881,7 +17884,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17907,7 +17910,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17933,7 +17936,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17959,7 +17962,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17985,7 +17988,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18011,7 +18014,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18037,7 +18040,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18063,7 +18066,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18089,7 +18092,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18115,7 +18118,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18141,7 +18144,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18167,7 +18170,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18245,7 +18248,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18323,7 +18326,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18349,7 +18352,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18375,7 +18378,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18401,7 +18404,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18505,7 +18508,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18531,7 +18534,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18609,7 +18612,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18635,7 +18638,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18661,7 +18664,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18687,7 +18690,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18713,7 +18716,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18739,7 +18742,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18765,7 +18768,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18791,7 +18794,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18817,7 +18820,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18843,7 +18846,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18869,7 +18872,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18895,7 +18898,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18947,7 +18950,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18973,7 +18976,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18999,7 +19002,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19025,7 +19028,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19051,7 +19054,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19077,7 +19080,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19155,7 +19158,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19181,7 +19184,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19207,7 +19210,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19259,7 +19262,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19285,7 +19288,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19311,7 +19314,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19337,7 +19340,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19363,7 +19366,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19415,7 +19418,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19441,7 +19444,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19467,7 +19470,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19519,7 +19522,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19545,7 +19548,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19571,7 +19574,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19623,7 +19626,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19675,7 +19678,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19701,7 +19704,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19727,7 +19730,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19753,7 +19756,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19779,7 +19782,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19805,7 +19808,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19831,7 +19834,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19857,7 +19860,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19883,7 +19886,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19909,7 +19912,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19935,7 +19938,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19961,7 +19964,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20013,7 +20016,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20065,7 +20068,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20117,7 +20120,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20143,7 +20146,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20169,7 +20172,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20195,7 +20198,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20221,7 +20224,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20247,7 +20250,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20273,7 +20276,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20325,7 +20328,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20351,7 +20354,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20377,7 +20380,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20403,7 +20406,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20429,7 +20432,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20455,7 +20458,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20481,7 +20484,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20507,7 +20510,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20533,7 +20536,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20559,7 +20562,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20585,7 +20588,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20611,7 +20614,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20663,7 +20666,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20689,7 +20692,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20741,7 +20744,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20767,7 +20770,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20819,7 +20822,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20845,7 +20848,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20871,7 +20874,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20949,7 +20952,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20975,7 +20978,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21001,7 +21004,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21027,7 +21030,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21053,7 +21056,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21079,7 +21082,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21105,7 +21108,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21131,7 +21134,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21157,7 +21160,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21183,7 +21186,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21209,7 +21212,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21235,7 +21238,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21313,7 +21316,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21339,7 +21342,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21365,7 +21368,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21391,7 +21394,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21417,7 +21420,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21443,7 +21446,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21469,7 +21472,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21495,7 +21498,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21573,7 +21576,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21599,7 +21602,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21625,7 +21628,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21651,7 +21654,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21677,7 +21680,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21703,7 +21706,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21729,7 +21732,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21755,7 +21758,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21781,7 +21784,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21807,7 +21810,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21833,7 +21836,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21859,7 +21862,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21885,7 +21888,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21911,7 +21914,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21937,7 +21940,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21963,7 +21966,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21989,7 +21992,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22015,7 +22018,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22041,7 +22044,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22067,7 +22070,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22093,7 +22096,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22119,7 +22122,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22145,7 +22148,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22171,7 +22174,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22197,7 +22200,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22223,7 +22226,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22249,7 +22252,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22275,7 +22278,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22327,7 +22330,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22353,7 +22356,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22379,7 +22382,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22405,7 +22408,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22431,7 +22434,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22457,7 +22460,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22483,7 +22486,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22535,7 +22538,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22561,7 +22564,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22587,7 +22590,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22639,7 +22642,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22665,7 +22668,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22691,7 +22694,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22717,7 +22720,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22743,7 +22746,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22769,7 +22772,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22795,7 +22798,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22821,7 +22824,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22847,7 +22850,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22873,7 +22876,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22899,7 +22902,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22925,7 +22928,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25551,7 +25554,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26383,7 +26386,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -61127,7 +61130,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6494907407</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>15388</v>
@@ -61148,6 +61151,32 @@
         <v>1399</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6493865741</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>16210</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>119.599998474121</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>117.199996948242</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>119.800003051758</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495969772339</t>
+    <t xml:space="preserve">13.8495979309082</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317251205444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5458002090454</t>
+    <t xml:space="preserve">13.8317260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
     <t xml:space="preserve">13.2330665588379</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437139511108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402900695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777414321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3938999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134832382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347780227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.509313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667230606079</t>
+    <t xml:space="preserve">13.1437149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777423858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3939008712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134813308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347789764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5093126296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667221069336</t>
   </si>
   <si>
     <t xml:space="preserve">13.0722322463989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.000750541687</t>
+    <t xml:space="preserve">13.0007495880127</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8845920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986661911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3127393722534</t>
+    <t xml:space="preserve">12.8845930099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986652374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467668533325</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">12.1519050598145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2412567138672</t>
+    <t xml:space="preserve">12.2412576675415</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2769966125488</t>
+    <t xml:space="preserve">12.2769985198975</t>
   </si>
   <si>
     <t xml:space="preserve">12.3484792709351</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">12.0625514984131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893583297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306083679199</t>
+    <t xml:space="preserve">12.4020900726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306093215942</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773704528809</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">12.9560737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0811681747437</t>
+    <t xml:space="preserve">13.081169128418</t>
   </si>
   <si>
     <t xml:space="preserve">13.456446647644</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3581590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4117708206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0364904403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1794557571411</t>
+    <t xml:space="preserve">13.3581600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.411771774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832525253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.036491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4921884536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688083648682</t>
+    <t xml:space="preserve">13.4921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688064575195</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
@@ -200,25 +200,25 @@
     <t xml:space="preserve">14.0104303359985</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7691793441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602443695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5011234283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.617280960083</t>
+    <t xml:space="preserve">13.7691783905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602434158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.501124382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6172819137573</t>
   </si>
   <si>
     <t xml:space="preserve">13.3849649429321</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2866792678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.920334815979</t>
+    <t xml:space="preserve">13.2866773605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237586975098</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.294867515564</t>
+    <t xml:space="preserve">12.2948684692383</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">12.7148218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.839916229248</t>
+    <t xml:space="preserve">12.8399171829224</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">12.5182495117188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880178451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612119674683</t>
+    <t xml:space="preserve">12.6880168914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863054275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612129211426</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804243087769</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">12.5271854400635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577871322632</t>
+    <t xml:space="preserve">12.8577880859375</t>
   </si>
   <si>
     <t xml:space="preserve">12.4914417266846</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.045428276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526498794556</t>
+    <t xml:space="preserve">13.0454273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526489257812</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131103515625</t>
+    <t xml:space="preserve">12.8131122589111</t>
   </si>
   <si>
     <t xml:space="preserve">13.4743175506592</t>
@@ -320,31 +320,31 @@
     <t xml:space="preserve">13.3224182128906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5994110107422</t>
+    <t xml:space="preserve">13.5994091033936</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.903208732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.028302192688</t>
+    <t xml:space="preserve">13.6708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559530258179</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716115951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757736206055</t>
+    <t xml:space="preserve">13.8716125488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757755279541</t>
   </si>
   <si>
     <t xml:space="preserve">13.9269142150879</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">13.945348739624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8992643356323</t>
+    <t xml:space="preserve">13.9637813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.899263381958</t>
   </si>
   <si>
     <t xml:space="preserve">13.9176979064941</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">13.8808288574219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0006504058838</t>
+    <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
     <t xml:space="preserve">14.0836029052734</t>
@@ -386,22 +386,22 @@
     <t xml:space="preserve">14.1020374298096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2863779067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3508968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126426696777</t>
+    <t xml:space="preserve">14.2863788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3508977890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126407623291</t>
   </si>
   <si>
     <t xml:space="preserve">14.4154176712036</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628881454468</t>
+    <t xml:space="preserve">14.5628890991211</t>
   </si>
   <si>
     <t xml:space="preserve">14.4707183837891</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">14.7380113601685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8394002914429</t>
+    <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
     <t xml:space="preserve">14.9315690994263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9868717193604</t>
+    <t xml:space="preserve">14.9868726730347</t>
   </si>
   <si>
     <t xml:space="preserve">14.7103605270386</t>
@@ -428,16 +428,16 @@
     <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6181917190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670482635498</t>
+    <t xml:space="preserve">14.6181907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670501708984</t>
   </si>
   <si>
     <t xml:space="preserve">14.9684371948242</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0606069564819</t>
+    <t xml:space="preserve">15.0606060028076</t>
   </si>
   <si>
     <t xml:space="preserve">15.0421743392944</t>
@@ -446,25 +446,25 @@
     <t xml:space="preserve">14.9592199325562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9500036239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145235061646</t>
+    <t xml:space="preserve">14.9500017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145225524902</t>
   </si>
   <si>
     <t xml:space="preserve">15.152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0698251724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.023738861084</t>
+    <t xml:space="preserve">15.1343450546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0698261260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039182662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0237398147583</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301820755005</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">14.9960880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9776544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541637420654</t>
+    <t xml:space="preserve">14.9776554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541627883911</t>
   </si>
   <si>
     <t xml:space="preserve">15.3832035064697</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">15.8993558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2772521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219505310059</t>
+    <t xml:space="preserve">16.2772541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297817230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219543457031</t>
   </si>
   <si>
     <t xml:space="preserve">16.1850833892822</t>
@@ -512,46 +512,46 @@
     <t xml:space="preserve">17.116003036499</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4662494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5307674407959</t>
+    <t xml:space="preserve">17.2450389862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556461334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2819080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6874580383301</t>
+    <t xml:space="preserve">17.3556442260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.281909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6874599456787</t>
   </si>
   <si>
     <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5492038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731845855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639682769775</t>
+    <t xml:space="preserve">17.6598052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.549201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731884002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639663696289</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">17.6229419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5676326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266063690186</t>
+    <t xml:space="preserve">17.5676364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266082763672</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173919677734</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">17.0975685119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0606994628906</t>
+    <t xml:space="preserve">17.060697555542</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201641082764</t>
+    <t xml:space="preserve">17.4201622009277</t>
   </si>
   <si>
     <t xml:space="preserve">17.1897392272949</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">17.3740787506104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1436538696289</t>
+    <t xml:space="preserve">17.1436557769775</t>
   </si>
   <si>
     <t xml:space="preserve">17.3832950592041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768547058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7427577972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0100536346436</t>
+    <t xml:space="preserve">17.5768527984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7427597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0100555419922</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575241088867</t>
@@ -614,16 +614,16 @@
     <t xml:space="preserve">18.3879489898682</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3418655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510818481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.20361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644611358643</t>
+    <t xml:space="preserve">18.3418617248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644592285156</t>
   </si>
   <si>
     <t xml:space="preserve">19.1713962554932</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331420898438</t>
+    <t xml:space="preserve">19.0331401824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244186401367</t>
@@ -647,55 +647,55 @@
     <t xml:space="preserve">19.7797203063965</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1023139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0838851928711</t>
+    <t xml:space="preserve">20.10231590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0838813781738</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783351898193</t>
+    <t xml:space="preserve">19.6783332824707</t>
   </si>
   <si>
     <t xml:space="preserve">19.5953807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5585136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3741722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
+    <t xml:space="preserve">19.5585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3741703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
     <t xml:space="preserve">19.5124263763428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9870586395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409713745117</t>
+    <t xml:space="preserve">18.9870548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543506622314</t>
   </si>
   <si>
-    <t xml:space="preserve">19.890323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165874481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617824554443</t>
+    <t xml:space="preserve">19.8903255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165893554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">21.2913150787354</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7521648406982</t>
+    <t xml:space="preserve">21.7521629333496</t>
   </si>
   <si>
     <t xml:space="preserve">21.3373985290527</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">21.4756526947021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0240173339844</t>
+    <t xml:space="preserve">21.0240154266357</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807079315186</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">21.0608882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6369018554688</t>
+    <t xml:space="preserve">20.6369037628174</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304615020752</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1208419799805</t>
+    <t xml:space="preserve">22.1208438873291</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443336486816</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.581693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2176685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3098373413086</t>
+    <t xml:space="preserve">22.5816917419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2176704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3098411560059</t>
   </si>
   <si>
     <t xml:space="preserve">24.1209335327148</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6094360351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910034179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619636535645</t>
+    <t xml:space="preserve">24.6094379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.591007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.240758895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">24.3882293701172</t>
@@ -779,37 +779,37 @@
     <t xml:space="preserve">24.3329257965088</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0287647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.503396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.97802734375</t>
+    <t xml:space="preserve">24.0287628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
     <t xml:space="preserve">23.0425434112549</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2084541320801</t>
+    <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
     <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595890045166</t>
+    <t xml:space="preserve">22.9595909118652</t>
   </si>
   <si>
     <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.673864364624</t>
+    <t xml:space="preserve">22.6738624572754</t>
   </si>
   <si>
     <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8582057952881</t>
+    <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
     <t xml:space="preserve">22.7015151977539</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">22.5632591247559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7936859130859</t>
+    <t xml:space="preserve">22.7936878204346</t>
   </si>
   <si>
     <t xml:space="preserve">23.319055557251</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">22.6830806732178</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8489894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
+    <t xml:space="preserve">22.8489875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070613861084</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347160339355</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">22.7383823394775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.71994972229</t>
+    <t xml:space="preserve">22.7199478149414</t>
   </si>
   <si>
     <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.627779006958</t>
+    <t xml:space="preserve">22.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6923007965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369953155518</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">21.7982482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0378913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5171775817871</t>
+    <t xml:space="preserve">22.0378894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5171737670898</t>
   </si>
   <si>
     <t xml:space="preserve">22.1669273376465</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">22.7291679382324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8674182891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950729370117</t>
+    <t xml:space="preserve">22.8674201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950748443604</t>
   </si>
   <si>
     <t xml:space="preserve">23.116283416748</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623668670654</t>
+    <t xml:space="preserve">23.1623649597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218315124512</t>
@@ -917,28 +917,28 @@
     <t xml:space="preserve">23.7856979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7092304229736</t>
+    <t xml:space="preserve">24.709228515625</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558116912842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217792510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023891448975</t>
+    <t xml:space="preserve">25.3217811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
     <t xml:space="preserve">26.3866691589355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3678207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547340393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2358875274658</t>
+    <t xml:space="preserve">26.3678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2358856201172</t>
   </si>
   <si>
     <t xml:space="preserve">26.584566116333</t>
@@ -947,22 +947,22 @@
     <t xml:space="preserve">26.4620571136475</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5562992095947</t>
+    <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
     <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809055328369</t>
+    <t xml:space="preserve">26.4809074401855</t>
   </si>
   <si>
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
+    <t xml:space="preserve">26.5280265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453136444092</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
@@ -986,43 +986,43 @@
     <t xml:space="preserve">25.9814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898460388184</t>
+    <t xml:space="preserve">25.1898441314697</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">25.51025390625</t>
+    <t xml:space="preserve">25.5102519989014</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7008857727051</t>
+    <t xml:space="preserve">23.7008838653564</t>
   </si>
   <si>
     <t xml:space="preserve">23.4841346740723</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6349182128906</t>
+    <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
     <t xml:space="preserve">23.7480030059814</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5029830932617</t>
+    <t xml:space="preserve">23.5029850006104</t>
   </si>
   <si>
     <t xml:space="preserve">23.2862339019775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1731491088867</t>
+    <t xml:space="preserve">23.1731510162354</t>
   </si>
   <si>
     <t xml:space="preserve">22.9940948486328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2296924591064</t>
+    <t xml:space="preserve">23.2296905517578</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035190582275</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">22.8150444030762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0883350372314</t>
+    <t xml:space="preserve">23.0883331298828</t>
   </si>
   <si>
     <t xml:space="preserve">23.6254901885986</t>
@@ -1043,70 +1043,70 @@
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040065765381</t>
+    <t xml:space="preserve">24.3040046691895</t>
   </si>
   <si>
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.493558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3804702758789</t>
+    <t xml:space="preserve">23.6537647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3804721832275</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919975280762</t>
+    <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113315582275</t>
+    <t xml:space="preserve">24.2663097381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113334655762</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5961418151855</t>
+    <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
     <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9259777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6903839111328</t>
+    <t xml:space="preserve">24.9259796142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6903858184814</t>
   </si>
   <si>
     <t xml:space="preserve">25.1615715026855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7270011901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8683567047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0097179412842</t>
+    <t xml:space="preserve">26.4337863922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981945037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741203308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7270030975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8683586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
@@ -1121,22 +1121,22 @@
     <t xml:space="preserve">24.1720714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490226745605</t>
+    <t xml:space="preserve">24.5490245819092</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788585662842</t>
+    <t xml:space="preserve">24.8788566589355</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029308319092</t>
+    <t xml:space="preserve">24.8317413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029327392578</t>
   </si>
   <si>
     <t xml:space="preserve">25.2086925506592</t>
@@ -1157,46 +1157,46 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751457214355</t>
+    <t xml:space="preserve">26.5751476287842</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992141723633</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1771907806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6955032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3290500640869</t>
+    <t xml:space="preserve">28.1771926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6955013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3290481567383</t>
   </si>
   <si>
     <t xml:space="preserve">27.0934524536133</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5856437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673370361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520988464355</t>
+    <t xml:space="preserve">25.5856456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673351287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520969390869</t>
   </si>
   <si>
     <t xml:space="preserve">27.1876926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107395172119</t>
+    <t xml:space="preserve">27.0463333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107376098633</t>
   </si>
   <si>
     <t xml:space="preserve">26.9049758911133</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944797515869</t>
+    <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0829524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405754089355</t>
+    <t xml:space="preserve">28.082950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
     <t xml:space="preserve">27.4232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7060012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704055786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599075317383</t>
+    <t xml:space="preserve">27.7059993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599056243896</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">29.2138118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5541439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4494075775146</t>
+    <t xml:space="preserve">28.554141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.449405670166</t>
   </si>
   <si>
     <t xml:space="preserve">28.7897396087646</t>
@@ -1250,25 +1250,25 @@
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7426204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6588840484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5646438598633</t>
+    <t xml:space="preserve">28.7426223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6588821411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5646419525146</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531204223633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2819328308105</t>
+    <t xml:space="preserve">27.2819309234619</t>
   </si>
   <si>
     <t xml:space="preserve">27.3761672973633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6222629547119</t>
+    <t xml:space="preserve">26.6222648620605</t>
   </si>
   <si>
     <t xml:space="preserve">28.2714309692383</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">26.7626037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6663379669189</t>
+    <t xml:space="preserve">26.6663360595703</t>
   </si>
   <si>
     <t xml:space="preserve">27.0514106750488</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961906433105</t>
+    <t xml:space="preserve">26.2812633514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7036533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961887359619</t>
   </si>
   <si>
     <t xml:space="preserve">25.462984085083</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">25.0297737121582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9335060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521656036377</t>
+    <t xml:space="preserve">24.9335041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521636962891</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044063568115</t>
+    <t xml:space="preserve">23.1044082641602</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9118690490723</t>
+    <t xml:space="preserve">22.9118671417236</t>
   </si>
   <si>
     <t xml:space="preserve">22.671199798584</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600048065186</t>
+    <t xml:space="preserve">22.9600067138672</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
@@ -1352,28 +1352,28 @@
     <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932132720947</t>
+    <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189590454102</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0562744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6230640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603832244873</t>
+    <t xml:space="preserve">23.0562725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6230659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603813171387</t>
   </si>
   <si>
     <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5641117095947</t>
+    <t xml:space="preserve">21.5641136169434</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234405517578</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">21.9491863250732</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7674694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379932403564</t>
+    <t xml:space="preserve">22.7674655914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379913330078</t>
   </si>
   <si>
     <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0454521179199</t>
+    <t xml:space="preserve">22.0454540252686</t>
   </si>
   <si>
     <t xml:space="preserve">21.9973220825195</t>
@@ -1403,16 +1403,16 @@
     <t xml:space="preserve">21.8047828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">21.708517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3450775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2969455718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0670890808105</t>
+    <t xml:space="preserve">21.7085151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3450794219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2969436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0670909881592</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633586883545</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.548433303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8372364044189</t>
+    <t xml:space="preserve">24.5484352111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8372383117676</t>
   </si>
   <si>
     <t xml:space="preserve">24.692834854126</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741790771484</t>
+    <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223110198975</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">25.1260452270508</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3185768127441</t>
+    <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
     <t xml:space="preserve">25.511116027832</t>
@@ -1469,22 +1469,22 @@
     <t xml:space="preserve">26.8588752746582</t>
   </si>
   <si>
-    <t xml:space="preserve">27.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808868408203</t>
+    <t xml:space="preserve">27.5327529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808849334717</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402156829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8696918487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0622272491455</t>
+    <t xml:space="preserve">27.3402137756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8696899414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
@@ -1496,22 +1496,22 @@
     <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2920818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2439441680908</t>
+    <t xml:space="preserve">27.2920799255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
     <t xml:space="preserve">27.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">26.570068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.714469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182041168213</t>
+    <t xml:space="preserve">26.5700702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7144718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148483276367</t>
+    <t xml:space="preserve">25.4148464202881</t>
   </si>
   <si>
     <t xml:space="preserve">24.9816417694092</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">27.484619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">27.629020690918</t>
+    <t xml:space="preserve">27.6290225982666</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1584949493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3028984069824</t>
+    <t xml:space="preserve">28.1584968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3029003143311</t>
   </si>
   <si>
     <t xml:space="preserve">28.7361068725586</t>
@@ -1565,25 +1565,25 @@
     <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3618507385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.554386138916</t>
+    <t xml:space="preserve">29.361852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5543880462646</t>
   </si>
   <si>
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208030700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0465488433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2017669677734</t>
+    <t xml:space="preserve">30.4208011627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0465450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
     <t xml:space="preserve">32.3943061828613</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">33.2125816345215</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2234039306641</t>
+    <t xml:space="preserve">34.2234001159668</t>
   </si>
   <si>
     <t xml:space="preserve">34.4159393310547</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">34.0308685302734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3196678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.656608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827308654785</t>
+    <t xml:space="preserve">34.3196754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6566123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827346801758</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">33.3088531494141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0200500488281</t>
+    <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
     <t xml:space="preserve">32.6349754333496</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573654174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5760231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353538513184</t>
+    <t xml:space="preserve">32.0573616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
     <t xml:space="preserve">31.2872200012207</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5278854370117</t>
+    <t xml:space="preserve">31.5278873443604</t>
   </si>
   <si>
     <t xml:space="preserve">31.8648281097412</t>
   </si>
   <si>
-    <t xml:space="preserve">32.586841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7312393188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4424438476562</t>
+    <t xml:space="preserve">32.5868377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7312431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.442440032959</t>
   </si>
   <si>
     <t xml:space="preserve">34.7528800964355</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.400260925293</t>
+    <t xml:space="preserve">37.4002532958984</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927963256836</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">37.9778709411621</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.927921295166</t>
+    <t xml:space="preserve">38.5073432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9279174804688</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">38.1943550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6344985961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0257301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">38.6344947814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0257339477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">39.710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6125869750977</t>
+    <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7592964172363</t>
+    <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
     <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1235427856445</t>
+    <t xml:space="preserve">39.1235389709473</t>
   </si>
   <si>
     <t xml:space="preserve">39.4169654846191</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483406066895</t>
+    <t xml:space="preserve">40.2483444213867</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">40.7862892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067085266113</t>
+    <t xml:space="preserve">42.1067123413086</t>
   </si>
   <si>
     <t xml:space="preserve">43.0358924865723</t>
@@ -1787,28 +1787,28 @@
     <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5957527160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139846801758</t>
+    <t xml:space="preserve">42.5957565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0139808654785</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2365951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7745399475098</t>
+    <t xml:space="preserve">45.2365989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.774543762207</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">44.6008377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">44.160701751709</t>
+    <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781288146973</t>
+    <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
+    <t xml:space="preserve">50.664981842041</t>
   </si>
   <si>
     <t xml:space="preserve">51.7408866882324</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102066040039</t>
+    <t xml:space="preserve">53.1102027893066</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">49.4912757873535</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3934707641602</t>
+    <t xml:space="preserve">49.3934745788574</t>
   </si>
   <si>
     <t xml:space="preserve">51.1540298461914</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">52.5233535766602</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0343132019043</t>
+    <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
     <t xml:space="preserve">50.9584083557129</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970596313477</t>
+    <t xml:space="preserve">53.6970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">54.4795341491699</t>
   </si>
   <si>
-    <t xml:space="preserve">53.599250793457</t>
+    <t xml:space="preserve">53.5992469787598</t>
   </si>
   <si>
     <t xml:space="preserve">48.4153823852539</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.970157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.551929473877</t>
+    <t xml:space="preserve">45.9701614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5519332885742</t>
   </si>
   <si>
     <t xml:space="preserve">42.6935653686523</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
+    <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1961,10 +1961,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.787878036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.7878799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0914649963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3089981079102</t>
+    <t xml:space="preserve">36.0914688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009323120117</t>
+    <t xml:space="preserve">37.9009284973145</t>
   </si>
   <si>
     <t xml:space="preserve">38.0476455688477</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8840980529785</t>
+    <t xml:space="preserve">41.3242378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8841018676758</t>
   </si>
   <si>
     <t xml:space="preserve">45.7256393432617</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4592056274414</t>
+    <t xml:space="preserve">46.4592094421387</t>
   </si>
   <si>
     <t xml:space="preserve">46.0679664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8723564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3124885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1657791137695</t>
+    <t xml:space="preserve">45.8723526000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3124923706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1657752990723</t>
   </si>
   <si>
     <t xml:space="preserve">45.1876907348633</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
+    <t xml:space="preserve">42.7913703918457</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0190658569336</t>
+    <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
@@ -2063,19 +2063,19 @@
     <t xml:space="preserve">48.7577133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7847099304199</t>
+    <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5890846252441</t>
+    <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
     <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3277359008789</t>
+    <t xml:space="preserve">52.3277397155762</t>
   </si>
   <si>
     <t xml:space="preserve">52.9145889282227</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">55.8488578796387</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0444717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6313247680664</t>
+    <t xml:space="preserve">56.0444679260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
     <t xml:space="preserve">58.0006484985352</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
-    <t xml:space="preserve">59.2721672058105</t>
+    <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
     <t xml:space="preserve">60.1524429321289</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">64.8472747802734</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6735649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494659423828</t>
+    <t xml:space="preserve">63.6735610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494583129883</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1727752685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8034515380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4661865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6618118286133</t>
+    <t xml:space="preserve">68.1727676391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8034439086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.466194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6618041992188</t>
   </si>
   <si>
     <t xml:space="preserve">67.9771499633789</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7158050537109</t>
+    <t xml:space="preserve">70.7158126831055</t>
   </si>
   <si>
     <t xml:space="preserve">72.8675994873047</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">72.1829299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3566436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500625610352</t>
+    <t xml:space="preserve">72.1829376220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.3566360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500701904297</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741653442383</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2048416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2470855712891</t>
+    <t xml:space="preserve">71.2048492431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
     <t xml:space="preserve">79.420783996582</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">80.0076446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">79.5185928344727</t>
+    <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
     <t xml:space="preserve">81.1813507080078</t>
@@ -2276,16 +2276,16 @@
     <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353286743164</t>
+    <t xml:space="preserve">84.2134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353363037109</t>
   </si>
   <si>
     <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462844848633</t>
+    <t xml:space="preserve">85.1915130615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462921142578</t>
   </si>
   <si>
     <t xml:space="preserve">84.6046600341797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1156158447266</t>
+    <t xml:space="preserve">84.115608215332</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361297607422</t>
@@ -2312,25 +2312,25 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791595458984</t>
+    <t xml:space="preserve">78.4427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791519165039</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3112258911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1594390869141</t>
+    <t xml:space="preserve">84.3112335205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1594314575195</t>
   </si>
   <si>
     <t xml:space="preserve">80.3988723754883</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">80.203254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608367919922</t>
+    <t xml:space="preserve">86.5608291625977</t>
   </si>
   <si>
     <t xml:space="preserve">87.245491027832</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">84.8980865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">87.8323593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1038589477539</t>
+    <t xml:space="preserve">87.8323516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
     <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">90.2775802612305</t>
+    <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
     <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9184112548828</t>
+    <t xml:space="preserve">92.9184188842773</t>
   </si>
   <si>
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
+    <t xml:space="preserve">95.1680145263672</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">100.156257629395</t>
+    <t xml:space="preserve">100.156265258789</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088455200195</t>
+    <t xml:space="preserve">97.8088531494141</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
@@ -2414,31 +2414,31 @@
     <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1781692504883</t>
+    <t xml:space="preserve">99.1781768798828</t>
   </si>
   <si>
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.146110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4614410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548675537109</t>
+    <t xml:space="preserve">96.1461029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4614334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548599243164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">95.3636245727539</t>
+    <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
     <t xml:space="preserve">94.7767791748047</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.198501586914</t>
+    <t xml:space="preserve">103.677383422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.19849395752</t>
   </si>
   <si>
     <t xml:space="preserve">106.807266235352</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088943481445</t>
+    <t xml:space="preserve">112.088935852051</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937156677246</t>
+    <t xml:space="preserve">109.937149047852</t>
   </si>
   <si>
     <t xml:space="preserve">111.893325805664</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">108.176597595215</t>
+    <t xml:space="preserve">108.17658996582</t>
   </si>
   <si>
     <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
-    <t xml:space="preserve">104.655471801758</t>
+    <t xml:space="preserve">104.655479431152</t>
   </si>
   <si>
     <t xml:space="preserve">105.437950134277</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220413208008</t>
+    <t xml:space="preserve">106.220405578613</t>
   </si>
   <si>
     <t xml:space="preserve">108.76343536377</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">111.502090454102</t>
   </si>
   <si>
-    <t xml:space="preserve">113.262649536133</t>
+    <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
     <t xml:space="preserve">116.196922302246</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545906066895</t>
+    <t xml:space="preserve">109.545913696289</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
-    <t xml:space="preserve">115.414436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.284561157227</t>
+    <t xml:space="preserve">115.414443969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.284568786621</t>
   </si>
   <si>
     <t xml:space="preserve">112.871421813965</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805686950684</t>
+    <t xml:space="preserve">115.805679321289</t>
   </si>
   <si>
     <t xml:space="preserve">115.21883392334</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">117.566246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153091430664</t>
+    <t xml:space="preserve">118.153099060059</t>
   </si>
   <si>
     <t xml:space="preserve">117.761856079102</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.13117980957</t>
+    <t xml:space="preserve">119.131187438965</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847915649414</t>
+    <t xml:space="preserve">122.847923278809</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">126.369033813477</t>
   </si>
   <si>
-    <t xml:space="preserve">134.389373779297</t>
+    <t xml:space="preserve">134.389358520508</t>
   </si>
   <si>
     <t xml:space="preserve">130.08576965332</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563064575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.367446899414</t>
+    <t xml:space="preserve">135.563079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.367431640625</t>
   </si>
   <si>
     <t xml:space="preserve">137.91047668457</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">139.279800415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.844741821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.235992431641</t>
+    <t xml:space="preserve">139.27978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.844757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
     <t xml:space="preserve">140.062271118164</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.47541809082</t>
+    <t xml:space="preserve">139.475433349609</t>
   </si>
   <si>
     <t xml:space="preserve">141.822830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">142.409683227539</t>
+    <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2699,13 +2699,13 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691375732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
+    <t xml:space="preserve">147.691360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300140380859</t>
   </si>
   <si>
     <t xml:space="preserve">145.343963623047</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
-    <t xml:space="preserve">151.212478637695</t>
+    <t xml:space="preserve">151.212493896484</t>
   </si>
   <si>
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038772583008</t>
+    <t xml:space="preserve">150.038787841797</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
@@ -2741,22 +2741,22 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711685180664</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711669921875</t>
   </si>
   <si>
     <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">154.537994384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.384613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">154.537979125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.38459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.558303833008</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">163.145156860352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.905731201172</t>
+    <t xml:space="preserve">164.905746459961</t>
   </si>
   <si>
     <t xml:space="preserve">165.101333618164</t>
@@ -2786,16 +2786,16 @@
     <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">168.818099975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.752365112305</t>
+    <t xml:space="preserve">168.818084716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
   </si>
   <si>
-    <t xml:space="preserve">164.318878173828</t>
+    <t xml:space="preserve">164.318862915039</t>
   </si>
   <si>
     <t xml:space="preserve">165.688186645508</t>
@@ -61182,7 +61182,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6494560185</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>7080</v>
@@ -61203,6 +61203,32 @@
         <v>1460</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6494791667</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>16991</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>120.599998474121</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>118.400001525879</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>118.699996948242</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>118.699996948242</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,142 +38,142 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495979309082</t>
+    <t xml:space="preserve">13.8495969772339</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317260742188</t>
+    <t xml:space="preserve">13.8317270278931</t>
   </si>
   <si>
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330665588379</t>
+    <t xml:space="preserve">13.2330675125122</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402891159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777423858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241325378418</t>
+    <t xml:space="preserve">13.1437139511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402900695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777414321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241306304932</t>
   </si>
   <si>
     <t xml:space="preserve">13.3939008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3134813308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1347789764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5093126296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0007495880127</t>
+    <t xml:space="preserve">13.3134841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1347780227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.509313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667211532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8845930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986652374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3127384185791</t>
+    <t xml:space="preserve">12.8845920562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986661911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467668533325</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4110269546509</t>
+    <t xml:space="preserve">12.4110260009766</t>
   </si>
   <si>
     <t xml:space="preserve">11.1690292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7051448822021</t>
+    <t xml:space="preserve">11.2226419448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157922744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7051429748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752841949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1519050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412576675415</t>
+    <t xml:space="preserve">12.3752861022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1519041061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412567138672</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2769985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484792709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625514984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893573760986</t>
+    <t xml:space="preserve">12.2769975662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625524520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893583297729</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306093215942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7773704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.081169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456446647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.411771774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832525253296</t>
+    <t xml:space="preserve">12.7773694992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.956075668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564485549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475126266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581590652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4117708206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832534790039</t>
   </si>
   <si>
     <t xml:space="preserve">13.036491394043</t>
@@ -182,34 +182,34 @@
     <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1883907318115</t>
+    <t xml:space="preserve">13.1883916854858</t>
   </si>
   <si>
     <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688064575195</t>
+    <t xml:space="preserve">13.4921884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688083648682</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104303359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691783905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602434158325</t>
+    <t xml:space="preserve">14.0104312896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691793441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
     <t xml:space="preserve">13.501124382019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6172819137573</t>
+    <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.3849649429321</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">13.2866773605347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9203338623047</t>
+    <t xml:space="preserve">12.9203329086304</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237586975098</t>
@@ -227,28 +227,28 @@
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2948684692383</t>
+    <t xml:space="preserve">12.294867515564</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8399171829224</t>
+    <t xml:space="preserve">12.7148237228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.839916229248</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.91139793396</t>
+    <t xml:space="preserve">12.9113969802856</t>
   </si>
   <si>
     <t xml:space="preserve">12.6433410644531</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0543622970581</t>
+    <t xml:space="preserve">13.0543603897095</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058887481689</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4646368026733</t>
+    <t xml:space="preserve">12.4646377563477</t>
   </si>
   <si>
     <t xml:space="preserve">12.5182495117188</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">12.6880168914795</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863054275513</t>
+    <t xml:space="preserve">12.7863063812256</t>
   </si>
   <si>
     <t xml:space="preserve">12.6612129211426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0804243087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072282791138</t>
+    <t xml:space="preserve">12.0804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072273254395</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271854400635</t>
@@ -284,79 +284,79 @@
     <t xml:space="preserve">12.8577880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4914417266846</t>
+    <t xml:space="preserve">12.4914436340332</t>
   </si>
   <si>
     <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0632972717285</t>
+    <t xml:space="preserve">13.0632982254028</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096864700317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.161584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0901031494141</t>
+    <t xml:space="preserve">13.1615839004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0901041030884</t>
   </si>
   <si>
     <t xml:space="preserve">13.0454273223877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1526489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1169090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743175506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994091033936</t>
+    <t xml:space="preserve">13.1526498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1169099807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994110107422</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708936691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.992561340332</t>
+    <t xml:space="preserve">13.6708927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.903208732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9925594329834</t>
   </si>
   <si>
     <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0559530258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716125488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757755279541</t>
+    <t xml:space="preserve">14.0559520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757745742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.945348739624</t>
+    <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
     <t xml:space="preserve">13.9637813568115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.899263381958</t>
+    <t xml:space="preserve">13.8992643356323</t>
   </si>
   <si>
     <t xml:space="preserve">13.9176979064941</t>
@@ -371,34 +371,34 @@
     <t xml:space="preserve">13.6411867141724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808288574219</t>
+    <t xml:space="preserve">13.8808298110962</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836029052734</t>
+    <t xml:space="preserve">14.0836038589478</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729986190796</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020374298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2863788604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3508977890015</t>
+    <t xml:space="preserve">14.1020383834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2863779067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232450485229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2126407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4154176712036</t>
+    <t xml:space="preserve">14.2126417160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4154167175293</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628890991211</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">14.682710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7380113601685</t>
+    <t xml:space="preserve">14.7380104064941</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315690994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9868726730347</t>
+    <t xml:space="preserve">14.9315700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
   </si>
   <si>
     <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181907653809</t>
+    <t xml:space="preserve">14.6274080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181898117065</t>
   </si>
   <si>
     <t xml:space="preserve">14.8670501708984</t>
@@ -437,118 +437,118 @@
     <t xml:space="preserve">14.9684371948242</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0606060028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421743392944</t>
+    <t xml:space="preserve">15.0606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421724319458</t>
   </si>
   <si>
     <t xml:space="preserve">14.9592199325562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9500017166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145225524902</t>
+    <t xml:space="preserve">14.9500026702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
     <t xml:space="preserve">15.152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343450546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0698261260986</t>
+    <t xml:space="preserve">15.1343441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
     <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237398147583</t>
+    <t xml:space="preserve">15.023738861084</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301820755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776554107666</t>
+    <t xml:space="preserve">14.9960889816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776544570923</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541627883911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.715015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
+    <t xml:space="preserve">15.383204460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.549111366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150135040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993577957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772521972656</t>
   </si>
   <si>
     <t xml:space="preserve">16.1297817230225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2219543457031</t>
+    <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
     <t xml:space="preserve">16.1850833892822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0560455322266</t>
+    <t xml:space="preserve">16.0560436248779</t>
   </si>
   <si>
     <t xml:space="preserve">16.3049049377441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.116003036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2450389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5307693481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6045055389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556442260742</t>
+    <t xml:space="preserve">17.1160011291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2450408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4662494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556461334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.410945892334</t>
+    <t xml:space="preserve">17.6874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4109477996826</t>
   </si>
   <si>
     <t xml:space="preserve">17.6598052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8625793457031</t>
+    <t xml:space="preserve">17.8625812530518</t>
   </si>
   <si>
     <t xml:space="preserve">17.7058887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.549201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731884002686</t>
+    <t xml:space="preserve">17.5492038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731845855713</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639663696289</t>
@@ -557,46 +557,46 @@
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5676364898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2173919677734</t>
+    <t xml:space="preserve">17.6229381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5676345825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2173900604248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975685119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060697555542</t>
+    <t xml:space="preserve">17.0975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0606994628906</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201622009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1897392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3740787506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768527984619</t>
+    <t xml:space="preserve">17.4201641082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1897373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.374080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436519622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
@@ -608,28 +608,28 @@
     <t xml:space="preserve">18.1575241088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418617248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2036094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2635669708252</t>
+    <t xml:space="preserve">18.4063854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418655395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713943481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2635688781738</t>
   </si>
   <si>
     <t xml:space="preserve">19.3557376861572</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">19.7797203063965</t>
   </si>
   <si>
-    <t xml:space="preserve">20.10231590271</t>
+    <t xml:space="preserve">20.1023139953613</t>
   </si>
   <si>
     <t xml:space="preserve">20.0838813781738</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783332824707</t>
+    <t xml:space="preserve">19.6783351898193</t>
   </si>
   <si>
     <t xml:space="preserve">19.5953807830811</t>
@@ -665,70 +665,70 @@
     <t xml:space="preserve">19.5585117340088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3741703033447</t>
+    <t xml:space="preserve">19.6230316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3741722106934</t>
   </si>
   <si>
     <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5124263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870548248291</t>
+    <t xml:space="preserve">19.5124244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870586395264</t>
   </si>
   <si>
     <t xml:space="preserve">18.5999412536621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409732818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543506622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8903255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
+    <t xml:space="preserve">18.9409713745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165874481201</t>
   </si>
   <si>
     <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8120269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2913150787354</t>
+    <t xml:space="preserve">20.8120288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2913112640381</t>
   </si>
   <si>
     <t xml:space="preserve">21.7521629333496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3926963806152</t>
+    <t xml:space="preserve">21.3373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678215026855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4756526947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0240154266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0608882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369037628174</t>
+    <t xml:space="preserve">21.4756507873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.024019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807060241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0608863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304615020752</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1208438873291</t>
+    <t xml:space="preserve">22.1208419799805</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443336486816</t>
@@ -746,67 +746,67 @@
     <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5816917419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2176704406738</t>
+    <t xml:space="preserve">22.581693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2176666259766</t>
   </si>
   <si>
     <t xml:space="preserve">23.3098411560059</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1209335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.591007232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.240758895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619674682617</t>
+    <t xml:space="preserve">24.1209354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5910053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619655609131</t>
   </si>
   <si>
     <t xml:space="preserve">24.3882293701172</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3329257965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287628173828</t>
+    <t xml:space="preserve">24.3329296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287666320801</t>
   </si>
   <si>
     <t xml:space="preserve">23.5033950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9780254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425434112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084522247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9503746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595909118652</t>
+    <t xml:space="preserve">22.97802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425453186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084503173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9503765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595928192139</t>
   </si>
   <si>
     <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6738624572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268867492676</t>
+    <t xml:space="preserve">22.673864364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268848419189</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582038879395</t>
@@ -818,19 +818,19 @@
     <t xml:space="preserve">21.9641551971436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4065704345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604831695557</t>
+    <t xml:space="preserve">22.4065723419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604869842529</t>
   </si>
   <si>
     <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632591247559</t>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936878204346</t>
@@ -839,70 +839,70 @@
     <t xml:space="preserve">23.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8121185302734</t>
+    <t xml:space="preserve">22.8121204376221</t>
   </si>
   <si>
     <t xml:space="preserve">22.6830806732178</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8489875793457</t>
+    <t xml:space="preserve">22.848991394043</t>
   </si>
   <si>
     <t xml:space="preserve">23.0241088867188</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1070613861084</t>
+    <t xml:space="preserve">23.107063293457</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7383823394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7199478149414</t>
+    <t xml:space="preserve">22.7383842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
     <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6923007965088</t>
+    <t xml:space="preserve">22.5724754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
     <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6369953155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0747585296631</t>
+    <t xml:space="preserve">22.6369934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0747566223145</t>
   </si>
   <si>
     <t xml:space="preserve">21.7982482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0378894805908</t>
+    <t xml:space="preserve">22.0378875732422</t>
   </si>
   <si>
     <t xml:space="preserve">22.5171737670898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1669273376465</t>
+    <t xml:space="preserve">22.1669292449951</t>
   </si>
   <si>
     <t xml:space="preserve">22.7291679382324</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8674201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.116283416748</t>
+    <t xml:space="preserve">22.8674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
     <t xml:space="preserve">23.1623649597168</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">23.7856979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.709228515625</t>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558116912842</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">26.3866691589355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3678188323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2358856201172</t>
+    <t xml:space="preserve">26.3678207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547340393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
     <t xml:space="preserve">26.584566116333</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809074401855</t>
+    <t xml:space="preserve">26.4809055328369</t>
   </si>
   <si>
     <t xml:space="preserve">26.3772449493408</t>
@@ -968,31 +968,31 @@
     <t xml:space="preserve">26.2264633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6327648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212394714355</t>
+    <t xml:space="preserve">25.6327629089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212375640869</t>
   </si>
   <si>
     <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500499725342</t>
+    <t xml:space="preserve">25.3500480651855</t>
   </si>
   <si>
     <t xml:space="preserve">25.9814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898441314697</t>
+    <t xml:space="preserve">25.1898460388184</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5102519989014</t>
+    <t xml:space="preserve">25.51025390625</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442882537842</t>
@@ -1001,43 +1001,43 @@
     <t xml:space="preserve">23.7008838653564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
+    <t xml:space="preserve">23.4841365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6349182128906</t>
   </si>
   <si>
     <t xml:space="preserve">23.7480030059814</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5029850006104</t>
+    <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
     <t xml:space="preserve">23.2862339019775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1731510162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9940948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2296905517578</t>
+    <t xml:space="preserve">23.1731491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9940967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2296943664551</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035190582275</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0883331298828</t>
+    <t xml:space="preserve">22.8150424957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
     <t xml:space="preserve">23.6254901885986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4181690216064</t>
+    <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
     <t xml:space="preserve">23.9176292419434</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4935569763184</t>
+    <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
     <t xml:space="preserve">23.3804721832275</t>
@@ -1061,16 +1061,16 @@
     <t xml:space="preserve">23.2391166687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919956207275</t>
+    <t xml:space="preserve">23.1919975280762</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663097381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113334655762</t>
+    <t xml:space="preserve">24.2663116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113315582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9259796142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6903858184814</t>
+    <t xml:space="preserve">24.9259777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6903839111328</t>
   </si>
   <si>
     <t xml:space="preserve">25.1615715026855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981945037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741203308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7270030975342</t>
+    <t xml:space="preserve">26.4337844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
     <t xml:space="preserve">25.8683586120605</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788566589355</t>
+    <t xml:space="preserve">24.8788585662842</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317413330078</t>
+    <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3029327392578</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2924308776855</t>
+    <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
     <t xml:space="preserve">25.1144523620605</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992141723633</t>
+    <t xml:space="preserve">26.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992160797119</t>
   </si>
   <si>
     <t xml:space="preserve">28.1771926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3656692504883</t>
+    <t xml:space="preserve">28.3656673431396</t>
   </si>
   <si>
     <t xml:space="preserve">28.6955013275146</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">27.0934524536133</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5856456756592</t>
+    <t xml:space="preserve">25.5856437683105</t>
   </si>
   <si>
     <t xml:space="preserve">25.0673351287842</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">27.1876926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107376098633</t>
+    <t xml:space="preserve">27.0463352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
     <t xml:space="preserve">26.9049758911133</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">26.8578586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944778442383</t>
+    <t xml:space="preserve">27.8944797515869</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.082950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7059993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599056243896</t>
+    <t xml:space="preserve">28.0829524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405754089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7060012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599075317383</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
@@ -1238,40 +1238,40 @@
     <t xml:space="preserve">29.2138118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">28.554141998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.449405670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7897396087646</t>
+    <t xml:space="preserve">28.5541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4494075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7897415161133</t>
   </si>
   <si>
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7426223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6588821411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531204223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2819309234619</t>
+    <t xml:space="preserve">28.7426204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6588840484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5646438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2819328308105</t>
   </si>
   <si>
     <t xml:space="preserve">27.3761672973633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6222648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714309692383</t>
+    <t xml:space="preserve">26.6222629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714290618896</t>
   </si>
   <si>
     <t xml:space="preserve">27.5175266265869</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">26.6663360595703</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0514106750488</t>
+    <t xml:space="preserve">27.0514125823975</t>
   </si>
   <si>
     <t xml:space="preserve">26.3775310516357</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">26.2812633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036533355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961887359619</t>
+    <t xml:space="preserve">25.7036552429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.462984085083</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">25.0297737121582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9335041046143</t>
+    <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
     <t xml:space="preserve">24.4521636962891</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">23.0081386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9118671417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.671199798584</t>
+    <t xml:space="preserve">22.9118690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6711978912354</t>
   </si>
   <si>
     <t xml:space="preserve">22.5267963409424</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600067138672</t>
+    <t xml:space="preserve">22.9600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
@@ -1352,28 +1352,28 @@
     <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932113647461</t>
+    <t xml:space="preserve">23.3932132720947</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189590454102</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0562725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6230659484863</t>
+    <t xml:space="preserve">23.0562744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6230640411377</t>
   </si>
   <si>
     <t xml:space="preserve">22.1417236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6603813171387</t>
+    <t xml:space="preserve">21.6603832244873</t>
   </si>
   <si>
     <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5641136169434</t>
+    <t xml:space="preserve">21.5641117095947</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234405517578</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674655914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305286407471</t>
+    <t xml:space="preserve">21.9491882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674674987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305267333984</t>
   </si>
   <si>
     <t xml:space="preserve">22.0454540252686</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">21.8047828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7085151672363</t>
+    <t xml:space="preserve">21.708517074585</t>
   </si>
   <si>
     <t xml:space="preserve">23.3450794219971</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0670909881592</t>
+    <t xml:space="preserve">24.0670890808105</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2596282958984</t>
+    <t xml:space="preserve">24.2596302032471</t>
   </si>
   <si>
     <t xml:space="preserve">24.2114944458008</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5484352111816</t>
+    <t xml:space="preserve">24.548433303833</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891025543213</t>
+    <t xml:space="preserve">24.7891044616699</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.511116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4737987518311</t>
+    <t xml:space="preserve">25.5111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4738006591797</t>
   </si>
   <si>
     <t xml:space="preserve">26.3293991088867</t>
@@ -1466,28 +1466,28 @@
     <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8588752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5327529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808849334717</t>
+    <t xml:space="preserve">26.8588733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808868408203</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8696899414062</t>
+    <t xml:space="preserve">27.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8696918487549</t>
   </si>
   <si>
     <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1103630065918</t>
+    <t xml:space="preserve">28.1103610992432</t>
   </si>
   <si>
     <t xml:space="preserve">27.9178256988525</t>
@@ -1499,19 +1499,19 @@
     <t xml:space="preserve">27.2920799255371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2439460754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1958141326904</t>
+    <t xml:space="preserve">27.2439441680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
     <t xml:space="preserve">26.5700702667236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144718170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182022094727</t>
+    <t xml:space="preserve">26.714469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6182041168213</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816417694092</t>
+    <t xml:space="preserve">25.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551410675049</t>
+    <t xml:space="preserve">26.9551391601562</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">27.484619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6290225982666</t>
+    <t xml:space="preserve">27.629020690918</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
@@ -1556,31 +1556,31 @@
     <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3029003143311</t>
+    <t xml:space="preserve">28.3028984069824</t>
   </si>
   <si>
     <t xml:space="preserve">28.7361068725586</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0249099731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.361852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5543880462646</t>
+    <t xml:space="preserve">29.0249118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3618507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.554386138916</t>
   </si>
   <si>
     <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208011627197</t>
+    <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465450286865</t>
+    <t xml:space="preserve">31.0465488433838</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
@@ -1592,34 +1592,34 @@
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2125816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2234001159668</t>
+    <t xml:space="preserve">33.2125854492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
     <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6566123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9827346801758</t>
+    <t xml:space="preserve">34.0308647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3196716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.656608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8864631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7901916503906</t>
+    <t xml:space="preserve">33.8864669799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7901954650879</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
@@ -1634,28 +1634,28 @@
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.576021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353519439697</t>
+    <t xml:space="preserve">32.0573654174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5760231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204284667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353538513184</t>
   </si>
   <si>
     <t xml:space="preserve">31.2872200012207</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9610977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722927093506</t>
+    <t xml:space="preserve">31.9610958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6722946166992</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">31.5278873443604</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8648281097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5868377685547</t>
+    <t xml:space="preserve">31.8648319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.586841583252</t>
   </si>
   <si>
     <t xml:space="preserve">32.7312431335449</t>
@@ -1679,25 +1679,25 @@
     <t xml:space="preserve">34.7528800964355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2342224121094</t>
+    <t xml:space="preserve">35.2342185974121</t>
   </si>
   <si>
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4002532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927963256836</t>
+    <t xml:space="preserve">37.4002571105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927925109863</t>
   </si>
   <si>
     <t xml:space="preserve">37.9778709411621</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9279174804688</t>
+    <t xml:space="preserve">38.5073471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.927921295166</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">38.1943550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6344947814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0257339477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2213516235352</t>
+    <t xml:space="preserve">38.6344985961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0257301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2213478088379</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">39.710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6125831604004</t>
+    <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7593002319336</t>
+    <t xml:space="preserve">39.7592964172363</t>
   </si>
   <si>
     <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1235389709473</t>
+    <t xml:space="preserve">39.1235427856445</t>
   </si>
   <si>
     <t xml:space="preserve">39.4169654846191</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483444213867</t>
+    <t xml:space="preserve">40.2483406066895</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">40.7862892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067123413086</t>
+    <t xml:space="preserve">42.1067085266113</t>
   </si>
   <si>
     <t xml:space="preserve">43.0358924865723</t>
@@ -1787,28 +1787,28 @@
     <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5957565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8402786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139808654785</t>
+    <t xml:space="preserve">42.5957527160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2365989685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.774543762207</t>
+    <t xml:space="preserve">45.2365951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">44.6008377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1606979370117</t>
+    <t xml:space="preserve">44.160701751709</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781326293945</t>
+    <t xml:space="preserve">50.0781288146973</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.664981842041</t>
+    <t xml:space="preserve">50.6649856567383</t>
   </si>
   <si>
     <t xml:space="preserve">51.7408866882324</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102027893066</t>
+    <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">49.4912757873535</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3934745788574</t>
+    <t xml:space="preserve">49.3934707641602</t>
   </si>
   <si>
     <t xml:space="preserve">51.1540298461914</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">52.5233535766602</t>
   </si>
   <si>
-    <t xml:space="preserve">52.034309387207</t>
+    <t xml:space="preserve">52.0343132019043</t>
   </si>
   <si>
     <t xml:space="preserve">50.9584083557129</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970634460449</t>
+    <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">54.4795341491699</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5992469787598</t>
+    <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
     <t xml:space="preserve">48.4153823852539</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9701614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5519332885742</t>
+    <t xml:space="preserve">45.970157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.551929473877</t>
   </si>
   <si>
     <t xml:space="preserve">42.6935653686523</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791114807129</t>
+    <t xml:space="preserve">32.1791152954102</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1961,10 +1961,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543098449707</t>
+    <t xml:space="preserve">31.787878036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543117523193</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0914688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3089942932129</t>
+    <t xml:space="preserve">36.0914649963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3089981079102</t>
   </si>
   <si>
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009284973145</t>
+    <t xml:space="preserve">37.9009323120117</t>
   </si>
   <si>
     <t xml:space="preserve">38.0476455688477</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8841018676758</t>
+    <t xml:space="preserve">41.3242416381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8840980529785</t>
   </si>
   <si>
     <t xml:space="preserve">45.7256393432617</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4592094421387</t>
+    <t xml:space="preserve">46.4592056274414</t>
   </si>
   <si>
     <t xml:space="preserve">46.0679664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3613967895508</t>
+    <t xml:space="preserve">46.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8723526000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3124923706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1657752990723</t>
+    <t xml:space="preserve">45.8723564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3124885559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
     <t xml:space="preserve">45.1876907348633</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913703918457</t>
+    <t xml:space="preserve">42.791374206543</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0190620422363</t>
+    <t xml:space="preserve">46.0190658569336</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
@@ -2063,19 +2063,19 @@
     <t xml:space="preserve">48.7577133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7847061157227</t>
+    <t xml:space="preserve">49.7847099304199</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5890884399414</t>
+    <t xml:space="preserve">49.5890846252441</t>
   </si>
   <si>
     <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3277397155762</t>
+    <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
     <t xml:space="preserve">52.9145889282227</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">55.8488578796387</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0444679260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6313285827637</t>
+    <t xml:space="preserve">56.0444717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6313247680664</t>
   </si>
   <si>
     <t xml:space="preserve">58.0006484985352</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
-    <t xml:space="preserve">59.2721633911133</t>
+    <t xml:space="preserve">59.2721672058105</t>
   </si>
   <si>
     <t xml:space="preserve">60.1524429321289</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">64.8472747802734</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6735610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494583129883</t>
+    <t xml:space="preserve">63.6735649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494659423828</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209808349609</t>
+    <t xml:space="preserve">66.0209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1727676391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8034439086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.466194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6618041992188</t>
+    <t xml:space="preserve">68.1727752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8034515380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4661865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6618118286133</t>
   </si>
   <si>
     <t xml:space="preserve">67.9771499633789</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7158126831055</t>
+    <t xml:space="preserve">70.7158050537109</t>
   </si>
   <si>
     <t xml:space="preserve">72.8675994873047</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">72.1829376220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3566360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500701904297</t>
+    <t xml:space="preserve">72.1829299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500625610352</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741653442383</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2048492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2470779418945</t>
+    <t xml:space="preserve">71.2048416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2470855712891</t>
   </si>
   <si>
     <t xml:space="preserve">79.420783996582</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">80.0076446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">79.5186004638672</t>
+    <t xml:space="preserve">79.5185928344727</t>
   </si>
   <si>
     <t xml:space="preserve">81.1813507080078</t>
@@ -2276,16 +2276,16 @@
     <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353363037109</t>
+    <t xml:space="preserve">84.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
     <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2572479248047</t>
+    <t xml:space="preserve">82.2572402954102</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915130615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462921142578</t>
+    <t xml:space="preserve">85.1915054321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462844848633</t>
   </si>
   <si>
     <t xml:space="preserve">84.6046600341797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.115608215332</t>
+    <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361297607422</t>
@@ -2312,25 +2312,25 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827407836914</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4427032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791519165039</t>
+    <t xml:space="preserve">78.4426956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791595458984</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3112335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1594314575195</t>
+    <t xml:space="preserve">84.3112258911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1594390869141</t>
   </si>
   <si>
     <t xml:space="preserve">80.3988723754883</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">80.203254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608291625977</t>
+    <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
     <t xml:space="preserve">87.245491027832</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">84.8980865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">87.8323516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1038665771484</t>
+    <t xml:space="preserve">87.8323593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1038589477539</t>
   </si>
   <si>
     <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">90.2775726318359</t>
+    <t xml:space="preserve">90.2775802612305</t>
   </si>
   <si>
     <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9184188842773</t>
+    <t xml:space="preserve">92.9184112548828</t>
   </si>
   <si>
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680145263672</t>
+    <t xml:space="preserve">95.1680221557617</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">100.156265258789</t>
+    <t xml:space="preserve">100.156257629395</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088531494141</t>
+    <t xml:space="preserve">97.8088455200195</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
@@ -2414,31 +2414,31 @@
     <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1781768798828</t>
+    <t xml:space="preserve">99.1781692504883</t>
   </si>
   <si>
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439193725586</t>
+    <t xml:space="preserve">96.2439117431641</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.1461029052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4614334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548599243164</t>
+    <t xml:space="preserve">96.146110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4614410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">95.3636322021484</t>
+    <t xml:space="preserve">95.3636245727539</t>
   </si>
   <si>
     <t xml:space="preserve">94.7767791748047</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677383422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.19849395752</t>
+    <t xml:space="preserve">103.677375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.198501586914</t>
   </si>
   <si>
     <t xml:space="preserve">106.807266235352</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088935852051</t>
+    <t xml:space="preserve">112.088943481445</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937149047852</t>
+    <t xml:space="preserve">109.937156677246</t>
   </si>
   <si>
     <t xml:space="preserve">111.893325805664</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
-    <t xml:space="preserve">108.17658996582</t>
+    <t xml:space="preserve">108.176597595215</t>
   </si>
   <si>
     <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
-    <t xml:space="preserve">104.655479431152</t>
+    <t xml:space="preserve">104.655471801758</t>
   </si>
   <si>
     <t xml:space="preserve">105.437950134277</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220405578613</t>
+    <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
     <t xml:space="preserve">108.76343536377</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">111.502090454102</t>
   </si>
   <si>
-    <t xml:space="preserve">113.262657165527</t>
+    <t xml:space="preserve">113.262649536133</t>
   </si>
   <si>
     <t xml:space="preserve">116.196922302246</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545913696289</t>
+    <t xml:space="preserve">109.545906066895</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
-    <t xml:space="preserve">115.414443969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.284568786621</t>
+    <t xml:space="preserve">115.414436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.284561157227</t>
   </si>
   <si>
     <t xml:space="preserve">112.871421813965</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805679321289</t>
+    <t xml:space="preserve">115.805686950684</t>
   </si>
   <si>
     <t xml:space="preserve">115.21883392334</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">117.566246032715</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
+    <t xml:space="preserve">118.153091430664</t>
   </si>
   <si>
     <t xml:space="preserve">117.761856079102</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.131187438965</t>
+    <t xml:space="preserve">119.13117980957</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">126.369033813477</t>
   </si>
   <si>
-    <t xml:space="preserve">134.389358520508</t>
+    <t xml:space="preserve">134.389373779297</t>
   </si>
   <si>
     <t xml:space="preserve">130.08576965332</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563079833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.367431640625</t>
+    <t xml:space="preserve">135.563064575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.367446899414</t>
   </si>
   <si>
     <t xml:space="preserve">137.91047668457</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">139.27978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.844757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.235977172852</t>
+    <t xml:space="preserve">139.279800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.844741821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.235992431641</t>
   </si>
   <si>
     <t xml:space="preserve">140.062271118164</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.475433349609</t>
+    <t xml:space="preserve">139.47541809082</t>
   </si>
   <si>
     <t xml:space="preserve">141.822830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">142.409698486328</t>
+    <t xml:space="preserve">142.409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2699,13 +2699,13 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300140380859</t>
+    <t xml:space="preserve">147.691375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.30012512207</t>
   </si>
   <si>
     <t xml:space="preserve">145.343963623047</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.1044921875</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
-    <t xml:space="preserve">151.212493896484</t>
+    <t xml:space="preserve">151.212478637695</t>
   </si>
   <si>
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038787841797</t>
+    <t xml:space="preserve">150.038772583008</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
@@ -2741,22 +2741,22 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711669921875</t>
+    <t xml:space="preserve">156.885391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711685180664</t>
   </si>
   <si>
     <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">154.537979125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.38459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.558303833008</t>
+    <t xml:space="preserve">154.537994384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.384613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">163.145156860352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.905746459961</t>
+    <t xml:space="preserve">164.905731201172</t>
   </si>
   <si>
     <t xml:space="preserve">165.101333618164</t>
@@ -2786,16 +2786,16 @@
     <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">168.818084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.752349853516</t>
+    <t xml:space="preserve">168.818099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.752365112305</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
   </si>
   <si>
-    <t xml:space="preserve">164.318862915039</t>
+    <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
     <t xml:space="preserve">165.688186645508</t>
@@ -61208,7 +61208,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6494791667</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>16991</v>
@@ -61229,6 +61229,32 @@
         <v>1460</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6516898148</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>22989</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>120.300003051758</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>117.900001525879</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495960235596</t>
+    <t xml:space="preserve">13.8495969772339</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -56,22 +56,22 @@
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402900695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777414321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241315841675</t>
+    <t xml:space="preserve">13.1437158584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777423858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241306304932</t>
   </si>
   <si>
     <t xml:space="preserve">13.3939008712769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3134832382202</t>
+    <t xml:space="preserve">13.3134822845459</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">12.5093145370483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667230606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.000750541687</t>
+    <t xml:space="preserve">12.8667221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722341537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650106430054</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3127384185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4467687606812</t>
+    <t xml:space="preserve">12.3127374649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4467678070068</t>
   </si>
   <si>
     <t xml:space="preserve">12.4110260009766</t>
@@ -116,58 +116,58 @@
     <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7051429748535</t>
+    <t xml:space="preserve">11.7051439285278</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752851486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1519041061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412557601929</t>
+    <t xml:space="preserve">12.3752861022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1519060134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412567138672</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965808868408</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2769975662231</t>
+    <t xml:space="preserve">12.2769985198975</t>
   </si>
   <si>
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625524520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020919799805</t>
+    <t xml:space="preserve">12.0625514984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020900726318</t>
   </si>
   <si>
     <t xml:space="preserve">12.0893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3306093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811681747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456446647644</t>
+    <t xml:space="preserve">12.3306102752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773714065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9560747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811672210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564485549927</t>
   </si>
   <si>
     <t xml:space="preserve">13.4475126266479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3581600189209</t>
+    <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
     <t xml:space="preserve">13.411771774292</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">13.4832525253296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0364923477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1794557571411</t>
+    <t xml:space="preserve">13.0364904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1794538497925</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3492250442505</t>
+    <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
     <t xml:space="preserve">13.4921884536743</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">13.2688074111938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7513103485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0104303359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5011234283447</t>
+    <t xml:space="preserve">13.7513093948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0104322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691812515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602453231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
     <t xml:space="preserve">13.617280960083</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">13.3849658966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2866773605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203319549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237586975098</t>
+    <t xml:space="preserve">13.286678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.920334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237577438354</t>
   </si>
   <si>
     <t xml:space="preserve">12.6522779464722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2948694229126</t>
+    <t xml:space="preserve">12.2948684692383</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
@@ -239,85 +239,85 @@
     <t xml:space="preserve">12.8399171829224</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8041763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9113969802856</t>
+    <t xml:space="preserve">12.8041744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9113988876343</t>
   </si>
   <si>
     <t xml:space="preserve">12.6433420181274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0543632507324</t>
+    <t xml:space="preserve">13.0543622970581</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4646368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182476043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880197525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612138748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804233551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072282791138</t>
+    <t xml:space="preserve">12.5539903640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4646377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182504653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7863054275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804224014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072292327881</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914426803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557018280029</t>
+    <t xml:space="preserve">12.8577871322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914417266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557008743286</t>
   </si>
   <si>
     <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0096874237061</t>
+    <t xml:space="preserve">13.0096864700317</t>
   </si>
   <si>
     <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0901031494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.045428276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526489257812</t>
+    <t xml:space="preserve">13.0901021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526508331299</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224191665649</t>
+    <t xml:space="preserve">12.8131103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743175506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224182128906</t>
   </si>
   <si>
     <t xml:space="preserve">13.5994110107422</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">14.028302192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559530258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8716135025024</t>
+    <t xml:space="preserve">14.0283012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">14.1757736206055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9269142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9453477859497</t>
+    <t xml:space="preserve">13.9269132614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.945348739624</t>
   </si>
   <si>
     <t xml:space="preserve">13.9637823104858</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">13.899263381958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9176969528198</t>
+    <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
     <t xml:space="preserve">13.8255271911621</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6411876678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808288574219</t>
+    <t xml:space="preserve">13.641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808307647705</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006504058838</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">14.2863779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508968353271</t>
+    <t xml:space="preserve">14.3508977890015</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2126436233521</t>
+    <t xml:space="preserve">14.2126426696777</t>
   </si>
   <si>
     <t xml:space="preserve">14.415415763855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628890991211</t>
+    <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
     <t xml:space="preserve">14.4707183837891</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">14.682710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7380113601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8394002914429</t>
+    <t xml:space="preserve">14.7380104064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
     <t xml:space="preserve">14.9315710067749</t>
@@ -425,67 +425,67 @@
     <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274080276489</t>
+    <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8670492172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684362411499</t>
+    <t xml:space="preserve">14.8670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684391021729</t>
   </si>
   <si>
     <t xml:space="preserve">15.0606079101562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421714782715</t>
+    <t xml:space="preserve">15.0421733856201</t>
   </si>
   <si>
     <t xml:space="preserve">14.9592189788818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9500017166138</t>
+    <t xml:space="preserve">14.9500026702881</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1527795791626</t>
+    <t xml:space="preserve">15.1527786254883</t>
   </si>
   <si>
     <t xml:space="preserve">15.1343431472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0698251724243</t>
+    <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
     <t xml:space="preserve">14.9039192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301811218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541637420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.715015411377</t>
+    <t xml:space="preserve">15.0237369537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301820755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960889816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.977653503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150163650513</t>
   </si>
   <si>
     <t xml:space="preserve">15.899356842041</t>
@@ -494,31 +494,31 @@
     <t xml:space="preserve">16.2772541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297798156738</t>
+    <t xml:space="preserve">16.1297817230225</t>
   </si>
   <si>
     <t xml:space="preserve">16.2219505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3049068450928</t>
+    <t xml:space="preserve">16.1850852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3049049377441</t>
   </si>
   <si>
     <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450408935547</t>
+    <t xml:space="preserve">17.2450370788574</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307693481445</t>
+    <t xml:space="preserve">17.5307674407959</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045055389404</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">17.3556461334229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2819080352783</t>
+    <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
     <t xml:space="preserve">17.6874599456787</t>
@@ -536,31 +536,31 @@
     <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598033905029</t>
+    <t xml:space="preserve">17.6598052978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7058925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.549201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731845855713</t>
+    <t xml:space="preserve">17.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5492038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731864929199</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9547538757324</t>
+    <t xml:space="preserve">17.9547500610352</t>
   </si>
   <si>
     <t xml:space="preserve">17.6229400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5676364898682</t>
+    <t xml:space="preserve">17.5676345825195</t>
   </si>
   <si>
     <t xml:space="preserve">17.2266082763672</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">17.2173900604248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3279933929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0975666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0607032775879</t>
+    <t xml:space="preserve">17.327995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0975685119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201641082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1897373199463</t>
+    <t xml:space="preserve">17.420166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1897411346436</t>
   </si>
   <si>
     <t xml:space="preserve">17.374080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1436538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768508911133</t>
+    <t xml:space="preserve">17.1436557769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768527984619</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100555419922</t>
+    <t xml:space="preserve">18.0100536346436</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575260162354</t>
@@ -614,34 +614,34 @@
     <t xml:space="preserve">18.3879508972168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3418655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2036094665527</t>
+    <t xml:space="preserve">18.3418674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644630432129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2635650634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3557357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0331401824951</t>
+    <t xml:space="preserve">19.1713962554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2635669708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3557376861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0331420898438</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7889385223389</t>
+    <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797203063965</t>
@@ -650,25 +650,25 @@
     <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0838832855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9917144775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6783351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585136413574</t>
+    <t xml:space="preserve">20.0838813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9917125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6783313751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585117340088</t>
   </si>
   <si>
     <t xml:space="preserve">19.6230335235596</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3741722106934</t>
+    <t xml:space="preserve">19.374174118042</t>
   </si>
   <si>
     <t xml:space="preserve">19.3280868530273</t>
@@ -677,103 +677,103 @@
     <t xml:space="preserve">19.5124263763428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9870567321777</t>
+    <t xml:space="preserve">18.9870586395264</t>
   </si>
   <si>
     <t xml:space="preserve">18.5999431610107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409732818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543525695801</t>
+    <t xml:space="preserve">18.9409713745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543506622314</t>
   </si>
   <si>
     <t xml:space="preserve">19.8903255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8165874481201</t>
+    <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8120250701904</t>
+    <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7521648406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373966217041</t>
+    <t xml:space="preserve">21.752161026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373947143555</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4756526947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0240154266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807060241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0608863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1069717407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1208438873291</t>
+    <t xml:space="preserve">21.5678215026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4756507873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.024019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0608882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304615020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.106969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1208419799805</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8535480499268</t>
+    <t xml:space="preserve">21.8535499572754</t>
   </si>
   <si>
     <t xml:space="preserve">22.5816955566406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1254997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2176666259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3098392486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094398498535</t>
+    <t xml:space="preserve">23.1254959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2176685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3098373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094379425049</t>
   </si>
   <si>
     <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.240758895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882293701172</t>
+    <t xml:space="preserve">24.2407550811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619674682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882312774658</t>
   </si>
   <si>
     <t xml:space="preserve">24.3329277038574</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5033931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9780254364014</t>
+    <t xml:space="preserve">23.503396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.97802734375</t>
   </si>
   <si>
     <t xml:space="preserve">23.0425453186035</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595909118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.48952293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6738662719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268886566162</t>
+    <t xml:space="preserve">22.9595947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4895248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.673864364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582057952881</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641513824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
+    <t xml:space="preserve">21.9641551971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604869842529</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1853637695312</t>
+    <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
     <t xml:space="preserve">22.4250049591064</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5632591247559</t>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
@@ -839,46 +839,46 @@
     <t xml:space="preserve">23.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8121223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830806732178</t>
+    <t xml:space="preserve">22.8121204376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830825805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383842468262</t>
+    <t xml:space="preserve">23.0241107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7383804321289</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6185646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5724773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6923007965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6277770996094</t>
+    <t xml:space="preserve">22.6185626983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5724754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.627779006958</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369953155518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0747604370117</t>
+    <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.798246383667</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">22.1669273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7291660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674240112305</t>
+    <t xml:space="preserve">22.7291679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674221038818</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">24.0401401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7856979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7092323303223</t>
+    <t xml:space="preserve">23.7856960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558078765869</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217811584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023891448975</t>
+    <t xml:space="preserve">25.3217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
     <t xml:space="preserve">26.3866672515869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3678207397461</t>
+    <t xml:space="preserve">26.3678188323975</t>
   </si>
   <si>
     <t xml:space="preserve">26.2547359466553</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">26.5845699310303</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4620590209961</t>
+    <t xml:space="preserve">26.4620571136475</t>
   </si>
   <si>
     <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6693801879883</t>
+    <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
     <t xml:space="preserve">26.4809055328369</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
+    <t xml:space="preserve">26.5280246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453098297119</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">25.6327629089355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625949859619</t>
+    <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212394714355</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500480651855</t>
+    <t xml:space="preserve">25.3500499725342</t>
   </si>
   <si>
     <t xml:space="preserve">25.9814453125</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">25.51025390625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4442882537842</t>
+    <t xml:space="preserve">25.4442863464355</t>
   </si>
   <si>
     <t xml:space="preserve">23.7008819580078</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7479991912842</t>
+    <t xml:space="preserve">23.7480010986328</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150424957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0883350372314</t>
+    <t xml:space="preserve">22.8150444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0883331298828</t>
   </si>
   <si>
     <t xml:space="preserve">23.6254920959473</t>
@@ -1040,31 +1040,31 @@
     <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9176292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3040046691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438026428223</t>
+    <t xml:space="preserve">23.9176273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3040084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438045501709</t>
   </si>
   <si>
     <t xml:space="preserve">23.6537628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4935569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3804740905762</t>
+    <t xml:space="preserve">23.493558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3804721832275</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8422374725342</t>
+    <t xml:space="preserve">23.1919975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
     <t xml:space="preserve">24.2663097381592</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">24.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7846202850342</t>
+    <t xml:space="preserve">24.7846164703369</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259777069092</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">24.6903820037842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1615715026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4337863922119</t>
+    <t xml:space="preserve">25.1615734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4337844848633</t>
   </si>
   <si>
     <t xml:space="preserve">26.1981906890869</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7270011901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8683567047119</t>
+    <t xml:space="preserve">25.7269992828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8683586120605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0097160339355</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730949401855</t>
+    <t xml:space="preserve">24.9730987548828</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432609558105</t>
+    <t xml:space="preserve">24.5490226745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
     <t xml:space="preserve">24.8788566589355</t>
@@ -1133,43 +1133,43 @@
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317413330078</t>
+    <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">25.3029308319092</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2086906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5385265350342</t>
+    <t xml:space="preserve">25.2086925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2924308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1144542694092</t>
+    <t xml:space="preserve">26.2924289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1144523620605</t>
   </si>
   <si>
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751438140869</t>
+    <t xml:space="preserve">26.5751457214355</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992141723633</t>
   </si>
   <si>
-    <t xml:space="preserve">28.177188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656711578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.695499420166</t>
+    <t xml:space="preserve">28.1771907806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6955013275146</t>
   </si>
   <si>
     <t xml:space="preserve">28.1300735473633</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">27.3290481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856437683105</t>
+    <t xml:space="preserve">27.0934505462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856418609619</t>
   </si>
   <si>
     <t xml:space="preserve">25.0673351287842</t>
@@ -1196,136 +1196,136 @@
     <t xml:space="preserve">27.0463352203369</t>
   </si>
   <si>
+    <t xml:space="preserve">26.8107414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9049758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002395629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8578567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8944759368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9887161254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0829524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7059993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022846221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.213809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.554141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.449405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.789737701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.355167388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.742618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6588840484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5646419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531204223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5175266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6663379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0514125823975</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.8107395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002395629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8578586578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8944778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9887142181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0829524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7059993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704036712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599056243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.213809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5541439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.449405670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.789737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.355167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7426204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6588840484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2819290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761672973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5175247192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6663379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107376098633</t>
-  </si>
-  <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812633514404</t>
+    <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
     <t xml:space="preserve">25.7036552429199</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8961887359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.462984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0297718048096</t>
+    <t xml:space="preserve">25.8961906433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0297737121582</t>
   </si>
   <si>
     <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4521656036377</t>
+    <t xml:space="preserve">24.4521636962891</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.585750579834</t>
+    <t xml:space="preserve">23.5376167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
     <t xml:space="preserve">23.2488079071045</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044082641602</t>
+    <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5267963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3342609405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9600048065186</t>
+    <t xml:space="preserve">22.526798248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3342628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9226875305176</t>
+    <t xml:space="preserve">23.9226894378662</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
@@ -1364,19 +1364,19 @@
     <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603832244873</t>
+    <t xml:space="preserve">22.6230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603813171387</t>
   </si>
   <si>
     <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5641136169434</t>
+    <t xml:space="preserve">21.5641117095947</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491863250732</t>
+    <t xml:space="preserve">21.9491844177246</t>
   </si>
   <si>
     <t xml:space="preserve">22.7674674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2379913330078</t>
+    <t xml:space="preserve">22.2379932403564</t>
   </si>
   <si>
     <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9973201751709</t>
+    <t xml:space="preserve">22.0454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9973220825195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">21.7085151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3450794219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2969455718994</t>
+    <t xml:space="preserve">23.3450775146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
     <t xml:space="preserve">24.0670909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633586883545</t>
+    <t xml:space="preserve">24.1633605957031</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">24.3077602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5484313964844</t>
+    <t xml:space="preserve">24.548433303833</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1442,46 +1442,46 @@
     <t xml:space="preserve">24.7891025543213</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2704448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1741771697998</t>
+    <t xml:space="preserve">25.2704467773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1741790771484</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223129272461</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1260433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185806274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.511116027832</t>
+    <t xml:space="preserve">25.1260414123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5111179351807</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3293991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219345092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8588714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.532751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.580883026123</t>
+    <t xml:space="preserve">26.3293972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8588733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5327529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808849334717</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402156829834</t>
+    <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
     <t xml:space="preserve">27.8696918487549</t>
@@ -1490,31 +1490,31 @@
     <t xml:space="preserve">28.0622272491455</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1103649139404</t>
+    <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
     <t xml:space="preserve">27.9178237915039</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6771545410156</t>
+    <t xml:space="preserve">27.677152633667</t>
   </si>
   <si>
     <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2439479827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1958103179932</t>
+    <t xml:space="preserve">27.2439460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1958141326904</t>
   </si>
   <si>
     <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144718170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6182022094727</t>
+    <t xml:space="preserve">26.7144737243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.618200302124</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">25.5592498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">25.655517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4148464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816417694092</t>
+    <t xml:space="preserve">25.6555194854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
@@ -1547,49 +1547,49 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.484619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6290225982666</t>
+    <t xml:space="preserve">27.4846172332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.629020690918</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1584968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3028964996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7361087799072</t>
+    <t xml:space="preserve">28.1584949493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3028984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7361068725586</t>
   </si>
   <si>
     <t xml:space="preserve">29.0249099731445</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3618507385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5543880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.613338470459</t>
+    <t xml:space="preserve">29.3618488311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5543899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
     <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9984149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0465488433838</t>
+    <t xml:space="preserve">30.9984130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0465469360352</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943023681641</t>
+    <t xml:space="preserve">32.3943061828613</t>
   </si>
   <si>
     <t xml:space="preserve">33.1644477844238</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4159393310547</t>
+    <t xml:space="preserve">34.415943145752</t>
   </si>
   <si>
     <t xml:space="preserve">34.0308685302734</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">33.8864631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7901954650879</t>
+    <t xml:space="preserve">33.7901916503906</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349754333496</t>
+    <t xml:space="preserve">32.6349792480469</t>
   </si>
   <si>
     <t xml:space="preserve">32.153636932373</t>
@@ -1643,43 +1643,43 @@
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353519439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2872200012207</t>
+    <t xml:space="preserve">31.7685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204303741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2872180938721</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6722927093506</t>
+    <t xml:space="preserve">31.6722946166992</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.527889251709</t>
+    <t xml:space="preserve">31.5278873443604</t>
   </si>
   <si>
     <t xml:space="preserve">31.8648262023926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.586841583252</t>
+    <t xml:space="preserve">32.5868377685547</t>
   </si>
   <si>
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4424362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528800964355</t>
+    <t xml:space="preserve">32.442440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528762817383</t>
   </si>
   <si>
     <t xml:space="preserve">35.2342224121094</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4002532958984</t>
+    <t xml:space="preserve">37.400260925293</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927963256836</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073432922363</t>
+    <t xml:space="preserve">38.5073471069336</t>
   </si>
   <si>
     <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">39.074634552002</t>
+    <t xml:space="preserve">39.0746383666992</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301124572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6833992004395</t>
+    <t xml:space="preserve">38.8301162719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6834030151367</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7103958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125831604004</t>
+    <t xml:space="preserve">39.710391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">39.3191604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9768257141113</t>
+    <t xml:space="preserve">38.9768218994141</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527229309082</t>
+    <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
     <t xml:space="preserve">40.1505355834961</t>
@@ -1787,22 +1787,22 @@
     <t xml:space="preserve">43.0358963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760360717773</t>
+    <t xml:space="preserve">43.4760398864746</t>
   </si>
   <si>
     <t xml:space="preserve">42.5957527160645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154808044434</t>
+    <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
     <t xml:space="preserve">41.6176643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8402786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.013988494873</t>
+    <t xml:space="preserve">42.840274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7745399475098</t>
+    <t xml:space="preserve">45.774543762207</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1606979370117</t>
+    <t xml:space="preserve">44.6008338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.160701751709</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672714233398</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4103012084961</t>
+    <t xml:space="preserve">46.4102973937988</t>
   </si>
   <si>
     <t xml:space="preserve">46.2635841369629</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8605995178223</t>
+    <t xml:space="preserve">50.8606033325195</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627983093262</t>
+    <t xml:space="preserve">50.7627944946289</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.664981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408866882324</t>
+    <t xml:space="preserve">50.6649856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408828735352</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321182250977</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102066040039</t>
+    <t xml:space="preserve">53.1102027893066</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4912757873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540298461914</t>
+    <t xml:space="preserve">49.4912796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540336608887</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9584121704102</t>
+    <t xml:space="preserve">50.9584083557129</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452651977539</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2620010375977</t>
+    <t xml:space="preserve">55.2620048522949</t>
   </si>
   <si>
     <t xml:space="preserve">54.4795303344727</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.752628326416</t>
+    <t xml:space="preserve">47.3883895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
     <t xml:space="preserve">45.970157623291</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4607887268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.384895324707</t>
+    <t xml:space="preserve">37.4607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3848915100098</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8317012786865</t>
+    <t xml:space="preserve">32.1791152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8316993713379</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">31.7878761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0543098449707</t>
+    <t xml:space="preserve">31.0543117523193</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870788574219</t>
+    <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469467163086</t>
+    <t xml:space="preserve">35.8469429016113</t>
   </si>
   <si>
     <t xml:space="preserve">37.9009284973145</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3613967895508</t>
+    <t xml:space="preserve">46.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">47.4861946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6548233032227</t>
+    <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.187686920166</t>
+    <t xml:space="preserve">45.1876907348633</t>
   </si>
   <si>
     <t xml:space="preserve">44.1117897033691</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249404907227</t>
+    <t xml:space="preserve">42.7913780212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249366760254</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5620956420898</t>
+    <t xml:space="preserve">46.5570106506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5620918273926</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211585998535</t>
+    <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
     <t xml:space="preserve">52.3277359008789</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5554275512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488540649414</t>
+    <t xml:space="preserve">55.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488502502441</t>
   </si>
   <si>
     <t xml:space="preserve">56.0444717407227</t>
@@ -2120,31 +2120,31 @@
     <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1962699890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.3918876647949</t>
+    <t xml:space="preserve">58.1962661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.3918838500977</t>
   </si>
   <si>
     <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2181816101074</t>
+    <t xml:space="preserve">57.2181777954102</t>
   </si>
   <si>
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568290710449</t>
+    <t xml:space="preserve">59.9568252563477</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094169616699</t>
+    <t xml:space="preserve">58.9787368774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094131469727</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">60.1524429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6954689025879</t>
+    <t xml:space="preserve">62.6954727172852</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472747802734</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">63.6735610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7494506835938</t>
+    <t xml:space="preserve">64.7494583129883</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209808349609</t>
+    <t xml:space="preserve">66.0209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2216,22 +2216,22 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092163085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5201797485352</t>
+    <t xml:space="preserve">73.6500625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092239379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245697021484</t>
+    <t xml:space="preserve">70.3245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048492431641</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.4207916259766</t>
+    <t xml:space="preserve">79.420783996582</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813430786133</t>
+    <t xml:space="preserve">81.1813507080078</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7243804931641</t>
+    <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
     <t xml:space="preserve">84.2134170532227</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">82.9419174194336</t>
+    <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
     <t xml:space="preserve">82.2572402954102</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265640258789</t>
+    <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
     <t xml:space="preserve">85.1915054321289</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">78.7361221313477</t>
+    <t xml:space="preserve">78.7361297607422</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827560424805</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">78.4426956176758</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2791519165039</t>
+    <t xml:space="preserve">81.2791595458984</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">80.2032623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608367919922</t>
+    <t xml:space="preserve">86.5608291625977</t>
   </si>
   <si>
     <t xml:space="preserve">87.2454986572266</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016754150391</t>
+    <t xml:space="preserve">89.2016677856445</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680145263672</t>
+    <t xml:space="preserve">95.1680221557617</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044708251953</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">103.481773376465</t>
+    <t xml:space="preserve">103.48176574707</t>
   </si>
   <si>
     <t xml:space="preserve">100.156265258789</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">97.417610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">96.3417205810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373306274414</t>
+    <t xml:space="preserve">96.3417129516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373382568359</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548675537109</t>
+    <t xml:space="preserve">95.4614410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548599243164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723892211914</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767868041992</t>
+    <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.765022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.677383422852</t>
+    <t xml:space="preserve">99.7650299072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.677391052246</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">109.74153137207</t>
+    <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
     <t xml:space="preserve">112.088943481445</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">112.675796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980972290039</t>
+    <t xml:space="preserve">107.980979919434</t>
   </si>
   <si>
     <t xml:space="preserve">108.567832946777</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">110.328384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893325805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.132774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.110855102539</t>
+    <t xml:space="preserve">109.937156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893333435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.132766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.110847473145</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.91682434082</t>
+    <t xml:space="preserve">101.721206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.916816711426</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">110.915245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">108.17658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286140441895</t>
+    <t xml:space="preserve">108.176582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">105.242317199707</t>
+    <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
     <t xml:space="preserve">107.785354614258</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220413208008</t>
+    <t xml:space="preserve">106.220405578613</t>
   </si>
   <si>
     <t xml:space="preserve">108.763442993164</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.480178833008</t>
+    <t xml:space="preserve">116.196922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.480171203613</t>
   </si>
   <si>
     <t xml:space="preserve">109.545913696289</t>
@@ -2582,28 +2582,28 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805686950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.21883392334</t>
+    <t xml:space="preserve">115.805679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.218826293945</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.326805114746</t>
+    <t xml:space="preserve">118.153099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761856079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.326797485352</t>
   </si>
   <si>
     <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">118.34871673584</t>
+    <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847915649414</t>
+    <t xml:space="preserve">122.847923278809</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846328735352</t>
+    <t xml:space="preserve">131.846343994141</t>
   </si>
   <si>
     <t xml:space="preserve">134.976211547852</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">136.736785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.563064575195</t>
+    <t xml:space="preserve">136.736770629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.563079833984</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453521728516</t>
+    <t xml:space="preserve">140.453536987305</t>
   </si>
   <si>
     <t xml:space="preserve">138.301727294922</t>
@@ -2696,34 +2696,34 @@
     <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
-    <t xml:space="preserve">141.04035949707</t>
+    <t xml:space="preserve">141.040374755859</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691375732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300140380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343978881836</t>
+    <t xml:space="preserve">147.691360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.30012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343963623047</t>
   </si>
   <si>
     <t xml:space="preserve">146.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">147.104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473846435547</t>
+    <t xml:space="preserve">148.473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">155.711700439453</t>
   </si>
   <si>
-    <t xml:space="preserve">158.841583251953</t>
+    <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558303833008</t>
+    <t xml:space="preserve">162.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448760986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.339202880859</t>
+    <t xml:space="preserve">167.448745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.33918762207</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099761962891</t>
+    <t xml:space="preserve">174.099746704102</t>
   </si>
   <si>
     <t xml:space="preserve">168.818084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752349853516</t>
+    <t xml:space="preserve">171.752365112305</t>
   </si>
   <si>
     <t xml:space="preserve">169.013717651367</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688171386719</t>
+    <t xml:space="preserve">165.688186645508</t>
   </si>
   <si>
     <t xml:space="preserve">175.469085693359</t>
@@ -61266,7 +61266,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.649525463</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>11484</v>
@@ -61287,6 +61287,32 @@
         <v>1462</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6501851852</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>157983</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>120.099998474121</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>103.099998474121</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>119.800003051758</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>104.199996948242</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -53,10 +53,10 @@
     <t xml:space="preserve">13.2330675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4028358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1437158584595</t>
+    <t xml:space="preserve">13.4028348922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1437149047852</t>
   </si>
   <si>
     <t xml:space="preserve">13.3402891159058</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">13.2777423858643</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2241306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3939008712769</t>
+    <t xml:space="preserve">13.2241315841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3938999176025</t>
   </si>
   <si>
     <t xml:space="preserve">13.3134822845459</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">13.1347789764404</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5093145370483</t>
+    <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
     <t xml:space="preserve">12.8667221069336</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0722341537476</t>
+    <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">13.0007514953613</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">12.9650106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">12.884593963623</t>
+    <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
     <t xml:space="preserve">12.5986661911011</t>
@@ -101,16 +101,16 @@
     <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110260009766</t>
+    <t xml:space="preserve">12.4467668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110250473022</t>
   </si>
   <si>
     <t xml:space="preserve">11.1690301895142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226419448853</t>
+    <t xml:space="preserve">11.2226409912109</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
@@ -119,19 +119,19 @@
     <t xml:space="preserve">11.7051439285278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663501739502</t>
+    <t xml:space="preserve">12.3663492202759</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752861022949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519060134888</t>
+    <t xml:space="preserve">12.1519041061401</t>
   </si>
   <si>
     <t xml:space="preserve">12.2412567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965808868408</t>
+    <t xml:space="preserve">12.1965789794922</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769985198975</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625514984131</t>
+    <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
     <t xml:space="preserve">12.4020900726318</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">12.0893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3306102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773714065552</t>
+    <t xml:space="preserve">12.3306093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
     <t xml:space="preserve">12.9560747146606</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">13.0811672210693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4564485549927</t>
+    <t xml:space="preserve">13.4564476013184</t>
   </si>
   <si>
     <t xml:space="preserve">13.4475126266479</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">13.4832525253296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0364904403687</t>
+    <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
     <t xml:space="preserve">13.1794538497925</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">13.7513093948364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691812515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602453231812</t>
+    <t xml:space="preserve">14.0104312896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691802978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602434158325</t>
   </si>
   <si>
     <t xml:space="preserve">13.5011224746704</t>
@@ -215,37 +215,37 @@
     <t xml:space="preserve">13.3849658966064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.286678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.920334815979</t>
+    <t xml:space="preserve">13.2866773605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237577438354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6522779464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2948684692383</t>
+    <t xml:space="preserve">12.6522769927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.294867515564</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.714822769165</t>
+    <t xml:space="preserve">12.7148237228394</t>
   </si>
   <si>
     <t xml:space="preserve">12.8399171829224</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8041744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9113988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433420181274</t>
+    <t xml:space="preserve">12.8041753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.91139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433410644531</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543622970581</t>
@@ -254,25 +254,25 @@
     <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539903640747</t>
+    <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
     <t xml:space="preserve">12.4646377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5182504653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880178451538</t>
+    <t xml:space="preserve">12.5182485580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880187988281</t>
   </si>
   <si>
     <t xml:space="preserve">12.7863054275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6612129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804224014282</t>
+    <t xml:space="preserve">12.6612119674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804233551025</t>
   </si>
   <si>
     <t xml:space="preserve">12.1072292327881</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">12.5271835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577871322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557008743286</t>
+    <t xml:space="preserve">12.8577880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914426803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0632972717285</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0901021957397</t>
+    <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
     <t xml:space="preserve">13.0454263687134</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1526508331299</t>
+    <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
@@ -317,37 +317,37 @@
     <t xml:space="preserve">13.4743175506592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994110107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.903208732605</t>
+    <t xml:space="preserve">13.3224191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994119644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547361373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708917617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032077789307</t>
   </si>
   <si>
     <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559511184692</t>
+    <t xml:space="preserve">14.0283002853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559520721436</t>
   </si>
   <si>
     <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1757736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269132614136</t>
+    <t xml:space="preserve">14.1757745742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269151687622</t>
   </si>
   <si>
     <t xml:space="preserve">13.945348739624</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
-    <t xml:space="preserve">13.899263381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176979064941</t>
+    <t xml:space="preserve">13.8992624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176969528198</t>
   </si>
   <si>
     <t xml:space="preserve">13.8255271911621</t>
@@ -368,49 +368,49 @@
     <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8808307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0006504058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0836029052734</t>
+    <t xml:space="preserve">13.6411867141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8808288574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0006494522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0836019515991</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020374298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2863779067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3508977890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232460021973</t>
+    <t xml:space="preserve">14.1020364761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3508958816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232450485229</t>
   </si>
   <si>
     <t xml:space="preserve">14.2126426696777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.415415763855</t>
+    <t xml:space="preserve">14.4154176712036</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707183837891</t>
+    <t xml:space="preserve">14.4707174301147</t>
   </si>
   <si>
     <t xml:space="preserve">14.682710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7380104064941</t>
+    <t xml:space="preserve">14.7380113601685</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274070739746</t>
+    <t xml:space="preserve">14.6274089813232</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181907653809</t>
@@ -434,28 +434,28 @@
     <t xml:space="preserve">14.8670501708984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9684391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592189788818</t>
+    <t xml:space="preserve">14.9684371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606069564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592199325562</t>
   </si>
   <si>
     <t xml:space="preserve">14.9500026702881</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0145235061646</t>
+    <t xml:space="preserve">15.0145225524902</t>
   </si>
   <si>
     <t xml:space="preserve">15.1527786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343431472778</t>
+    <t xml:space="preserve">15.1343441009521</t>
   </si>
   <si>
     <t xml:space="preserve">15.06982421875</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">14.9039192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237369537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
+    <t xml:space="preserve">15.0237379074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301811218262</t>
   </si>
   <si>
     <t xml:space="preserve">14.9960889816284</t>
@@ -476,52 +476,52 @@
     <t xml:space="preserve">14.977653503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2541656494141</t>
+    <t xml:space="preserve">15.2541627883911</t>
   </si>
   <si>
     <t xml:space="preserve">15.3832025527954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150163650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.899356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297817230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219505310059</t>
+    <t xml:space="preserve">15.5491075515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
     <t xml:space="preserve">16.1850852966309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0560436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3049049377441</t>
+    <t xml:space="preserve">16.0560455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3049030303955</t>
   </si>
   <si>
     <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450370788574</t>
+    <t xml:space="preserve">17.2450389862061</t>
   </si>
   <si>
     <t xml:space="preserve">17.4662494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307674407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6045055389404</t>
+    <t xml:space="preserve">17.5307693481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6045074462891</t>
   </si>
   <si>
     <t xml:space="preserve">17.3556461334229</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874599456787</t>
+    <t xml:space="preserve">17.6874580383301</t>
   </si>
   <si>
     <t xml:space="preserve">17.410945892334</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7058906555176</t>
+    <t xml:space="preserve">17.7058887481689</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492038726807</t>
@@ -560,34 +560,34 @@
     <t xml:space="preserve">17.6229400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5676345825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2173900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.327995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0975685119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0607013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2358245849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.420166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1897411346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.374080657959</t>
+    <t xml:space="preserve">17.5676364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2173919677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3279933929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0975666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2358264923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4201641082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1897392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3740787506104</t>
   </si>
   <si>
     <t xml:space="preserve">17.1436557769775</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100536346436</t>
+    <t xml:space="preserve">18.0100574493408</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575260162354</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">18.3510818481445</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2036113739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644630432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1713962554932</t>
+    <t xml:space="preserve">18.20361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6644611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1713981628418</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -650,49 +650,49 @@
     <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0838813781738</t>
+    <t xml:space="preserve">20.0838851928711</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783313751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.374174118042</t>
+    <t xml:space="preserve">19.6783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953826904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3741722106934</t>
   </si>
   <si>
     <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5124263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870586395264</t>
+    <t xml:space="preserve">19.5124282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.987060546875</t>
   </si>
   <si>
     <t xml:space="preserve">18.5999431610107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409713745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543506622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8903255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
+    <t xml:space="preserve">18.940975189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165874481201</t>
   </si>
   <si>
     <t xml:space="preserve">20.4617805480957</t>
@@ -701,43 +701,43 @@
     <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2913131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.752161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373947143555</t>
+    <t xml:space="preserve">21.2913112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373966217041</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678215026855</t>
+    <t xml:space="preserve">21.5678195953369</t>
   </si>
   <si>
     <t xml:space="preserve">21.4756507873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.024019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0608882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369037628174</t>
+    <t xml:space="preserve">21.0240173339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807060241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.060884475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.8304615020752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.106969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1208419799805</t>
+    <t xml:space="preserve">21.1069717407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1208400726318</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443336486816</t>
@@ -746,46 +746,46 @@
     <t xml:space="preserve">21.8535499572754</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5816955566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254959106445</t>
+    <t xml:space="preserve">22.581693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098373413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6094379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2407550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619674682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882312774658</t>
+    <t xml:space="preserve">23.3098392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6094398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.591007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2407569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882274627686</t>
   </si>
   <si>
     <t xml:space="preserve">24.3329277038574</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0287647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.503396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.97802734375</t>
+    <t xml:space="preserve">24.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033931732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
     <t xml:space="preserve">23.0425453186035</t>
@@ -797,43 +797,43 @@
     <t xml:space="preserve">22.9503746032715</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9595947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4895248413086</t>
+    <t xml:space="preserve">22.9595928192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4895210266113</t>
   </si>
   <si>
     <t xml:space="preserve">22.673864364624</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2268867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8582057952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7015151977539</t>
+    <t xml:space="preserve">23.2268848419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8582019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7015171051025</t>
   </si>
   <si>
     <t xml:space="preserve">21.9641551971436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4065685272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4250049591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632610321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7936859130859</t>
+    <t xml:space="preserve">22.4065704345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.185359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4250068664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7936878204346</t>
   </si>
   <si>
     <t xml:space="preserve">23.319055557251</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">23.0241107940674</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1070652008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1347160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383804321289</t>
+    <t xml:space="preserve">23.107063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1347122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7383842468262</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724754333496</t>
+    <t xml:space="preserve">22.572473526001</t>
   </si>
   <si>
     <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.627779006958</t>
+    <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369953155518</t>
@@ -881,31 +881,31 @@
     <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.798246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0378913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5171756744385</t>
+    <t xml:space="preserve">21.7982482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0378894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5171737670898</t>
   </si>
   <si>
     <t xml:space="preserve">22.1669273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7291679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1162815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1623649597168</t>
+    <t xml:space="preserve">22.7291660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950710296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1162796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1623668670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
@@ -920,34 +920,34 @@
     <t xml:space="preserve">24.7092304229736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2558078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3217792510986</t>
+    <t xml:space="preserve">25.2558097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3217811584473</t>
   </si>
   <si>
     <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678188323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547359466553</t>
+    <t xml:space="preserve">26.3866691589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547340393066</t>
   </si>
   <si>
     <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5845699310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620571136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562973022461</t>
+    <t xml:space="preserve">26.5845680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620590209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562953948975</t>
   </si>
   <si>
     <t xml:space="preserve">26.6693820953369</t>
@@ -959,52 +959,52 @@
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453098297119</t>
+    <t xml:space="preserve">26.5280284881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453117370605</t>
   </si>
   <si>
     <t xml:space="preserve">26.2264633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625968933105</t>
+    <t xml:space="preserve">25.6327648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8872051239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3500499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1898422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4065914154053</t>
+    <t xml:space="preserve">25.88720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500480651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814434051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1898460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
     <t xml:space="preserve">25.51025390625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4442863464355</t>
+    <t xml:space="preserve">25.4442882537842</t>
   </si>
   <si>
     <t xml:space="preserve">23.7008819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
+    <t xml:space="preserve">23.4841346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6349143981934</t>
   </si>
   <si>
     <t xml:space="preserve">23.7480010986328</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">23.1731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9940967559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2296905517578</t>
+    <t xml:space="preserve">22.9940948486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2296924591064</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0883331298828</t>
+    <t xml:space="preserve">22.8150424957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
     <t xml:space="preserve">23.6254920959473</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9176273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3040084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438045501709</t>
+    <t xml:space="preserve">23.9176292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3040046691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
     <t xml:space="preserve">23.6537628173828</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804721832275</t>
+    <t xml:space="preserve">23.3804740905762</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391147613525</t>
@@ -1067,37 +1067,37 @@
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663097381592</t>
+    <t xml:space="preserve">24.2663116455078</t>
   </si>
   <si>
     <t xml:space="preserve">24.5113315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5019054412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5961437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846164703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9259777069092</t>
+    <t xml:space="preserve">24.5019035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5961456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9259796142578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6903820037842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1615734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4337844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741203308105</t>
+    <t xml:space="preserve">25.1615753173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4337863922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741222381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.7269992828369</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">26.1039524078369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730987548828</t>
+    <t xml:space="preserve">25.6798839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730968475342</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490226745605</t>
+    <t xml:space="preserve">24.5490264892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.6432628631592</t>
@@ -1130,58 +1130,58 @@
     <t xml:space="preserve">24.8788566589355</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7375011444092</t>
+    <t xml:space="preserve">24.7375030517578</t>
   </si>
   <si>
     <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3029308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086925506592</t>
+    <t xml:space="preserve">25.3029327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0568332672119</t>
+    <t xml:space="preserve">26.0568351745605</t>
   </si>
   <si>
     <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510734558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1771907806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656673431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6955013275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300735473633</t>
+    <t xml:space="preserve">25.1144542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5751438140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1771926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6955032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">27.3290481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0934505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856418609619</t>
+    <t xml:space="preserve">27.0934543609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856437683105</t>
   </si>
   <si>
     <t xml:space="preserve">25.0673351287842</t>
@@ -1193,13 +1193,13 @@
     <t xml:space="preserve">27.1876926422119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463352203369</t>
+    <t xml:space="preserve">27.0463371276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049758911133</t>
+    <t xml:space="preserve">26.9049777984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002395629883</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">26.8578567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8944759368896</t>
+    <t xml:space="preserve">27.8944797515869</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
@@ -1217,61 +1217,61 @@
     <t xml:space="preserve">28.0829524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1405715942383</t>
+    <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
     <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7059993743896</t>
+    <t xml:space="preserve">27.7060012817383</t>
   </si>
   <si>
     <t xml:space="preserve">27.4704055786133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599075317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4022846221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.213809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.554141998291</t>
+    <t xml:space="preserve">28.4599056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2138118743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5541439056396</t>
   </si>
   <si>
     <t xml:space="preserve">29.449405670166</t>
   </si>
   <si>
-    <t xml:space="preserve">28.789737701416</t>
+    <t xml:space="preserve">28.7897396087646</t>
   </si>
   <si>
     <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.742618560791</t>
+    <t xml:space="preserve">28.7426223754883</t>
   </si>
   <si>
     <t xml:space="preserve">27.6588840484619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7531204223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2819309234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761672973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714309692383</t>
+    <t xml:space="preserve">27.5646457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7531223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2819328308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714290618896</t>
   </si>
   <si>
     <t xml:space="preserve">27.5175266265869</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">26.7626056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6663379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0514125823975</t>
+    <t xml:space="preserve">26.6663360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0514106750488</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107395172119</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">25.7036552429199</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8961906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4629821777344</t>
+    <t xml:space="preserve">25.8961887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.462984085083</t>
   </si>
   <si>
     <t xml:space="preserve">25.0297737121582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9335060119629</t>
+    <t xml:space="preserve">24.9335041046143</t>
   </si>
   <si>
     <t xml:space="preserve">24.4521636962891</t>
@@ -1316,34 +1316,34 @@
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376167297363</t>
+    <t xml:space="preserve">23.5376148223877</t>
   </si>
   <si>
     <t xml:space="preserve">23.5857486724854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2488079071045</t>
+    <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
     <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0081386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9118690490723</t>
+    <t xml:space="preserve">23.0081367492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9118671417236</t>
   </si>
   <si>
     <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.526798248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3342628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9600028991699</t>
+    <t xml:space="preserve">22.5267963409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3342609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9600048065186</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">22.6230640411377</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1417255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603813171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4678440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5641117095947</t>
+    <t xml:space="preserve">22.1417236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.467845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5641136169434</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1385,19 +1385,19 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491844177246</t>
+    <t xml:space="preserve">21.9491882324219</t>
   </si>
   <si>
     <t xml:space="preserve">22.7674674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2379932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305286407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0454540252686</t>
+    <t xml:space="preserve">22.2379913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305267333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0454559326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.9973220825195</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">21.7085151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3450775146484</t>
+    <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
     <t xml:space="preserve">23.2969436645508</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">24.0670909881592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1633605957031</t>
+    <t xml:space="preserve">24.1633567810059</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.548433303833</t>
+    <t xml:space="preserve">24.3077640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5484313964844</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1439,52 +1439,52 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2704467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1741790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2223129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1260414123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5111179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4737987518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3293972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219326019287</t>
+    <t xml:space="preserve">24.7891044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2704448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1741771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2223110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1260433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.511116027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4738006591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219345092773</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5327529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5808849334717</t>
+    <t xml:space="preserve">27.532751083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5808868408203</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8696918487549</t>
+    <t xml:space="preserve">27.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8696937561035</t>
   </si>
   <si>
     <t xml:space="preserve">28.0622272491455</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178237915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.677152633667</t>
+    <t xml:space="preserve">27.9178256988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
     <t xml:space="preserve">27.2920818328857</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1958141326904</t>
+    <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
     <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.618200302124</t>
+    <t xml:space="preserve">26.7144718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
     <t xml:space="preserve">26.1849956512451</t>
@@ -1523,22 +1523,22 @@
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592498779297</t>
+    <t xml:space="preserve">25.5592479705811</t>
   </si>
   <si>
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816398620605</t>
+    <t xml:space="preserve">25.4148464202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551429748535</t>
+    <t xml:space="preserve">26.9551410675049</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1550,37 +1550,37 @@
     <t xml:space="preserve">27.4846172332764</t>
   </si>
   <si>
-    <t xml:space="preserve">27.629020690918</t>
+    <t xml:space="preserve">27.6290225982666</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734241485596</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1584949493408</t>
+    <t xml:space="preserve">28.1584987640381</t>
   </si>
   <si>
     <t xml:space="preserve">28.3028984069824</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7361068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0249099731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3618488311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5543899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6133403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4208030700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984130859375</t>
+    <t xml:space="preserve">28.7361087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0249137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.361852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5543880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.613338470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.420804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984149932861</t>
   </si>
   <si>
     <t xml:space="preserve">31.0465469360352</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1644477844238</t>
+    <t xml:space="preserve">32.3943023681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
     <t xml:space="preserve">33.2125854492188</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.415943145752</t>
+    <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
     <t xml:space="preserve">34.0308685302734</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5976638793945</t>
+    <t xml:space="preserve">33.59765625</t>
   </si>
   <si>
     <t xml:space="preserve">33.8864631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7901916503906</t>
+    <t xml:space="preserve">33.7901954650879</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.153636932373</t>
+    <t xml:space="preserve">32.6349754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
     <t xml:space="preserve">32.0573654174805</t>
@@ -1643,40 +1643,40 @@
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3353538513184</t>
+    <t xml:space="preserve">31.7685623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204284667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
     <t xml:space="preserve">31.2872180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9610977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722946166992</t>
+    <t xml:space="preserve">31.9610996246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.672290802002</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5278873443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5868377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7312431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.442440032959</t>
+    <t xml:space="preserve">31.5278911590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648242950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.586841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7312469482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4424362182617</t>
   </si>
   <si>
     <t xml:space="preserve">34.7528762817383</t>
@@ -1685,25 +1685,25 @@
     <t xml:space="preserve">35.2342224121094</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5819778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927963256836</t>
+    <t xml:space="preserve">36.5819816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4002571105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927925109863</t>
   </si>
   <si>
     <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5073471069336</t>
+    <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
     <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0746383666992</t>
+    <t xml:space="preserve">39.074634552002</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301162719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6834030151367</t>
+    <t xml:space="preserve">38.8301124572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6833992004395</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.710391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125869750977</t>
+    <t xml:space="preserve">39.7103958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">39.3191604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9768218994141</t>
+    <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527267456055</t>
+    <t xml:space="preserve">40.0527229309082</t>
   </si>
   <si>
     <t xml:space="preserve">40.1505355834961</t>
@@ -1787,22 +1787,22 @@
     <t xml:space="preserve">43.0358963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760398864746</t>
+    <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
     <t xml:space="preserve">42.5957527160645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154769897461</t>
+    <t xml:space="preserve">41.7154808044434</t>
   </si>
   <si>
     <t xml:space="preserve">41.6176643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.840274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139846801758</t>
+    <t xml:space="preserve">42.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.013988494873</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.774543762207</t>
+    <t xml:space="preserve">45.7745399475098</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.160701751709</t>
+    <t xml:space="preserve">44.6008377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672714233398</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4102973937988</t>
+    <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
     <t xml:space="preserve">46.2635841369629</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8606033325195</t>
+    <t xml:space="preserve">50.8605995178223</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627944946289</t>
+    <t xml:space="preserve">50.7627983093262</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408828735352</t>
+    <t xml:space="preserve">50.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321182250977</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102027893066</t>
+    <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4912796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540336608887</t>
+    <t xml:space="preserve">49.4912757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934745788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540298461914</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">52.034309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9584083557129</t>
+    <t xml:space="preserve">50.9584121704102</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452651977539</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">55.2620048522949</t>
+    <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
     <t xml:space="preserve">54.4795303344727</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7526321411133</t>
+    <t xml:space="preserve">47.3883934020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.752628326416</t>
   </si>
   <si>
     <t xml:space="preserve">45.970157623291</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3848915100098</t>
+    <t xml:space="preserve">37.4607887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8316993713379</t>
+    <t xml:space="preserve">32.1791114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8317012786865</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">31.7878761291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870826721191</t>
+    <t xml:space="preserve">36.2870788574219</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469429016113</t>
+    <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
     <t xml:space="preserve">37.9009284973145</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">47.4861946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6548194885254</t>
+    <t xml:space="preserve">46.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1876907348633</t>
+    <t xml:space="preserve">45.187686920166</t>
   </si>
   <si>
     <t xml:space="preserve">44.1117897033691</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249366760254</t>
+    <t xml:space="preserve">42.791374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249404907227</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570106506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5620918273926</t>
+    <t xml:space="preserve">46.5570068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211624145508</t>
+    <t xml:space="preserve">52.6211585998535</t>
   </si>
   <si>
     <t xml:space="preserve">52.3277359008789</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488502502441</t>
+    <t xml:space="preserve">55.5554275512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488540649414</t>
   </si>
   <si>
     <t xml:space="preserve">56.0444717407227</t>
@@ -2120,31 +2120,31 @@
     <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1962661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.3918838500977</t>
+    <t xml:space="preserve">58.1962699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.3918876647949</t>
   </si>
   <si>
     <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2181777954102</t>
+    <t xml:space="preserve">57.2181816101074</t>
   </si>
   <si>
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568252563477</t>
+    <t xml:space="preserve">59.9568290710449</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094131469727</t>
+    <t xml:space="preserve">58.9787406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">60.1524429321289</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6954727172852</t>
+    <t xml:space="preserve">62.6954689025879</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472747802734</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">63.6735610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7494583129883</t>
+    <t xml:space="preserve">64.7494506835938</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2216,22 +2216,22 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741653442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5201873779297</t>
+    <t xml:space="preserve">73.6500701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5201797485352</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245620727539</t>
+    <t xml:space="preserve">70.3245697021484</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048492431641</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.420783996582</t>
+    <t xml:space="preserve">79.4207916259766</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813507080078</t>
+    <t xml:space="preserve">81.1813430786133</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7243728637695</t>
+    <t xml:space="preserve">83.7243804931641</t>
   </si>
   <si>
     <t xml:space="preserve">84.2134170532227</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">82.9419097900391</t>
+    <t xml:space="preserve">82.9419174194336</t>
   </si>
   <si>
     <t xml:space="preserve">82.2572402954102</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265716552734</t>
+    <t xml:space="preserve">83.6265640258789</t>
   </si>
   <si>
     <t xml:space="preserve">85.1915054321289</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">78.7361297607422</t>
+    <t xml:space="preserve">78.7361221313477</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827560424805</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">78.4426956176758</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2791595458984</t>
+    <t xml:space="preserve">81.2791519165039</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">80.2032623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608291625977</t>
+    <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
     <t xml:space="preserve">87.2454986572266</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016677856445</t>
+    <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
+    <t xml:space="preserve">95.1680145263672</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044708251953</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">103.48176574707</t>
+    <t xml:space="preserve">103.481773376465</t>
   </si>
   <si>
     <t xml:space="preserve">100.156265258789</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">97.417610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">96.3417129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373382568359</t>
+    <t xml:space="preserve">96.3417205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548599243164</t>
+    <t xml:space="preserve">95.4614334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9723892211914</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767791748047</t>
+    <t xml:space="preserve">94.7767868041992</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.7650299072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.677391052246</t>
+    <t xml:space="preserve">99.765022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
     <t xml:space="preserve">107.198501586914</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">109.741523742676</t>
+    <t xml:space="preserve">109.74153137207</t>
   </si>
   <si>
     <t xml:space="preserve">112.088943481445</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">112.675796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980979919434</t>
+    <t xml:space="preserve">107.980972290039</t>
   </si>
   <si>
     <t xml:space="preserve">108.567832946777</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">110.328384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.132766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.110847473145</t>
+    <t xml:space="preserve">109.937149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.132774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.110855102539</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.916816711426</t>
+    <t xml:space="preserve">101.721199035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.91682434082</t>
   </si>
   <si>
     <t xml:space="preserve">105.633560180664</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">110.915245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">108.176582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.286148071289</t>
+    <t xml:space="preserve">108.17658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.286140441895</t>
   </si>
   <si>
     <t xml:space="preserve">104.655471801758</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">105.242324829102</t>
+    <t xml:space="preserve">105.242317199707</t>
   </si>
   <si>
     <t xml:space="preserve">107.785354614258</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">104.264236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">106.220405578613</t>
+    <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
     <t xml:space="preserve">108.763442993164</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.480171203613</t>
+    <t xml:space="preserve">116.196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
     <t xml:space="preserve">109.545913696289</t>
@@ -2582,28 +2582,28 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.218826293945</t>
+    <t xml:space="preserve">115.805686950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.21883392334</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761856079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.326797485352</t>
+    <t xml:space="preserve">118.153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.326805114746</t>
   </si>
   <si>
     <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">118.348709106445</t>
+    <t xml:space="preserve">118.34871673584</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847923278809</t>
+    <t xml:space="preserve">122.847915649414</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846343994141</t>
+    <t xml:space="preserve">131.846328735352</t>
   </si>
   <si>
     <t xml:space="preserve">134.976211547852</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">136.736770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.563079833984</t>
+    <t xml:space="preserve">136.736785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.563064575195</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453536987305</t>
+    <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
     <t xml:space="preserve">138.301727294922</t>
@@ -2696,34 +2696,34 @@
     <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
-    <t xml:space="preserve">141.040374755859</t>
+    <t xml:space="preserve">141.04035949707</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343963623047</t>
+    <t xml:space="preserve">147.691375732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300140380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343978881836</t>
   </si>
   <si>
     <t xml:space="preserve">146.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104522705078</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473831176758</t>
+    <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">155.711700439453</t>
   </si>
   <si>
-    <t xml:space="preserve">158.841567993164</t>
+    <t xml:space="preserve">158.841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">162.558303833008</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.33918762207</t>
+    <t xml:space="preserve">167.448760986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.339202880859</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099746704102</t>
+    <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
     <t xml:space="preserve">168.818084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752365112305</t>
+    <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
     <t xml:space="preserve">169.013717651367</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688186645508</t>
+    <t xml:space="preserve">165.688171386719</t>
   </si>
   <si>
     <t xml:space="preserve">175.469085693359</t>
@@ -61292,7 +61292,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6501851852</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>157983</v>
@@ -61313,6 +61313,32 @@
         <v>1338</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6506018519</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>49333</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>101.300003051758</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>103.800003051758</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>101.900001525879</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495969772339</t>
+    <t xml:space="preserve">13.8495960235596</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330675125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4028348922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1437149047852</t>
+    <t xml:space="preserve">13.2330665588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4028358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1437139511108</t>
   </si>
   <si>
     <t xml:space="preserve">13.3402891159058</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">13.2777423858643</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2241315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3938999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134822845459</t>
+    <t xml:space="preserve">13.2241325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3938989639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134841918945</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
@@ -89,28 +89,28 @@
     <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650106430054</t>
+    <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5986661911011</t>
+    <t xml:space="preserve">12.5986671447754</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110250473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226409912109</t>
+    <t xml:space="preserve">12.4467678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226419448853</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
@@ -119,28 +119,28 @@
     <t xml:space="preserve">11.7051439285278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663492202759</t>
+    <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752861022949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519041061401</t>
+    <t xml:space="preserve">12.1519050598145</t>
   </si>
   <si>
     <t xml:space="preserve">12.2412567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484792709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625524520874</t>
+    <t xml:space="preserve">12.1965799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769966125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625534057617</t>
   </si>
   <si>
     <t xml:space="preserve">12.4020900726318</t>
@@ -161,25 +161,25 @@
     <t xml:space="preserve">13.0811672210693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4564476013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475126266479</t>
+    <t xml:space="preserve">13.4564485549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581590652466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.411771774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832525253296</t>
+    <t xml:space="preserve">13.4117708206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832534790039</t>
   </si>
   <si>
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794538497925</t>
+    <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">13.3492240905762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4921884536743</t>
+    <t xml:space="preserve">13.4921903610229</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688074111938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7513093948364</t>
+    <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
     <t xml:space="preserve">14.0104312896729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7691802978516</t>
+    <t xml:space="preserve">13.7691793441772</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602434158325</t>
@@ -209,22 +209,22 @@
     <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">13.617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849658966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2866773605347</t>
+    <t xml:space="preserve">13.6172800064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849649429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2866764068604</t>
   </si>
   <si>
     <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7237577438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6522769927979</t>
+    <t xml:space="preserve">12.7237596511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6522760391235</t>
   </si>
   <si>
     <t xml:space="preserve">12.294867515564</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">12.7148237228394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8399171829224</t>
+    <t xml:space="preserve">12.839916229248</t>
   </si>
   <si>
     <t xml:space="preserve">12.8041753768921</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433410644531</t>
+    <t xml:space="preserve">12.6433401107788</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543622970581</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">12.4646377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5182485580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6880187988281</t>
+    <t xml:space="preserve">12.5182476043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
     <t xml:space="preserve">12.7863054275513</t>
@@ -275,34 +275,34 @@
     <t xml:space="preserve">12.0804233551025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1072292327881</t>
+    <t xml:space="preserve">12.1072282791138</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8577880859375</t>
+    <t xml:space="preserve">12.8577871322632</t>
   </si>
   <si>
     <t xml:space="preserve">12.4914426803589</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4557018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632972717285</t>
+    <t xml:space="preserve">12.4557008743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632982254028</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096864700317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1615839004517</t>
+    <t xml:space="preserve">13.161584854126</t>
   </si>
   <si>
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454263687134</t>
+    <t xml:space="preserve">13.0454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.1526498794556</t>
@@ -311,31 +311,31 @@
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743175506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224191665649</t>
+    <t xml:space="preserve">12.8131113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224182128906</t>
   </si>
   <si>
     <t xml:space="preserve">13.5994119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547361373901</t>
+    <t xml:space="preserve">13.5547351837158</t>
   </si>
   <si>
     <t xml:space="preserve">13.6708917617798</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283002853394</t>
+    <t xml:space="preserve">13.9032096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559520721436</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">14.1757745742798</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9269151687622</t>
+    <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
     <t xml:space="preserve">13.945348739624</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">13.9176969528198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255271911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.853178024292</t>
+    <t xml:space="preserve">13.8255281448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8531789779663</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411867141724</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020364761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.286376953125</t>
+    <t xml:space="preserve">14.1020374298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2863779067993</t>
   </si>
   <si>
     <t xml:space="preserve">14.3508958816528</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">14.3232450485229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2126426696777</t>
+    <t xml:space="preserve">14.2126417160034</t>
   </si>
   <si>
     <t xml:space="preserve">14.4154176712036</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.682710647583</t>
+    <t xml:space="preserve">14.4707183837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6827096939087</t>
   </si>
   <si>
     <t xml:space="preserve">14.7380113601685</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">14.7103605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274089813232</t>
+    <t xml:space="preserve">14.6274080276489</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181907653809</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">14.9500026702881</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0145225524902</t>
+    <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
     <t xml:space="preserve">15.1527786254883</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">15.1343441009521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.06982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9039192199707</t>
+    <t xml:space="preserve">15.0698261260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
     <t xml:space="preserve">15.0237379074097</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">14.9960889816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.977653503418</t>
+    <t xml:space="preserve">14.9776554107666</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541627883911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832025527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491075515747</t>
+    <t xml:space="preserve">15.3832035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491094589233</t>
   </si>
   <si>
     <t xml:space="preserve">15.7150144577026</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">16.2219524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1850852966309</t>
+    <t xml:space="preserve">16.1850833892822</t>
   </si>
   <si>
     <t xml:space="preserve">16.0560455322266</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598052978516</t>
+    <t xml:space="preserve">17.6598033905029</t>
   </si>
   <si>
     <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7058887481689</t>
+    <t xml:space="preserve">17.7058906555176</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492038726807</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">17.9731864929199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9547500610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229400634766</t>
+    <t xml:space="preserve">17.9639682769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9547519683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229381561279</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676364898682</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2173919677734</t>
+    <t xml:space="preserve">17.2173881530762</t>
   </si>
   <si>
     <t xml:space="preserve">17.3279933929443</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0606994628906</t>
+    <t xml:space="preserve">17.0607013702393</t>
   </si>
   <si>
     <t xml:space="preserve">17.2358264923096</t>
@@ -584,19 +584,19 @@
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897392272949</t>
+    <t xml:space="preserve">17.1897373199463</t>
   </si>
   <si>
     <t xml:space="preserve">17.3740787506104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1436557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832950592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768527984619</t>
+    <t xml:space="preserve">17.1436538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">18.0100574493408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1575260162354</t>
+    <t xml:space="preserve">18.1575241088867</t>
   </si>
   <si>
     <t xml:space="preserve">18.4063854217529</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">18.3879508972168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3418674468994</t>
+    <t xml:space="preserve">18.3418655395508</t>
   </si>
   <si>
     <t xml:space="preserve">18.3510818481445</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713981628418</t>
+    <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331420898438</t>
+    <t xml:space="preserve">19.0331401824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.7244186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7889366149902</t>
+    <t xml:space="preserve">19.7889385223389</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797203063965</t>
@@ -674,31 +674,31 @@
     <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5124282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.987060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.940975189209</t>
+    <t xml:space="preserve">19.5124263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8903274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165874481201</t>
+    <t xml:space="preserve">19.8903255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8120269775391</t>
+    <t xml:space="preserve">20.8120231628418</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913112640381</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">21.4756507873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0240173339844</t>
+    <t xml:space="preserve">21.0240154266357</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807060241699</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">20.6369018554688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8304615020752</t>
+    <t xml:space="preserve">20.8304595947266</t>
   </si>
   <si>
     <t xml:space="preserve">21.1069717407227</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">22.1208400726318</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8443336486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8535499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.581693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254978179932</t>
+    <t xml:space="preserve">21.8443355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5816955566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254997253418</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">23.3098392486572</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1209354400635</t>
+    <t xml:space="preserve">24.1209335327148</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094398498535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.591007232666</t>
+    <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
     <t xml:space="preserve">24.2407569885254</t>
@@ -800,31 +800,31 @@
     <t xml:space="preserve">22.9595928192139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4895210266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.673864364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268848419189</t>
+    <t xml:space="preserve">22.48952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6738662719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582019805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7015171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9641551971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
+    <t xml:space="preserve">22.7015151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9641532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">22.185359954834</t>
+    <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
     <t xml:space="preserve">22.4250068664551</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">22.5632591247559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7936878204346</t>
+    <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
     <t xml:space="preserve">23.319055557251</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">22.8121204376221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6830825805664</t>
+    <t xml:space="preserve">22.6830806732178</t>
   </si>
   <si>
     <t xml:space="preserve">22.8489894866943</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">23.107063293457</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1347122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383842468262</t>
+    <t xml:space="preserve">23.1347141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7383861541748</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6185626983643</t>
+    <t xml:space="preserve">22.6185646057129</t>
   </si>
   <si>
     <t xml:space="preserve">22.572473526001</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">22.6369953155518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0747585296631</t>
+    <t xml:space="preserve">22.0747604370117</t>
   </si>
   <si>
     <t xml:space="preserve">21.7982482910156</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">22.8674240112305</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8950710296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1162796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1623668670654</t>
+    <t xml:space="preserve">22.8950729370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1623649597168</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218296051025</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">24.0401401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7856960296631</t>
+    <t xml:space="preserve">23.7856979370117</t>
   </si>
   <si>
     <t xml:space="preserve">24.7092304229736</t>
@@ -929,19 +929,19 @@
     <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866691589355</t>
+    <t xml:space="preserve">26.3866710662842</t>
   </si>
   <si>
     <t xml:space="preserve">26.3678207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2547340393066</t>
+    <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">26.2358875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5845680236816</t>
+    <t xml:space="preserve">26.5845699310303</t>
   </si>
   <si>
     <t xml:space="preserve">26.4620590209961</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280284881592</t>
+    <t xml:space="preserve">26.5280265808105</t>
   </si>
   <si>
     <t xml:space="preserve">26.2453117370605</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">25.8212394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.88720703125</t>
+    <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
     <t xml:space="preserve">25.3500480651855</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">23.4841346740723</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6349143981934</t>
+    <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
     <t xml:space="preserve">23.7480010986328</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2862339019775</t>
+    <t xml:space="preserve">23.2862319946289</t>
   </si>
   <si>
     <t xml:space="preserve">23.1731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9940948486328</t>
+    <t xml:space="preserve">22.9940967559814</t>
   </si>
   <si>
     <t xml:space="preserve">23.2296924591064</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9176292419434</t>
+    <t xml:space="preserve">23.917631149292</t>
   </si>
   <si>
     <t xml:space="preserve">24.3040046691895</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537628173828</t>
+    <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">23.3804740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2391147613525</t>
+    <t xml:space="preserve">23.2391166687012</t>
   </si>
   <si>
     <t xml:space="preserve">23.1919975280762</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">24.5113315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5019035339355</t>
+    <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
     <t xml:space="preserve">24.5961456298828</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">25.1615753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981925964355</t>
+    <t xml:space="preserve">26.4337844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981906890869</t>
   </si>
   <si>
     <t xml:space="preserve">25.7741222381592</t>
@@ -1103,16 +1103,16 @@
     <t xml:space="preserve">25.7269992828369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8683586120605</t>
+    <t xml:space="preserve">25.8683605194092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1039524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6798839569092</t>
+    <t xml:space="preserve">26.1039543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
     <t xml:space="preserve">24.9730968475342</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">24.5490264892578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6432628631592</t>
+    <t xml:space="preserve">24.6432609558105</t>
   </si>
   <si>
     <t xml:space="preserve">24.8788566589355</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">24.7375030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317394256592</t>
+    <t xml:space="preserve">24.8317413330078</t>
   </si>
   <si>
     <t xml:space="preserve">25.3029327392578</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">25.2086906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5385246276855</t>
+    <t xml:space="preserve">25.5385265350342</t>
   </si>
   <si>
     <t xml:space="preserve">26.0568351745605</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1144542694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5751438140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992160797119</t>
+    <t xml:space="preserve">25.1144523620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510734558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992141723633</t>
   </si>
   <si>
     <t xml:space="preserve">28.1771926879883</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">26.9520969390869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1876926422119</t>
+    <t xml:space="preserve">27.1876907348633</t>
   </si>
   <si>
     <t xml:space="preserve">27.0463371276855</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049777984619</t>
+    <t xml:space="preserve">26.9049797058105</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002395629883</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">28.0829524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1405735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7060012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704055786133</t>
+    <t xml:space="preserve">27.1405754089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232902526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7059993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704036712646</t>
   </si>
   <si>
     <t xml:space="preserve">28.4599056243896</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">28.7897396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">29.355167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7426223754883</t>
+    <t xml:space="preserve">29.3551692962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7426204681396</t>
   </si>
   <si>
     <t xml:space="preserve">27.6588840484619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5646457672119</t>
+    <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531223297119</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">27.5175266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7626056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6663360595703</t>
+    <t xml:space="preserve">26.7626037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6663379669189</t>
   </si>
   <si>
     <t xml:space="preserve">27.0514106750488</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">25.7036552429199</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8961887359619</t>
+    <t xml:space="preserve">25.8961906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.462984085083</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0081367492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9118671417236</t>
+    <t xml:space="preserve">23.1044082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0081386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
     <t xml:space="preserve">22.671199798584</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230640411377</t>
+    <t xml:space="preserve">22.6230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">22.1417236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6603851318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.467845916748</t>
+    <t xml:space="preserve">21.6603832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
     <t xml:space="preserve">21.5641136169434</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">22.2379913330078</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4305267333984</t>
+    <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
     <t xml:space="preserve">22.0454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973220825195</t>
+    <t xml:space="preserve">21.9973201751709</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0670909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633567810059</t>
+    <t xml:space="preserve">24.0670928955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">24.3077640533447</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5484313964844</t>
+    <t xml:space="preserve">24.548433303833</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741771697998</t>
+    <t xml:space="preserve">25.1741752624512</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223110198975</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">26.3293991088867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5219345092773</t>
+    <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588733673096</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">27.532751083374</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5808868408203</t>
+    <t xml:space="preserve">27.5808849334717</t>
   </si>
   <si>
     <t xml:space="preserve">27.4364833831787</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">27.8696937561035</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0622272491455</t>
+    <t xml:space="preserve">28.0622253417969</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">27.6771545410156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2920818328857</t>
+    <t xml:space="preserve">27.2920799255371</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439460754395</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">26.570068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144718170166</t>
+    <t xml:space="preserve">26.714469909668</t>
   </si>
   <si>
     <t xml:space="preserve">26.6182022094727</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">25.5592479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6555194854736</t>
+    <t xml:space="preserve">25.655517578125</t>
   </si>
   <si>
     <t xml:space="preserve">25.4148464202881</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9816417694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0887260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9551410675049</t>
+    <t xml:space="preserve">24.9816398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0887279510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9551429748535</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1547,19 +1547,19 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4846172332764</t>
+    <t xml:space="preserve">27.484619140625</t>
   </si>
   <si>
     <t xml:space="preserve">27.6290225982666</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7734241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1584987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3028984069824</t>
+    <t xml:space="preserve">27.7734222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1584968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3028964996338</t>
   </si>
   <si>
     <t xml:space="preserve">28.7361087799072</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">29.0249137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">29.361852645874</t>
+    <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
     <t xml:space="preserve">29.5543880462646</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">30.613338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">30.420804977417</t>
+    <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984149932861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465469360352</t>
+    <t xml:space="preserve">31.0465488433838</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2125854492188</t>
+    <t xml:space="preserve">33.212589263916</t>
   </si>
   <si>
     <t xml:space="preserve">34.2234039306641</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308685302734</t>
+    <t xml:space="preserve">34.0308647155762</t>
   </si>
   <si>
     <t xml:space="preserve">34.3196754455566</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">33.59765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8864631652832</t>
+    <t xml:space="preserve">33.5976600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8864669799805</t>
   </si>
   <si>
     <t xml:space="preserve">33.7901954650879</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872180938721</t>
+    <t xml:space="preserve">31.2872219085693</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610996246338</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">31.672290802002</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1054992675781</t>
+    <t xml:space="preserve">32.1054954528809</t>
   </si>
   <si>
     <t xml:space="preserve">31.5278911590576</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">34.7528762817383</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2342224121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5819816589355</t>
+    <t xml:space="preserve">35.2342185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
     <t xml:space="preserve">37.4002571105957</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9279251098633</t>
+    <t xml:space="preserve">38.927921295166</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1736,25 +1736,25 @@
     <t xml:space="preserve">39.6125831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1994361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9060134887695</t>
+    <t xml:space="preserve">40.1994400024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9060096740723</t>
   </si>
   <si>
     <t xml:space="preserve">39.6614875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3191604614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9768257141113</t>
+    <t xml:space="preserve">39.3191566467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9768295288086</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5636825561523</t>
+    <t xml:space="preserve">39.5636787414551</t>
   </si>
   <si>
     <t xml:space="preserve">39.1235389709473</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.4169654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2702522277832</t>
+    <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
     <t xml:space="preserve">40.2483444213867</t>
@@ -1772,40 +1772,40 @@
     <t xml:space="preserve">40.0038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0527229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1505355834961</t>
+    <t xml:space="preserve">40.0527267456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1505317687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.7862930297852</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1067085266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0358963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5957527160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6176643371582</t>
+    <t xml:space="preserve">42.1067123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0358924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4760322570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5957565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6176681518555</t>
   </si>
   <si>
     <t xml:space="preserve">42.8402786254883</t>
   </si>
   <si>
-    <t xml:space="preserve">44.013988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4541244506836</t>
+    <t xml:space="preserve">44.0139846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">45.2365951538086</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8672714233398</t>
+    <t xml:space="preserve">43.8672676086426</t>
   </si>
   <si>
     <t xml:space="preserve">45.921257019043</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">46.2635841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6059226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7088050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9803237915039</t>
+    <t xml:space="preserve">46.6059188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7088088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9803199768066</t>
   </si>
   <si>
     <t xml:space="preserve">49.686897277832</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8605995178223</t>
+    <t xml:space="preserve">50.8606033325195</t>
   </si>
   <si>
     <t xml:space="preserve">50.3715591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.7627983093262</t>
+    <t xml:space="preserve">50.7627944946289</t>
   </si>
   <si>
     <t xml:space="preserve">50.469367980957</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">51.7408866882324</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8926773071289</t>
+    <t xml:space="preserve">52.1321144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8926734924316</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0123977661133</t>
+    <t xml:space="preserve">53.0124015808105</t>
   </si>
   <si>
     <t xml:space="preserve">52.816780090332</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">49.3934745788574</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1540298461914</t>
+    <t xml:space="preserve">51.1540260314941</t>
   </si>
   <si>
     <t xml:space="preserve">52.5233573913574</t>
   </si>
   <si>
-    <t xml:space="preserve">52.034309387207</t>
+    <t xml:space="preserve">52.0343132019043</t>
   </si>
   <si>
     <t xml:space="preserve">50.9584121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5452651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.6970596313477</t>
+    <t xml:space="preserve">51.5452690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">48.0241432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3883934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.970157623291</t>
+    <t xml:space="preserve">47.3883895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9701614379883</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
@@ -1958,13 +1958,13 @@
     <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8317012786865</t>
+    <t xml:space="preserve">29.8316993713379</t>
   </si>
   <si>
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878761291504</t>
+    <t xml:space="preserve">31.7878799438477</t>
   </si>
   <si>
     <t xml:space="preserve">31.0543098449707</t>
@@ -1988,25 +1988,25 @@
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009284973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0476417541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.949836730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1016311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3242416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8840980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7256355285645</t>
+    <t xml:space="preserve">37.9009323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9498329162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1016273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3242378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8841018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
     <t xml:space="preserve">46.9971542358398</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4861946105957</t>
+    <t xml:space="preserve">47.486198425293</t>
   </si>
   <si>
     <t xml:space="preserve">46.6548233032227</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
+    <t xml:space="preserve">42.7913703918457</t>
   </si>
   <si>
     <t xml:space="preserve">43.5249404907227</t>
@@ -2057,49 +2057,49 @@
     <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5570068359375</t>
+    <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
     <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7577133178711</t>
+    <t xml:space="preserve">48.7577095031738</t>
   </si>
   <si>
     <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0022354125977</t>
+    <t xml:space="preserve">49.0022315979004</t>
   </si>
   <si>
     <t xml:space="preserve">49.5890884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6211585998535</t>
+    <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
     <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9145889282227</t>
+    <t xml:space="preserve">52.9145851135254</t>
   </si>
   <si>
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.164192199707</t>
+    <t xml:space="preserve">54.2839126586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.1641960144043</t>
   </si>
   <si>
     <t xml:space="preserve">54.6751518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3378982543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9247512817383</t>
+    <t xml:space="preserve">56.3379020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9247550964355</t>
   </si>
   <si>
     <t xml:space="preserve">56.729133605957</t>
@@ -2108,31 +2108,31 @@
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488540649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444717407227</t>
+    <t xml:space="preserve">55.8488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0006484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1962699890137</t>
+    <t xml:space="preserve">58.0006446838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1962661743164</t>
   </si>
   <si>
     <t xml:space="preserve">58.3918876647949</t>
   </si>
   <si>
-    <t xml:space="preserve">57.511604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2181816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.5875053405762</t>
+    <t xml:space="preserve">57.5116004943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2181777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.5875015258789</t>
   </si>
   <si>
     <t xml:space="preserve">59.9568290710449</t>
@@ -2150,13 +2150,13 @@
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954689025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8472747802734</t>
+    <t xml:space="preserve">60.1524391174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954727172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8472671508789</t>
   </si>
   <si>
     <t xml:space="preserve">63.6735610961914</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428848266602</t>
+    <t xml:space="preserve">65.0428924560547</t>
   </si>
   <si>
     <t xml:space="preserve">65.7275466918945</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034515380859</t>
+    <t xml:space="preserve">66.8034439086914</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">67.9771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3464736938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5960845947266</t>
+    <t xml:space="preserve">69.3464813232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
     <t xml:space="preserve">70.7158050537109</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">72.8675918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3785552978516</t>
+    <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500701904297</t>
+    <t xml:space="preserve">73.6500778198242</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0092163085938</t>
+    <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">76.4865188598633</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6164016723633</t>
+    <t xml:space="preserve">79.6164093017578</t>
   </si>
   <si>
     <t xml:space="preserve">80.0076446533203</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">83.7243804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9419174194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">84.2134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9419097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">83.6265640258789</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915054321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6046600341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1156158447266</t>
+    <t xml:space="preserve">85.1915130615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6046524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.115608215332</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361221313477</t>
@@ -2315,16 +2315,16 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791519165039</t>
+    <t xml:space="preserve">78.4427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791442871094</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725860595703</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">84.3112258911133</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1594390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3988723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2032623291016</t>
+    <t xml:space="preserve">82.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3988800048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.203254699707</t>
   </si>
   <si>
     <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2454986572266</t>
+    <t xml:space="preserve">87.245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7126235961914</t>
+    <t xml:space="preserve">88.7126312255859</t>
   </si>
   <si>
     <t xml:space="preserve">92.9184112548828</t>
@@ -2372,10 +2372,10 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680145263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0044708251953</t>
+    <t xml:space="preserve">95.1680068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
     <t xml:space="preserve">99.3737945556641</t>
@@ -2402,13 +2402,13 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088531494141</t>
+    <t xml:space="preserve">97.8088607788086</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.417610168457</t>
+    <t xml:space="preserve">97.4176177978516</t>
   </si>
   <si>
     <t xml:space="preserve">96.3417205810547</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
@@ -2432,25 +2432,25 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614334106445</t>
+    <t xml:space="preserve">95.4614410400391</t>
   </si>
   <si>
     <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">94.9723892211914</t>
+    <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
   </si>
   <si>
-    <t xml:space="preserve">94.7767868041992</t>
+    <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.765022277832</t>
+    <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
     <t xml:space="preserve">103.677383422852</t>
@@ -2465,22 +2465,22 @@
     <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">109.74153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.088943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.675796508789</t>
+    <t xml:space="preserve">109.741523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.088935852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.675804138184</t>
   </si>
   <si>
     <t xml:space="preserve">107.980972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">108.567832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.328384399414</t>
+    <t xml:space="preserve">108.567825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
     <t xml:space="preserve">109.937149047852</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">111.893325805664</t>
   </si>
   <si>
-    <t xml:space="preserve">110.132774353027</t>
+    <t xml:space="preserve">110.132766723633</t>
   </si>
   <si>
     <t xml:space="preserve">111.110855102539</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">104.459861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">101.721199035645</t>
+    <t xml:space="preserve">101.721206665039</t>
   </si>
   <si>
     <t xml:space="preserve">101.91682434082</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">105.633560180664</t>
   </si>
   <si>
-    <t xml:space="preserve">105.829177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.372207641602</t>
+    <t xml:space="preserve">105.829170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.372215270996</t>
   </si>
   <si>
     <t xml:space="preserve">109.350303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.915245056152</t>
+    <t xml:space="preserve">110.915237426758</t>
   </si>
   <si>
     <t xml:space="preserve">108.17658996582</t>
@@ -2531,19 +2531,19 @@
     <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">105.242317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.785354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.264236450195</t>
+    <t xml:space="preserve">105.242324829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.785346984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.264228820801</t>
   </si>
   <si>
     <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">108.763442993164</t>
+    <t xml:space="preserve">108.76343536377</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545913696289</t>
+    <t xml:space="preserve">109.545921325684</t>
   </si>
   <si>
     <t xml:space="preserve">113.458267211914</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">112.284568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">112.871421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.849502563477</t>
+    <t xml:space="preserve">112.87141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.849510192871</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">117.761863708496</t>
   </si>
   <si>
-    <t xml:space="preserve">119.326805114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.739952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.34871673584</t>
+    <t xml:space="preserve">119.326797485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.739944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
     <t xml:space="preserve">119.131187438965</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">134.389358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.08576965332</t>
+    <t xml:space="preserve">130.085784912109</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">131.846328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.976211547852</t>
+    <t xml:space="preserve">134.976226806641</t>
   </si>
   <si>
     <t xml:space="preserve">137.128005981445</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
-    <t xml:space="preserve">135.563064575195</t>
+    <t xml:space="preserve">135.563079833984</t>
   </si>
   <si>
     <t xml:space="preserve">135.367446899414</t>
@@ -2654,19 +2654,19 @@
     <t xml:space="preserve">137.91047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">139.671035766602</t>
+    <t xml:space="preserve">139.671051025391</t>
   </si>
   <si>
     <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">138.301727294922</t>
+    <t xml:space="preserve">138.301712036133</t>
   </si>
   <si>
     <t xml:space="preserve">134.78059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">137.714859008789</t>
+    <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
     <t xml:space="preserve">139.279800415039</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">140.062271118164</t>
+    <t xml:space="preserve">140.062255859375</t>
   </si>
   <si>
     <t xml:space="preserve">141.627227783203</t>
@@ -2702,22 +2702,22 @@
     <t xml:space="preserve">138.497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">147.691375732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300140380859</t>
+    <t xml:space="preserve">147.691360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300155639648</t>
   </si>
   <si>
     <t xml:space="preserve">145.343978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">146.908905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">146.908889770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711700439453</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711685180664</t>
   </si>
   <si>
     <t xml:space="preserve">158.841583251953</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558303833008</t>
+    <t xml:space="preserve">162.558288574219</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2789,28 +2789,28 @@
     <t xml:space="preserve">174.099761962891</t>
   </si>
   <si>
-    <t xml:space="preserve">168.818084716797</t>
+    <t xml:space="preserve">168.818099975586</t>
   </si>
   <si>
     <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
-    <t xml:space="preserve">169.013717651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.318878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.688171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.469085693359</t>
+    <t xml:space="preserve">169.013702392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.318862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
     <t xml:space="preserve">170.774261474609</t>
   </si>
   <si>
-    <t xml:space="preserve">165.515869140625</t>
+    <t xml:space="preserve">165.515884399414</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576217651367</t>
+    <t xml:space="preserve">150.576202392578</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362503051758</t>
+    <t xml:space="preserve">151.362518310547</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635757446289</t>
+    <t xml:space="preserve">158.635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.336441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037094116211</t>
+    <t xml:space="preserve">164.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037109375</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695327758789</t>
+    <t xml:space="preserve">169.250793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387054443359</t>
+    <t xml:space="preserve">181.438446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387069702148</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216552734375</t>
+    <t xml:space="preserve">171.216537475586</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524063110352</t>
+    <t xml:space="preserve">176.524078369141</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737777709961</t>
+    <t xml:space="preserve">175.737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430236816406</t>
+    <t xml:space="preserve">170.430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.200180053711</t>
+    <t xml:space="preserve">155.687149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.2001953125</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866607666016</t>
+    <t xml:space="preserve">156.866592407227</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601501464844</t>
+    <t xml:space="preserve">160.601516723633</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636535644531</t>
+    <t xml:space="preserve">135.636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884490966797</t>
+    <t xml:space="preserve">137.798843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884475708008</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491333007812</t>
+    <t xml:space="preserve">131.705032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550903320312</t>
+    <t xml:space="preserve">140.550888061523</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.36328125</t>
+    <t xml:space="preserve">127.576972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.926910400391</t>
+    <t xml:space="preserve">141.92692565918</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448135375977</t>
+    <t xml:space="preserve">146.448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251556396484</t>
+    <t xml:space="preserve">146.251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320083618164</t>
+    <t xml:space="preserve">143.008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393051147461</t>
+    <t xml:space="preserve">145.465255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393035888672</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611228942871</t>
+    <t xml:space="preserve">125.611221313477</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244140625</t>
+    <t xml:space="preserve">112.244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944816589355</t>
+    <t xml:space="preserve">117.944808959961</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.69686126709</t>
+    <t xml:space="preserve">120.696853637695</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760887145996</t>
+    <t xml:space="preserve">122.760894775391</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.15404510498</t>
+    <t xml:space="preserve">123.154037475586</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.419120788574</t>
+    <t xml:space="preserve">119.41911315918</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.08553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820449829102</t>
+    <t xml:space="preserve">127.380401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820465087891</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.06022644043</t>
+    <t xml:space="preserve">117.060218811035</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521881103516</t>
+    <t xml:space="preserve">113.521873474121</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778022766113</t>
+    <t xml:space="preserve">121.778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500274658203</t>
+    <t xml:space="preserve">120.500282287598</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684196472168</t>
+    <t xml:space="preserve">115.684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397529602051</t>
+    <t xml:space="preserve">120.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.44889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397521972656</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.641006469727</t>
+    <t xml:space="preserve">133.572494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.640991210938</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901596069336</t>
+    <t xml:space="preserve">131.901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.29923248291</t>
+    <t xml:space="preserve">129.149566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136917114258</t>
+    <t xml:space="preserve">124.136909484863</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743759155273</t>
+    <t xml:space="preserve">121.581443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743766784668</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141380310059</t>
+    <t xml:space="preserve">118.436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -61318,7 +61318,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6506018519</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>49333</v>
@@ -61339,6 +61339,32 @@
         <v>1437</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6496296296</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>40489</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>103.400001525879</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>101.300003051758</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>101.800003051758</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>103.400001525879</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495960235596</t>
+    <t xml:space="preserve">13.8495969772339</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330665588379</t>
+    <t xml:space="preserve">13.8317270278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5458002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330675125122</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437139511108</t>
+    <t xml:space="preserve">13.1437158584595</t>
   </si>
   <si>
     <t xml:space="preserve">13.3402891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2777423858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3938989639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134841918945</t>
+    <t xml:space="preserve">13.2777414321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3938999176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
@@ -80,97 +80,97 @@
     <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0007514953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650096893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8845930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986671447754</t>
+    <t xml:space="preserve">12.8667211532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722341537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.000750541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650106430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8845920562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986661911011</t>
   </si>
   <si>
     <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110260009766</t>
+    <t xml:space="preserve">12.4467668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110250473022</t>
   </si>
   <si>
     <t xml:space="preserve">11.1690292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226419448853</t>
+    <t xml:space="preserve">11.2226409912109</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7051439285278</t>
+    <t xml:space="preserve">11.7051429748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752861022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1519050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2769966125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625534057617</t>
+    <t xml:space="preserve">12.3752841949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1519060134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965789794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2769985198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
     <t xml:space="preserve">12.4020900726318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306093215942</t>
+    <t xml:space="preserve">12.0893583297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306102752686</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9560747146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811672210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564485549927</t>
+    <t xml:space="preserve">12.956075668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.081169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564476013184</t>
   </si>
   <si>
     <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3581590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4117708206177</t>
+    <t xml:space="preserve">13.3581600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.411771774292</t>
   </si>
   <si>
     <t xml:space="preserve">13.4832534790039</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794548034668</t>
+    <t xml:space="preserve">13.1794557571411</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3492240905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921903610229</t>
+    <t xml:space="preserve">13.3492250442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921894073486</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688074111938</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104312896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691793441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5011224746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6172800064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2866764068604</t>
+    <t xml:space="preserve">14.0104322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691802978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602443695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5011234283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.617280960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2866773605347</t>
   </si>
   <si>
     <t xml:space="preserve">12.9203338623047</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7237596511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6522760391235</t>
+    <t xml:space="preserve">12.7237577438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
     <t xml:space="preserve">12.294867515564</t>
@@ -233,34 +233,34 @@
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7148237228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.839916229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041753768921</t>
+    <t xml:space="preserve">12.714822769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8399171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041744232178</t>
   </si>
   <si>
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433401107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543622970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7058887481689</t>
+    <t xml:space="preserve">12.6433410644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7058868408203</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4646377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182476043701</t>
+    <t xml:space="preserve">12.4646368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182495117188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6880178451538</t>
@@ -269,31 +269,31 @@
     <t xml:space="preserve">12.7863054275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6612119674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804233551025</t>
+    <t xml:space="preserve">12.6612129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804224014282</t>
   </si>
   <si>
     <t xml:space="preserve">12.1072282791138</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5271835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577871322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914426803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557008743286</t>
+    <t xml:space="preserve">12.5271825790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577861785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914417266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0632982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0096864700317</t>
+    <t xml:space="preserve">13.0096874237061</t>
   </si>
   <si>
     <t xml:space="preserve">13.161584854126</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">13.4743185043335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3224182128906</t>
+    <t xml:space="preserve">13.3224191665649</t>
   </si>
   <si>
     <t xml:space="preserve">13.5994119644165</t>
@@ -326,121 +326,121 @@
     <t xml:space="preserve">13.5547351837158</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6708917617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.992561340332</t>
+    <t xml:space="preserve">13.6708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.903208732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
     <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0559520721436</t>
+    <t xml:space="preserve">14.0559511184692</t>
   </si>
   <si>
     <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1757745742798</t>
+    <t xml:space="preserve">14.1757736206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9269142150879</t>
   </si>
   <si>
-    <t xml:space="preserve">13.945348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9637823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8992624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9176969528198</t>
+    <t xml:space="preserve">13.9453477859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9637804031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8992643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
     <t xml:space="preserve">13.8255281448364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8531789779663</t>
+    <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411867141724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808288574219</t>
+    <t xml:space="preserve">13.8808298110962</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836019515991</t>
+    <t xml:space="preserve">14.0836048126221</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1020374298096</t>
+    <t xml:space="preserve">14.1020383834839</t>
   </si>
   <si>
     <t xml:space="preserve">14.2863779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508958816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232450485229</t>
+    <t xml:space="preserve">14.3508968353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232460021973</t>
   </si>
   <si>
     <t xml:space="preserve">14.2126417160034</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4154176712036</t>
+    <t xml:space="preserve">14.4154167175293</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707183837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6827096939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380113601685</t>
+    <t xml:space="preserve">14.4707174301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6827087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380104064941</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315710067749</t>
+    <t xml:space="preserve">14.9315719604492</t>
   </si>
   <si>
     <t xml:space="preserve">14.986870765686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7103605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274080276489</t>
+    <t xml:space="preserve">14.7103614807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
     <t xml:space="preserve">14.6181907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8670501708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606069564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421724319458</t>
+    <t xml:space="preserve">14.8670492172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684381484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421743392944</t>
   </si>
   <si>
     <t xml:space="preserve">14.9592199325562</t>
@@ -458,40 +458,40 @@
     <t xml:space="preserve">15.1343441009521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0698261260986</t>
+    <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
     <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301811218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960889816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541627883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150144577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772521972656</t>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301820755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776544570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.715015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.899356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772541046143</t>
   </si>
   <si>
     <t xml:space="preserve">16.1297798156738</t>
@@ -506,22 +506,22 @@
     <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3049030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1160011291504</t>
+    <t xml:space="preserve">16.3049049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.116003036499</t>
   </si>
   <si>
     <t xml:space="preserve">17.2450389862061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4662494659424</t>
+    <t xml:space="preserve">17.4662475585938</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6045074462891</t>
+    <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
     <t xml:space="preserve">17.3556461334229</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874580383301</t>
+    <t xml:space="preserve">17.6874599456787</t>
   </si>
   <si>
     <t xml:space="preserve">17.410945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6598033905029</t>
+    <t xml:space="preserve">17.6598052978516</t>
   </si>
   <si>
     <t xml:space="preserve">17.8625793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7058906555176</t>
+    <t xml:space="preserve">17.7058925628662</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492038726807</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229381561279</t>
+    <t xml:space="preserve">17.6229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676364898682</t>
@@ -569,64 +569,64 @@
     <t xml:space="preserve">17.2173881530762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3279933929443</t>
+    <t xml:space="preserve">17.327995300293</t>
   </si>
   <si>
     <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0607013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2358264923096</t>
+    <t xml:space="preserve">17.0606994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2358226776123</t>
   </si>
   <si>
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3740787506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436538696289</t>
+    <t xml:space="preserve">17.1897392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3740825653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436519622803</t>
   </si>
   <si>
     <t xml:space="preserve">17.3832969665527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768547058105</t>
+    <t xml:space="preserve">17.5768527984619</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100574493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1575241088867</t>
+    <t xml:space="preserve">18.0100555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.157527923584</t>
   </si>
   <si>
     <t xml:space="preserve">18.4063854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3879508972168</t>
+    <t xml:space="preserve">18.3879528045654</t>
   </si>
   <si>
     <t xml:space="preserve">18.3418655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3510818481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.20361328125</t>
+    <t xml:space="preserve">18.3510837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713962554932</t>
+    <t xml:space="preserve">19.1713981628418</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889385223389</t>
+    <t xml:space="preserve">19.0331420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797203063965</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0838851928711</t>
+    <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585155487061</t>
+    <t xml:space="preserve">19.6783313751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585098266602</t>
   </si>
   <si>
     <t xml:space="preserve">19.6230316162109</t>
@@ -671,34 +671,34 @@
     <t xml:space="preserve">19.3741722106934</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3280868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999412536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409732818604</t>
+    <t xml:space="preserve">19.3280849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.987060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409694671631</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8903255462646</t>
+    <t xml:space="preserve">19.890323638916</t>
   </si>
   <si>
     <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4617805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120231628418</t>
+    <t xml:space="preserve">20.4617824554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913112640381</t>
@@ -707,58 +707,58 @@
     <t xml:space="preserve">21.7521629333496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373966217041</t>
+    <t xml:space="preserve">21.3373947143555</t>
   </si>
   <si>
     <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5678195953369</t>
+    <t xml:space="preserve">21.5678234100342</t>
   </si>
   <si>
     <t xml:space="preserve">21.4756507873535</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0240154266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1807060241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.060884475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304595947266</t>
+    <t xml:space="preserve">21.024019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1807079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0608882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.636905670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304634094238</t>
   </si>
   <si>
     <t xml:space="preserve">21.1069717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1208400726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8443355560303</t>
+    <t xml:space="preserve">22.1208438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
     <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5816955566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254997253418</t>
+    <t xml:space="preserve">22.581693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1254959106445</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098392486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209335327148</t>
+    <t xml:space="preserve">23.3098373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209354400635</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094398498535</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">24.2407569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4619655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882274627686</t>
+    <t xml:space="preserve">24.4619693756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882312774658</t>
   </si>
   <si>
     <t xml:space="preserve">24.3329277038574</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">24.0287666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5033931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9780254364014</t>
+    <t xml:space="preserve">23.5033950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.97802734375</t>
   </si>
   <si>
     <t xml:space="preserve">23.0425453186035</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9503746032715</t>
+    <t xml:space="preserve">22.9503726959229</t>
   </si>
   <si>
     <t xml:space="preserve">22.9595928192139</t>
@@ -803,85 +803,85 @@
     <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6738662719727</t>
+    <t xml:space="preserve">22.673864364624</t>
   </si>
   <si>
     <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8582019805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7015151977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9641532897949</t>
+    <t xml:space="preserve">22.8582038879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7015113830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9641551971436</t>
   </si>
   <si>
     <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604850769043</t>
+    <t xml:space="preserve">22.3604869842529</t>
   </si>
   <si>
     <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250068664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632591247559</t>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.319055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121204376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6830806732178</t>
+    <t xml:space="preserve">23.3190536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6830825805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241107940674</t>
+    <t xml:space="preserve">23.0241088867188</t>
   </si>
   <si>
     <t xml:space="preserve">23.107063293457</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1347141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383861541748</t>
+    <t xml:space="preserve">23.1347160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7383823394775</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6185646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.572473526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6277770996094</t>
+    <t xml:space="preserve">22.6185626983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5724754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.627779006958</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369953155518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0747604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7982482910156</t>
+    <t xml:space="preserve">22.0747585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.798246383667</t>
   </si>
   <si>
     <t xml:space="preserve">22.0378894805908</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">22.5171737670898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1669273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8674240112305</t>
+    <t xml:space="preserve">22.1669292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8674201965332</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1162815093994</t>
+    <t xml:space="preserve">23.1162796020508</t>
   </si>
   <si>
     <t xml:space="preserve">23.1623649597168</t>
@@ -914,22 +914,22 @@
     <t xml:space="preserve">24.0401401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7856979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7092304229736</t>
+    <t xml:space="preserve">23.7856960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.709228515625</t>
   </si>
   <si>
     <t xml:space="preserve">25.2558097839355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3217811584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023910522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866710662842</t>
+    <t xml:space="preserve">25.32177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023929595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866691589355</t>
   </si>
   <si>
     <t xml:space="preserve">26.3678207397461</t>
@@ -938,40 +938,40 @@
     <t xml:space="preserve">26.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2358875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5845699310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620590209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562953948975</t>
+    <t xml:space="preserve">26.2358856201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5845680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620571136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562973022461</t>
   </si>
   <si>
     <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809055328369</t>
+    <t xml:space="preserve">26.4809093475342</t>
   </si>
   <si>
     <t xml:space="preserve">26.3772449493408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5280265808105</t>
+    <t xml:space="preserve">26.5280246734619</t>
   </si>
   <si>
     <t xml:space="preserve">26.2453117370605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2264633178711</t>
+    <t xml:space="preserve">26.2264652252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625949859619</t>
+    <t xml:space="preserve">25.9625968933105</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212394714355</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500480651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814434051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1898460388184</t>
+    <t xml:space="preserve">25.3500499725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1898441314697</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">25.51025390625</t>
+    <t xml:space="preserve">25.5102519989014</t>
   </si>
   <si>
     <t xml:space="preserve">25.4442882537842</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">23.7008819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841346740723</t>
+    <t xml:space="preserve">23.4841365814209</t>
   </si>
   <si>
     <t xml:space="preserve">23.634916305542</t>
@@ -1010,52 +1010,52 @@
     <t xml:space="preserve">23.7480010986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5029830932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2862319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1731491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9940967559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2296924591064</t>
+    <t xml:space="preserve">23.5029811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1731510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9940986633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2296905517578</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8150424957275</t>
+    <t xml:space="preserve">22.8150463104248</t>
   </si>
   <si>
     <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6254920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4181671142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.917631149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3040046691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438026428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6537647247314</t>
+    <t xml:space="preserve">23.6254901885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4181690216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9176292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3040065765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438007354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6537628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804740905762</t>
+    <t xml:space="preserve">23.3804702758789</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391166687012</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113315582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5019054412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5961456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846202850342</t>
+    <t xml:space="preserve">24.2663097381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113296508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5019073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5961437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846183776855</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259796142578</t>
@@ -1091,13 +1091,13 @@
     <t xml:space="preserve">25.1615753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741222381592</t>
+    <t xml:space="preserve">26.4337863922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
     <t xml:space="preserve">25.7269992828369</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">25.8683605194092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0097160339355</t>
+    <t xml:space="preserve">26.0097141265869</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
@@ -1115,40 +1115,40 @@
     <t xml:space="preserve">25.6798820495605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9730968475342</t>
+    <t xml:space="preserve">24.9731006622314</t>
   </si>
   <si>
     <t xml:space="preserve">24.1720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5490264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432609558105</t>
+    <t xml:space="preserve">24.5490245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432628631592</t>
   </si>
   <si>
     <t xml:space="preserve">24.8788566589355</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7375030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8317413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5385265350342</t>
+    <t xml:space="preserve">24.7375011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8317394256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
     <t xml:space="preserve">26.0568351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2924289703369</t>
+    <t xml:space="preserve">26.2924327850342</t>
   </si>
   <si>
     <t xml:space="preserve">25.1144523620605</t>
@@ -1157,28 +1157,28 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751457214355</t>
+    <t xml:space="preserve">26.5751438140869</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992141723633</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1771926879883</t>
+    <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
     <t xml:space="preserve">28.3656692504883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6955032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1300754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3290481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0934543609619</t>
+    <t xml:space="preserve">28.6955013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1300735473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3290519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0934524536133</t>
   </si>
   <si>
     <t xml:space="preserve">25.5856437683105</t>
@@ -1193,67 +1193,67 @@
     <t xml:space="preserve">27.1876907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0463371276855</t>
+    <t xml:space="preserve">27.0463333129883</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049797058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002395629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8578567504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8944797515869</t>
+    <t xml:space="preserve">26.9049777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8578586578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0829524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405754089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232902526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7059993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704036712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599056243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4022903442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2138118743896</t>
+    <t xml:space="preserve">28.082950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7060012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022884368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.213809967041</t>
   </si>
   <si>
     <t xml:space="preserve">28.5541439056396</t>
   </si>
   <si>
-    <t xml:space="preserve">29.449405670166</t>
+    <t xml:space="preserve">29.4494075775146</t>
   </si>
   <si>
     <t xml:space="preserve">28.7897396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3551692962646</t>
+    <t xml:space="preserve">29.355167388916</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426204681396</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6588840484619</t>
+    <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
     <t xml:space="preserve">27.5646438598633</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">27.3761692047119</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6222629547119</t>
+    <t xml:space="preserve">26.6222648620605</t>
   </si>
   <si>
     <t xml:space="preserve">28.2714290618896</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">27.5175266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7626037597656</t>
+    <t xml:space="preserve">26.7626056671143</t>
   </si>
   <si>
     <t xml:space="preserve">26.6663379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0514106750488</t>
+    <t xml:space="preserve">27.0514125823975</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107395172119</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">25.462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0297737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9335041046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521636962891</t>
+    <t xml:space="preserve">25.0297756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9335060119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521656036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044082641602</t>
+    <t xml:space="preserve">23.1044063568115</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">22.5267963409424</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3342609405518</t>
+    <t xml:space="preserve">22.3342628479004</t>
   </si>
   <si>
     <t xml:space="preserve">22.9600048065186</t>
@@ -1352,31 +1352,31 @@
     <t xml:space="preserve">23.9226894378662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.730152130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3932113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0189571380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0562744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6230659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417236328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6603832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4678440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5641136169434</t>
+    <t xml:space="preserve">23.7301502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3932132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0189590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0562725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6603813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.467845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5641117095947</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491882324219</t>
+    <t xml:space="preserve">21.9491863250732</t>
   </si>
   <si>
     <t xml:space="preserve">22.7674674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2379913330078</t>
+    <t xml:space="preserve">22.2379932403564</t>
   </si>
   <si>
     <t xml:space="preserve">22.4305286407471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9973201751709</t>
+    <t xml:space="preserve">22.0454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9973239898682</t>
   </si>
   <si>
     <t xml:space="preserve">21.8047847747803</t>
@@ -1412,22 +1412,22 @@
     <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2969436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0670928955078</t>
+    <t xml:space="preserve">23.2969455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0670890808105</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2596282958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2114944458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3077640533447</t>
+    <t xml:space="preserve">24.2596263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2114925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
     <t xml:space="preserve">24.548433303833</t>
@@ -1439,40 +1439,40 @@
     <t xml:space="preserve">24.692834854126</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7891044616699</t>
+    <t xml:space="preserve">24.7891025543213</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1741752624512</t>
+    <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
     <t xml:space="preserve">25.2223110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1260433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185806274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.511116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4738006591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3293991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219326019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8588733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.532751083374</t>
+    <t xml:space="preserve">25.1260414123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185768127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5111198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4737987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3293972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219345092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8588752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5327529907227</t>
   </si>
   <si>
     <t xml:space="preserve">27.5808849334717</t>
@@ -1481,37 +1481,37 @@
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402156829834</t>
+    <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
     <t xml:space="preserve">27.8696937561035</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0622253417969</t>
+    <t xml:space="preserve">28.0622291564941</t>
   </si>
   <si>
     <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178256988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6771545410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2920799255371</t>
+    <t xml:space="preserve">27.9178276062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.677152633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1958122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.570068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.714469909668</t>
+    <t xml:space="preserve">27.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5700664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7144718170166</t>
   </si>
   <si>
     <t xml:space="preserve">26.6182022094727</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592479705811</t>
+    <t xml:space="preserve">25.5592498779297</t>
   </si>
   <si>
     <t xml:space="preserve">25.655517578125</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">25.4148464202881</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0887279510498</t>
+    <t xml:space="preserve">24.9816417694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
     <t xml:space="preserve">26.9551429748535</t>
@@ -1547,55 +1547,55 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.484619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6290225982666</t>
+    <t xml:space="preserve">27.4846172332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6290187835693</t>
   </si>
   <si>
     <t xml:space="preserve">27.7734222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1584968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3028964996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7361087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0249137878418</t>
+    <t xml:space="preserve">28.1584949493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3028984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7361068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0249118804932</t>
   </si>
   <si>
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5543880462646</t>
+    <t xml:space="preserve">29.5543899536133</t>
   </si>
   <si>
     <t xml:space="preserve">30.613338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4208030700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9984149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0465488433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2017707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3943023681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1644515991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.212589263916</t>
+    <t xml:space="preserve">30.420804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9984130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0465469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2017669677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3943061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1644554138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2125854492188</t>
   </si>
   <si>
     <t xml:space="preserve">34.2234039306641</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.656608581543</t>
+    <t xml:space="preserve">34.0308685302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3196716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6566123962402</t>
   </si>
   <si>
     <t xml:space="preserve">33.9827308654785</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">33.5976600646973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8864669799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7901954650879</t>
+    <t xml:space="preserve">33.8864631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7901916503906</t>
   </si>
   <si>
     <t xml:space="preserve">33.3088531494141</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349754333496</t>
+    <t xml:space="preserve">32.6349792480469</t>
   </si>
   <si>
     <t xml:space="preserve">32.1536331176758</t>
@@ -1640,67 +1640,67 @@
     <t xml:space="preserve">32.0573654174805</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5760231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204284667969</t>
+    <t xml:space="preserve">31.5760250091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685565948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204265594482</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872219085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9610996246338</t>
+    <t xml:space="preserve">31.2872180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
     <t xml:space="preserve">31.672290802002</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1054954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5278911590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648242950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.586841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7312469482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4424362182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7528762817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2342185974121</t>
+    <t xml:space="preserve">32.1054992675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648281097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5868377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7312431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.442440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7528800964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2342224121094</t>
   </si>
   <si>
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4002571105957</t>
+    <t xml:space="preserve">37.400260925293</t>
   </si>
   <si>
     <t xml:space="preserve">37.5927925109863</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9778671264648</t>
+    <t xml:space="preserve">37.9778709411621</t>
   </si>
   <si>
     <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">38.927921295166</t>
+    <t xml:space="preserve">38.9279251098633</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213516235352</t>
+    <t xml:space="preserve">39.2213478088379</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8301124572754</t>
+    <t xml:space="preserve">38.8301162719727</t>
   </si>
   <si>
     <t xml:space="preserve">38.6833992004395</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">38.1454544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7103958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6125831604004</t>
+    <t xml:space="preserve">39.710391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994400024414</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">39.6614875793457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3191566467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9768295288086</t>
+    <t xml:space="preserve">39.3191604614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9768257141113</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483444213867</t>
+    <t xml:space="preserve">40.2483406066895</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1775,10 +1775,10 @@
     <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1505317687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7862930297852</t>
+    <t xml:space="preserve">40.1505355834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7862892150879</t>
   </si>
   <si>
     <t xml:space="preserve">42.1067123413086</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">43.0358924865723</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4760322570801</t>
+    <t xml:space="preserve">43.4760360717773</t>
   </si>
   <si>
     <t xml:space="preserve">42.5957565307617</t>
@@ -1796,16 +1796,16 @@
     <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6176681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8402786254883</t>
+    <t xml:space="preserve">41.6176643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840274810791</t>
   </si>
   <si>
     <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4541206359863</t>
+    <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
     <t xml:space="preserve">45.2365951538086</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1606979370117</t>
+    <t xml:space="preserve">44.6008338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.160701751709</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1841,19 +1841,19 @@
     <t xml:space="preserve">46.6059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7088088989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9803199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.686897277832</t>
+    <t xml:space="preserve">48.7088050842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9803237915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6868934631348</t>
   </si>
   <si>
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781326293945</t>
+    <t xml:space="preserve">50.0781288146973</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.664981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408866882324</t>
+    <t xml:space="preserve">50.6649856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408828735352</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321144104004</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8926734924316</t>
+    <t xml:space="preserve">53.8926773071289</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
@@ -1886,34 +1886,34 @@
     <t xml:space="preserve">53.1102066040039</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0124015808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.816780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4912757873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540260314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5233573913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0343132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9584121704102</t>
+    <t xml:space="preserve">53.0123977661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8167762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4912796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934669494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5233535766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.034309387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9584083557129</t>
   </si>
   <si>
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970634460449</t>
+    <t xml:space="preserve">53.6970596313477</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4153823852539</t>
+    <t xml:space="preserve">48.4153861999512</t>
   </si>
   <si>
     <t xml:space="preserve">48.0241432189941</t>
@@ -1937,25 +1937,25 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9701614379883</t>
+    <t xml:space="preserve">45.970157623291</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6935653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4607887268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.384895324707</t>
+    <t xml:space="preserve">42.6935615539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3848915100098</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791114807129</t>
+    <t xml:space="preserve">32.1791152954102</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543098449707</t>
+    <t xml:space="preserve">31.7878761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543117523193</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">37.2162666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2870788574219</t>
+    <t xml:space="preserve">36.2870826721191</t>
   </si>
   <si>
     <t xml:space="preserve">36.0914688110352</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">35.8469467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9009323120117</t>
+    <t xml:space="preserve">37.9009284973145</t>
   </si>
   <si>
     <t xml:space="preserve">38.0476455688477</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242378234863</t>
+    <t xml:space="preserve">41.3242416381836</t>
   </si>
   <si>
     <t xml:space="preserve">40.8841018676758</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9971542358398</t>
+    <t xml:space="preserve">46.9971504211426</t>
   </si>
   <si>
     <t xml:space="preserve">46.4592056274414</t>
@@ -2018,55 +2018,55 @@
     <t xml:space="preserve">46.0679702758789</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3613967895508</t>
+    <t xml:space="preserve">46.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.486198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6548233032227</t>
+    <t xml:space="preserve">47.4861946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6548194885254</t>
   </si>
   <si>
     <t xml:space="preserve">45.8723526000977</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3124923706055</t>
+    <t xml:space="preserve">46.3124885559082</t>
   </si>
   <si>
     <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.187686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1117897033691</t>
+    <t xml:space="preserve">45.1876907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1117935180664</t>
   </si>
   <si>
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249404907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0190620422363</t>
+    <t xml:space="preserve">42.791374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0190658569336</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5620956420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7577095031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7847061157227</t>
+    <t xml:space="preserve">48.5620918273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7577133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7847099304199</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9145851135254</t>
+    <t xml:space="preserve">52.9145889282227</t>
   </si>
   <si>
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839126586914</t>
+    <t xml:space="preserve">54.2839164733887</t>
   </si>
   <si>
     <t xml:space="preserve">55.1641960144043</t>
@@ -2099,70 +2099,70 @@
     <t xml:space="preserve">56.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9247550964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.729133605957</t>
+    <t xml:space="preserve">56.9247512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7291374206543</t>
   </si>
   <si>
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488578796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444679260254</t>
+    <t xml:space="preserve">55.8488540649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444717407227</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0006446838379</t>
+    <t xml:space="preserve">58.0006484985352</t>
   </si>
   <si>
     <t xml:space="preserve">58.1962661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">58.3918876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5116004943848</t>
+    <t xml:space="preserve">58.3918838500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.511604309082</t>
   </si>
   <si>
     <t xml:space="preserve">57.2181777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">58.5875015258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.9568290710449</t>
+    <t xml:space="preserve">58.5875053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.9568252563477</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">58.9787406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6094169616699</t>
+    <t xml:space="preserve">58.9787368774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6094131469727</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954727172852</t>
+    <t xml:space="preserve">60.1524467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954689025879</t>
   </si>
   <si>
     <t xml:space="preserve">64.8472671508789</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6735610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494506835938</t>
+    <t xml:space="preserve">63.6735649108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494659423828</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">65.0428924560547</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7275466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0209808349609</t>
+    <t xml:space="preserve">65.7275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034439086914</t>
+    <t xml:space="preserve">66.8034515380859</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
@@ -2207,22 +2207,22 @@
     <t xml:space="preserve">72.8675918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">72.378547668457</t>
+    <t xml:space="preserve">72.3785552978516</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">73.3566360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0092239379883</t>
+    <t xml:space="preserve">73.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5741653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0092315673828</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245697021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2048492431641</t>
+    <t xml:space="preserve">70.3245620727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2048416137695</t>
   </si>
   <si>
     <t xml:space="preserve">78.2470779418945</t>
   </si>
   <si>
-    <t xml:space="preserve">79.4207916259766</t>
+    <t xml:space="preserve">79.420783996582</t>
   </si>
   <si>
     <t xml:space="preserve">77.5624237060547</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">75.508430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4865188598633</t>
+    <t xml:space="preserve">76.4865264892578</t>
   </si>
   <si>
     <t xml:space="preserve">79.6164093017578</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">79.5186004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">81.1813430786133</t>
+    <t xml:space="preserve">81.1813507080078</t>
   </si>
   <si>
     <t xml:space="preserve">82.5506744384766</t>
@@ -2273,28 +2273,28 @@
     <t xml:space="preserve">83.8221817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.333137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7243804931641</t>
+    <t xml:space="preserve">83.3331451416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
     <t xml:space="preserve">84.2134246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">83.2353363037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9419097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2572479248047</t>
+    <t xml:space="preserve">83.2353286743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9419021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2572402954102</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
   </si>
   <si>
-    <t xml:space="preserve">83.6265640258789</t>
+    <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
     <t xml:space="preserve">85.1915130615234</t>
@@ -2306,28 +2306,28 @@
     <t xml:space="preserve">84.6046524047852</t>
   </si>
   <si>
-    <t xml:space="preserve">84.115608215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7361221313477</t>
+    <t xml:space="preserve">84.1156158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7361297607422</t>
   </si>
   <si>
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827407836914</t>
+    <t xml:space="preserve">85.5827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4427032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791442871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5725860595703</t>
+    <t xml:space="preserve">78.4426956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791595458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5725784301758</t>
   </si>
   <si>
     <t xml:space="preserve">84.3112258911133</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">86.5608367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">87.245491027832</t>
+    <t xml:space="preserve">87.2454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016754150391</t>
+    <t xml:space="preserve">89.2016677856445</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7126312255859</t>
+    <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
     <t xml:space="preserve">92.9184112548828</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680068969727</t>
+    <t xml:space="preserve">95.1680221557617</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3737945556641</t>
+    <t xml:space="preserve">99.3737869262695</t>
   </si>
   <si>
     <t xml:space="preserve">102.699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">103.872993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.481773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.156265258789</t>
+    <t xml:space="preserve">103.873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.48176574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.156257629395</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
@@ -2402,19 +2402,19 @@
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088607788086</t>
+    <t xml:space="preserve">97.8088455200195</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.4176177978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3417205810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373306274414</t>
+    <t xml:space="preserve">97.417610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3417129516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373382568359</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439193725586</t>
+    <t xml:space="preserve">96.2439117431641</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.1461029052734</t>
+    <t xml:space="preserve">96.146110534668</t>
   </si>
   <si>
     <t xml:space="preserve">95.4614410400391</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">95.7548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">94.9723968505859</t>
+    <t xml:space="preserve">94.9723892211914</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">96.4395294189453</t>
+    <t xml:space="preserve">96.4395217895508</t>
   </si>
   <si>
     <t xml:space="preserve">99.7650299072266</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">107.198501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">106.807258605957</t>
+    <t xml:space="preserve">106.807266235352</t>
   </si>
   <si>
     <t xml:space="preserve">108.959060668945</t>
@@ -2468,25 +2468,25 @@
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088935852051</t>
+    <t xml:space="preserve">112.088943481445</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
   </si>
   <si>
-    <t xml:space="preserve">107.980972290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.567825317383</t>
+    <t xml:space="preserve">107.980979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.567832946777</t>
   </si>
   <si>
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893325805664</t>
+    <t xml:space="preserve">109.937156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893333435059</t>
   </si>
   <si>
     <t xml:space="preserve">110.132766723633</t>
@@ -2501,16 +2501,16 @@
     <t xml:space="preserve">101.721206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">101.91682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.633560180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.829170227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.372215270996</t>
+    <t xml:space="preserve">101.916816711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.63355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.829177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.372207641602</t>
   </si>
   <si>
     <t xml:space="preserve">109.350303649902</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">104.655471801758</t>
   </si>
   <si>
-    <t xml:space="preserve">105.437942504883</t>
+    <t xml:space="preserve">105.437950134277</t>
   </si>
   <si>
     <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">107.785346984863</t>
+    <t xml:space="preserve">107.785354614258</t>
   </si>
   <si>
     <t xml:space="preserve">104.264228820801</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">106.220413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">108.76343536377</t>
+    <t xml:space="preserve">108.763442993164</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2552,28 +2552,28 @@
     <t xml:space="preserve">113.262657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">116.196914672852</t>
+    <t xml:space="preserve">116.196922302246</t>
   </si>
   <si>
     <t xml:space="preserve">112.480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">109.545921325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.458267211914</t>
+    <t xml:space="preserve">109.545913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.458274841309</t>
   </si>
   <si>
     <t xml:space="preserve">115.414443969727</t>
   </si>
   <si>
-    <t xml:space="preserve">112.284568786621</t>
+    <t xml:space="preserve">112.284561157227</t>
   </si>
   <si>
     <t xml:space="preserve">112.87141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">113.849510192871</t>
+    <t xml:space="preserve">113.849502563477</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2585,34 +2585,34 @@
     <t xml:space="preserve">115.805686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">115.21883392334</t>
+    <t xml:space="preserve">115.218826293945</t>
   </si>
   <si>
     <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
-    <t xml:space="preserve">118.153091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.761863708496</t>
+    <t xml:space="preserve">118.153099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.761856079102</t>
   </si>
   <si>
     <t xml:space="preserve">119.326797485352</t>
   </si>
   <si>
-    <t xml:space="preserve">118.739944458008</t>
+    <t xml:space="preserve">118.739952087402</t>
   </si>
   <si>
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.131187438965</t>
+    <t xml:space="preserve">119.13117980957</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">122.847915649414</t>
+    <t xml:space="preserve">122.847923278809</t>
   </si>
   <si>
     <t xml:space="preserve">124.804092407227</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">134.976226806641</t>
   </si>
   <si>
-    <t xml:space="preserve">137.128005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.736785888672</t>
+    <t xml:space="preserve">137.128021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.736770629883</t>
   </si>
   <si>
     <t xml:space="preserve">135.563079833984</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">137.91047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">139.671051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.453521728516</t>
+    <t xml:space="preserve">139.671035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.453536987305</t>
   </si>
   <si>
     <t xml:space="preserve">138.301712036133</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">141.235977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">140.062255859375</t>
+    <t xml:space="preserve">140.062271118164</t>
   </si>
   <si>
     <t xml:space="preserve">141.627227783203</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.475433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.822830200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.409698486328</t>
+    <t xml:space="preserve">139.47541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.822845458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">148.082580566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.343978881836</t>
+    <t xml:space="preserve">148.082611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.30012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.343963623047</t>
   </si>
   <si>
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.1044921875</t>
+    <t xml:space="preserve">147.104507446289</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473846435547</t>
+    <t xml:space="preserve">148.473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2732,25 +2732,25 @@
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038772583008</t>
+    <t xml:space="preserve">150.038757324219</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.342361450195</t>
+    <t xml:space="preserve">154.342376708984</t>
   </si>
   <si>
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.841583251953</t>
+    <t xml:space="preserve">156.885391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711700439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
     <t xml:space="preserve">154.537994384766</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558288574219</t>
+    <t xml:space="preserve">162.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">163.145172119141</t>
+    <t xml:space="preserve">163.145156860352</t>
   </si>
   <si>
     <t xml:space="preserve">164.905731201172</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">167.057525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">167.448760986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.339202880859</t>
+    <t xml:space="preserve">167.448745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.33918762207</t>
   </si>
   <si>
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099761962891</t>
+    <t xml:space="preserve">174.099746704102</t>
   </si>
   <si>
     <t xml:space="preserve">168.818099975586</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752349853516</t>
+    <t xml:space="preserve">171.752365112305</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">164.318862915039</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688186645508</t>
+    <t xml:space="preserve">165.688201904297</t>
   </si>
   <si>
     <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
-    <t xml:space="preserve">170.774261474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.515884399414</t>
+    <t xml:space="preserve">170.77424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.515869140625</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576202392578</t>
+    <t xml:space="preserve">150.576217651367</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362518310547</t>
+    <t xml:space="preserve">151.362503051758</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635772705078</t>
+    <t xml:space="preserve">158.635757446289</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.33642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037109375</t>
+    <t xml:space="preserve">164.336441040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037094116211</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.250793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695343017578</t>
+    <t xml:space="preserve">169.25080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695327758789</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472702026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387069702148</t>
+    <t xml:space="preserve">181.438430786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472686767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387054443359</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216537475586</t>
+    <t xml:space="preserve">171.216552734375</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524078369141</t>
+    <t xml:space="preserve">176.524063110352</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737762451172</t>
+    <t xml:space="preserve">175.737777709961</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430252075195</t>
+    <t xml:space="preserve">170.430236816406</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.2001953125</t>
+    <t xml:space="preserve">155.687133789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.200180053711</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866592407227</t>
+    <t xml:space="preserve">156.866607666016</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601516723633</t>
+    <t xml:space="preserve">160.601501464844</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636520385742</t>
+    <t xml:space="preserve">135.636535644531</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798843383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884475708008</t>
+    <t xml:space="preserve">137.798858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884490966797</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491348266602</t>
+    <t xml:space="preserve">131.705047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491333007812</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550888061523</t>
+    <t xml:space="preserve">140.550903320312</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.363265991211</t>
+    <t xml:space="preserve">127.576965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.36328125</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.92692565918</t>
+    <t xml:space="preserve">141.926910400391</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448150634766</t>
+    <t xml:space="preserve">146.448135375977</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251571655273</t>
+    <t xml:space="preserve">146.251556396484</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008087158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320068359375</t>
+    <t xml:space="preserve">143.008071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516647338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320083618164</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465255737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769088745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393035888672</t>
+    <t xml:space="preserve">145.465270996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393051147461</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611221313477</t>
+    <t xml:space="preserve">125.611228942871</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244148254395</t>
+    <t xml:space="preserve">112.244140625</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944808959961</t>
+    <t xml:space="preserve">117.944816589355</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.696853637695</t>
+    <t xml:space="preserve">120.69686126709</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760894775391</t>
+    <t xml:space="preserve">122.760887145996</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.154037475586</t>
+    <t xml:space="preserve">123.15404510498</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.41911315918</t>
+    <t xml:space="preserve">119.419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380401611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004371643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235198974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790672302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.085525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820465087891</t>
+    <t xml:space="preserve">127.380409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.08553314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820449829102</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.060218811035</t>
+    <t xml:space="preserve">117.06022644043</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521873474121</t>
+    <t xml:space="preserve">113.521881103516</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778015136719</t>
+    <t xml:space="preserve">121.778022766113</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500282287598</t>
+    <t xml:space="preserve">120.500274658203</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684204101562</t>
+    <t xml:space="preserve">115.684196472168</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367744445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.44889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397521972656</t>
+    <t xml:space="preserve">120.893432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367736816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.448905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397529602051</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.640991210938</t>
+    <t xml:space="preserve">133.572479248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.641006469727</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901611328125</t>
+    <t xml:space="preserve">131.901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.299240112305</t>
+    <t xml:space="preserve">129.149551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.29923248291</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136909484863</t>
+    <t xml:space="preserve">124.136917114258</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859184265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743766784668</t>
+    <t xml:space="preserve">121.581436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859176635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743759155273</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829399108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141387939453</t>
+    <t xml:space="preserve">118.436248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141380310059</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -61344,7 +61344,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6496296296</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>40489</v>
@@ -61365,6 +61365,32 @@
         <v>1343</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493171296</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>27699</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>102.400001525879</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1464">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,82 +44,82 @@
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317270278931</t>
+    <t xml:space="preserve">13.8317260742188</t>
   </si>
   <si>
     <t xml:space="preserve">13.5458002090454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2330675125122</t>
+    <t xml:space="preserve">13.2330665588379</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437158584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402891159058</t>
+    <t xml:space="preserve">13.1437139511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402900695801</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777414321899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2241306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3938999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134832382202</t>
+    <t xml:space="preserve">13.2241325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3939018249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134822845459</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
   </si>
   <si>
-    <t xml:space="preserve">12.509313583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667211532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722341537476</t>
+    <t xml:space="preserve">12.5093126296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">13.000750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650106430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8845920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986661911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3127374649048</t>
+    <t xml:space="preserve">12.9650096893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8845930099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3127384185791</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467668533325</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4110250473022</t>
+    <t xml:space="preserve">12.4110260009766</t>
   </si>
   <si>
     <t xml:space="preserve">11.1690292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7051429748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663501739502</t>
+    <t xml:space="preserve">11.2226419448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157903671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7051439285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663482666016</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752841949463</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">12.1519060134888</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2412576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1965789794922</t>
+    <t xml:space="preserve">12.2412557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769985198975</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">12.4020900726318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0893583297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3306102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773704528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.956075668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.081169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564476013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475116729736</t>
+    <t xml:space="preserve">12.0893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3306093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773714065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9560737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0811681747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456446647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475107192993</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581600189209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.411771774292</t>
+    <t xml:space="preserve">13.4117708206177</t>
   </si>
   <si>
     <t xml:space="preserve">13.4832534790039</t>
@@ -179,31 +179,31 @@
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794557571411</t>
+    <t xml:space="preserve">13.1794548034668</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3492250442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688074111938</t>
+    <t xml:space="preserve">13.3492240905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688083648682</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602443695068</t>
+    <t xml:space="preserve">14.0104303359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691783905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602434158325</t>
   </si>
   <si>
     <t xml:space="preserve">13.5011234283447</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849658966064</t>
+    <t xml:space="preserve">13.3849649429321</t>
   </si>
   <si>
     <t xml:space="preserve">13.2866773605347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9203338623047</t>
+    <t xml:space="preserve">12.9203329086304</t>
   </si>
   <si>
     <t xml:space="preserve">12.7237577438354</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.294867515564</t>
+    <t xml:space="preserve">12.2948684692383</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
@@ -236,94 +236,94 @@
     <t xml:space="preserve">12.714822769165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8399171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.91139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433410644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7058868408203</t>
+    <t xml:space="preserve">12.839916229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9113988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433401107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543613433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7058897018433</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4646368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182495117188</t>
+    <t xml:space="preserve">12.4646377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182504653931</t>
   </si>
   <si>
     <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863054275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612129211426</t>
+    <t xml:space="preserve">12.7863063812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612119674683</t>
   </si>
   <si>
     <t xml:space="preserve">12.0804224014282</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1072282791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5271825790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8577861785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4914417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4557018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0632982254028</t>
+    <t xml:space="preserve">12.1072273254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5271844863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8577880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4914426803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4557027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096874237061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.161584854126</t>
+    <t xml:space="preserve">13.1615839004517</t>
   </si>
   <si>
     <t xml:space="preserve">13.0901031494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454273223877</t>
+    <t xml:space="preserve">13.045428276062</t>
   </si>
   <si>
     <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1169090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4743185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3224191665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994119644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547351837158</t>
+    <t xml:space="preserve">13.1169080734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4743175506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3224182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547342300415</t>
   </si>
   <si>
     <t xml:space="preserve">13.6708936691284</t>
@@ -332,28 +332,28 @@
     <t xml:space="preserve">13.903208732605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9925603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0559511184692</t>
+    <t xml:space="preserve">13.9925622940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283002853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0559520721436</t>
   </si>
   <si>
     <t xml:space="preserve">13.8716125488281</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1757736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9269142150879</t>
+    <t xml:space="preserve">14.1757745742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9269132614136</t>
   </si>
   <si>
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637804031372</t>
+    <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
     <t xml:space="preserve">13.8992643356323</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">13.9176979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255281448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.853178024292</t>
+    <t xml:space="preserve">13.8255271911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8531770706177</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411867141724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808298110962</t>
+    <t xml:space="preserve">13.8808288574219</t>
   </si>
   <si>
     <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836048126221</t>
+    <t xml:space="preserve">14.0836029052734</t>
   </si>
   <si>
     <t xml:space="preserve">13.9729995727539</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">14.2863779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3508968353271</t>
+    <t xml:space="preserve">14.3508977890015</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232460021973</t>
@@ -404,22 +404,22 @@
     <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4707174301147</t>
+    <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
     <t xml:space="preserve">14.6827087402344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7380104064941</t>
+    <t xml:space="preserve">14.7380132675171</t>
   </si>
   <si>
     <t xml:space="preserve">14.8393993377686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.986870765686</t>
+    <t xml:space="preserve">14.9315710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
   </si>
   <si>
     <t xml:space="preserve">14.7103614807129</t>
@@ -431,31 +431,31 @@
     <t xml:space="preserve">14.6181907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8670492172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684381484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606079101562</t>
+    <t xml:space="preserve">14.8670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606069564819</t>
   </si>
   <si>
     <t xml:space="preserve">15.0421743392944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9592199325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
+    <t xml:space="preserve">14.9592208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1527786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343441009521</t>
+    <t xml:space="preserve">15.152777671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343431472778</t>
   </si>
   <si>
     <t xml:space="preserve">15.06982421875</t>
@@ -464,91 +464,91 @@
     <t xml:space="preserve">14.9039182662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.023738861084</t>
+    <t xml:space="preserve">15.0237379074097</t>
   </si>
   <si>
     <t xml:space="preserve">14.8301820755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9960880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9776544570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2541656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3832025527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.715015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.899356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1850833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3049049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.116003036499</t>
+    <t xml:space="preserve">14.9960889816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2541646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3832054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.549111366272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993558883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297817230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1850852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3049068450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1160011291504</t>
   </si>
   <si>
     <t xml:space="preserve">17.2450389862061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4662475585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5307693481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6045055389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556461334229</t>
+    <t xml:space="preserve">17.466251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307674407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556442260742</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.410945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6598052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5492038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731864929199</t>
+    <t xml:space="preserve">17.6874580383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4109439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6598072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625774383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5492057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731884002686</t>
   </si>
   <si>
     <t xml:space="preserve">17.9639682769775</t>
@@ -557,22 +557,22 @@
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5676364898682</t>
+    <t xml:space="preserve">17.6229400634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5676383972168</t>
   </si>
   <si>
     <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2173881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.327995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0975666046143</t>
+    <t xml:space="preserve">17.2173919677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3279914855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0975685119629</t>
   </si>
   <si>
     <t xml:space="preserve">17.0606994628906</t>
@@ -584,49 +584,49 @@
     <t xml:space="preserve">17.4201641082764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1897392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3740825653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436519622803</t>
+    <t xml:space="preserve">17.1897373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.374080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436538696289</t>
   </si>
   <si>
     <t xml:space="preserve">17.3832969665527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768527984619</t>
+    <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.157527923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063854217529</t>
+    <t xml:space="preserve">18.0100536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1575241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063835144043</t>
   </si>
   <si>
     <t xml:space="preserve">18.3879528045654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3418655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2036113739014</t>
+    <t xml:space="preserve">18.3418636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.20361328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713981628418</t>
+    <t xml:space="preserve">19.1713962554932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -641,49 +641,49 @@
     <t xml:space="preserve">19.7244167327881</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7889366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.10231590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0838832855225</t>
+    <t xml:space="preserve">19.7889347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1023178100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0838851928711</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783313751221</t>
+    <t xml:space="preserve">19.6783351898193</t>
   </si>
   <si>
     <t xml:space="preserve">19.5953807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5585098266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6230316162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3741722106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5124244689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.987060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409694671631</t>
+    <t xml:space="preserve">19.5585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6230335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3741703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3280868530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5124282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409732818604</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543487548828</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4617824554443</t>
+    <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2913112640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7521629333496</t>
+    <t xml:space="preserve">21.2913150787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.752161026001</t>
   </si>
   <si>
     <t xml:space="preserve">21.3373947143555</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">21.5678234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4756507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.024019241333</t>
+    <t xml:space="preserve">21.4756526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0240173339844</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807079315186</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">21.0608882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">20.636905670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304634094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1069717407227</t>
+    <t xml:space="preserve">20.6369037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208438873291</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1254959106445</t>
+    <t xml:space="preserve">23.1254978179932</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098373413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1209354400635</t>
+    <t xml:space="preserve">23.3098411560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1209373474121</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094398498535</t>
@@ -767,34 +767,34 @@
     <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2407569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619693756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329277038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5033950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.97802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425453186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084522247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9503726959229</t>
+    <t xml:space="preserve">24.240758895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619674682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882274627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9780254364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425434112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084503173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9503765106201</t>
   </si>
   <si>
     <t xml:space="preserve">22.9595928192139</t>
@@ -812,43 +812,43 @@
     <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7015113830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9641551971436</t>
+    <t xml:space="preserve">22.7015151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9641532897949</t>
   </si>
   <si>
     <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604869842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4250049591064</t>
+    <t xml:space="preserve">22.3604850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1853637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4250030517578</t>
   </si>
   <si>
     <t xml:space="preserve">22.5632610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7936859130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3190536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8121223449707</t>
+    <t xml:space="preserve">22.7936840057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.319055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8121185302734</t>
   </si>
   <si>
     <t xml:space="preserve">22.6830825805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8489894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0241088867188</t>
+    <t xml:space="preserve">22.848991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.024112701416</t>
   </si>
   <si>
     <t xml:space="preserve">23.107063293457</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">23.1347160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7383823394775</t>
+    <t xml:space="preserve">22.7383842468262</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">22.6185626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5724754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922969818115</t>
+    <t xml:space="preserve">22.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
     <t xml:space="preserve">22.627779006958</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">22.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.798246383667</t>
+    <t xml:space="preserve">21.7982482910156</t>
   </si>
   <si>
     <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171737670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7291679382324</t>
+    <t xml:space="preserve">22.5171756744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7291660308838</t>
   </si>
   <si>
     <t xml:space="preserve">22.8674201965332</t>
@@ -902,136 +902,139 @@
     <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1162796020508</t>
+    <t xml:space="preserve">23.116283416748</t>
   </si>
   <si>
     <t xml:space="preserve">23.1623649597168</t>
   </si>
   <si>
+    <t xml:space="preserve">23.5218315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7856979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.709228515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2558097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3217792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8023910522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3866691589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2358856201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.584566116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620571136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562973022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6693801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4809093475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772430419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2453136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9625968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8212394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8872051239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3500499725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1898441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4065895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5102519989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7008819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4841346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6349143981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7480030059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5029830932617</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0401401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7856960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.709228515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2558097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.32177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8023929595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3866691589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2358856201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5845680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620571136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6693820953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4809093475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772449493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2453117370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9625968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8212394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8872051239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3500499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1898441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4065895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5102519989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7008819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7480010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5029811859131</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.2862339019775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1731510162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9940986633301</t>
+    <t xml:space="preserve">23.1731491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9940948486328</t>
   </si>
   <si>
     <t xml:space="preserve">23.2296905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0035209655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8150463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0883350372314</t>
+    <t xml:space="preserve">23.0035190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8150444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0883331298828</t>
   </si>
   <si>
     <t xml:space="preserve">23.6254901885986</t>
@@ -1043,25 +1046,25 @@
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040065765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1438007354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6537628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.493558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3804702758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2391166687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1919975280762</t>
+    <t xml:space="preserve">24.3040046691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1438045501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6537647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3804740905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2391147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
@@ -1070,25 +1073,25 @@
     <t xml:space="preserve">24.2663097381592</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5113296508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5019073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5961437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846183776855</t>
+    <t xml:space="preserve">24.5113334655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5019054412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5961456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259796142578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6903820037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1615753173828</t>
+    <t xml:space="preserve">24.6903839111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1615734100342</t>
   </si>
   <si>
     <t xml:space="preserve">26.4337863922119</t>
@@ -1100,40 +1103,40 @@
     <t xml:space="preserve">25.7741203308105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7269992828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8683605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0097141265869</t>
+    <t xml:space="preserve">25.7270030975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8683586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
     <t xml:space="preserve">26.1039543151855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6798820495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9731006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432628631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8788566589355</t>
+    <t xml:space="preserve">25.6798839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8788585662842</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317394256592</t>
+    <t xml:space="preserve">24.8317413330078</t>
   </si>
   <si>
     <t xml:space="preserve">25.3029308319092</t>
@@ -1148,16 +1151,16 @@
     <t xml:space="preserve">26.0568351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2924327850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1144523620605</t>
+    <t xml:space="preserve">26.2924308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751438140869</t>
+    <t xml:space="preserve">26.5751476287842</t>
   </si>
   <si>
     <t xml:space="preserve">26.9992141723633</t>
@@ -1175,13 +1178,13 @@
     <t xml:space="preserve">28.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3290519714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856437683105</t>
+    <t xml:space="preserve">27.3290481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0934543609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856456756592</t>
   </si>
   <si>
     <t xml:space="preserve">25.0673351287842</t>
@@ -1190,19 +1193,19 @@
     <t xml:space="preserve">26.9520969390869</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1876907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0463333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9049777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002414703369</t>
+    <t xml:space="preserve">27.1876926422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0463352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107376098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9049758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002376556396</t>
   </si>
   <si>
     <t xml:space="preserve">26.8578586578369</t>
@@ -1211,10 +1214,10 @@
     <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9887161254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.082950592041</t>
+    <t xml:space="preserve">27.9887180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0829524993896</t>
   </si>
   <si>
     <t xml:space="preserve">27.1405715942383</t>
@@ -1223,13 +1226,13 @@
     <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7060012817383</t>
+    <t xml:space="preserve">27.7059993743896</t>
   </si>
   <si>
     <t xml:space="preserve">27.4704074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4599094390869</t>
+    <t xml:space="preserve">28.4599056243896</t>
   </si>
   <si>
     <t xml:space="preserve">29.4022884368896</t>
@@ -1256,61 +1259,58 @@
     <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5646438598633</t>
+    <t xml:space="preserve">27.5646419525146</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2819328308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3761692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6222648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714290618896</t>
+    <t xml:space="preserve">27.2819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3761672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6222667694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714309692383</t>
   </si>
   <si>
     <t xml:space="preserve">27.5175266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7626056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6663379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0514125823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107395172119</t>
+    <t xml:space="preserve">26.7626037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6663360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0514106750488</t>
   </si>
   <si>
     <t xml:space="preserve">26.3775310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2812614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961906433105</t>
+    <t xml:space="preserve">26.2812633514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7036533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961887359619</t>
   </si>
   <si>
     <t xml:space="preserve">25.462984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0297756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9335060119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4521656036377</t>
+    <t xml:space="preserve">25.0297737121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9335041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4521636962891</t>
   </si>
   <si>
     <t xml:space="preserve">23.7782859802246</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">23.2488098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1044063568115</t>
+    <t xml:space="preserve">23.1044082641602</t>
   </si>
   <si>
     <t xml:space="preserve">23.0081386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9118690490723</t>
+    <t xml:space="preserve">22.9118671417236</t>
   </si>
   <si>
     <t xml:space="preserve">22.671199798584</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">22.5267963409424</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3342628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9600048065186</t>
+    <t xml:space="preserve">22.3342609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9600067138672</t>
   </si>
   <si>
     <t xml:space="preserve">22.7193336486816</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">23.9226894378662</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7301502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3932132720947</t>
+    <t xml:space="preserve">23.730152130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189590454102</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">23.0562725067139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6230640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417255401611</t>
+    <t xml:space="preserve">22.6230659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417236328125</t>
   </si>
   <si>
     <t xml:space="preserve">21.6603813171387</t>
   </si>
   <si>
-    <t xml:space="preserve">21.467845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5641117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3234424591064</t>
+    <t xml:space="preserve">21.4678440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5641136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3234405517578</t>
   </si>
   <si>
     <t xml:space="preserve">21.8529186248779</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">21.9491863250732</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7674674987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379932403564</t>
+    <t xml:space="preserve">22.7674655914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379913330078</t>
   </si>
   <si>
     <t xml:space="preserve">22.4305286407471</t>
@@ -1400,10 +1400,10 @@
     <t xml:space="preserve">22.0454540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9973239898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8047847747803</t>
+    <t xml:space="preserve">21.9973220825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8047828674316</t>
   </si>
   <si>
     <t xml:space="preserve">21.7085151672363</t>
@@ -1412,25 +1412,25 @@
     <t xml:space="preserve">23.3450794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2969455718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0670890808105</t>
+    <t xml:space="preserve">23.2969436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0670909881592</t>
   </si>
   <si>
     <t xml:space="preserve">24.1633586883545</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2596263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2114925384521</t>
+    <t xml:space="preserve">24.2596282958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
     <t xml:space="preserve">24.3077621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.548433303833</t>
+    <t xml:space="preserve">24.5484352111816</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">25.2223110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1260414123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3185768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5111198425293</t>
+    <t xml:space="preserve">25.1260452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3185787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.511116027832</t>
   </si>
   <si>
     <t xml:space="preserve">26.4737987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3293972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5219345092773</t>
+    <t xml:space="preserve">26.3293991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
     <t xml:space="preserve">26.8588752746582</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8696937561035</t>
+    <t xml:space="preserve">27.8696899414062</t>
   </si>
   <si>
     <t xml:space="preserve">28.0622291564941</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9178276062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.677152633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2920818328857</t>
+    <t xml:space="preserve">27.9178256988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6771545410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2920799255371</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439460754395</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">27.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5700664520264</t>
+    <t xml:space="preserve">26.5700702667236</t>
   </si>
   <si>
     <t xml:space="preserve">26.7144718170166</t>
@@ -1523,10 +1523,10 @@
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.655517578125</t>
+    <t xml:space="preserve">25.5592479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
     <t xml:space="preserve">25.4148464202881</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">26.0887260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9551429748535</t>
+    <t xml:space="preserve">26.9551410675049</t>
   </si>
   <si>
     <t xml:space="preserve">26.9070091247559</t>
@@ -1547,58 +1547,58 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4846172332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6290187835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7734222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1584949493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3028984069824</t>
+    <t xml:space="preserve">27.484619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7734241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1584968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3029003143311</t>
   </si>
   <si>
     <t xml:space="preserve">28.7361068725586</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0249118804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3618507385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5543899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.613338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.420804977417</t>
+    <t xml:space="preserve">29.0249099731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.361852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5543880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6133403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4208011627197</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2017669677734</t>
+    <t xml:space="preserve">31.0465450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
     <t xml:space="preserve">32.3943061828613</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1644554138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2125854492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2234039306641</t>
+    <t xml:space="preserve">33.1644515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2125816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2234001159668</t>
   </si>
   <si>
     <t xml:space="preserve">34.4159393310547</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">34.0308685302734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3196716308594</t>
+    <t xml:space="preserve">34.3196754455566</t>
   </si>
   <si>
     <t xml:space="preserve">34.6566123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9827308654785</t>
+    <t xml:space="preserve">33.9827346801758</t>
   </si>
   <si>
     <t xml:space="preserve">33.5976600646973</t>
@@ -1631,40 +1631,40 @@
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349792480469</t>
+    <t xml:space="preserve">32.6349754333496</t>
   </si>
   <si>
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573654174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5760250091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685565948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204265594482</t>
+    <t xml:space="preserve">32.0573616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204246520996</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872180938721</t>
+    <t xml:space="preserve">31.2872200012207</t>
   </si>
   <si>
     <t xml:space="preserve">31.9610977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">31.672290802002</t>
+    <t xml:space="preserve">31.6722927093506</t>
   </si>
   <si>
     <t xml:space="preserve">32.1054992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">31.527889251709</t>
+    <t xml:space="preserve">31.5278873443604</t>
   </si>
   <si>
     <t xml:space="preserve">31.8648281097412</t>
@@ -1688,10 +1688,10 @@
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927925109863</t>
+    <t xml:space="preserve">37.4002532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927963256836</t>
   </si>
   <si>
     <t xml:space="preserve">37.9778709411621</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9279251098633</t>
+    <t xml:space="preserve">38.9279174804688</t>
   </si>
   <si>
     <t xml:space="preserve">39.074634552002</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">38.1943550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6344985961914</t>
+    <t xml:space="preserve">38.6344947814941</t>
   </si>
   <si>
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213478088379</t>
+    <t xml:space="preserve">39.2213516235352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">39.710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6125869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1994400024414</t>
+    <t xml:space="preserve">39.6125831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1994361877441</t>
   </si>
   <si>
     <t xml:space="preserve">39.9060096740723</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">39.2702560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2483406066895</t>
+    <t xml:space="preserve">40.2483444213867</t>
   </si>
   <si>
     <t xml:space="preserve">40.0038223266602</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1505355834961</t>
+    <t xml:space="preserve">40.1505317687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.7862892150879</t>
@@ -1796,22 +1796,22 @@
     <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6176643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.840274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139846801758</t>
+    <t xml:space="preserve">41.6176681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8402786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0139808654785</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2365951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7745399475098</t>
+    <t xml:space="preserve">45.2365989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.774543762207</t>
   </si>
   <si>
     <t xml:space="preserve">44.4052200317383</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.160701751709</t>
+    <t xml:space="preserve">44.6008377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1606979370117</t>
   </si>
   <si>
     <t xml:space="preserve">43.8672676086426</t>
@@ -1835,25 +1835,25 @@
     <t xml:space="preserve">46.4103012084961</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2635841369629</t>
+    <t xml:space="preserve">46.2635879516602</t>
   </si>
   <si>
     <t xml:space="preserve">46.6059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7088050842285</t>
+    <t xml:space="preserve">48.7088088989258</t>
   </si>
   <si>
     <t xml:space="preserve">49.9803237915039</t>
   </si>
   <si>
-    <t xml:space="preserve">49.6868934631348</t>
+    <t xml:space="preserve">49.686897277832</t>
   </si>
   <si>
     <t xml:space="preserve">50.2737503051758</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0781288146973</t>
+    <t xml:space="preserve">50.0781326293945</t>
   </si>
   <si>
     <t xml:space="preserve">50.8606033325195</t>
@@ -1868,34 +1868,34 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6649856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1321144104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8926773071289</t>
+    <t xml:space="preserve">50.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408866882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1321182250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8926734924316</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1102066040039</t>
+    <t xml:space="preserve">53.1102027893066</t>
   </si>
   <si>
     <t xml:space="preserve">53.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8167762756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4912796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934669494629</t>
+    <t xml:space="preserve">52.816780090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4912757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934745788574</t>
   </si>
   <si>
     <t xml:space="preserve">51.1540298461914</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">51.5452690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">53.6970596313477</t>
+    <t xml:space="preserve">53.6970634460449</t>
   </si>
   <si>
     <t xml:space="preserve">55.2620010375977</t>
   </si>
   <si>
-    <t xml:space="preserve">54.4795303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.599250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4153861999512</t>
+    <t xml:space="preserve">54.4795341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5992469787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4153823852539</t>
   </si>
   <si>
     <t xml:space="preserve">48.0241432189941</t>
@@ -1937,25 +1937,25 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.970157623291</t>
+    <t xml:space="preserve">45.9701614379883</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6935615539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3848915100098</t>
+    <t xml:space="preserve">42.6935653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4607887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791152954102</t>
+    <t xml:space="preserve">32.1791114807129</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878761291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543117523193</t>
+    <t xml:space="preserve">31.7878799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">40.1016273498535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3242416381836</t>
+    <t xml:space="preserve">41.3242378234863</t>
   </si>
   <si>
     <t xml:space="preserve">40.8841018676758</t>
@@ -2009,22 +2009,22 @@
     <t xml:space="preserve">45.7256393432617</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9971504211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4592056274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0679702758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.361400604248</t>
+    <t xml:space="preserve">46.9971542358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4592094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0679664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3613967895508</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4861946105957</t>
+    <t xml:space="preserve">47.486198425293</t>
   </si>
   <si>
     <t xml:space="preserve">46.6548194885254</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">45.8723526000977</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3124885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1657791137695</t>
+    <t xml:space="preserve">46.3124923706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1657752990723</t>
   </si>
   <si>
     <t xml:space="preserve">45.1876907348633</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.791374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249366760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0190658569336</t>
+    <t xml:space="preserve">42.7913703918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0190620422363</t>
   </si>
   <si>
     <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5620918273926</t>
+    <t xml:space="preserve">48.5620956420898</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7847099304199</t>
+    <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
     <t xml:space="preserve">49.0022315979004</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3277359008789</t>
+    <t xml:space="preserve">52.3277397155762</t>
   </si>
   <si>
     <t xml:space="preserve">52.9145889282227</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839164733887</t>
+    <t xml:space="preserve">54.2839126586914</t>
   </si>
   <si>
     <t xml:space="preserve">55.1641960144043</t>
@@ -2099,19 +2099,19 @@
     <t xml:space="preserve">56.3379020690918</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9247512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7291374206543</t>
+    <t xml:space="preserve">56.9247550964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
     <t xml:space="preserve">55.5554275512695</t>
   </si>
   <si>
-    <t xml:space="preserve">55.8488540649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444717407227</t>
+    <t xml:space="preserve">55.8488578796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444679260254</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568252563477</t>
+    <t xml:space="preserve">59.9568290710449</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
@@ -2144,37 +2144,37 @@
     <t xml:space="preserve">58.9787368774414</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6094131469727</t>
+    <t xml:space="preserve">57.6094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">60.1524467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6954689025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8472671508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6735649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7494659423828</t>
+    <t xml:space="preserve">60.1524429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6954727172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8472747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6735610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7494583129883</t>
   </si>
   <si>
     <t xml:space="preserve">65.1406936645508</t>
   </si>
   <si>
-    <t xml:space="preserve">65.0428924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0209732055664</t>
+    <t xml:space="preserve">65.0428848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7275466918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2183,13 +2183,13 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034515380859</t>
+    <t xml:space="preserve">66.8034439086914</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">68.6618118286133</t>
+    <t xml:space="preserve">68.6618041992188</t>
   </si>
   <si>
     <t xml:space="preserve">67.9771499633789</t>
@@ -2201,28 +2201,28 @@
     <t xml:space="preserve">71.596076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7158050537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8675918579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3785552978516</t>
+    <t xml:space="preserve">70.7158126831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8675994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
   </si>
   <si>
-    <t xml:space="preserve">73.3566436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6500625610352</t>
+    <t xml:space="preserve">73.3566360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6500701904297</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741653442383</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0092315673828</t>
+    <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
     <t xml:space="preserve">70.5201797485352</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245620727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2048416137695</t>
+    <t xml:space="preserve">70.3245697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2048492431641</t>
   </si>
   <si>
     <t xml:space="preserve">78.2470779418945</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">81.1813507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">82.5506744384766</t>
+    <t xml:space="preserve">82.550666809082</t>
   </si>
   <si>
     <t xml:space="preserve">83.8221817016602</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">84.2134246826172</t>
   </si>
   <si>
-    <t xml:space="preserve">83.2353286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9419021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2572402954102</t>
+    <t xml:space="preserve">83.2353363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9419097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2572479248047</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">82.7462921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">84.6046524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1156158447266</t>
+    <t xml:space="preserve">84.6046600341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.115608215332</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361297607422</t>
@@ -2315,37 +2315,37 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827484130859</t>
+    <t xml:space="preserve">85.5827407836914</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4426956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791595458984</t>
+    <t xml:space="preserve">78.4427032470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791519165039</t>
   </si>
   <si>
     <t xml:space="preserve">81.5725784301758</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3112258911133</t>
+    <t xml:space="preserve">84.3112335205078</t>
   </si>
   <si>
     <t xml:space="preserve">82.1594314575195</t>
   </si>
   <si>
-    <t xml:space="preserve">80.3988800048828</t>
+    <t xml:space="preserve">80.3988723754883</t>
   </si>
   <si>
     <t xml:space="preserve">80.203254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">86.5608367919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2454986572266</t>
+    <t xml:space="preserve">86.5608291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016677856445</t>
+    <t xml:space="preserve">89.2016754150391</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
@@ -2366,55 +2366,55 @@
     <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9184112548828</t>
+    <t xml:space="preserve">92.9184188842773</t>
   </si>
   <si>
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680221557617</t>
+    <t xml:space="preserve">95.1680145263672</t>
   </si>
   <si>
     <t xml:space="preserve">98.0044631958008</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3737869262695</t>
+    <t xml:space="preserve">99.3737945556641</t>
   </si>
   <si>
     <t xml:space="preserve">102.699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">103.873001098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.48176574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.156257629395</t>
+    <t xml:space="preserve">103.872993469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.481773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.156265258789</t>
   </si>
   <si>
     <t xml:space="preserve">100.743118286133</t>
   </si>
   <si>
-    <t xml:space="preserve">102.112442016602</t>
+    <t xml:space="preserve">102.112449645996</t>
   </si>
   <si>
     <t xml:space="preserve">98.3957061767578</t>
   </si>
   <si>
-    <t xml:space="preserve">97.8088455200195</t>
+    <t xml:space="preserve">97.8088531494141</t>
   </si>
   <si>
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.417610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3417129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373382568359</t>
+    <t xml:space="preserve">97.4176177978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3417205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373306274414</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2423,22 +2423,22 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439117431641</t>
+    <t xml:space="preserve">96.2439193725586</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
   </si>
   <si>
-    <t xml:space="preserve">96.146110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4614410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7548675537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.9723892211914</t>
+    <t xml:space="preserve">96.1461029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4614334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7548599243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.9723968505859</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">94.7767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">96.4395217895508</t>
+    <t xml:space="preserve">96.4395294189453</t>
   </si>
   <si>
     <t xml:space="preserve">99.7650299072266</t>
@@ -2456,19 +2456,19 @@
     <t xml:space="preserve">103.677383422852</t>
   </si>
   <si>
-    <t xml:space="preserve">107.198501586914</t>
+    <t xml:space="preserve">107.19849395752</t>
   </si>
   <si>
     <t xml:space="preserve">106.807266235352</t>
   </si>
   <si>
-    <t xml:space="preserve">108.959060668945</t>
+    <t xml:space="preserve">108.95906829834</t>
   </si>
   <si>
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088943481445</t>
+    <t xml:space="preserve">112.088935852051</t>
   </si>
   <si>
     <t xml:space="preserve">112.675804138184</t>
@@ -2477,16 +2477,16 @@
     <t xml:space="preserve">107.980979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">108.567832946777</t>
+    <t xml:space="preserve">108.567825317383</t>
   </si>
   <si>
     <t xml:space="preserve">110.328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">109.937156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893333435059</t>
+    <t xml:space="preserve">109.937149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893325805664</t>
   </si>
   <si>
     <t xml:space="preserve">110.132766723633</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">101.916816711426</t>
   </si>
   <si>
-    <t xml:space="preserve">105.63355255127</t>
+    <t xml:space="preserve">105.633560180664</t>
   </si>
   <si>
     <t xml:space="preserve">105.829177856445</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">108.17658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">103.286140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.655471801758</t>
+    <t xml:space="preserve">103.286148071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.655479431152</t>
   </si>
   <si>
     <t xml:space="preserve">105.437950134277</t>
@@ -2534,16 +2534,16 @@
     <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">107.785354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.264228820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.220413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.763442993164</t>
+    <t xml:space="preserve">107.785346984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.264236450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.220405578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.76343536377</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2561,19 +2561,19 @@
     <t xml:space="preserve">109.545913696289</t>
   </si>
   <si>
-    <t xml:space="preserve">113.458274841309</t>
+    <t xml:space="preserve">113.458267211914</t>
   </si>
   <si>
     <t xml:space="preserve">115.414443969727</t>
   </si>
   <si>
-    <t xml:space="preserve">112.284561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.87141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.849502563477</t>
+    <t xml:space="preserve">112.284568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.871421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.849510192871</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">116.979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">115.805686950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.218826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.56623840332</t>
+    <t xml:space="preserve">115.805679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.21883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.566246032715</t>
   </si>
   <si>
     <t xml:space="preserve">118.153099060059</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">118.348709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">119.13117980957</t>
+    <t xml:space="preserve">119.131187438965</t>
   </si>
   <si>
     <t xml:space="preserve">122.456680297852</t>
@@ -2627,28 +2627,28 @@
     <t xml:space="preserve">134.389358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.085784912109</t>
+    <t xml:space="preserve">130.08576965332</t>
   </si>
   <si>
     <t xml:space="preserve">130.281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">131.846328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.976226806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.128021240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.736770629883</t>
+    <t xml:space="preserve">131.846343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.976211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.736785888672</t>
   </si>
   <si>
     <t xml:space="preserve">135.563079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">135.367446899414</t>
+    <t xml:space="preserve">135.367431640625</t>
   </si>
   <si>
     <t xml:space="preserve">137.91047668457</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453536987305</t>
+    <t xml:space="preserve">140.453521728516</t>
   </si>
   <si>
     <t xml:space="preserve">138.301712036133</t>
@@ -2669,10 +2669,10 @@
     <t xml:space="preserve">137.714874267578</t>
   </si>
   <si>
-    <t xml:space="preserve">139.279800415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.844741821289</t>
+    <t xml:space="preserve">139.27978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.844757080078</t>
   </si>
   <si>
     <t xml:space="preserve">141.235977172852</t>
@@ -2681,19 +2681,19 @@
     <t xml:space="preserve">140.062271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">141.627227783203</t>
+    <t xml:space="preserve">141.627212524414</t>
   </si>
   <si>
     <t xml:space="preserve">142.996536254883</t>
   </si>
   <si>
-    <t xml:space="preserve">139.47541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.822845458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.409683227539</t>
+    <t xml:space="preserve">139.475433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.822830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
     <t xml:space="preserve">141.04035949707</t>
@@ -2705,10 +2705,10 @@
     <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">148.082611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.30012512207</t>
+    <t xml:space="preserve">148.082595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.300140380859</t>
   </si>
   <si>
     <t xml:space="preserve">145.343963623047</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">146.908889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">147.104507446289</t>
+    <t xml:space="preserve">147.1044921875</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473831176758</t>
+    <t xml:space="preserve">148.473846435547</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038757324219</t>
+    <t xml:space="preserve">150.038787841797</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
@@ -2744,22 +2744,22 @@
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711700439453</t>
+    <t xml:space="preserve">156.885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711669921875</t>
   </si>
   <si>
     <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">154.537994384766</t>
+    <t xml:space="preserve">154.537979125977</t>
   </si>
   <si>
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558319091797</t>
+    <t xml:space="preserve">162.558303833008</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">163.145156860352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.905731201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.101348876953</t>
+    <t xml:space="preserve">164.905746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.101333618164</t>
   </si>
   <si>
     <t xml:space="preserve">167.057525634766</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099746704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.818099975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.752365112305</t>
+    <t xml:space="preserve">174.099761962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.818084716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.752349853516</t>
   </si>
   <si>
     <t xml:space="preserve">169.013702392578</t>
@@ -2801,16 +2801,16 @@
     <t xml:space="preserve">164.318862915039</t>
   </si>
   <si>
-    <t xml:space="preserve">165.688201904297</t>
+    <t xml:space="preserve">165.688186645508</t>
   </si>
   <si>
     <t xml:space="preserve">175.46907043457</t>
   </si>
   <si>
-    <t xml:space="preserve">170.77424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.515869140625</t>
+    <t xml:space="preserve">170.774261474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.515884399414</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576217651367</t>
+    <t xml:space="preserve">150.576202392578</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362503051758</t>
+    <t xml:space="preserve">151.362518310547</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635757446289</t>
+    <t xml:space="preserve">158.635772705078</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.336441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037094116211</t>
+    <t xml:space="preserve">164.33642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037109375</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695327758789</t>
+    <t xml:space="preserve">169.250793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438430786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387054443359</t>
+    <t xml:space="preserve">181.438446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387069702148</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216552734375</t>
+    <t xml:space="preserve">171.216537475586</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524063110352</t>
+    <t xml:space="preserve">176.524078369141</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737777709961</t>
+    <t xml:space="preserve">175.737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430236816406</t>
+    <t xml:space="preserve">170.430252075195</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.200180053711</t>
+    <t xml:space="preserve">155.687149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.2001953125</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866607666016</t>
+    <t xml:space="preserve">156.866592407227</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601501464844</t>
+    <t xml:space="preserve">160.601516723633</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636535644531</t>
+    <t xml:space="preserve">135.636520385742</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884490966797</t>
+    <t xml:space="preserve">137.798843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884475708008</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491333007812</t>
+    <t xml:space="preserve">131.705032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550903320312</t>
+    <t xml:space="preserve">140.550888061523</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.36328125</t>
+    <t xml:space="preserve">127.576972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.363265991211</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.926910400391</t>
+    <t xml:space="preserve">141.92692565918</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448135375977</t>
+    <t xml:space="preserve">146.448150634766</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251556396484</t>
+    <t xml:space="preserve">146.251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320083618164</t>
+    <t xml:space="preserve">143.008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393051147461</t>
+    <t xml:space="preserve">145.465255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393035888672</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611228942871</t>
+    <t xml:space="preserve">125.611221313477</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244140625</t>
+    <t xml:space="preserve">112.244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944816589355</t>
+    <t xml:space="preserve">117.944808959961</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.69686126709</t>
+    <t xml:space="preserve">120.696853637695</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760887145996</t>
+    <t xml:space="preserve">122.760894775391</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.15404510498</t>
+    <t xml:space="preserve">123.154037475586</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.419120788574</t>
+    <t xml:space="preserve">119.41911315918</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004364013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.08553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820449829102</t>
+    <t xml:space="preserve">127.380401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.085525512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820465087891</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.06022644043</t>
+    <t xml:space="preserve">117.060218811035</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521881103516</t>
+    <t xml:space="preserve">113.521873474121</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778022766113</t>
+    <t xml:space="preserve">121.778015136719</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500274658203</t>
+    <t xml:space="preserve">120.500282287598</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684196472168</t>
+    <t xml:space="preserve">115.684204101562</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.448905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397529602051</t>
+    <t xml:space="preserve">120.893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.44889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397521972656</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572479248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.641006469727</t>
+    <t xml:space="preserve">133.572494506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.640991210938</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901596069336</t>
+    <t xml:space="preserve">131.901611328125</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.29923248291</t>
+    <t xml:space="preserve">129.149566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136917114258</t>
+    <t xml:space="preserve">124.136909484863</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743759155273</t>
+    <t xml:space="preserve">121.581443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743766784668</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436248779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141380310059</t>
+    <t xml:space="preserve">118.436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141387939453</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -4401,6 +4401,9 @@
   </si>
   <si>
     <t xml:space="preserve">119.099998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.099998474121</t>
   </si>
 </sst>
 </file>
@@ -17370,7 +17373,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17422,7 +17425,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17448,7 +17451,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17474,7 +17477,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17500,7 +17503,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17526,7 +17529,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17552,7 +17555,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17578,7 +17581,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17604,7 +17607,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17630,7 +17633,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17656,7 +17659,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17682,7 +17685,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17708,7 +17711,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17734,7 +17737,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17760,7 +17763,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17786,7 +17789,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17812,7 +17815,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17838,7 +17841,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17864,7 +17867,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17890,7 +17893,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17916,7 +17919,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17942,7 +17945,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17968,7 +17971,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17994,7 +17997,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18020,7 +18023,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18046,7 +18049,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18072,7 +18075,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18098,7 +18101,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18124,7 +18127,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18150,7 +18153,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18176,7 +18179,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18254,7 +18257,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18332,7 +18335,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18358,7 +18361,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18384,7 +18387,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18410,7 +18413,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18436,7 +18439,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18514,7 +18517,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18540,7 +18543,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18618,7 +18621,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18644,7 +18647,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18670,7 +18673,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18696,7 +18699,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18722,7 +18725,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18748,7 +18751,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18774,7 +18777,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18800,7 +18803,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18826,7 +18829,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18852,7 +18855,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18878,7 +18881,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18904,7 +18907,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18956,7 +18959,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18982,7 +18985,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19008,7 +19011,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19034,7 +19037,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19060,7 +19063,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19086,7 +19089,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19164,7 +19167,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19190,7 +19193,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19216,7 +19219,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19268,7 +19271,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19294,7 +19297,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19320,7 +19323,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19346,7 +19349,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19372,7 +19375,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19424,7 +19427,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19450,7 +19453,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19476,7 +19479,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19528,7 +19531,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19554,7 +19557,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19580,7 +19583,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19632,7 +19635,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19684,7 +19687,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19710,7 +19713,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19736,7 +19739,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19762,7 +19765,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19788,7 +19791,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19814,7 +19817,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19840,7 +19843,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19866,7 +19869,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19892,7 +19895,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19918,7 +19921,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19944,7 +19947,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19970,7 +19973,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20022,7 +20025,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20074,7 +20077,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20126,7 +20129,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20152,7 +20155,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20178,7 +20181,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20204,7 +20207,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20230,7 +20233,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20256,7 +20259,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20282,7 +20285,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20334,7 +20337,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20360,7 +20363,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20386,7 +20389,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20412,7 +20415,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20438,7 +20441,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20464,7 +20467,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20490,7 +20493,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20516,7 +20519,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20542,7 +20545,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20568,7 +20571,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20594,7 +20597,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20620,7 +20623,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20672,7 +20675,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20698,7 +20701,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20750,7 +20753,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20776,7 +20779,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20828,7 +20831,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20854,7 +20857,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20880,7 +20883,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20958,7 +20961,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20984,7 +20987,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21010,7 +21013,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21036,7 +21039,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21062,7 +21065,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21088,7 +21091,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21114,7 +21117,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21140,7 +21143,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21166,7 +21169,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21192,7 +21195,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21218,7 +21221,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21244,7 +21247,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21322,7 +21325,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21348,7 +21351,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21374,7 +21377,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21400,7 +21403,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21426,7 +21429,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21452,7 +21455,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21478,7 +21481,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21504,7 +21507,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21582,7 +21585,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21608,7 +21611,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21634,7 +21637,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21660,7 +21663,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21686,7 +21689,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21712,7 +21715,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21738,7 +21741,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21764,7 +21767,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21790,7 +21793,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21816,7 +21819,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21842,7 +21845,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21868,7 +21871,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21894,7 +21897,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21920,7 +21923,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21946,7 +21949,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21972,7 +21975,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21998,7 +22001,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22024,7 +22027,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22050,7 +22053,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22076,7 +22079,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22102,7 +22105,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22128,7 +22131,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22154,7 +22157,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22180,7 +22183,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22206,7 +22209,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22232,7 +22235,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22258,7 +22261,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22284,7 +22287,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22336,7 +22339,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22362,7 +22365,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22388,7 +22391,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22414,7 +22417,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22440,7 +22443,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22466,7 +22469,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22492,7 +22495,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22544,7 +22547,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22570,7 +22573,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22596,7 +22599,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22648,7 +22651,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22674,7 +22677,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22700,7 +22703,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22726,7 +22729,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22752,7 +22755,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22778,7 +22781,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22804,7 +22807,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22830,7 +22833,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22856,7 +22859,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22882,7 +22885,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22908,7 +22911,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22934,7 +22937,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25560,7 +25563,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26392,7 +26395,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -61370,7 +61373,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493171296</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>27699</v>
@@ -61391,6 +61394,32 @@
         <v>1336</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.649525463</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>23602</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>103.400001525879</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>101</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>102.199996948242</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>101.099998474121</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1465">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495969772339</t>
+    <t xml:space="preserve">13.8495960235596</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">13.8317260742188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5458002090454</t>
+    <t xml:space="preserve">13.5457983016968</t>
   </si>
   <si>
     <t xml:space="preserve">13.2330665588379</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437139511108</t>
+    <t xml:space="preserve">13.1437149047852</t>
   </si>
   <si>
     <t xml:space="preserve">13.3402900695801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2777414321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2241325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3939018249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134822845459</t>
+    <t xml:space="preserve">13.2777423858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2241315841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3939008712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5093126296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.000750541687</t>
+    <t xml:space="preserve">12.509313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667230606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722322463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8845930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5986671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3127384185791</t>
+    <t xml:space="preserve">12.8845920562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5986652374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
     <t xml:space="preserve">12.4467668533325</t>
@@ -119,46 +119,46 @@
     <t xml:space="preserve">11.7051439285278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663482666016</t>
+    <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
     <t xml:space="preserve">12.3752841949463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1519060134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412557601929</t>
+    <t xml:space="preserve">12.1519050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412567138672</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2769985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3484792709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0625524520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020900726318</t>
+    <t xml:space="preserve">12.2769975662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3484802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.062554359436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020910263062</t>
   </si>
   <si>
     <t xml:space="preserve">12.0893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3306093215942</t>
+    <t xml:space="preserve">12.3306083679199</t>
   </si>
   <si>
     <t xml:space="preserve">12.7773714065552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0811681747437</t>
+    <t xml:space="preserve">12.9560747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.081169128418</t>
   </si>
   <si>
     <t xml:space="preserve">13.456446647644</t>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">13.4475107192993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3581600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4117708206177</t>
+    <t xml:space="preserve">13.3581590652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.411771774292</t>
   </si>
   <si>
     <t xml:space="preserve">13.4832534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">13.036491394043</t>
+    <t xml:space="preserve">13.0364923477173</t>
   </si>
   <si>
     <t xml:space="preserve">13.1794548034668</t>
@@ -185,97 +185,97 @@
     <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3492240905762</t>
+    <t xml:space="preserve">13.3492250442505</t>
   </si>
   <si>
     <t xml:space="preserve">13.4921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688083648682</t>
+    <t xml:space="preserve">13.2688074111938</t>
   </si>
   <si>
     <t xml:space="preserve">13.7513103485107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0104303359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691783905029</t>
+    <t xml:space="preserve">14.0104322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691793441772</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602434158325</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5011234283447</t>
+    <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
     <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3849649429321</t>
+    <t xml:space="preserve">13.3849639892578</t>
   </si>
   <si>
     <t xml:space="preserve">13.2866773605347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9203329086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237577438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6522769927979</t>
+    <t xml:space="preserve">12.9203338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6522779464722</t>
   </si>
   <si>
     <t xml:space="preserve">12.2948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">12.419960975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.714822769165</t>
+    <t xml:space="preserve">12.4199600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7148237228394</t>
   </si>
   <si>
     <t xml:space="preserve">12.839916229248</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8041753768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9113988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6433401107788</t>
+    <t xml:space="preserve">12.8041744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.91139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6433410644531</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543613433838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7058897018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5539894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4646377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5182504653931</t>
+    <t xml:space="preserve">12.7058887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5539903640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4646368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5182485580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863063812256</t>
+    <t xml:space="preserve">12.7863054275513</t>
   </si>
   <si>
     <t xml:space="preserve">12.6612119674683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0804224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072273254395</t>
+    <t xml:space="preserve">12.0804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072282791138</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271844863892</t>
@@ -287,22 +287,22 @@
     <t xml:space="preserve">12.4914426803589</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4557027816772</t>
+    <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0096874237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1615839004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0901031494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.045428276062</t>
+    <t xml:space="preserve">13.0096864700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1615829467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0901021957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0454273223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.1526498794556</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">12.8131103515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4743175506592</t>
+    <t xml:space="preserve">13.4743185043335</t>
   </si>
   <si>
     <t xml:space="preserve">13.3224182128906</t>
@@ -323,28 +323,28 @@
     <t xml:space="preserve">13.5994110107422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708936691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.903208732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925622940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0283002853394</t>
+    <t xml:space="preserve">13.5547351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0283012390137</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559520721436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716125488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1757745742798</t>
+    <t xml:space="preserve">13.8716115951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1757736206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9269132614136</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">13.9453477859497</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9637823104858</t>
+    <t xml:space="preserve">13.9637832641602</t>
   </si>
   <si>
     <t xml:space="preserve">13.8992643356323</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8531770706177</t>
+    <t xml:space="preserve">13.8531789779663</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411867141724</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">13.8808288574219</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0006494522095</t>
+    <t xml:space="preserve">14.0006504058838</t>
   </si>
   <si>
     <t xml:space="preserve">14.0836029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9729995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1020383834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2863779067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3508977890015</t>
+    <t xml:space="preserve">13.9729986190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1020374298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
     <t xml:space="preserve">14.3232460021973</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">14.2126417160034</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4154167175293</t>
+    <t xml:space="preserve">14.415415763855</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628881454468</t>
@@ -407,46 +407,46 @@
     <t xml:space="preserve">14.4707183837891</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6827087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7380132675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8393993377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9315710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9868717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103614807129</t>
+    <t xml:space="preserve">14.6827096939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7380123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393983840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9315700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.986870765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103595733643</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274070739746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6181907653809</t>
+    <t xml:space="preserve">14.6181898117065</t>
   </si>
   <si>
     <t xml:space="preserve">14.8670501708984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606069564819</t>
+    <t xml:space="preserve">14.9684362411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606079101562</t>
   </si>
   <si>
     <t xml:space="preserve">15.0421743392944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9592208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500017166138</t>
+    <t xml:space="preserve">14.9592218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500026702881</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">15.152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343431472778</t>
+    <t xml:space="preserve">15.1343421936035</t>
   </si>
   <si>
     <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9039182662964</t>
+    <t xml:space="preserve">14.9039173126221</t>
   </si>
   <si>
     <t xml:space="preserve">15.0237379074097</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">14.9960889816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9776554107666</t>
+    <t xml:space="preserve">14.9776544570923</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541646957397</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3832054138184</t>
+    <t xml:space="preserve">15.383204460144</t>
   </si>
   <si>
     <t xml:space="preserve">15.549111366272</t>
@@ -488,49 +488,49 @@
     <t xml:space="preserve">15.7150144577026</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8993558883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297817230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219505310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1850852966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560474395752</t>
+    <t xml:space="preserve">15.8993549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219524383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1850833892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
     <t xml:space="preserve">16.3049068450928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1160011291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2450389862061</t>
+    <t xml:space="preserve">17.116003036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2450408935547</t>
   </si>
   <si>
     <t xml:space="preserve">17.466251373291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5307674407959</t>
+    <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.6045036315918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556442260742</t>
+    <t xml:space="preserve">17.3556461334229</t>
   </si>
   <si>
     <t xml:space="preserve">17.281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6874580383301</t>
+    <t xml:space="preserve">17.6874599456787</t>
   </si>
   <si>
     <t xml:space="preserve">17.4109439849854</t>
@@ -539,49 +539,49 @@
     <t xml:space="preserve">17.6598072052002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8625774383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058906555176</t>
+    <t xml:space="preserve">17.8625812530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058925628662</t>
   </si>
   <si>
     <t xml:space="preserve">17.5492057800293</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9731884002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639682769775</t>
+    <t xml:space="preserve">17.9731864929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639663696289</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5676383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2173919677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3279914855957</t>
+    <t xml:space="preserve">17.6229381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5676364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2173900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
     <t xml:space="preserve">17.0975685119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0606994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2358226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4201641082764</t>
+    <t xml:space="preserve">17.0607013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2358245849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.420166015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.1897373199463</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">17.374080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1436538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768508911133</t>
+    <t xml:space="preserve">17.1436519622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768547058105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0100536346436</t>
+    <t xml:space="preserve">18.0100555419922</t>
   </si>
   <si>
     <t xml:space="preserve">18.1575241088867</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">18.4063835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3879528045654</t>
+    <t xml:space="preserve">18.3879489898682</t>
   </si>
   <si>
     <t xml:space="preserve">18.3418636322021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3510818481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.20361328125</t>
+    <t xml:space="preserve">18.3510837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2036094665527</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713962554932</t>
+    <t xml:space="preserve">19.1713943481445</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -635,82 +635,82 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331420898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244167327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889347076416</t>
+    <t xml:space="preserve">19.0331439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
     <t xml:space="preserve">19.7797222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1023178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0838851928711</t>
+    <t xml:space="preserve">20.10231590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6783351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953807830811</t>
+    <t xml:space="preserve">19.6783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953826904297</t>
   </si>
   <si>
     <t xml:space="preserve">19.5585117340088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6230335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3741703033447</t>
+    <t xml:space="preserve">19.6230316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.374174118042</t>
   </si>
   <si>
     <t xml:space="preserve">19.3280868530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5124282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9870548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999412536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409732818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.890323638916</t>
+    <t xml:space="preserve">19.5124263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9870586395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903255462646</t>
   </si>
   <si>
     <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4617805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2913150787354</t>
+    <t xml:space="preserve">20.4617824554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2913112640381</t>
   </si>
   <si>
     <t xml:space="preserve">21.752161026001</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3926982879639</t>
+    <t xml:space="preserve">21.3373985290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926963806152</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678234100342</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">21.0240173339844</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1807079315186</t>
+    <t xml:space="preserve">21.1807060241699</t>
   </si>
   <si>
     <t xml:space="preserve">21.0608882904053</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">20.6369037628174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8304595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.106969833374</t>
+    <t xml:space="preserve">20.8304576873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1069717407227</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208438873291</t>
@@ -746,64 +746,64 @@
     <t xml:space="preserve">21.8535480499268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.581693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1254978179932</t>
+    <t xml:space="preserve">22.5816955566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1255016326904</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098411560059</t>
+    <t xml:space="preserve">23.3098392486572</t>
   </si>
   <si>
     <t xml:space="preserve">24.1209373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6094398498535</t>
+    <t xml:space="preserve">24.6094379425049</t>
   </si>
   <si>
     <t xml:space="preserve">24.5910053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.240758895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4619674682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882274627686</t>
+    <t xml:space="preserve">24.2407569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4619693756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882255554199</t>
   </si>
   <si>
     <t xml:space="preserve">24.3329296112061</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0287647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5033988952637</t>
+    <t xml:space="preserve">24.0287666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5033950805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0425434112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084503173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9503765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595928192139</t>
+    <t xml:space="preserve">23.0425453186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084522247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9503746032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595890045166</t>
   </si>
   <si>
     <t xml:space="preserve">22.48952293396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.673864364624</t>
+    <t xml:space="preserve">22.6738662719727</t>
   </si>
   <si>
     <t xml:space="preserve">23.2268867492676</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065685272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1853637695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632610321045</t>
+    <t xml:space="preserve">21.9641551971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065704345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604869842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1853618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632591247559</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936840057373</t>
@@ -839,25 +839,25 @@
     <t xml:space="preserve">23.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8121185302734</t>
+    <t xml:space="preserve">22.8121204376221</t>
   </si>
   <si>
     <t xml:space="preserve">22.6830825805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.848991394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.024112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.107063293457</t>
+    <t xml:space="preserve">22.8489894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0241107940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1070652008057</t>
   </si>
   <si>
     <t xml:space="preserve">23.1347160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7383842468262</t>
+    <t xml:space="preserve">22.7383823394775</t>
   </si>
   <si>
     <t xml:space="preserve">22.71994972229</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">22.6922988891602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.627779006958</t>
+    <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
     <t xml:space="preserve">22.6369953155518</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">22.0378894805908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5171756744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1669273376465</t>
+    <t xml:space="preserve">22.5171737670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1669254302979</t>
   </si>
   <si>
     <t xml:space="preserve">22.7291660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8674201965332</t>
+    <t xml:space="preserve">22.8674221038818</t>
   </si>
   <si>
     <t xml:space="preserve">22.8950729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.116283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1623649597168</t>
+    <t xml:space="preserve">23.1162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1623668670654</t>
   </si>
   <si>
     <t xml:space="preserve">23.5218315124512</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">26.3866691589355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3678188323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2358856201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.584566116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4620571136475</t>
+    <t xml:space="preserve">26.3678207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547340393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2358875274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5845680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4620590209961</t>
   </si>
   <si>
     <t xml:space="preserve">26.5562973022461</t>
@@ -953,25 +953,25 @@
     <t xml:space="preserve">26.6693801879883</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4809093475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3772430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5280265808105</t>
+    <t xml:space="preserve">26.4809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3772449493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5280246734619</t>
   </si>
   <si>
     <t xml:space="preserve">26.2453136444092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2264633178711</t>
+    <t xml:space="preserve">26.2264652252197</t>
   </si>
   <si>
     <t xml:space="preserve">25.6327648162842</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9625968933105</t>
+    <t xml:space="preserve">25.9625949859619</t>
   </si>
   <si>
     <t xml:space="preserve">25.8212394714355</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9814453125</t>
+    <t xml:space="preserve">25.3500480651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">25.1898441314697</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">25.4442901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7008819580078</t>
+    <t xml:space="preserve">23.7008800506592</t>
   </si>
   <si>
     <t xml:space="preserve">23.4841346740723</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6349143981934</t>
+    <t xml:space="preserve">23.634916305542</t>
   </si>
   <si>
     <t xml:space="preserve">23.7480030059814</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">22.9940948486328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2296905517578</t>
+    <t xml:space="preserve">23.2296924591064</t>
   </si>
   <si>
     <t xml:space="preserve">23.0035190582275</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">22.8150444030762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0883331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6254901885986</t>
+    <t xml:space="preserve">23.0883369445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
     <t xml:space="preserve">23.4181690216064</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">24.3040046691895</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1438045501709</t>
+    <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
     <t xml:space="preserve">23.6537647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4935569763184</t>
+    <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
     <t xml:space="preserve">23.3804740905762</t>
@@ -1064,16 +1064,16 @@
     <t xml:space="preserve">23.2391147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1919956207275</t>
+    <t xml:space="preserve">23.1919975280762</t>
   </si>
   <si>
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663097381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113334655762</t>
+    <t xml:space="preserve">24.2663116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113315582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">24.7846202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9259796142578</t>
+    <t xml:space="preserve">24.9259777069092</t>
   </si>
   <si>
     <t xml:space="preserve">24.6903839111328</t>
@@ -1094,16 +1094,16 @@
     <t xml:space="preserve">25.1615734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1981925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7741203308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7270030975342</t>
+    <t xml:space="preserve">26.4337844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1981906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7741222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7270011901855</t>
   </si>
   <si>
     <t xml:space="preserve">25.8683586120605</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1039543151855</t>
+    <t xml:space="preserve">26.1039524078369</t>
   </si>
   <si>
     <t xml:space="preserve">25.6798839569092</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">24.6432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8788585662842</t>
+    <t xml:space="preserve">24.8788604736328</t>
   </si>
   <si>
     <t xml:space="preserve">24.7375011444092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8317413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3029308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086925506592</t>
+    <t xml:space="preserve">24.8317394256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3029289245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0568351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2924308776855</t>
+    <t xml:space="preserve">26.0568370819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
     <t xml:space="preserve">25.1144542694092</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">26.1510734558105</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5751476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9992141723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1771907806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3656692504883</t>
+    <t xml:space="preserve">26.5751438140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9992160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1771926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3656673431396</t>
   </si>
   <si>
     <t xml:space="preserve">28.6955013275146</t>
@@ -1187,22 +1187,22 @@
     <t xml:space="preserve">25.5856456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0673351287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1876926422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0463352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8107376098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9049758911133</t>
+    <t xml:space="preserve">25.0673332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1876945495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0463371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107414245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9049777984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.8002376556396</t>
@@ -1214,43 +1214,43 @@
     <t xml:space="preserve">27.8944778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9887180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0829524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405715942383</t>
+    <t xml:space="preserve">27.9887161254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0829544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405735015869</t>
   </si>
   <si>
     <t xml:space="preserve">27.4232883453369</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7059993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4704074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4599056243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4022884368896</t>
+    <t xml:space="preserve">27.7060012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4704055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4599075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4022903442383</t>
   </si>
   <si>
     <t xml:space="preserve">29.213809967041</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5541439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4494075775146</t>
+    <t xml:space="preserve">28.5541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4494094848633</t>
   </si>
   <si>
     <t xml:space="preserve">28.7897396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">29.355167388916</t>
+    <t xml:space="preserve">29.3551692962646</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426204681396</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">27.6588821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5646419525146</t>
+    <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
     <t xml:space="preserve">27.7531223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2819309234619</t>
+    <t xml:space="preserve">27.2819328308105</t>
   </si>
   <si>
     <t xml:space="preserve">27.3761672973633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6222667694092</t>
+    <t xml:space="preserve">26.6222648620605</t>
   </si>
   <si>
     <t xml:space="preserve">28.2714309692383</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">27.0514106750488</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3775310516357</t>
+    <t xml:space="preserve">26.3775291442871</t>
   </si>
   <si>
     <t xml:space="preserve">26.2812633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7036533355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8961887359619</t>
+    <t xml:space="preserve">25.7036552429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8961906433105</t>
   </si>
   <si>
     <t xml:space="preserve">25.462984085083</t>
@@ -1331,37 +1331,37 @@
     <t xml:space="preserve">23.0081386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9118671417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.671199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5267963409424</t>
+    <t xml:space="preserve">22.9118690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6711978912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.526798248291</t>
   </si>
   <si>
     <t xml:space="preserve">22.3342609405518</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9600067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7193336486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9226894378662</t>
+    <t xml:space="preserve">22.9600028991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.719331741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9226913452148</t>
   </si>
   <si>
     <t xml:space="preserve">23.730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3932113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0189590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0562725067139</t>
+    <t xml:space="preserve">23.3932132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0189571380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0562744140625</t>
   </si>
   <si>
     <t xml:space="preserve">22.6230659484863</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">21.5641136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3234405517578</t>
+    <t xml:space="preserve">21.3234424591064</t>
   </si>
   <si>
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7674655914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2379913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305286407471</t>
+    <t xml:space="preserve">21.9491882324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7674674987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2379932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305267333984</t>
   </si>
   <si>
     <t xml:space="preserve">22.0454540252686</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">21.9973220825195</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8047828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7085151672363</t>
+    <t xml:space="preserve">21.8047847747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.708517074585</t>
   </si>
   <si>
     <t xml:space="preserve">23.3450794219971</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">24.2114944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3077621459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5484352111816</t>
+    <t xml:space="preserve">24.3077640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.548433303833</t>
   </si>
   <si>
     <t xml:space="preserve">24.8372383117676</t>
   </si>
   <si>
-    <t xml:space="preserve">24.692834854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7891025543213</t>
+    <t xml:space="preserve">24.6928329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7891044616699</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2223110198975</t>
+    <t xml:space="preserve">25.2223091125488</t>
   </si>
   <si>
     <t xml:space="preserve">25.1260452270508</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">25.511116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4737987518311</t>
+    <t xml:space="preserve">26.4738006591797</t>
   </si>
   <si>
     <t xml:space="preserve">26.3293991088867</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">26.5219326019287</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8588752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5327529907227</t>
+    <t xml:space="preserve">26.8588733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.532751083374</t>
   </si>
   <si>
     <t xml:space="preserve">27.5808849334717</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8696899414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0622291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1103630065918</t>
+    <t xml:space="preserve">27.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8696937561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0622272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1103610992432</t>
   </si>
   <si>
     <t xml:space="preserve">27.9178256988525</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">27.2439460754395</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1958141326904</t>
+    <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
     <t xml:space="preserve">26.5700702667236</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7144718170166</t>
+    <t xml:space="preserve">26.714469909668</t>
   </si>
   <si>
     <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1849956512451</t>
+    <t xml:space="preserve">26.1849975585938</t>
   </si>
   <si>
     <t xml:space="preserve">25.9924583435059</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816417694092</t>
+    <t xml:space="preserve">25.4148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
@@ -1559,52 +1559,52 @@
     <t xml:space="preserve">28.1584968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3029003143311</t>
+    <t xml:space="preserve">28.3028984069824</t>
   </si>
   <si>
     <t xml:space="preserve">28.7361068725586</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0249099731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.361852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5543880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6133403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4208011627197</t>
+    <t xml:space="preserve">29.0249118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3618507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.554386138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.613338470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4208030700684</t>
   </si>
   <si>
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465450286865</t>
+    <t xml:space="preserve">31.0465488433838</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943061828613</t>
+    <t xml:space="preserve">32.3943023681641</t>
   </si>
   <si>
     <t xml:space="preserve">33.1644515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2125816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2234001159668</t>
+    <t xml:space="preserve">33.2125854492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
     <t xml:space="preserve">34.4159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0308685302734</t>
+    <t xml:space="preserve">34.0308647155762</t>
   </si>
   <si>
     <t xml:space="preserve">34.3196754455566</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">34.6566123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9827346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5976600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8864631652832</t>
+    <t xml:space="preserve">33.9827308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5976638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8864669799805</t>
   </si>
   <si>
     <t xml:space="preserve">33.7901916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3088531494141</t>
+    <t xml:space="preserve">33.3088493347168</t>
   </si>
   <si>
     <t xml:space="preserve">33.0200462341309</t>
@@ -1637,31 +1637,31 @@
     <t xml:space="preserve">32.1536331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0573616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.576021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7685604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7204246520996</t>
+    <t xml:space="preserve">32.0573654174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5760231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7685623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7204284667969</t>
   </si>
   <si>
     <t xml:space="preserve">31.3353519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2872200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9610977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6722927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1054992675781</t>
+    <t xml:space="preserve">31.2872219085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9610958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.672290802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1054954528809</t>
   </si>
   <si>
     <t xml:space="preserve">31.5278873443604</t>
@@ -1679,19 +1679,19 @@
     <t xml:space="preserve">32.442440032959</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7528800964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2342224121094</t>
+    <t xml:space="preserve">34.7528762817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2342185974121</t>
   </si>
   <si>
     <t xml:space="preserve">36.5819778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4002532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5927963256836</t>
+    <t xml:space="preserve">37.4002571105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5927925109863</t>
   </si>
   <si>
     <t xml:space="preserve">37.9778709411621</t>
@@ -4404,6 +4404,9 @@
   </si>
   <si>
     <t xml:space="preserve">101.099998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.4499969482422</t>
   </si>
 </sst>
 </file>
@@ -61399,7 +61402,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.649525463</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>23602</v>
@@ -61420,6 +61423,32 @@
         <v>1463</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6494097222</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>33956</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>100.800003051758</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>98.0999984741211</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>100.099998474121</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>98.4499969482422</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495960235596</t>
+    <t xml:space="preserve">13.8495969772339</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8317260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5457983016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2330665588379</t>
+    <t xml:space="preserve">13.8317251205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5457992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2330675125122</t>
   </si>
   <si>
     <t xml:space="preserve">13.4028358459473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1437149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3402900695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2777423858643</t>
+    <t xml:space="preserve">13.1437139511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3402891159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2777433395386</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3939008712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134832382202</t>
+    <t xml:space="preserve">13.3938999176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134822845459</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">12.509313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8667230606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722322463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0007514953613</t>
+    <t xml:space="preserve">12.8667211532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.000750541687</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650096893311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8845920562744</t>
+    <t xml:space="preserve">12.8845930099487</t>
   </si>
   <si>
     <t xml:space="preserve">12.5986652374268</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3127374649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4467668533325</t>
+    <t xml:space="preserve">12.3127384185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4467678070068</t>
   </si>
   <si>
     <t xml:space="preserve">12.4110260009766</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">11.1690292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2226419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6157903671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7051439285278</t>
+    <t xml:space="preserve">11.2226428985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6157913208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7051429748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752841949463</t>
+    <t xml:space="preserve">12.3752851486206</t>
   </si>
   <si>
     <t xml:space="preserve">12.1519050598145</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">12.2412567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965799331665</t>
+    <t xml:space="preserve">12.1965808868408</t>
   </si>
   <si>
     <t xml:space="preserve">12.2769975662231</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">12.3484802246094</t>
   </si>
   <si>
-    <t xml:space="preserve">12.062554359436</t>
+    <t xml:space="preserve">12.0625524520874</t>
   </si>
   <si>
     <t xml:space="preserve">12.4020910263062</t>
@@ -149,58 +149,58 @@
     <t xml:space="preserve">12.0893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3306083679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7773714065552</t>
+    <t xml:space="preserve">12.3306102752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
     <t xml:space="preserve">12.9560747146606</t>
   </si>
   <si>
-    <t xml:space="preserve">13.081169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456446647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4475107192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3581590652466</t>
+    <t xml:space="preserve">13.0811681747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564476013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3581581115723</t>
   </si>
   <si>
     <t xml:space="preserve">13.411771774292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4832534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0364923477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1794548034668</t>
+    <t xml:space="preserve">13.4832525253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.036491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1794557571411</t>
   </si>
   <si>
     <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3492250442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4921884536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688074111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513103485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0104322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691793441772</t>
+    <t xml:space="preserve">13.3492240905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4921894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688083648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0104312896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691802978516</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602434158325</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">13.617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3849639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2866773605347</t>
+    <t xml:space="preserve">13.6172800064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3849668502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.286678314209</t>
   </si>
   <si>
     <t xml:space="preserve">12.9203338623047</t>
@@ -224,37 +224,37 @@
     <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6522779464722</t>
+    <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2948684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4199600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7148237228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.839916229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041744232178</t>
+    <t xml:space="preserve">12.419960975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.714822769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8399171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041763305664</t>
   </si>
   <si>
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433410644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0543613433838</t>
+    <t xml:space="preserve">12.6433420181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0543632507324</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5539903640747</t>
+    <t xml:space="preserve">12.5539894104004</t>
   </si>
   <si>
     <t xml:space="preserve">12.4646368026733</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">12.6880178451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7863054275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612119674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804233551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1072282791138</t>
+    <t xml:space="preserve">12.7863063812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804224014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1072292327881</t>
   </si>
   <si>
     <t xml:space="preserve">12.5271844863892</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0632972717285</t>
+    <t xml:space="preserve">13.0632963180542</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096864700317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1615829467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0901021957397</t>
+    <t xml:space="preserve">13.161584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0901041030884</t>
   </si>
   <si>
     <t xml:space="preserve">13.0454273223877</t>
@@ -308,34 +308,34 @@
     <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1169080734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8131103515625</t>
+    <t xml:space="preserve">13.1169090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8131113052368</t>
   </si>
   <si>
     <t xml:space="preserve">13.4743185043335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994110107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6708927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9032096862793</t>
+    <t xml:space="preserve">13.3224191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994119644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6708936691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9032077789307</t>
   </si>
   <si>
     <t xml:space="preserve">13.992561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0283012390137</t>
+    <t xml:space="preserve">14.0283031463623</t>
   </si>
   <si>
     <t xml:space="preserve">14.0559520721436</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">13.9269132614136</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9453477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9637832641602</t>
+    <t xml:space="preserve">13.945348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9637823104858</t>
   </si>
   <si>
     <t xml:space="preserve">13.8992643356323</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8531789779663</t>
+    <t xml:space="preserve">13.853178024292</t>
   </si>
   <si>
     <t xml:space="preserve">13.6411867141724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0006504058838</t>
+    <t xml:space="preserve">13.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0006484985352</t>
   </si>
   <si>
     <t xml:space="preserve">14.0836029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9729986190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1020374298096</t>
+    <t xml:space="preserve">13.9730005264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1020383834839</t>
   </si>
   <si>
     <t xml:space="preserve">14.286376953125</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">14.3508968353271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3232460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126417160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.415415763855</t>
+    <t xml:space="preserve">14.3232450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4154167175293</t>
   </si>
   <si>
     <t xml:space="preserve">14.5628881454468</t>
@@ -416,37 +416,37 @@
     <t xml:space="preserve">14.8393983840942</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9315700531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.986870765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6181898117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8670501708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684362411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0421743392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
+    <t xml:space="preserve">14.9315710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6181907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8670492172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684381484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606069564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0421733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145235061646</t>
@@ -455,22 +455,22 @@
     <t xml:space="preserve">15.152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1343421936035</t>
+    <t xml:space="preserve">15.1343441009521</t>
   </si>
   <si>
     <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9039173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960889816284</t>
+    <t xml:space="preserve">14.9039182662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960870742798</t>
   </si>
   <si>
     <t xml:space="preserve">14.9776544570923</t>
@@ -479,49 +479,49 @@
     <t xml:space="preserve">15.2541646957397</t>
   </si>
   <si>
-    <t xml:space="preserve">15.383204460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549111366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150144577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1850833892822</t>
+    <t xml:space="preserve">15.3832035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7150163650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.899356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297817230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1850852966309</t>
   </si>
   <si>
     <t xml:space="preserve">16.0560455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3049068450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.116003036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2450408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466251373291</t>
+    <t xml:space="preserve">16.3049049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1160049438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2450370788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4662475585938</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6045036315918</t>
+    <t xml:space="preserve">17.6045055389404</t>
   </si>
   <si>
     <t xml:space="preserve">17.3556461334229</t>
@@ -533,31 +533,31 @@
     <t xml:space="preserve">17.6874599456787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4109439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6598072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5492057800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9731864929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9639663696289</t>
+    <t xml:space="preserve">17.410945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6598052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8625793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5492038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9731845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9639682769775</t>
   </si>
   <si>
     <t xml:space="preserve">17.9547519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6229381561279</t>
+    <t xml:space="preserve">17.6229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">17.5676364898682</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975685119629</t>
+    <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
     <t xml:space="preserve">17.0607013702393</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.420166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1897373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.374080657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1436519622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3832988739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768547058105</t>
+    <t xml:space="preserve">17.4201622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1897392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3740787506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1436538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768508911133</t>
   </si>
   <si>
     <t xml:space="preserve">17.7427597045898</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">18.0100555419922</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1575241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510837554932</t>
+    <t xml:space="preserve">18.1575260162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418655395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510818481445</t>
   </si>
   <si>
     <t xml:space="preserve">18.2036094665527</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1713943481445</t>
+    <t xml:space="preserve">19.1713981628418</t>
   </si>
   <si>
     <t xml:space="preserve">19.2635669708252</t>
@@ -635,22 +635,22 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244148254395</t>
+    <t xml:space="preserve">19.0331420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244186401367</t>
   </si>
   <si>
     <t xml:space="preserve">19.7889366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7797222137451</t>
+    <t xml:space="preserve">19.7797203063965</t>
   </si>
   <si>
     <t xml:space="preserve">20.10231590271</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0838832855225</t>
+    <t xml:space="preserve">20.0838851928711</t>
   </si>
   <si>
     <t xml:space="preserve">19.9917125701904</t>
@@ -659,16 +659,16 @@
     <t xml:space="preserve">19.6783332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5953826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5585117340088</t>
+    <t xml:space="preserve">19.5953788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5585136413574</t>
   </si>
   <si>
     <t xml:space="preserve">19.6230316162109</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374174118042</t>
+    <t xml:space="preserve">19.3741722106934</t>
   </si>
   <si>
     <t xml:space="preserve">19.3280868530273</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">18.5999431610107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9409694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2543525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8903255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8165893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4617824554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8120288848877</t>
+    <t xml:space="preserve">18.9409732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2543506622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8903274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8165874481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4617805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913112640381</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">21.752161026001</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3373985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3926963806152</t>
+    <t xml:space="preserve">21.3373966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926982879639</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678234100342</t>
@@ -719,28 +719,28 @@
     <t xml:space="preserve">21.4756526947021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0240173339844</t>
+    <t xml:space="preserve">21.024019241333</t>
   </si>
   <si>
     <t xml:space="preserve">21.1807060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0608882904053</t>
+    <t xml:space="preserve">21.0608863830566</t>
   </si>
   <si>
     <t xml:space="preserve">20.6369037628174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8304576873779</t>
+    <t xml:space="preserve">20.8304615020752</t>
   </si>
   <si>
     <t xml:space="preserve">21.1069717407227</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8443336486816</t>
+    <t xml:space="preserve">22.1208457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.844331741333</t>
   </si>
   <si>
     <t xml:space="preserve">21.8535480499268</t>
@@ -749,37 +749,37 @@
     <t xml:space="preserve">22.5816955566406</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1255016326904</t>
+    <t xml:space="preserve">23.1254997253418</t>
   </si>
   <si>
     <t xml:space="preserve">23.2176685333252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3098392486572</t>
+    <t xml:space="preserve">23.3098373413086</t>
   </si>
   <si>
     <t xml:space="preserve">24.1209373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6094379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5910053253174</t>
+    <t xml:space="preserve">24.6094398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5910034179688</t>
   </si>
   <si>
     <t xml:space="preserve">24.2407569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4619693756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882255554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0287666320801</t>
+    <t xml:space="preserve">24.4619655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329277038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0287647247314</t>
   </si>
   <si>
     <t xml:space="preserve">23.5033950805664</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">22.9780254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0425453186035</t>
+    <t xml:space="preserve">23.0425434112549</t>
   </si>
   <si>
     <t xml:space="preserve">23.2084522247314</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9503746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9595890045166</t>
+    <t xml:space="preserve">22.9503726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9595909118652</t>
   </si>
   <si>
     <t xml:space="preserve">22.48952293396</t>
@@ -809,16 +809,16 @@
     <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8582038879395</t>
+    <t xml:space="preserve">22.8582019805908</t>
   </si>
   <si>
     <t xml:space="preserve">22.7015151977539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9641551971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065704345703</t>
+    <t xml:space="preserve">21.9641532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604869842529</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">22.1853618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4250049591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5632591247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7936840057373</t>
+    <t xml:space="preserve">22.4250030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5632610321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7936859130859</t>
   </si>
   <si>
     <t xml:space="preserve">23.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8121204376221</t>
+    <t xml:space="preserve">22.8121223449707</t>
   </si>
   <si>
     <t xml:space="preserve">22.6830825805664</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0241107940674</t>
+    <t xml:space="preserve">23.0241088867188</t>
   </si>
   <si>
     <t xml:space="preserve">23.1070652008057</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">23.1347160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7383823394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.71994972229</t>
+    <t xml:space="preserve">22.7383804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7199478149414</t>
   </si>
   <si>
     <t xml:space="preserve">22.6185626983643</t>
@@ -875,67 +875,67 @@
     <t xml:space="preserve">22.6277770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6369953155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0747585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7982482910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0378894805908</t>
+    <t xml:space="preserve">22.6369934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0747566223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.798246383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0378913879395</t>
   </si>
   <si>
     <t xml:space="preserve">22.5171737670898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1669254302979</t>
+    <t xml:space="preserve">22.1669292449951</t>
   </si>
   <si>
     <t xml:space="preserve">22.7291660308838</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8950729370117</t>
+    <t xml:space="preserve">22.8674201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8950748443604</t>
   </si>
   <si>
     <t xml:space="preserve">23.1162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1623668670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5218315124512</t>
+    <t xml:space="preserve">23.1623649597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5218296051025</t>
   </si>
   <si>
     <t xml:space="preserve">24.0401382446289</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7856979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.709228515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2558097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3217792510986</t>
+    <t xml:space="preserve">23.7856960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7092304229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2558078765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.32177734375</t>
   </si>
   <si>
     <t xml:space="preserve">25.8023910522461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3866691589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3678207397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2547340393066</t>
+    <t xml:space="preserve">26.3866672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2547378540039</t>
   </si>
   <si>
     <t xml:space="preserve">26.2358875274658</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">26.5845680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4620590209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5562973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6693801879883</t>
+    <t xml:space="preserve">26.4620571136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5562992095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6693820953369</t>
   </si>
   <si>
     <t xml:space="preserve">26.4809074401855</t>
@@ -962,103 +962,100 @@
     <t xml:space="preserve">26.5280246734619</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2453136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2264652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6327648162842</t>
+    <t xml:space="preserve">26.2453117370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2264614105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6327629089355</t>
   </si>
   <si>
     <t xml:space="preserve">25.9625949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8212394714355</t>
+    <t xml:space="preserve">25.8212375640869</t>
   </si>
   <si>
     <t xml:space="preserve">25.8872051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3500480651855</t>
+    <t xml:space="preserve">25.3500499725342</t>
   </si>
   <si>
     <t xml:space="preserve">25.9814434051514</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1898441314697</t>
+    <t xml:space="preserve">25.1898422241211</t>
   </si>
   <si>
     <t xml:space="preserve">25.4065895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5102519989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4442901611328</t>
+    <t xml:space="preserve">25.51025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4442863464355</t>
   </si>
   <si>
     <t xml:space="preserve">23.7008800506592</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4841346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7480030059814</t>
+    <t xml:space="preserve">23.4841365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6349143981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7480010986328</t>
   </si>
   <si>
     <t xml:space="preserve">23.5029830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5218296051025</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.2862339019775</t>
   </si>
   <si>
     <t xml:space="preserve">23.1731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9940948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2296924591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0035190582275</t>
+    <t xml:space="preserve">22.9940967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2296905517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0035209655762</t>
   </si>
   <si>
     <t xml:space="preserve">22.8150444030762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0883369445801</t>
+    <t xml:space="preserve">23.0883350372314</t>
   </si>
   <si>
     <t xml:space="preserve">23.6254920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4181690216064</t>
+    <t xml:space="preserve">23.4181671142578</t>
   </si>
   <si>
     <t xml:space="preserve">23.9176292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3040046691895</t>
+    <t xml:space="preserve">24.3040084838867</t>
   </si>
   <si>
     <t xml:space="preserve">24.1438026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6537647247314</t>
+    <t xml:space="preserve">23.6537628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.493558883667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3804740905762</t>
+    <t xml:space="preserve">23.3804702758789</t>
   </si>
   <si>
     <t xml:space="preserve">23.2391147613525</t>
@@ -1070,25 +1067,25 @@
     <t xml:space="preserve">23.8422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2663116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5113315582275</t>
+    <t xml:space="preserve">24.2663097381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5113296508789</t>
   </si>
   <si>
     <t xml:space="preserve">24.5019054412842</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5961456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7846202850342</t>
+    <t xml:space="preserve">24.5961418151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7846183776855</t>
   </si>
   <si>
     <t xml:space="preserve">24.9259777069092</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6903839111328</t>
+    <t xml:space="preserve">24.6903820037842</t>
   </si>
   <si>
     <t xml:space="preserve">25.1615734100342</t>
@@ -1100,10 +1097,10 @@
     <t xml:space="preserve">26.1981906890869</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7741222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7270011901855</t>
+    <t xml:space="preserve">25.7741184234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7269992828369</t>
   </si>
   <si>
     <t xml:space="preserve">25.8683586120605</t>
@@ -1112,61 +1109,61 @@
     <t xml:space="preserve">26.0097160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1039524078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6798839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9730949401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1720714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5490264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6432647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8788604736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7375011444092</t>
+    <t xml:space="preserve">26.1039543151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6798820495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9730968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1720733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5490245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6432628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8788566589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7374992370605</t>
   </si>
   <si>
     <t xml:space="preserve">24.8317394256592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3029289245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2086906433105</t>
+    <t xml:space="preserve">25.3029308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2086925506592</t>
   </si>
   <si>
     <t xml:space="preserve">25.5385246276855</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0568370819092</t>
+    <t xml:space="preserve">26.0568332672119</t>
   </si>
   <si>
     <t xml:space="preserve">26.2924289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1144542694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1510734558105</t>
+    <t xml:space="preserve">25.1144523620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1510753631592</t>
   </si>
   <si>
     <t xml:space="preserve">26.5751438140869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9992160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1771926879883</t>
+    <t xml:space="preserve">26.9992141723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1771907806396</t>
   </si>
   <si>
     <t xml:space="preserve">28.3656673431396</t>
@@ -1178,79 +1175,79 @@
     <t xml:space="preserve">28.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3290481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0934543609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5856456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0673332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9520988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1876945495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0463371276855</t>
+    <t xml:space="preserve">27.3290500640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0934505462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5856437683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0673351287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9520950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1876907348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0463352203369</t>
   </si>
   <si>
     <t xml:space="preserve">26.8107414245605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9049777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8002376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8578586578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8944778442383</t>
+    <t xml:space="preserve">26.9049758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8002395629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8578567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8944759368896</t>
   </si>
   <si>
     <t xml:space="preserve">27.9887161254883</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0829544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1405735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4232883453369</t>
+    <t xml:space="preserve">28.082950592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1405715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4232864379883</t>
   </si>
   <si>
     <t xml:space="preserve">27.7060012817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4704055786133</t>
+    <t xml:space="preserve">27.4704074859619</t>
   </si>
   <si>
     <t xml:space="preserve">28.4599075317383</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4022903442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.213809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4494094848633</t>
+    <t xml:space="preserve">29.402286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2138080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.554141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.449405670166</t>
   </si>
   <si>
     <t xml:space="preserve">28.7897396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3551692962646</t>
+    <t xml:space="preserve">29.3551654815674</t>
   </si>
   <si>
     <t xml:space="preserve">28.7426204681396</t>
@@ -1262,7 +1259,7 @@
     <t xml:space="preserve">27.5646438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7531223297119</t>
+    <t xml:space="preserve">27.7531185150146</t>
   </si>
   <si>
     <t xml:space="preserve">27.2819328308105</t>
@@ -1271,28 +1268,31 @@
     <t xml:space="preserve">27.3761672973633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6222648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2714309692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5175266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7626037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6663360595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0514106750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3775291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2812633514404</t>
+    <t xml:space="preserve">26.6222629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2714290618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5175247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7626056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6663379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0514125823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8107395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3775310516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2812614440918</t>
   </si>
   <si>
     <t xml:space="preserve">25.7036552429199</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">25.8961906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.462984085083</t>
+    <t xml:space="preserve">25.4629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">25.0297737121582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9335041046143</t>
+    <t xml:space="preserve">24.9335060119629</t>
   </si>
   <si>
     <t xml:space="preserve">24.4521636962891</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">23.7782859802246</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5376148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5857486724854</t>
+    <t xml:space="preserve">23.5376167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.585750579834</t>
   </si>
   <si>
     <t xml:space="preserve">23.2488098144531</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">22.9118690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6711978912354</t>
+    <t xml:space="preserve">22.671199798584</t>
   </si>
   <si>
     <t xml:space="preserve">22.526798248291</t>
@@ -1346,28 +1346,28 @@
     <t xml:space="preserve">22.9600028991699</t>
   </si>
   <si>
-    <t xml:space="preserve">22.719331741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9226913452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.730152130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3932132720947</t>
+    <t xml:space="preserve">22.7193336486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9226894378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7301502227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3932113647461</t>
   </si>
   <si>
     <t xml:space="preserve">24.0189571380615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0562744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6230659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1417236328125</t>
+    <t xml:space="preserve">23.0562725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1417255401611</t>
   </si>
   <si>
     <t xml:space="preserve">21.6603813171387</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">21.4678440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5641136169434</t>
+    <t xml:space="preserve">21.5641117095947</t>
   </si>
   <si>
     <t xml:space="preserve">21.3234424591064</t>
@@ -1385,19 +1385,19 @@
     <t xml:space="preserve">21.8529186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9491882324219</t>
+    <t xml:space="preserve">21.9491863250732</t>
   </si>
   <si>
     <t xml:space="preserve">22.7674674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2379932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4305267333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0454540252686</t>
+    <t xml:space="preserve">22.2379913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4305286407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0454559326172</t>
   </si>
   <si>
     <t xml:space="preserve">21.9973220825195</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">21.8047847747803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.708517074585</t>
+    <t xml:space="preserve">21.7085151672363</t>
   </si>
   <si>
     <t xml:space="preserve">23.3450794219971</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">23.2969436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0670909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1633586883545</t>
+    <t xml:space="preserve">24.0670890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1633605957031</t>
   </si>
   <si>
     <t xml:space="preserve">24.2596282958984</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2114944458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3077640533447</t>
+    <t xml:space="preserve">24.2114925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3077602386475</t>
   </si>
   <si>
     <t xml:space="preserve">24.548433303833</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">24.8372383117676</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6928329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7891044616699</t>
+    <t xml:space="preserve">24.692834854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7891025543213</t>
   </si>
   <si>
     <t xml:space="preserve">25.2704448699951</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">25.1741771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2223091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1260452270508</t>
+    <t xml:space="preserve">25.2223110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1260414123535</t>
   </si>
   <si>
     <t xml:space="preserve">25.3185787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.511116027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4738006591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3293991088867</t>
+    <t xml:space="preserve">25.5111179351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4737987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3293972015381</t>
   </si>
   <si>
     <t xml:space="preserve">26.5219326019287</t>
@@ -1481,25 +1481,25 @@
     <t xml:space="preserve">27.4364833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3402156829834</t>
+    <t xml:space="preserve">27.3402137756348</t>
   </si>
   <si>
     <t xml:space="preserve">27.8696937561035</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0622272491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1103610992432</t>
+    <t xml:space="preserve">28.0622291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1103630065918</t>
   </si>
   <si>
     <t xml:space="preserve">27.9178256988525</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6771545410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2920799255371</t>
+    <t xml:space="preserve">27.677152633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2920818328857</t>
   </si>
   <si>
     <t xml:space="preserve">27.2439460754395</t>
@@ -1508,31 +1508,31 @@
     <t xml:space="preserve">27.1958122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5700702667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.714469909668</t>
+    <t xml:space="preserve">26.570068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7144737243652</t>
   </si>
   <si>
     <t xml:space="preserve">26.6182022094727</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1849975585938</t>
+    <t xml:space="preserve">26.1849956512451</t>
   </si>
   <si>
     <t xml:space="preserve">25.9924583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592479705811</t>
+    <t xml:space="preserve">25.5592517852783</t>
   </si>
   <si>
     <t xml:space="preserve">25.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9816398620605</t>
+    <t xml:space="preserve">25.4148464202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9816417694092</t>
   </si>
   <si>
     <t xml:space="preserve">26.0887260437012</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">27.3883514404297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.484619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6290225982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7734241485596</t>
+    <t xml:space="preserve">27.4846172332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.629020690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">28.1584968566895</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">29.3618507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">29.554386138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.613338470459</t>
+    <t xml:space="preserve">29.5543899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6133403778076</t>
   </si>
   <si>
     <t xml:space="preserve">30.4208030700684</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">30.9984130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0465488433838</t>
+    <t xml:space="preserve">31.0465469360352</t>
   </si>
   <si>
     <t xml:space="preserve">32.2017707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3943023681641</t>
+    <t xml:space="preserve">32.3943061828613</t>
   </si>
   <si>
     <t xml:space="preserve">33.1644515991211</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">34.2234039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4159393310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0308647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3196754455566</t>
+    <t xml:space="preserve">34.415943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0308685302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3196716308594</t>
   </si>
   <si>
     <t xml:space="preserve">34.6566123962402</t>
@@ -1616,25 +1616,25 @@
     <t xml:space="preserve">33.9827308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5976638793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8864669799805</t>
+    <t xml:space="preserve">33.5976600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8864631652832</t>
   </si>
   <si>
     <t xml:space="preserve">33.7901916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3088493347168</t>
+    <t xml:space="preserve">33.3088531494141</t>
   </si>
   <si>
     <t xml:space="preserve">33.0200462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6349754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1536331176758</t>
+    <t xml:space="preserve">32.6349792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.153636932373</t>
   </si>
   <si>
     <t xml:space="preserve">32.0573654174805</t>
@@ -1643,31 +1643,31 @@
     <t xml:space="preserve">31.5760231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7685623168945</t>
+    <t xml:space="preserve">31.7685546875</t>
   </si>
   <si>
     <t xml:space="preserve">31.7204284667969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3353519439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2872219085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9610958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.672290802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1054954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5278873443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8648281097412</t>
+    <t xml:space="preserve">31.3353538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2872180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9611015319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6722927093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1054992675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.527889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8648262023926</t>
   </si>
   <si>
     <t xml:space="preserve">32.5868377685547</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">32.7312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.442440032959</t>
+    <t xml:space="preserve">32.4424362182617</t>
   </si>
   <si>
     <t xml:space="preserve">34.7528762817383</t>
@@ -1694,28 +1694,28 @@
     <t xml:space="preserve">37.5927925109863</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9778709411621</t>
+    <t xml:space="preserve">37.9778671264648</t>
   </si>
   <si>
     <t xml:space="preserve">38.5073432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9279174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.074634552002</t>
+    <t xml:space="preserve">38.9279251098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0746383666992</t>
   </si>
   <si>
     <t xml:space="preserve">38.1943550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6344947814941</t>
+    <t xml:space="preserve">38.6344985961914</t>
   </si>
   <si>
     <t xml:space="preserve">39.0257339477539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2213516235352</t>
+    <t xml:space="preserve">39.2213478088379</t>
   </si>
   <si>
     <t xml:space="preserve">38.7812118530273</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">38.8301162719727</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6833992004395</t>
+    <t xml:space="preserve">38.6834030151367</t>
   </si>
   <si>
     <t xml:space="preserve">38.1454544067383</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">39.710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6125831604004</t>
+    <t xml:space="preserve">39.6125869750977</t>
   </si>
   <si>
     <t xml:space="preserve">40.1994361877441</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9060096740723</t>
+    <t xml:space="preserve">39.9060134887695</t>
   </si>
   <si>
     <t xml:space="preserve">39.6614875793457</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">39.3191604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9768257141113</t>
+    <t xml:space="preserve">38.9768218994141</t>
   </si>
   <si>
     <t xml:space="preserve">39.7593002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5636787414551</t>
+    <t xml:space="preserve">39.5636825561523</t>
   </si>
   <si>
     <t xml:space="preserve">39.1235389709473</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">39.4169654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2702560424805</t>
+    <t xml:space="preserve">39.2702522277832</t>
   </si>
   <si>
     <t xml:space="preserve">40.2483444213867</t>
@@ -1775,40 +1775,40 @@
     <t xml:space="preserve">40.0527267456055</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1505317687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7862892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1067123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0358924865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4760360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5957565307617</t>
+    <t xml:space="preserve">40.1505355834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7862930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1067085266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0358963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5957527160645</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6176681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8402786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0139808654785</t>
+    <t xml:space="preserve">41.6176643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.840274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0139846801758</t>
   </si>
   <si>
     <t xml:space="preserve">44.4541244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2365989685059</t>
+    <t xml:space="preserve">45.2365951538086</t>
   </si>
   <si>
     <t xml:space="preserve">45.774543762207</t>
@@ -1820,28 +1820,28 @@
     <t xml:space="preserve">44.992073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6008377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1606979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8672676086426</t>
+    <t xml:space="preserve">44.6008338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.160701751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8672714233398</t>
   </si>
   <si>
     <t xml:space="preserve">45.921257019043</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4103012084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2635879516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6059188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7088088989258</t>
+    <t xml:space="preserve">46.4102973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2635841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6059226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7088050842285</t>
   </si>
   <si>
     <t xml:space="preserve">49.9803237915039</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">50.469367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.664981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7408866882324</t>
+    <t xml:space="preserve">50.6649856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7408828735352</t>
   </si>
   <si>
     <t xml:space="preserve">52.1321182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8926734924316</t>
+    <t xml:space="preserve">53.8926773071289</t>
   </si>
   <si>
     <t xml:space="preserve">53.7948684692383</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">52.816780090332</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4912757873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3934745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1540298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5233535766602</t>
+    <t xml:space="preserve">49.4912796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3934707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1540336608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5233573913574</t>
   </si>
   <si>
     <t xml:space="preserve">52.034309387207</t>
@@ -1910,19 +1910,19 @@
     <t xml:space="preserve">50.9584083557129</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5452690124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.6970634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.2620010375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.4795341491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5992469787598</t>
+    <t xml:space="preserve">51.5452651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.6970596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.2620048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.4795303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.599250793457</t>
   </si>
   <si>
     <t xml:space="preserve">48.4153823852539</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">46.7526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9701614379883</t>
+    <t xml:space="preserve">45.970157623291</t>
   </si>
   <si>
     <t xml:space="preserve">44.5519332885742</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">42.6935653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4607887268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.384895324707</t>
+    <t xml:space="preserve">37.4607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3848915100098</t>
   </si>
   <si>
     <t xml:space="preserve">30.7608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1791114807129</t>
+    <t xml:space="preserve">32.1791152954102</t>
   </si>
   <si>
     <t xml:space="preserve">29.8316993713379</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">32.2280197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7878799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0543098449707</t>
+    <t xml:space="preserve">31.7878761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0543117523193</t>
   </si>
   <si>
     <t xml:space="preserve">35.7002296447754</t>
@@ -1985,46 +1985,46 @@
     <t xml:space="preserve">35.3089942932129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8469467163086</t>
+    <t xml:space="preserve">35.8469429016113</t>
   </si>
   <si>
     <t xml:space="preserve">37.9009284973145</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0476455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9498329162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1016273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3242378234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8841018676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7256393432617</t>
+    <t xml:space="preserve">38.0476417541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.949836730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1016311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3242416381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8840980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7256355285645</t>
   </si>
   <si>
     <t xml:space="preserve">46.9971542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4592094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0679664611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3613967895508</t>
+    <t xml:space="preserve">46.4592056274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0679702758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">46.1168746948242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.486198425293</t>
+    <t xml:space="preserve">47.4861946105957</t>
   </si>
   <si>
     <t xml:space="preserve">46.6548194885254</t>
@@ -2036,22 +2036,22 @@
     <t xml:space="preserve">46.3124923706055</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1657752990723</t>
+    <t xml:space="preserve">46.1657791137695</t>
   </si>
   <si>
     <t xml:space="preserve">45.1876907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1117935180664</t>
+    <t xml:space="preserve">44.1117897033691</t>
   </si>
   <si>
     <t xml:space="preserve">44.8942642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7913703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5249404907227</t>
+    <t xml:space="preserve">42.7913780212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5249366760254</t>
   </si>
   <si>
     <t xml:space="preserve">46.0190620422363</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">46.5570106506348</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5620956420898</t>
+    <t xml:space="preserve">48.5620918273926</t>
   </si>
   <si>
     <t xml:space="preserve">48.7577133178711</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">49.7847061157227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0022315979004</t>
+    <t xml:space="preserve">49.0022354125977</t>
   </si>
   <si>
     <t xml:space="preserve">49.5890884399414</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">52.6211624145508</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3277397155762</t>
+    <t xml:space="preserve">52.3277359008789</t>
   </si>
   <si>
     <t xml:space="preserve">52.9145889282227</t>
@@ -2087,31 +2087,31 @@
     <t xml:space="preserve">52.4255409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2839126586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.1641960144043</t>
+    <t xml:space="preserve">54.2839164733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.164192199707</t>
   </si>
   <si>
     <t xml:space="preserve">54.6751518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3379020690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9247550964355</t>
+    <t xml:space="preserve">56.3378982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9247512817383</t>
   </si>
   <si>
     <t xml:space="preserve">56.729133605957</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5554275512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8488578796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0444679260254</t>
+    <t xml:space="preserve">55.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8488502502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0444717407227</t>
   </si>
   <si>
     <t xml:space="preserve">56.6313285827637</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">58.5875053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">59.9568290710449</t>
+    <t xml:space="preserve">59.9568252563477</t>
   </si>
   <si>
     <t xml:space="preserve">58.4896926879883</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">58.9787368774414</t>
   </si>
   <si>
-    <t xml:space="preserve">57.6094169616699</t>
+    <t xml:space="preserve">57.6094131469727</t>
   </si>
   <si>
     <t xml:space="preserve">59.2721633911133</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">65.7275466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0209808349609</t>
+    <t xml:space="preserve">66.0209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">67.3902969360352</t>
@@ -2183,31 +2183,31 @@
     <t xml:space="preserve">68.1727676391602</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8034439086914</t>
+    <t xml:space="preserve">66.8034515380859</t>
   </si>
   <si>
     <t xml:space="preserve">68.466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">68.6618041992188</t>
+    <t xml:space="preserve">68.6618118286133</t>
   </si>
   <si>
     <t xml:space="preserve">67.9771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3464813232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.596076965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7158126831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8675994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.378547668457</t>
+    <t xml:space="preserve">69.3464736938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5960845947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7158050537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8675918579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3785552978516</t>
   </si>
   <si>
     <t xml:space="preserve">72.1829376220703</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">73.3566360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">73.6500701904297</t>
+    <t xml:space="preserve">73.6500625610352</t>
   </si>
   <si>
     <t xml:space="preserve">72.5741653442383</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">71.0092239379883</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5201797485352</t>
+    <t xml:space="preserve">70.5201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">71.4982681274414</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3245697021484</t>
+    <t xml:space="preserve">70.3245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">71.2048492431641</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">75.508430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">76.4865264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6164093017578</t>
+    <t xml:space="preserve">76.4865188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6164016723633</t>
   </si>
   <si>
     <t xml:space="preserve">80.0076446533203</t>
@@ -2267,28 +2267,28 @@
     <t xml:space="preserve">81.1813507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">82.550666809082</t>
+    <t xml:space="preserve">82.5506744384766</t>
   </si>
   <si>
     <t xml:space="preserve">83.8221817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.3331451416016</t>
+    <t xml:space="preserve">83.333137512207</t>
   </si>
   <si>
     <t xml:space="preserve">83.7243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">84.2134246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2353363037109</t>
+    <t xml:space="preserve">84.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2353286743164</t>
   </si>
   <si>
     <t xml:space="preserve">82.9419097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2572479248047</t>
+    <t xml:space="preserve">82.2572402954102</t>
   </si>
   <si>
     <t xml:space="preserve">83.5287628173828</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">83.6265716552734</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1915130615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7462921142578</t>
+    <t xml:space="preserve">85.1915054321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7462844848633</t>
   </si>
   <si>
     <t xml:space="preserve">84.6046600341797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.115608215332</t>
+    <t xml:space="preserve">84.1156158447266</t>
   </si>
   <si>
     <t xml:space="preserve">78.7361297607422</t>
@@ -2315,37 +2315,37 @@
     <t xml:space="preserve">81.0835418701172</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5827407836914</t>
+    <t xml:space="preserve">85.5827560424805</t>
   </si>
   <si>
     <t xml:space="preserve">83.9199981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">78.4427032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2791519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5725784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3112335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1594314575195</t>
+    <t xml:space="preserve">78.4426956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2791595458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5725860595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3112258911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1594390869141</t>
   </si>
   <si>
     <t xml:space="preserve">80.3988723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">80.203254699707</t>
+    <t xml:space="preserve">80.2032623291016</t>
   </si>
   <si>
     <t xml:space="preserve">86.5608291625977</t>
   </si>
   <si>
-    <t xml:space="preserve">87.245491027832</t>
+    <t xml:space="preserve">87.2454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">84.8980865478516</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">89.1038665771484</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2016754150391</t>
+    <t xml:space="preserve">89.2016677856445</t>
   </si>
   <si>
     <t xml:space="preserve">90.2775726318359</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">88.7126235961914</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9184188842773</t>
+    <t xml:space="preserve">92.9184112548828</t>
   </si>
   <si>
     <t xml:space="preserve">93.4074554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.1680145263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0044631958008</t>
+    <t xml:space="preserve">95.1680221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0044708251953</t>
   </si>
   <si>
     <t xml:space="preserve">99.3737945556641</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">103.872993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">103.481773376465</t>
+    <t xml:space="preserve">103.48176574707</t>
   </si>
   <si>
     <t xml:space="preserve">100.156265258789</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">100.743118286133</t>
   </si>
   <si>
-    <t xml:space="preserve">102.112449645996</t>
+    <t xml:space="preserve">102.112442016602</t>
   </si>
   <si>
     <t xml:space="preserve">98.3957061767578</t>
@@ -2408,13 +2408,13 @@
     <t xml:space="preserve">96.9285736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">97.4176177978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3417205810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5373306274414</t>
+    <t xml:space="preserve">97.417610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3417129516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5373382568359</t>
   </si>
   <si>
     <t xml:space="preserve">99.1781768798828</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">96.6351470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2439193725586</t>
+    <t xml:space="preserve">96.2439117431641</t>
   </si>
   <si>
     <t xml:space="preserve">95.9504852294922</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">96.1461029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4614334106445</t>
+    <t xml:space="preserve">95.4614410400391</t>
   </si>
   <si>
     <t xml:space="preserve">95.7548599243164</t>
   </si>
   <si>
-    <t xml:space="preserve">94.9723968505859</t>
+    <t xml:space="preserve">94.9723892211914</t>
   </si>
   <si>
     <t xml:space="preserve">95.3636322021484</t>
@@ -2453,46 +2453,46 @@
     <t xml:space="preserve">99.7650299072266</t>
   </si>
   <si>
-    <t xml:space="preserve">103.677383422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.19849395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.807266235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.95906829834</t>
+    <t xml:space="preserve">103.677391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.198501586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.807258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.959060668945</t>
   </si>
   <si>
     <t xml:space="preserve">109.741523742676</t>
   </si>
   <si>
-    <t xml:space="preserve">112.088935852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.675804138184</t>
+    <t xml:space="preserve">112.088943481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.675796508789</t>
   </si>
   <si>
     <t xml:space="preserve">107.980979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">108.567825317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.328392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.937149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.893325805664</t>
+    <t xml:space="preserve">108.567832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.328384399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.937156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.893333435059</t>
   </si>
   <si>
     <t xml:space="preserve">110.132766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">111.110855102539</t>
+    <t xml:space="preserve">111.110847473145</t>
   </si>
   <si>
     <t xml:space="preserve">104.459861755371</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">109.350303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.915237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.17658996582</t>
+    <t xml:space="preserve">110.915245056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.176582336426</t>
   </si>
   <si>
     <t xml:space="preserve">103.286148071289</t>
   </si>
   <si>
-    <t xml:space="preserve">104.655479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.437950134277</t>
+    <t xml:space="preserve">104.655471801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.437942504883</t>
   </si>
   <si>
     <t xml:space="preserve">105.242324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">107.785346984863</t>
+    <t xml:space="preserve">107.785354614258</t>
   </si>
   <si>
     <t xml:space="preserve">104.264236450195</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">106.220405578613</t>
   </si>
   <si>
-    <t xml:space="preserve">108.76343536377</t>
+    <t xml:space="preserve">108.763442993164</t>
   </si>
   <si>
     <t xml:space="preserve">111.502090454102</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">116.196922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">112.480178833008</t>
+    <t xml:space="preserve">112.480171203613</t>
   </si>
   <si>
     <t xml:space="preserve">109.545913696289</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">112.871421813965</t>
   </si>
   <si>
-    <t xml:space="preserve">113.849510192871</t>
+    <t xml:space="preserve">113.849502563477</t>
   </si>
   <si>
     <t xml:space="preserve">114.827598571777</t>
@@ -2585,10 +2585,10 @@
     <t xml:space="preserve">115.805679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">115.21883392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.566246032715</t>
+    <t xml:space="preserve">115.218826293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.56623840332</t>
   </si>
   <si>
     <t xml:space="preserve">118.153099060059</t>
@@ -2642,13 +2642,13 @@
     <t xml:space="preserve">137.128005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">136.736785888672</t>
+    <t xml:space="preserve">136.736770629883</t>
   </si>
   <si>
     <t xml:space="preserve">135.563079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">135.367431640625</t>
+    <t xml:space="preserve">135.367446899414</t>
   </si>
   <si>
     <t xml:space="preserve">137.91047668457</t>
@@ -2657,22 +2657,22 @@
     <t xml:space="preserve">139.671035766602</t>
   </si>
   <si>
-    <t xml:space="preserve">140.453521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.301712036133</t>
+    <t xml:space="preserve">140.453536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.301727294922</t>
   </si>
   <si>
     <t xml:space="preserve">134.78059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">137.714874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.27978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.844757080078</t>
+    <t xml:space="preserve">137.714859008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.279800415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.844741821289</t>
   </si>
   <si>
     <t xml:space="preserve">141.235977172852</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">140.062271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">141.627212524414</t>
+    <t xml:space="preserve">141.627227783203</t>
   </si>
   <si>
     <t xml:space="preserve">142.996536254883</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">142.409698486328</t>
   </si>
   <si>
-    <t xml:space="preserve">141.04035949707</t>
+    <t xml:space="preserve">141.040374755859</t>
   </si>
   <si>
     <t xml:space="preserve">138.497344970703</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">147.691360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">148.082595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.300140380859</t>
+    <t xml:space="preserve">148.082611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.30012512207</t>
   </si>
   <si>
     <t xml:space="preserve">145.343963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">146.908889770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.1044921875</t>
+    <t xml:space="preserve">146.908905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">147.886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">148.473846435547</t>
+    <t xml:space="preserve">148.473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">151.212493896484</t>
@@ -2732,46 +2732,46 @@
     <t xml:space="preserve">148.86506652832</t>
   </si>
   <si>
-    <t xml:space="preserve">150.038787841797</t>
+    <t xml:space="preserve">150.038772583008</t>
   </si>
   <si>
     <t xml:space="preserve">152.581817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.342376708984</t>
+    <t xml:space="preserve">154.342361450195</t>
   </si>
   <si>
     <t xml:space="preserve">153.755508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">156.885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.711669921875</t>
+    <t xml:space="preserve">156.885391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.711700439453</t>
   </si>
   <si>
     <t xml:space="preserve">158.841567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">154.537979125977</t>
+    <t xml:space="preserve">154.537994384766</t>
   </si>
   <si>
     <t xml:space="preserve">161.38459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">162.558303833008</t>
+    <t xml:space="preserve">162.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">162.167083740234</t>
   </si>
   <si>
-    <t xml:space="preserve">163.145156860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.905746459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.101333618164</t>
+    <t xml:space="preserve">163.145172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.905731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.101348876953</t>
   </si>
   <si>
     <t xml:space="preserve">167.057525634766</t>
@@ -2786,31 +2786,31 @@
     <t xml:space="preserve">177.620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">174.099761962891</t>
+    <t xml:space="preserve">174.099746704102</t>
   </si>
   <si>
     <t xml:space="preserve">168.818084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">171.752349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.013702392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.318862915039</t>
+    <t xml:space="preserve">171.752365112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.013717651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.318878173828</t>
   </si>
   <si>
     <t xml:space="preserve">165.688186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">175.46907043457</t>
+    <t xml:space="preserve">175.469085693359</t>
   </si>
   <si>
     <t xml:space="preserve">170.774261474609</t>
   </si>
   <si>
-    <t xml:space="preserve">165.515884399414</t>
+    <t xml:space="preserve">165.515869140625</t>
   </si>
   <si>
     <t xml:space="preserve">164.926162719727</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">148.807037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">150.576202392578</t>
+    <t xml:space="preserve">150.576217651367</t>
   </si>
   <si>
     <t xml:space="preserve">153.721405029297</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">153.524826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">151.362518310547</t>
+    <t xml:space="preserve">151.362503051758</t>
   </si>
   <si>
     <t xml:space="preserve">155.097427368164</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">152.935104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">158.635772705078</t>
+    <t xml:space="preserve">158.635757446289</t>
   </si>
   <si>
     <t xml:space="preserve">160.011795043945</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">157.849472045898</t>
   </si>
   <si>
-    <t xml:space="preserve">164.33642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.037109375</t>
+    <t xml:space="preserve">164.336441040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.037094116211</t>
   </si>
   <si>
     <t xml:space="preserve">173.968597412109</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">167.088485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">169.250793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.695343017578</t>
+    <t xml:space="preserve">169.25080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.695327758789</t>
   </si>
   <si>
     <t xml:space="preserve">165.319305419922</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">172.592590332031</t>
   </si>
   <si>
-    <t xml:space="preserve">181.438446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.472702026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.387069702148</t>
+    <t xml:space="preserve">181.438430786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.472686767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.387054443359</t>
   </si>
   <si>
     <t xml:space="preserve">184.780197143555</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">174.361740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">171.216537475586</t>
+    <t xml:space="preserve">171.216552734375</t>
   </si>
   <si>
     <t xml:space="preserve">177.900085449219</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">178.882965087891</t>
   </si>
   <si>
-    <t xml:space="preserve">176.524078369141</t>
+    <t xml:space="preserve">176.524063110352</t>
   </si>
   <si>
     <t xml:space="preserve">175.934341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">175.737762451172</t>
+    <t xml:space="preserve">175.737777709961</t>
   </si>
   <si>
     <t xml:space="preserve">171.019973754883</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">167.481628417969</t>
   </si>
   <si>
-    <t xml:space="preserve">170.430252075195</t>
+    <t xml:space="preserve">170.430236816406</t>
   </si>
   <si>
     <t xml:space="preserve">167.874786376953</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">159.618637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">155.687149047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.2001953125</t>
+    <t xml:space="preserve">155.687133789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.200180053711</t>
   </si>
   <si>
     <t xml:space="preserve">150.183059692383</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">154.70426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">156.866592407227</t>
+    <t xml:space="preserve">156.866607666016</t>
   </si>
   <si>
     <t xml:space="preserve">156.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">160.601516723633</t>
+    <t xml:space="preserve">160.601501464844</t>
   </si>
   <si>
     <t xml:space="preserve">155.294006347656</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">141.730346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">135.636520385742</t>
+    <t xml:space="preserve">135.636535644531</t>
   </si>
   <si>
     <t xml:space="preserve">135.439956665039</t>
@@ -3050,25 +3050,25 @@
     <t xml:space="preserve">133.0810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">137.798843383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.884475708008</t>
+    <t xml:space="preserve">137.798858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.884490966797</t>
   </si>
   <si>
     <t xml:space="preserve">133.670776367188</t>
   </si>
   <si>
-    <t xml:space="preserve">131.705032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.491348266602</t>
+    <t xml:space="preserve">131.705047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.491333007812</t>
   </si>
   <si>
     <t xml:space="preserve">135.833099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">140.550888061523</t>
+    <t xml:space="preserve">140.550903320312</t>
   </si>
   <si>
     <t xml:space="preserve">139.174880981445</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">138.585144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">127.576972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.286582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.363265991211</t>
+    <t xml:space="preserve">127.576965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.286575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.36328125</t>
   </si>
   <si>
     <t xml:space="preserve">127.970123291016</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">140.35432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">141.92692565918</t>
+    <t xml:space="preserve">141.926910400391</t>
   </si>
   <si>
     <t xml:space="preserve">146.054992675781</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">151.55908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.448150634766</t>
+    <t xml:space="preserve">146.448135375977</t>
   </si>
   <si>
     <t xml:space="preserve">145.760131835938</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">145.858413696289</t>
   </si>
   <si>
-    <t xml:space="preserve">146.251571655273</t>
+    <t xml:space="preserve">146.251556396484</t>
   </si>
   <si>
     <t xml:space="preserve">142.614944458008</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">143.302947998047</t>
   </si>
   <si>
-    <t xml:space="preserve">143.008087158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.516632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.320068359375</t>
+    <t xml:space="preserve">143.008071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.516647338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.320083618164</t>
   </si>
   <si>
     <t xml:space="preserve">143.106369018555</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">146.349838256836</t>
   </si>
   <si>
-    <t xml:space="preserve">145.465255737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.769088745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.393035888672</t>
+    <t xml:space="preserve">145.465270996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.769073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.393051147461</t>
   </si>
   <si>
     <t xml:space="preserve">132.786209106445</t>
@@ -3182,19 +3182,19 @@
     <t xml:space="preserve">126.987243652344</t>
   </si>
   <si>
-    <t xml:space="preserve">125.611221313477</t>
+    <t xml:space="preserve">125.611228942871</t>
   </si>
   <si>
     <t xml:space="preserve">121.188293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">112.244148254395</t>
+    <t xml:space="preserve">112.244140625</t>
   </si>
   <si>
     <t xml:space="preserve">116.077346801758</t>
   </si>
   <si>
-    <t xml:space="preserve">117.944808959961</t>
+    <t xml:space="preserve">117.944816589355</t>
   </si>
   <si>
     <t xml:space="preserve">118.337959289551</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">121.384864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">120.696853637695</t>
+    <t xml:space="preserve">120.69686126709</t>
   </si>
   <si>
     <t xml:space="preserve">125.021499633789</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">122.957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">122.760894775391</t>
+    <t xml:space="preserve">122.760887145996</t>
   </si>
   <si>
     <t xml:space="preserve">121.876304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">123.154037475586</t>
+    <t xml:space="preserve">123.15404510498</t>
   </si>
   <si>
     <t xml:space="preserve">119.320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">119.41911315918</t>
+    <t xml:space="preserve">119.419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">121.679733276367</t>
@@ -3233,22 +3233,22 @@
     <t xml:space="preserve">124.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">127.380401611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.004371643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.235198974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.790672302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.085525512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.820465087891</t>
+    <t xml:space="preserve">127.380409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.004364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.235206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.790664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.08553314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.820449829102</t>
   </si>
   <si>
     <t xml:space="preserve">131.50846862793</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">125.906089782715</t>
   </si>
   <si>
-    <t xml:space="preserve">117.060218811035</t>
+    <t xml:space="preserve">117.06022644043</t>
   </si>
   <si>
     <t xml:space="preserve">115.389343261719</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">116.765365600586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.521873474121</t>
+    <t xml:space="preserve">113.521881103516</t>
   </si>
   <si>
     <t xml:space="preserve">114.701324462891</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">117.748237609863</t>
   </si>
   <si>
-    <t xml:space="preserve">121.778015136719</t>
+    <t xml:space="preserve">121.778022766113</t>
   </si>
   <si>
     <t xml:space="preserve">122.564315795898</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">122.072875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">120.500282287598</t>
+    <t xml:space="preserve">120.500274658203</t>
   </si>
   <si>
     <t xml:space="preserve">117.846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">115.684204101562</t>
+    <t xml:space="preserve">115.684196472168</t>
   </si>
   <si>
     <t xml:space="preserve">121.974586486816</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">125.709510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">120.893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.367744445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.44889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.397521972656</t>
+    <t xml:space="preserve">120.893432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.367736816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.448905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.397529602051</t>
   </si>
   <si>
     <t xml:space="preserve">131.803329467773</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">134.653656005859</t>
   </si>
   <si>
-    <t xml:space="preserve">133.572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.640991210938</t>
+    <t xml:space="preserve">133.572479248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.641006469727</t>
   </si>
   <si>
     <t xml:space="preserve">130.623870849609</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">135.538238525391</t>
   </si>
   <si>
-    <t xml:space="preserve">131.901611328125</t>
+    <t xml:space="preserve">131.901596069336</t>
   </si>
   <si>
     <t xml:space="preserve">134.063934326172</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">128.756408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">129.149566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.299240112305</t>
+    <t xml:space="preserve">129.149551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.29923248291</t>
   </si>
   <si>
     <t xml:space="preserve">130.132446289062</t>
@@ -3374,34 +3374,34 @@
     <t xml:space="preserve">129.542724609375</t>
   </si>
   <si>
-    <t xml:space="preserve">124.136909484863</t>
+    <t xml:space="preserve">124.136917114258</t>
   </si>
   <si>
     <t xml:space="preserve">120.205421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">121.581443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.859184265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.743766784668</t>
+    <t xml:space="preserve">121.581436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.859176635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.743759155273</t>
   </si>
   <si>
     <t xml:space="preserve">120.107131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">118.436241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.829399108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.799613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.141387939453</t>
+    <t xml:space="preserve">118.436248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.829391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.141380310059</t>
   </si>
   <si>
     <t xml:space="preserve">118.239669799805</t>
@@ -17376,7 +17376,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>24.7099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17454,7 +17454,7 @@
         <v>24.5900001525879</v>
       </c>
       <c r="G489" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G491" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17532,7 +17532,7 @@
         <v>24.4099998474121</v>
       </c>
       <c r="G492" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17558,7 +17558,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17584,7 +17584,7 @@
         <v>24.5</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>25.0699996948242</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G496" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17662,7 +17662,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G497" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G498" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17714,7 +17714,7 @@
         <v>25.7900009155273</v>
       </c>
       <c r="G499" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G500" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17792,7 +17792,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G502" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17818,7 +17818,7 @@
         <v>24.5</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17844,7 +17844,7 @@
         <v>24.8099994659424</v>
       </c>
       <c r="G504" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G505" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G506" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>25.75</v>
       </c>
       <c r="G509" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>26.0100002288818</v>
       </c>
       <c r="G510" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G511" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>27.25</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>26.5</v>
       </c>
       <c r="G534" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>26.5</v>
       </c>
       <c r="G535" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>26</v>
       </c>
       <c r="G536" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>26</v>
       </c>
       <c r="G540" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>26.5</v>
       </c>
       <c r="G541" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G542" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G543" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>26.5</v>
       </c>
       <c r="G545" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>26.25</v>
       </c>
       <c r="G548" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G550" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G551" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G552" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>25.75</v>
       </c>
       <c r="G555" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>26</v>
       </c>
       <c r="G556" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>26.75</v>
       </c>
       <c r="G559" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G560" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G561" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G565" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G567" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>26.5</v>
       </c>
       <c r="G569" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>26</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G579" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>26.75</v>
       </c>
       <c r="G585" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>27.25</v>
       </c>
       <c r="G586" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>26.75</v>
       </c>
       <c r="G588" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G592" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G593" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>27.75</v>
       </c>
       <c r="G595" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>27.75</v>
       </c>
       <c r="G596" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G597" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>27.75</v>
       </c>
       <c r="G598" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G601" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G602" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G605" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G609" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>29</v>
       </c>
       <c r="G610" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>28.75</v>
       </c>
       <c r="G611" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G613" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G614" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G617" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G621" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G628" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>28.75</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G630" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>28.75</v>
       </c>
       <c r="G631" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>29.5</v>
       </c>
       <c r="G632" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>28.75</v>
       </c>
       <c r="G633" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>28.5</v>
       </c>
       <c r="G634" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>28.5</v>
       </c>
       <c r="G635" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G638" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G641" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G642" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G644" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G650" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G651" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>28.5</v>
       </c>
       <c r="G654" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>28.6499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G657" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G659" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G660" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>31.25</v>
       </c>
       <c r="G663" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G665" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>30.5</v>
       </c>
       <c r="G666" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G668" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>29.25</v>
       </c>
       <c r="G670" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G671" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>29.25</v>
       </c>
       <c r="G673" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G674" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>28.5</v>
       </c>
       <c r="G677" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G678" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G679" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G680" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>28.25</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G685" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G686" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G687" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G689" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>30</v>
       </c>
       <c r="G690" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G691" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>28.8500003814697</v>
       </c>
       <c r="G694" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>28.5</v>
       </c>
       <c r="G695" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G697" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G698" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>27.8500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G801" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -61428,7 +61428,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6494097222</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>33956</v>
@@ -61449,6 +61449,32 @@
         <v>1464</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6493518519</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>11931</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>99.4499969482422</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>97.8000030517578</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>99.1500015258789</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>98.5999984741211</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SES.MI.xlsx
+++ b/data/SES.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1467">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8495969772339</t>
+    <t xml:space="preserve">13.8495960235596</t>
   </si>
   <si>
     <t xml:space="preserve">SES.MI</t>
@@ -47,52 +47,52 @@
     <t xml:space="preserve">13.8317260742188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5458002090454</t>
+    <t xml:space="preserve">13.5457992553711</t>
   </si>
   <si>
     <t xml:space="preserve">13.2330675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4028348922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1437139511108</t>
+    <t xml:space="preserve">13.4028358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1437149047852</t>
   </si>
   <si>
     <t xml:space="preserve">13.3402900695801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2777423858643</t>
+    <t xml:space="preserve">13.2777414321899</t>
   </si>
   <si>
     <t xml:space="preserve">13.2241315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3939008712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3134841918945</t>
+    <t xml:space="preserve">13.3939018249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3134832382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1347789764404</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5093145370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8667211532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0722332000732</t>
+    <t xml:space="preserve">12.5093126296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8667221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0722322463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.0007514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650087356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.884593963623</t>
+    <t xml:space="preserve">12.9650096893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8845920562744</t>
   </si>
   <si>
     <t xml:space="preserve">12.5986661911011</t>
@@ -101,52 +101,52 @@
     <t xml:space="preserve">12.3127374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4467678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4110269546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2226428985596</t>
+    <t xml:space="preserve">12.4467658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4110260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2226409912109</t>
   </si>
   <si>
     <t xml:space="preserve">11.6157913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7051448822021</t>
+    <t xml:space="preserve">11.7051429748535</t>
   </si>
   <si>
     <t xml:space="preserve">12.3663501739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3752851486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1519060134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2412567138672</t>
+    <t xml:space="preserve">12.3752841949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1519050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2412557601929</t>
   </si>
   <si>
     <t xml:space="preserve">12.1965799331665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2769985198975</t>
+    <t xml:space="preserve">12.2769975662231</t>
   </si>
   <si>
     <t xml:space="preserve">12.3484792709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0625524520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4020919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0893573760986</t>
+    <t xml:space="preserve">12.0625534057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4020910263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0893583297729</t>
   </si>
   <si>
     <t xml:space="preserve">12.3306093215942</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">12.7773704528809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.956075668335</t>
+    <t xml:space="preserve">12.9560747146606</t>
   </si>
   <si>
     <t xml:space="preserve">13.0811681747437</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">13.4475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3581590652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4117708206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4832525253296</t>
+    <t xml:space="preserve">13.3581600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.411771774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4832515716553</t>
   </si>
   <si>
     <t xml:space="preserve">13.036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1794557571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1883916854858</t>
+    <t xml:space="preserve">13.1794538497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1883907318115</t>
   </si>
   <si>
     <t xml:space="preserve">13.3492240905762</t>
@@ -191,67 +191,67 @@
     <t xml:space="preserve">13.4921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688064575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7513084411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0104322433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7691802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602434158325</t>
+    <t xml:space="preserve">13.2688074111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7513103485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0104312896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7691793441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602443695068</t>
   </si>
   <si>
     <t xml:space="preserve">13.5011224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6172800064087</t>
+    <t xml:space="preserve">13.617280960083</t>
   </si>
   <si>
     <t xml:space="preserve">13.3849639892578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2866773605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9203329086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7237596511841</t>
+    <t xml:space="preserve">13.286678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9203338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7237586975098</t>
   </si>
   <si>
     <t xml:space="preserve">12.6522769927979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2948694229126</t>
+    <t xml:space="preserve">12.294867515564</t>
   </si>
   <si>
     <t xml:space="preserve">12.419960975647</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7148237228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8399181365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041753768921</t>
+    <t xml:space="preserve">12.714822769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8399171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041763305664</t>
   </si>
   <si>
     <t xml:space="preserve">12.91139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6433429718018</t>
+    <t xml:space="preserve">12.6433410644531</t>
   </si>
   <si>
     <t xml:space="preserve">13.0543613433838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7058877944946</t>
+    <t xml:space="preserve">12.7058887481689</t>
   </si>
   <si>
     <t xml:space="preserve">12.5539903640747</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">12.5182495117188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6880187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7863054275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6612138748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0804224014282</t>
+    <t xml:space="preserve">12.6880178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.786304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6612119674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0804233551025</t>
   </si>
   <si>
     <t xml:space="preserve">12.1072292327881</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">12.8577871322632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4914445877075</t>
+    <t xml:space="preserve">12.4914426803589</t>
   </si>
   <si>
     <t xml:space="preserve">12.4557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0632963180542</t>
+    <t xml:space="preserve">13.0632972717285</t>
   </si>
   <si>
     <t xml:space="preserve">13.0096864700317</t>
@@ -302,43 +302,43 @@
     <t xml:space="preserve">13.0901021957397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0454263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1526489257812</t>
+    <t xml:space="preserve">13.045428276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1526498794556</t>
   </si>
   <si>
     <t xml:space="preserve">13.1169090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8131093978882</t>
+    <t xml:space="preserve">12.8131113052368</t>
   </si>
   <si>
     <t xml:space="preserve">13.4743175506592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3224172592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5994100570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5547342300415</t>
+    <t xml:space="preserve">13.3224182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5994110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5547351837158</t>
   </si>
   <si>
     <t xml:space="preserve">13.6708936691284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9032096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9925594329834</t>
+    <t xml:space="preserve">13.903208732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9925603866577</t>
   </si>
   <si>
     <t xml:space="preserve">14.028302192688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0559511184692</t>
+    <t xml:space="preserve">14.0559520721436</t>
   </si>
   <si>
     <t xml:space="preserve">13.8716125488281</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">13.9637832641602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8992624282837</t>
+    <t xml:space="preserve">13.8992643356323</t>
   </si>
   <si>
     <t xml:space="preserve">13.9176979064941</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">13.8255271911621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8531789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6411876678467</t>
+    <t xml:space="preserve">13.853178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6411867141724</t>
   </si>
   <si>
     <t xml:space="preserve">13.8808298110962</t>
@@ -377,31 +377,31 @@
     <t xml:space="preserve">14.0006494522095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0836038589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9730005264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1020393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2863788604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3508968353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232450485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2126426696777</t>
+    <t xml:space="preserve">14.0836029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9729995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1020383834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3508958816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2126417160034</t>
   </si>
   <si>
     <t xml:space="preserve">14.415415763855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5628890991211</t>
+    <t xml:space="preserve">14.5628881454468</t>
   </si>
   <si>
     <t xml:space="preserve">14.4707183837891</t>
@@ -410,19 +410,19 @@
     <t xml:space="preserve">14.6827096939087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7380113601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8393993377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9315710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.986873626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7103605270386</t>
+    <t xml:space="preserve">14.7380123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8393983840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9315690994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9868717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7103595733643</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274070739746</t>
@@ -431,49 +431,49 @@
     <t xml:space="preserve">14.6181898117065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8670482635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9684371948242</t>
+    <t xml:space="preserve">14.8670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9684362411499</t>
   </si>
   <si>
     <t xml:space="preserve">15.0606069564819</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0421724319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9592208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9500026702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145244598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1527786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1343421936035</t>
+    <t xml:space="preserve">15.0421743392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9592218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9500017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.152777671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1343431472778</t>
   </si>
   <si>
     <t xml:space="preserve">15.06982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9039182662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301820755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9960889816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.977653503418</t>
+    <t xml:space="preserve">14.9039173126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.023738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9776554107666</t>
   </si>
   <si>
     <t xml:space="preserve">15.2541646957397</t>
@@ -482,88 +482,88 @@
     <t xml:space="preserve">15.383204460144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7150163650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8993549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2772541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297817230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2219505310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1850833892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0560436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3049049377441</t>
+    <t xml:space="preserve">15.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.715015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8993539810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2772560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2219543457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1850852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3049068450928</t>
   </si>
   <si>
     <t xml:space="preserve">17.116003036499</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2450389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4662494659424</t>
+    <t xml:space="preserve">17.2450408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466251373291</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6045055389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556461334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2819080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6874580383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.410945892334</t>
+    <t xml:space="preserve">17.6045036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556442260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.281909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6874599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4109439849854</t>
   </si>
   <si>
     <t xml:space="preserve">17.6598072052002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8625812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7058925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5492038726807</t>
+    <t xml:space="preserve">17.8625793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5492057800293</t>
   </si>
   <si>
     <t xml:space="preserve">17.9731864929199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9547500610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6229400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5676326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2266101837158</t>
+    <t xml:space="preserve">17.9639663696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9547538757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6229381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5676364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2266063690186</t>
   </si>
   <si>
     <t xml:space="preserve">17.2173900604248</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">17.3279933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0975685119629</t>
+    <t xml:space="preserve">17.0975666046143</t>
   </si>
   <si>
     <t xml:space="preserve">17.0607013702393</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">17.2358245849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4201641082764</t>
+    <t xml:space="preserve">17.420166015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.1897373199463</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3740825653076</t>
+    <t xml:space="preserve">17.374080657959</t>
   </si>
   <si>
     <t xml:space="preserve">17.1436538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3832969665527</t>
+    <t xml:space="preserve">17.3832988739014</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768527984619</t>
@@ -605,25 +605,25 @@
     <t xml:space="preserve">18.0100536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1575260162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063835144043</t>
+    <t xml:space="preserve">18.1575241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063816070557</t>
   </si>
   <si>
     <t xml:space="preserve">18.3879508972168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3418655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3510856628418</t>
+    <t xml:space="preserve">18.3418636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3510837554932</t>
   </si>
   <si>
     <t xml:space="preserve">18.2036113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6644630432129</t>
+    <t xml:space="preserve">18.6644611358643</t>
   </si>
   <si>
     <t xml:space="preserve">19.1713962554932</t>
@@ -635,31 +635,31 @@
     <t xml:space="preserve">19.3557376861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0331401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7244205474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7889385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7797164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.10231590271</t>
+    <t xml:space="preserve">19.0331420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7889347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7797203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1023178100586</t>
   </si>
   <si>
     <t xml:space="preserve">20.0838832855225</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9917106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6783313751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5953826904297</t>
+    <t xml:space="preserve">19.9917144775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6783351898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5953807830811</t>
   </si>
   <si>
     <t xml:space="preserve">19.5585117340088</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">19.6230316162109</t>
   </si>
   <si>
-    <t xml:space="preserve">19.374174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3280868530273</t>
+    <t xml:space="preserve">19.3741722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.328088760376</t>
   </si>
   <si>
     <t xml:space="preserve">19.5124263763428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9870586395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5999431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9409713745117</t>
+    <t xml:space="preserve">18.9870567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5999412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9409694671631</t>
   </si>
   <si>
     <t xml:space="preserve">19.2543506622314</t>
@@ -692,31 +692,31 @@
     <t xml:space="preserve">19.890323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8165874481201</t>
+    <t xml:space="preserve">19.8165893554688</t>
   </si>
   <si>
     <t xml:space="preserve">20.4617805480957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8120250701904</t>
+    <t xml:space="preserve">20.8120269775391</t>
   </si>
   <si>
     <t xml:space="preserve">21.2913131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7521648406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3373947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3927001953125</t>
+    <t xml:space="preserve">21.7521629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3373985290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3926963806152</t>
   </si>
   <si>
     <t xml:space="preserve">21.5678234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4756507873535</t>
+    <t xml:space="preserve">21.4756526947021</t>
   </si>
   <si>
     <t xml:space="preserve">21.0240173339844</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">21.1807079315186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0608863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6369018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8304634094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1069736480713</t>
+    <t xml:space="preserve">21.0608882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6369037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8304595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">22.1208438873291</t>
@@ -743,22 +743,22 @@
     <t xml:space="preserve">21.8443336486816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8535499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5816917419434</t>
+    <t xml:space="preserve">21.8535480499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.581693649292</t>
   </si>
   <si>
     <t xml:space="preserve">23.1254997253418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2176685333252</t>
+    <t xml:space="preserve">23.2176704406738</t>
   </si>
   <si>
     <t xml:space="preserve">23.3098392486572</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1209335327148</t>
+    <t xml:space="preserve">24.1209354400635</t>
   </si>
   <si>
     <t xml:space="preserve">24.6094379425049</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">24.2407569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4619655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3882312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3329257965088</t>
+    <t xml:space="preserve">24.4619674682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3882274627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3329277038574</t>
   </si>
   <si>
     <t xml:space="preserve">24.0287647247314</t>
@@ -785,52 +785,52 @@
     <t xml:space="preserve">23.503396987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.97802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0425453186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2084503173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9503746032715</t>
+    <t xml:space="preserve">22.9780254364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0425434112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2084541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9503765106201</t>
   </si>
   <si>
     <t xml:space="preserve">22.9595909118652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4895248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.673864364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2268848419189</t>
+    <t xml:space="preserve">22.48952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6738662719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2268867492676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8582038879395</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7015171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9641532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4065685272217</t>
+    <t xml:space="preserve">22.7015151977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9641551971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4065723419189</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1853618621826</t>
+    <t xml:space="preserve">22.1853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">22.4250030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5632610321045</t>
+    <t xml:space="preserve">22.5632591247559</t>
   </si>
   <si>
     <t xml:space="preserve">22.7936840057373</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">22.8121204376221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6830806732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8489875793457</t>
+    <t xml:space="preserve">22.6830825805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8489894866943</t>
   </si>
   <si>
     <t xml:space="preserve">23.0241107940674</t>
@@ -854,52 +854,52 @@
     <t xml:space="preserve">23.107063293457</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1347160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7383842468262</t>
-  </si>
-  <si>
-    <t xml: